--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\data\sodankyla_cam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8427F16E-2926-4565-9FAD-CF50FC4221CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C8C481-7CDB-4525-A9AE-101F2FAB8D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{D49610C9-570A-4CC9-A688-ECF1C599658C}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="1" xr2:uid="{D49610C9-570A-4CC9-A688-ECF1C599658C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="125">
   <si>
     <t>Lompolojänkkä Peatland</t>
   </si>
@@ -1560,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E651408-387C-4106-A9DC-EC26E0A848EE}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2058,154 +2058,116 @@
       <c r="A25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43501</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43551</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43592</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43773</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43864</v>
+      </c>
+    </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="65" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="66" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="67" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C8C481-7CDB-4525-A9AE-101F2FAB8D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC315201-3813-4721-9A73-9B85B098BB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="1" xr2:uid="{D49610C9-570A-4CC9-A688-ECF1C599658C}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="19140" windowHeight="11400" activeTab="1" xr2:uid="{D49610C9-570A-4CC9-A688-ECF1C599658C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1560,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E651408-387C-4106-A9DC-EC26E0A848EE}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC315201-3813-4721-9A73-9B85B098BB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1674240-F43A-4857-A428-B255DA9FD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="19140" windowHeight="11400" activeTab="1" xr2:uid="{D49610C9-570A-4CC9-A688-ECF1C599658C}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="1" xr2:uid="{D49610C9-570A-4CC9-A688-ECF1C599658C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="125">
   <si>
     <t>Lompolojänkkä Peatland</t>
   </si>
@@ -325,15 +325,9 @@
     <t>Usable File Numbers</t>
   </si>
   <si>
-    <t>File Number</t>
-  </si>
-  <si>
     <t>FSC</t>
   </si>
   <si>
-    <t>Sodankyla Intensive Observation Area</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -410,6 +404,12 @@
   </si>
   <si>
     <t>Tree Snow</t>
+  </si>
+  <si>
+    <t>sodankyla_full</t>
+  </si>
+  <si>
+    <t>kenttarova_full</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E651408-387C-4106-A9DC-EC26E0A848EE}">
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1569,573 +1569,481 @@
     <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43477</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43489</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43551</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43568</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43580</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43630</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43841</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44357</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44386</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44447</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44459</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44550</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44579</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44670</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44720</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44992</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45004</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45021</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45124</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43477</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43489</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B25" s="1">
+        <v>43501</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="1">
         <v>43551</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43568</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43580</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43630</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43841</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43932</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43993</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44084</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44306</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44357</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44386</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44447</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44459</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44550</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44579</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44670</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44720</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44992</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45004</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45021</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24">
-        <v>35</v>
-      </c>
-      <c r="C24" s="1">
-        <v>45124</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>43501</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>43551</v>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1">
+        <v>124</v>
+      </c>
+      <c r="B27" s="1">
         <v>43592</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1">
+        <v>124</v>
+      </c>
+      <c r="B28" s="1">
         <v>43773</v>
       </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1">
-        <v>43864</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="29" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2312,29 +2220,29 @@
     <row r="206" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190112_133002_Ccam1.jpg" xr:uid="{F7E00D50-9B4E-445D-9D07-1D001CF8D6AB}"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190124_124501_Ccam1.jpg" xr:uid="{129F43C4-EF41-4796-86C0-516EBA5E5912}"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190327_123004_Ccam1.jpg" xr:uid="{E3C6F25E-BC26-400C-818B-725E1A9E89E3}"/>
-    <hyperlink ref="F5" r:id="rId4" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190413_143002_Ccam1.jpg" xr:uid="{BEBB4706-6A78-4BA6-BBAE-A66C746A84DA}"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190425_073002_Ccam1.jpg" xr:uid="{7379D225-FCFC-406F-A107-FCD916D4FFCE}"/>
-    <hyperlink ref="F7" r:id="rId6" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190614_120002_Ccam1.jpg" xr:uid="{93EFA539-4049-4039-94E8-DCFA6F903A50}"/>
-    <hyperlink ref="F8" r:id="rId7" display="https://litdb.fmi.fi/data/webcam/Ccam1/2020/200111_100002_Ccam1.jpg" xr:uid="{173E0F8F-045C-46AC-A714-A89708AFE111}"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://litdb.fmi.fi/data/webcam/Ccam1/2020/200411_160002_Ccam1.jpg" xr:uid="{52914D73-426F-4D48-AC69-A7FF3703497B}"/>
-    <hyperlink ref="F10" r:id="rId9" display="https://litdb.fmi.fi/data/webcam/Ccam1/2020/200611_131502_Ccam1.jpg" xr:uid="{52E08B2A-96B0-44B1-9C2E-C6F6CF1961C0}"/>
-    <hyperlink ref="F11" r:id="rId10" display="https://litdb.fmi.fi/data/webcam/Ccam1/2020/200910_164501_Ccam1.jpg" xr:uid="{41C3E6A6-2BCA-49D1-AF31-21F2B6CAE80A}"/>
-    <hyperlink ref="F12" r:id="rId11" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/210420_070002_Ccam1.jpg" xr:uid="{40108110-95B0-4503-B8A0-F0592F9BB2AF}"/>
-    <hyperlink ref="F13" r:id="rId12" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/210610_150002_Ccam1.jpg" xr:uid="{A2E424E6-892B-4BE6-8BAF-4819B7030EE4}"/>
-    <hyperlink ref="F14" r:id="rId13" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/210709_151502_Ccam1.jpg" xr:uid="{27620E8D-1F24-4D0C-8D97-703E8135CB87}"/>
-    <hyperlink ref="F15" r:id="rId14" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/210908_151502_Ccam1.jpg" xr:uid="{B95E404D-BD0A-4178-AB45-E2C9402CD218}"/>
-    <hyperlink ref="F16" r:id="rId15" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/210920_101502_Ccam1.jpg" xr:uid="{AD01C596-ABA8-453C-BE09-E104768F661D}"/>
-    <hyperlink ref="F17" r:id="rId16" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/211220_140002_Ccam1.jpg" xr:uid="{6E04B2BE-062A-4A04-839C-D6416798150D}"/>
-    <hyperlink ref="F18" r:id="rId17" display="https://litdb.fmi.fi/data/webcam/Ccam1/2022/220118_121502_Ccam1.jpg" xr:uid="{92717F46-E58B-45FC-BD7C-42BC0D96FCA6}"/>
-    <hyperlink ref="F19" r:id="rId18" display="https://litdb.fmi.fi/data/webcam/Ccam1/2022/220419_130002_Ccam1.jpg" xr:uid="{C50DC52D-2A31-47C8-9F69-D454C1C1350E}"/>
-    <hyperlink ref="F21" r:id="rId19" display="https://litdb.fmi.fi/data/webcam/Ccam1/2023/230307_100002_Ccam1.jpg" xr:uid="{95B9BE43-8D32-40A9-BBA0-179AD643BB55}"/>
-    <hyperlink ref="F22" r:id="rId20" display="https://litdb.fmi.fi/data/webcam/Ccam1/2023/230319_144502_Ccam1.jpg" xr:uid="{9AB7DB83-DE78-455B-89BD-9569AD45F3A0}"/>
-    <hyperlink ref="F20" r:id="rId21" display="https://litdb.fmi.fi/data/webcam/Ccam1/2022/220608_161501_Ccam1.jpg" xr:uid="{E559286A-AFA2-4375-AD71-0F7A128BD6B9}"/>
-    <hyperlink ref="F23" r:id="rId22" display="https://litdb.fmi.fi/data/webcam/Ccam1/2023/230405_140002_Ccam1.jpg" xr:uid="{212D602B-24E3-4D9D-B883-3D77A4D04881}"/>
-    <hyperlink ref="F24" r:id="rId23" display="https://litdb.fmi.fi/data/webcam/Ccam1/2023/230717_110002_Ccam1.jpg" xr:uid="{DCD013AD-D4F2-4ED9-880C-2EDB79F5C5D4}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190112_133002_Ccam1.jpg" xr:uid="{F7E00D50-9B4E-445D-9D07-1D001CF8D6AB}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190124_124501_Ccam1.jpg" xr:uid="{129F43C4-EF41-4796-86C0-516EBA5E5912}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190327_123004_Ccam1.jpg" xr:uid="{E3C6F25E-BC26-400C-818B-725E1A9E89E3}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190413_143002_Ccam1.jpg" xr:uid="{BEBB4706-6A78-4BA6-BBAE-A66C746A84DA}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190425_073002_Ccam1.jpg" xr:uid="{7379D225-FCFC-406F-A107-FCD916D4FFCE}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://litdb.fmi.fi/data/webcam/Ccam1/2019/190614_120002_Ccam1.jpg" xr:uid="{93EFA539-4049-4039-94E8-DCFA6F903A50}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://litdb.fmi.fi/data/webcam/Ccam1/2020/200111_100002_Ccam1.jpg" xr:uid="{173E0F8F-045C-46AC-A714-A89708AFE111}"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://litdb.fmi.fi/data/webcam/Ccam1/2020/200411_160002_Ccam1.jpg" xr:uid="{52914D73-426F-4D48-AC69-A7FF3703497B}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://litdb.fmi.fi/data/webcam/Ccam1/2020/200611_131502_Ccam1.jpg" xr:uid="{52E08B2A-96B0-44B1-9C2E-C6F6CF1961C0}"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://litdb.fmi.fi/data/webcam/Ccam1/2020/200910_164501_Ccam1.jpg" xr:uid="{41C3E6A6-2BCA-49D1-AF31-21F2B6CAE80A}"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/210420_070002_Ccam1.jpg" xr:uid="{40108110-95B0-4503-B8A0-F0592F9BB2AF}"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/210610_150002_Ccam1.jpg" xr:uid="{A2E424E6-892B-4BE6-8BAF-4819B7030EE4}"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/210709_151502_Ccam1.jpg" xr:uid="{27620E8D-1F24-4D0C-8D97-703E8135CB87}"/>
+    <hyperlink ref="E15" r:id="rId14" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/210908_151502_Ccam1.jpg" xr:uid="{B95E404D-BD0A-4178-AB45-E2C9402CD218}"/>
+    <hyperlink ref="E16" r:id="rId15" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/210920_101502_Ccam1.jpg" xr:uid="{AD01C596-ABA8-453C-BE09-E104768F661D}"/>
+    <hyperlink ref="E17" r:id="rId16" display="https://litdb.fmi.fi/data/webcam/Ccam1/2021/211220_140002_Ccam1.jpg" xr:uid="{6E04B2BE-062A-4A04-839C-D6416798150D}"/>
+    <hyperlink ref="E18" r:id="rId17" display="https://litdb.fmi.fi/data/webcam/Ccam1/2022/220118_121502_Ccam1.jpg" xr:uid="{92717F46-E58B-45FC-BD7C-42BC0D96FCA6}"/>
+    <hyperlink ref="E19" r:id="rId18" display="https://litdb.fmi.fi/data/webcam/Ccam1/2022/220419_130002_Ccam1.jpg" xr:uid="{C50DC52D-2A31-47C8-9F69-D454C1C1350E}"/>
+    <hyperlink ref="E21" r:id="rId19" display="https://litdb.fmi.fi/data/webcam/Ccam1/2023/230307_100002_Ccam1.jpg" xr:uid="{95B9BE43-8D32-40A9-BBA0-179AD643BB55}"/>
+    <hyperlink ref="E22" r:id="rId20" display="https://litdb.fmi.fi/data/webcam/Ccam1/2023/230319_144502_Ccam1.jpg" xr:uid="{9AB7DB83-DE78-455B-89BD-9569AD45F3A0}"/>
+    <hyperlink ref="E20" r:id="rId21" display="https://litdb.fmi.fi/data/webcam/Ccam1/2022/220608_161501_Ccam1.jpg" xr:uid="{E559286A-AFA2-4375-AD71-0F7A128BD6B9}"/>
+    <hyperlink ref="E23" r:id="rId22" display="https://litdb.fmi.fi/data/webcam/Ccam1/2023/230405_140002_Ccam1.jpg" xr:uid="{212D602B-24E3-4D9D-B883-3D77A4D04881}"/>
+    <hyperlink ref="E24" r:id="rId23" display="https://litdb.fmi.fi/data/webcam/Ccam1/2023/230717_110002_Ccam1.jpg" xr:uid="{DCD013AD-D4F2-4ED9-880C-2EDB79F5C5D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1674240-F43A-4857-A428-B255DA9FD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF75EA29-7839-4A63-9CC7-562FE34F63F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="1" xr2:uid="{D49610C9-570A-4CC9-A688-ECF1C599658C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{D49610C9-570A-4CC9-A688-ECF1C599658C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="128">
   <si>
     <t>Lompolojänkkä Peatland</t>
   </si>
@@ -410,6 +410,15 @@
   </si>
   <si>
     <t>kenttarova_full</t>
+  </si>
+  <si>
+    <t>Coords</t>
+  </si>
+  <si>
+    <t>(26.634154, 67.361833)</t>
+  </si>
+  <si>
+    <t>(24.242983, 67.987283)</t>
   </si>
 </sst>
 </file>
@@ -1558,23 +1567,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E651408-387C-4106-A9DC-EC26E0A848EE}">
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" customWidth="1"/>
     <col min="5" max="5" width="42.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1590,8 +1599,11 @@
       <c r="E1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -1607,8 +1619,11 @@
       <c r="E2" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -1624,8 +1639,11 @@
       <c r="E3" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -1641,8 +1659,11 @@
       <c r="E4" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -1658,8 +1679,11 @@
       <c r="E5" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -1675,8 +1699,11 @@
       <c r="E6" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -1692,8 +1719,11 @@
       <c r="E7" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -1709,8 +1739,11 @@
       <c r="E8" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -1726,8 +1759,11 @@
       <c r="E9" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -1743,8 +1779,11 @@
       <c r="E10" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -1760,8 +1799,11 @@
       <c r="E11" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -1777,8 +1819,11 @@
       <c r="E12" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -1794,8 +1839,11 @@
       <c r="E13" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -1811,8 +1859,11 @@
       <c r="E14" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -1828,8 +1879,11 @@
       <c r="E15" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -1845,8 +1899,11 @@
       <c r="E16" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -1862,8 +1919,11 @@
       <c r="E17" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -1879,8 +1939,11 @@
       <c r="E18" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -1896,8 +1959,11 @@
       <c r="E19" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -1913,8 +1979,11 @@
       <c r="E20" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -1930,8 +1999,11 @@
       <c r="E21" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -1947,8 +2019,11 @@
       <c r="E22" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -1964,8 +2039,11 @@
       <c r="E23" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -1981,8 +2059,11 @@
       <c r="E24" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -1995,8 +2076,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -2009,8 +2093,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -2023,8 +2110,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -2037,13 +2127,16 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -834,19 +834,19 @@
   </sheetPr>
   <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="8.89"/>
   </cols>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>71</v>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -834,17 +834,17 @@
   </sheetPr>
   <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.44"/>
@@ -3010,6 +3010,12 @@
       </c>
       <c r="B81" s="3" t="n">
         <v>45317.2014930556</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="0" t="n">

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -605,9 +605,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -724,7 +725,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -742,6 +743,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -834,11 +839,11 @@
   </sheetPr>
   <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
@@ -882,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>43477.9055439815</v>
+        <v>43477</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
@@ -902,14 +907,15 @@
       <c r="H2" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>43489.3571064815</v>
+        <v>43489</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>1</v>
@@ -929,14 +935,15 @@
       <c r="H3" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>43551.2347222222</v>
+        <v>43551</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -956,14 +963,15 @@
       <c r="H4" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>43568.7249305556</v>
+        <v>43568</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>1</v>
@@ -983,19 +991,20 @@
       <c r="H5" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>43580.1763888889</v>
+        <v>43580</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1010,14 +1019,15 @@
       <c r="H6" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>43630.6024421296</v>
+        <v>43630</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0</v>
@@ -1037,14 +1047,15 @@
       <c r="H7" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>43642.053900463</v>
+        <v>43642</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0</v>
@@ -1064,14 +1075,15 @@
       <c r="H8" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>43761.815</v>
+        <v>43761</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0.9</v>
@@ -1091,14 +1103,15 @@
       <c r="H9" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>43841.1827662037</v>
+        <v>43841</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1</v>
@@ -1118,14 +1131,15 @@
       <c r="H10" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>43852.6342476852</v>
+        <v>43852</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1</v>
@@ -1145,14 +1159,15 @@
       <c r="H11" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>43914.5118171296</v>
+        <v>43914</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1</v>
@@ -1172,14 +1187,15 @@
       <c r="H12" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>43932.0020601852</v>
+        <v>43932</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1</v>
@@ -1199,14 +1215,15 @@
       <c r="H13" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>43943.4535648148</v>
+        <v>43943</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1</v>
@@ -1226,14 +1243,15 @@
       <c r="H14" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>43993.8796527778</v>
+        <v>43993</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0</v>
@@ -1253,14 +1271,15 @@
       <c r="H15" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>44005.3311458333</v>
+        <v>44005</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0</v>
@@ -1280,16 +1299,17 @@
       <c r="H16" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>44022.8213425926</v>
-      </c>
-      <c r="C17" s="6" t="n">
+        <v>44022</v>
+      </c>
+      <c r="C17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
@@ -1307,16 +1327,17 @@
       <c r="H17" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>44084.6989699074</v>
-      </c>
-      <c r="C18" s="6" t="n">
+        <v>44084</v>
+      </c>
+      <c r="C18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -1334,16 +1355,17 @@
       <c r="H18" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>44125.0921296296</v>
-      </c>
-      <c r="C19" s="6" t="n">
+        <v>44125</v>
+      </c>
+      <c r="C19" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -1361,16 +1383,17 @@
       <c r="H19" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>44295.279375</v>
-      </c>
-      <c r="C20" s="6" t="n">
+        <v>44295</v>
+      </c>
+      <c r="C20" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="0" t="n">
@@ -1388,16 +1411,17 @@
       <c r="H20" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>44306.7308680556</v>
-      </c>
-      <c r="C21" s="6" t="n">
+        <v>44306</v>
+      </c>
+      <c r="C21" s="7" t="n">
         <v>0.9</v>
       </c>
       <c r="D21" s="0" t="n">
@@ -1415,14 +1439,15 @@
       <c r="H21" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>44357.1570138889</v>
+        <v>44357</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0</v>
@@ -1442,14 +1467,15 @@
       <c r="H22" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>44386.0987037037</v>
+        <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0</v>
@@ -1469,14 +1495,15 @@
       <c r="H23" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>44397.5501967593</v>
+        <v>44397</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0</v>
@@ -1496,14 +1523,15 @@
       <c r="H24" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>44447.976400463</v>
+        <v>44447</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0</v>
@@ -1523,14 +1551,15 @@
       <c r="H25" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>44459.4278819444</v>
+        <v>44459</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0</v>
@@ -1550,14 +1579,15 @@
       <c r="H26" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>44476.9181365741</v>
+        <v>44476</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0</v>
@@ -1577,14 +1607,15 @@
       <c r="H27" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>44550.2472800926</v>
+        <v>44550</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>1</v>
@@ -1604,14 +1635,15 @@
       <c r="H28" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>44579.1889930556</v>
+        <v>44579</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>1</v>
@@ -1631,14 +1663,15 @@
       <c r="H29" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>44670.0082638889</v>
+        <v>44670</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>1</v>
@@ -1658,14 +1691,15 @@
       <c r="H30" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>44720.4345023148</v>
+        <v>44720</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0</v>
@@ -1685,14 +1719,15 @@
       <c r="H31" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>44749.3762731482</v>
+        <v>44749</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0</v>
@@ -1712,14 +1747,15 @@
       <c r="H32" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>44760.8277430556</v>
+        <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>0</v>
@@ -1739,14 +1775,15 @@
       <c r="H33" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>44851.6470717593</v>
+        <v>44851</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>0</v>
@@ -1766,14 +1803,15 @@
       <c r="H34" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>44992.8924768519</v>
+        <v>44992</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>1</v>
@@ -1793,14 +1831,15 @@
       <c r="H35" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>45004.3440393519</v>
+        <v>45004</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>1</v>
@@ -1820,14 +1859,15 @@
       <c r="H36" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>45021.8342476852</v>
+        <v>45021</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>1</v>
@@ -1847,14 +1887,15 @@
       <c r="H37" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>45033.285625</v>
+        <v>45033</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>1</v>
@@ -1874,14 +1915,15 @@
       <c r="H38" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>45095.1629513889</v>
+        <v>45095</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>0</v>
@@ -1901,14 +1943,15 @@
       <c r="H39" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>45112.6531018519</v>
+        <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>0</v>
@@ -1928,14 +1971,15 @@
       <c r="H40" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>45124.1045023148</v>
+        <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>0</v>
@@ -1955,14 +1999,15 @@
       <c r="H41" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>45174.530462963</v>
+        <v>45174</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>0</v>
@@ -1982,14 +2027,15 @@
       <c r="H42" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>45203.4721759259</v>
+        <v>45203</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>0</v>
@@ -2009,14 +2055,15 @@
       <c r="H43" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>45294.291412037</v>
+        <v>45294</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>1</v>
@@ -2036,14 +2083,15 @@
       <c r="H44" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>45305.7427777778</v>
+        <v>45305</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>1</v>
@@ -2063,14 +2111,15 @@
       <c r="H45" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>45367.6201388889</v>
+        <v>45367</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>1</v>
@@ -2090,14 +2139,15 @@
       <c r="H46" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="K46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>45385.1103935185</v>
+        <v>45385</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>1</v>
@@ -2117,14 +2167,15 @@
       <c r="H47" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>45389.1046180556</v>
+        <v>45389</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>1</v>
@@ -2144,14 +2195,15 @@
       <c r="H48" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="K48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>45396.5618171296</v>
+        <v>45396</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>1</v>
@@ -2171,14 +2223,15 @@
       <c r="H49" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="K49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>45487.3810069444</v>
+        <v>45487</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>0</v>
@@ -2198,7 +2251,8 @@
       <c r="H50" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="K50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -2225,14 +2279,15 @@
       <c r="H51" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="K51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>43419.4984722222</v>
+        <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>1</v>
@@ -2252,14 +2307,15 @@
       <c r="H52" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>43591.6351851852</v>
+        <v>43591</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>0</v>
@@ -2279,14 +2335,15 @@
       <c r="H53" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="K53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>43601.1369560185</v>
+        <v>43601</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>0</v>
@@ -2306,14 +2363,15 @@
       <c r="H54" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="K54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>43720.8979398148</v>
+        <v>43720</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>0</v>
@@ -2333,14 +2391,15 @@
       <c r="H55" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="K55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>43835.1513657407</v>
+        <v>43835</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>1</v>
@@ -2360,14 +2419,15 @@
       <c r="H56" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="K56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>43902.5365625</v>
+        <v>43902</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>1</v>
@@ -2387,14 +2447,15 @@
       <c r="H57" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="K57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>43954.9123611111</v>
+        <v>43954</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>0.3</v>
@@ -2414,14 +2475,15 @@
       <c r="H58" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>43964.4141666667</v>
+        <v>43964</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>0</v>
@@ -2441,14 +2503,15 @@
       <c r="H59" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="K59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>44016.7899421296</v>
+        <v>44016</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>0</v>
@@ -2468,14 +2531,15 @@
       <c r="H60" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="K60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>44055.2334375</v>
+        <v>44055</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>0</v>
@@ -2495,14 +2559,15 @@
       <c r="H61" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="K61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>44136.5509722222</v>
+        <v>44136</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>1</v>
@@ -2522,14 +2587,15 @@
       <c r="H62" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="K62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>44146.0527546296</v>
+        <v>44146</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>1</v>
@@ -2549,14 +2615,15 @@
       <c r="H63" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="K63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>44198.4286226852</v>
+        <v>44198</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>1</v>
@@ -2576,14 +2643,15 @@
       <c r="H64" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="K64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>44236.8721412037</v>
+        <v>44236</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>1</v>
@@ -2603,14 +2671,15 @@
       <c r="H65" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="K65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>44318.1896759259</v>
+        <v>44318</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>0.3</v>
@@ -2630,14 +2699,15 @@
       <c r="H66" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="K66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>44327.6914814815</v>
+        <v>44327</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>0</v>
@@ -2657,14 +2727,15 @@
       <c r="H67" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="K67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>44409.0090277778</v>
+        <v>44409</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>0</v>
@@ -2684,14 +2755,15 @@
       <c r="H68" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="K68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>44681.4671180556</v>
+        <v>44681</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>0.9</v>
@@ -2711,14 +2783,15 @@
       <c r="H69" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="K69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>44690.9688773148</v>
+        <v>44690</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>0.7</v>
@@ -2738,14 +2811,15 @@
       <c r="H70" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="K70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>44772.2865972222</v>
+        <v>44772</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>0</v>
@@ -2765,14 +2839,15 @@
       <c r="H71" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="K71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>44863.1058449074</v>
+        <v>44863</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>1</v>
@@ -2792,14 +2867,15 @@
       <c r="H72" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="K72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>44953.9251736111</v>
+        <v>44953</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>1</v>
@@ -2819,14 +2895,15 @@
       <c r="H73" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="K73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>44963.4269444444</v>
+        <v>44963</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>1</v>
@@ -2846,14 +2923,15 @@
       <c r="H74" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="K74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>45044.744375</v>
+        <v>45044</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>1</v>
@@ -2873,13 +2951,14 @@
       <c r="H75" s="0" t="n">
         <v>504</v>
       </c>
+      <c r="I75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>45054.2461805556</v>
+        <v>45054</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>0.8</v>
@@ -2899,13 +2978,14 @@
       <c r="H76" s="0" t="n">
         <v>504</v>
       </c>
+      <c r="I76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>45135.563275463</v>
+        <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>0</v>
@@ -2925,13 +3005,14 @@
       <c r="H77" s="0" t="n">
         <v>504</v>
       </c>
+      <c r="I77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>45145.0650462963</v>
+        <v>45145</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>0</v>
@@ -2951,13 +3032,14 @@
       <c r="H78" s="0" t="n">
         <v>504</v>
       </c>
+      <c r="I78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>45197.4407060185</v>
+        <v>45197</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>0.5</v>
@@ -2977,13 +3059,14 @@
       <c r="H79" s="0" t="n">
         <v>504</v>
       </c>
+      <c r="I79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>45226.3825810185</v>
+        <v>45226</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>1</v>
@@ -3003,13 +3086,14 @@
       <c r="H80" s="0" t="n">
         <v>504</v>
       </c>
+      <c r="I80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>45317.2014930556</v>
+        <v>45317</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>1</v>
@@ -3027,13 +3111,14 @@
       <c r="H81" s="0" t="n">
         <v>504</v>
       </c>
+      <c r="I81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>45408.0205439815</v>
+        <v>45408</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>0.3</v>
@@ -3053,13 +3138,14 @@
       <c r="H82" s="0" t="n">
         <v>504</v>
       </c>
+      <c r="I82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>45498.8398032407</v>
+        <v>45498</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>0</v>
@@ -3079,13 +3165,14 @@
       <c r="H83" s="0" t="n">
         <v>504</v>
       </c>
+      <c r="I83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>43408.370775463</v>
+        <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>0</v>
@@ -3105,13 +3192,14 @@
       <c r="H84" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>43550.5740277778</v>
+        <v>43550</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>1</v>
@@ -3131,13 +3219,14 @@
       <c r="H85" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>43732.2125810185</v>
+        <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>0</v>
@@ -3157,13 +3246,14 @@
       <c r="H86" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>43823.031875</v>
+        <v>43823</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>1</v>
@@ -3183,13 +3273,14 @@
       <c r="H87" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>43862.4671990741</v>
+        <v>43862</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>1</v>
@@ -3209,13 +3300,14 @@
       <c r="H88" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>43953.2864814815</v>
+        <v>43953</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>0</v>
@@ -3235,13 +3327,14 @@
       <c r="H89" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>44004.6704398148</v>
+        <v>44004</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>0</v>
@@ -3261,13 +3354,14 @@
       <c r="H90" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>44044.105787037</v>
+        <v>44044</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>0</v>
@@ -3287,13 +3381,14 @@
       <c r="H91" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>44095.4897569444</v>
+        <v>44095</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>0</v>
@@ -3313,13 +3408,14 @@
       <c r="H92" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>44134.9251041667</v>
+        <v>44134</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>0.8</v>
@@ -3339,13 +3435,14 @@
       <c r="H93" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>44225.7444791667</v>
+        <v>44225</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>1</v>
@@ -3365,13 +3462,14 @@
       <c r="H94" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>44248.1867592593</v>
+        <v>44248</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>1</v>
@@ -3391,13 +3489,14 @@
       <c r="H95" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>44316.5637962963</v>
+        <v>44316</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>0</v>
@@ -3417,13 +3516,14 @@
       <c r="H96" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>44407.3831712963</v>
+        <v>44407</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>0</v>
@@ -3443,13 +3543,14 @@
       <c r="H97" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>44458.7671875</v>
+        <v>44458</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>0</v>
@@ -3469,13 +3570,14 @@
       <c r="H98" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>44520.6449074074</v>
+        <v>44520</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>0.9</v>
@@ -3495,13 +3597,14 @@
       <c r="H99" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>44640.4059375</v>
+        <v>44640</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>1</v>
@@ -3521,13 +3624,14 @@
       <c r="H100" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>44731.2253009259</v>
+        <v>44731</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>0</v>
@@ -3547,13 +3651,14 @@
       <c r="H101" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>44770.6606944444</v>
+        <v>44770</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>0</v>
@@ -3573,13 +3678,14 @@
       <c r="H102" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>44822.0446875</v>
+        <v>44822</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>0</v>
@@ -3599,13 +3705,14 @@
       <c r="H103" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>44861.4799768519</v>
+        <v>44861</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>0</v>
@@ -3625,13 +3732,14 @@
       <c r="H104" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>44952.2993865741</v>
+        <v>44952</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>1</v>
@@ -3651,13 +3759,14 @@
       <c r="H105" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>45003.6833217593</v>
+        <v>45003</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>1</v>
@@ -3677,13 +3786,14 @@
       <c r="H106" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>45094.5022569444</v>
+        <v>45094</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>0</v>
@@ -3703,13 +3813,14 @@
       <c r="H107" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>45133.9374074074</v>
+        <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>0</v>
@@ -3729,13 +3840,14 @@
       <c r="H108" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>45406.3947453704</v>
+        <v>45406</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>0</v>
@@ -3755,13 +3867,14 @@
       <c r="H109" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>45497.2139699074</v>
+        <v>45497</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>0</v>
@@ -3781,13 +3894,14 @@
       <c r="H110" s="0" t="n">
         <v>413</v>
       </c>
+      <c r="I110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>43591.4328472222</v>
+        <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>0.2</v>
@@ -3807,13 +3921,14 @@
       <c r="H111" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>43659.8096875</v>
+        <v>43659</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>0</v>
@@ -3833,13 +3948,14 @@
       <c r="H112" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>43688.7514930556</v>
+        <v>43688</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>0</v>
@@ -3859,13 +3975,14 @@
       <c r="H113" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>43711.1937962963</v>
+        <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>0</v>
@@ -3885,13 +4002,14 @@
       <c r="H114" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>43802.013125</v>
+        <v>43802</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>2</v>
@@ -3911,13 +4029,14 @@
       <c r="H115" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>43863.8907175926</v>
+        <v>43863</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>1</v>
@@ -3937,13 +4056,14 @@
       <c r="H116" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>43932.2677430556</v>
+        <v>43932</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>1</v>
@@ -3963,13 +4083,14 @@
       <c r="H117" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>43983.651724537</v>
+        <v>43983</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>0</v>
@@ -3989,13 +4110,14 @@
       <c r="H118" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>44023.087025463</v>
+        <v>44023</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>0</v>
@@ -4015,13 +4137,14 @@
       <c r="H119" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>44045.5293171296</v>
+        <v>44045</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>0</v>
@@ -4041,13 +4164,14 @@
       <c r="H120" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>44227.1680092593</v>
+        <v>44227</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>1</v>
@@ -4067,13 +4191,14 @@
       <c r="H121" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>44233.6674421296</v>
+        <v>44233</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>1</v>
@@ -4093,13 +4218,14 @@
       <c r="H122" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>44295.5450578704</v>
+        <v>44295</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>0.3</v>
@@ -4119,13 +4245,14 @@
       <c r="H123" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>44408.8066898148</v>
+        <v>44408</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>0</v>
@@ -4145,13 +4272,14 @@
       <c r="H124" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>44710.2065509259</v>
+        <v>44710</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>0</v>
@@ -4171,13 +4299,14 @@
       <c r="H125" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>44749.6419560185</v>
+        <v>44749</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>0</v>
@@ -4197,13 +4326,14 @@
       <c r="H126" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>44801.0259953704</v>
+        <v>44801</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>0</v>
@@ -4223,13 +4353,14 @@
       <c r="H127" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>44840.4611921296</v>
+        <v>44840</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>0</v>
@@ -4249,13 +4380,14 @@
       <c r="H128" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>44862.9034837963</v>
+        <v>44862</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>0</v>
@@ -4275,13 +4407,14 @@
       <c r="H129" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>44953.7228125</v>
+        <v>44953</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="0" t="n">
@@ -4293,13 +4426,14 @@
       <c r="H130" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>45112.9187731482</v>
+        <v>45112</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>0</v>
@@ -4319,13 +4453,14 @@
       <c r="H131" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>45203.7378703704</v>
+        <v>45203</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>0</v>
@@ -4345,13 +4480,14 @@
       <c r="H132" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>45385.3760648148</v>
+        <v>45385</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>1</v>
@@ -4371,13 +4507,14 @@
       <c r="H133" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>45476.1953587963</v>
+        <v>45476</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>0</v>
@@ -4397,13 +4534,14 @@
       <c r="H134" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="I134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>43434.0383796296</v>
+        <v>43434</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>1</v>
@@ -4423,14 +4561,15 @@
       <c r="H135" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="K135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>43518.3584143519</v>
+        <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>1</v>
@@ -4450,14 +4589,15 @@
       <c r="H136" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="K136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>43524.8578472222</v>
+        <v>43524</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>0.8</v>
@@ -4477,14 +4617,15 @@
       <c r="H137" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="K137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>43609.1775925926</v>
+        <v>43609</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>0.1</v>
@@ -4504,14 +4645,15 @@
       <c r="H138" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="K138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>43615.6770023148</v>
+        <v>43615</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>0</v>
@@ -4531,14 +4673,15 @@
       <c r="H139" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="K139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>43735.4380671296</v>
+        <v>43735</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>0</v>
@@ -4558,14 +4701,15 @@
       <c r="H140" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="K140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>43881.6355092593</v>
+        <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>1</v>
@@ -4585,14 +4729,15 @@
       <c r="H141" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="K141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>43888.1349189815</v>
+        <v>43888</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>1</v>
@@ -4612,14 +4757,15 @@
       <c r="H142" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="K142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>43972.454837963</v>
+        <v>43972</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>0</v>
@@ -4639,14 +4785,15 @@
       <c r="H143" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="K143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>44063.2741087963</v>
+        <v>44063</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>0</v>
@@ -4666,14 +4813,15 @@
       <c r="H144" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="K144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>44069.7735300926</v>
+        <v>44069</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>0</v>
@@ -4693,14 +4841,15 @@
       <c r="H145" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="K145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B146" s="3" t="n">
-        <v>44154.0934259259</v>
+        <v>44154</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>0</v>
@@ -4720,14 +4869,15 @@
       <c r="H146" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="K146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B147" s="3" t="n">
-        <v>44160.5928703704</v>
+        <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>0</v>
@@ -4747,14 +4897,15 @@
       <c r="H147" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="K147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B148" s="3" t="n">
-        <v>44244.9128009259</v>
+        <v>44244</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>1</v>
@@ -4774,14 +4925,15 @@
       <c r="H148" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="K148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B149" s="3" t="n">
-        <v>44342.2315625</v>
+        <v>44342</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>0</v>
@@ -4801,14 +4953,15 @@
       <c r="H149" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="K149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B150" s="3" t="n">
-        <v>44426.5515162037</v>
+        <v>44426</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>0</v>
@@ -4828,14 +4981,15 @@
       <c r="H150" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="K150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B151" s="3" t="n">
-        <v>44433.0509490741</v>
+        <v>44433</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>0</v>
@@ -4855,14 +5009,15 @@
       <c r="H151" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="K151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B152" s="3" t="n">
-        <v>44608.1902430556</v>
+        <v>44608</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>0.7</v>
@@ -4882,14 +5037,15 @@
       <c r="H152" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="K152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B153" s="3" t="n">
-        <v>44614.6896990741</v>
+        <v>44614</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>1</v>
@@ -4909,14 +5065,15 @@
       <c r="H153" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="K153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="K153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B154" s="3" t="n">
-        <v>44705.5090046296</v>
+        <v>44705</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>0</v>
@@ -4936,13 +5093,14 @@
       <c r="H154" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I154" s="5"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B155" s="3" t="n">
-        <v>44789.8290393519</v>
+        <v>44789</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>0</v>
@@ -4962,13 +5120,14 @@
       <c r="H155" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I155" s="5"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B156" s="3" t="n">
-        <v>44796.3284953704</v>
+        <v>44796</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>0</v>
@@ -4988,13 +5147,14 @@
       <c r="H156" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I156" s="5"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B157" s="3" t="n">
-        <v>44971.4676041667</v>
+        <v>44971</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>1</v>
@@ -5012,13 +5172,14 @@
       <c r="H157" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I157" s="5"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B158" s="3" t="n">
-        <v>44977.9670023148</v>
+        <v>44977</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>1</v>
@@ -5036,13 +5197,14 @@
       <c r="H158" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I158" s="5"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B159" s="3" t="n">
-        <v>45062.2867824074</v>
+        <v>45062</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>0</v>
@@ -5060,13 +5222,14 @@
       <c r="H159" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I159" s="5"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B160" s="3" t="n">
-        <v>45068.7862152778</v>
+        <v>45068</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>0</v>
@@ -5084,13 +5247,14 @@
       <c r="H160" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I160" s="5"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B161" s="3" t="n">
-        <v>45153.1056944444</v>
+        <v>45153</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>0</v>
@@ -5108,13 +5272,14 @@
       <c r="H161" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I161" s="5"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B162" s="3" t="n">
-        <v>45159.6050462963</v>
+        <v>45159</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>0</v>
@@ -5132,13 +5297,14 @@
       <c r="H162" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I162" s="5"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B163" s="3" t="n">
-        <v>45243.9248958333</v>
+        <v>45243</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>0</v>
@@ -5156,13 +5322,14 @@
       <c r="H163" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I163" s="5"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B164" s="3" t="n">
-        <v>45250.4243865741</v>
+        <v>45250</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="0" t="n">
@@ -5174,13 +5341,14 @@
       <c r="H164" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I164" s="5"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B165" s="3" t="n">
-        <v>45334.7439351852</v>
+        <v>45334</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="0" t="n">
@@ -5192,13 +5360,14 @@
       <c r="H165" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B166" s="3" t="n">
-        <v>45341.2433564815</v>
+        <v>45341</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="0" t="n">
@@ -5210,13 +5379,14 @@
       <c r="H166" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="I166" s="5"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="n">
-        <v>43490.2849305556</v>
+        <v>43490</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>0.1</v>
@@ -5236,14 +5406,15 @@
       <c r="H167" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="K167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="3" t="n">
-        <v>43636.4822916667</v>
+        <v>43636</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>0</v>
@@ -5263,14 +5434,15 @@
       <c r="H168" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="K168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B169" s="3" t="n">
-        <v>43671.9233680556</v>
+        <v>43671</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>0</v>
@@ -5290,14 +5462,15 @@
       <c r="H169" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="K169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B170" s="3" t="n">
-        <v>43700.8651388889</v>
+        <v>43700</v>
       </c>
       <c r="C170" s="1" t="n">
         <v>0</v>
@@ -5317,14 +5490,15 @@
       <c r="H170" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="K170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B171" s="3" t="n">
-        <v>43727.3016319444</v>
+        <v>43727</v>
       </c>
       <c r="C171" s="1" t="n">
         <v>0</v>
@@ -5344,14 +5518,15 @@
       <c r="H171" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="K171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B172" s="3" t="n">
-        <v>43762.7428009259</v>
+        <v>43762</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>0</v>
@@ -5368,14 +5543,15 @@
       <c r="H172" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="K172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B173" s="3" t="n">
-        <v>43853.5620601852</v>
+        <v>43853</v>
       </c>
       <c r="C173" s="1" t="n">
         <v>0.8</v>
@@ -5395,14 +5571,15 @@
       <c r="H173" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="K173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B174" s="3" t="n">
-        <v>43879.9985300926</v>
+        <v>43879</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>0</v>
@@ -5422,14 +5599,15 @@
       <c r="H174" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="K174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B175" s="3" t="n">
-        <v>43944.3813888889</v>
+        <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
         <v>0</v>
@@ -5449,14 +5627,15 @@
       <c r="H175" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="K175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B176" s="3" t="n">
-        <v>43999.759525463</v>
+        <v>43999</v>
       </c>
       <c r="C176" s="1" t="n">
         <v>0</v>
@@ -5476,14 +5655,15 @@
       <c r="H176" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="K176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B177" s="3" t="n">
-        <v>44035.2006597222</v>
+        <v>44035</v>
       </c>
       <c r="C177" s="1" t="n">
         <v>0</v>
@@ -5503,14 +5683,15 @@
       <c r="H177" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="K177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B178" s="3" t="n">
-        <v>44126.0199421296</v>
+        <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
         <v>0</v>
@@ -5530,14 +5711,15 @@
       <c r="H178" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="K178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B179" s="3" t="n">
-        <v>44243.2758217593</v>
+        <v>44243</v>
       </c>
       <c r="C179" s="1" t="n">
         <v>1</v>
@@ -5557,14 +5739,15 @@
       <c r="H179" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="K179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B180" s="3" t="n">
-        <v>44307.6586689815</v>
+        <v>44307</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>0</v>
@@ -5584,14 +5767,15 @@
       <c r="H180" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="K180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B181" s="3" t="n">
-        <v>44363.0368634259</v>
+        <v>44363</v>
       </c>
       <c r="C181" s="1" t="n">
         <v>0</v>
@@ -5611,14 +5795,15 @@
       <c r="H181" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="K181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B182" s="3" t="n">
-        <v>44398.4780092593</v>
+        <v>44398</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>0</v>
@@ -5638,14 +5823,15 @@
       <c r="H182" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="K182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B183" s="3" t="n">
-        <v>44453.8562615741</v>
+        <v>44453</v>
       </c>
       <c r="C183" s="1" t="n">
         <v>0</v>
@@ -5665,14 +5851,15 @@
       <c r="H183" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="K183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B184" s="3" t="n">
-        <v>44515.7339699074</v>
+        <v>44515</v>
       </c>
       <c r="C184" s="1" t="n">
         <v>0</v>
@@ -5689,14 +5876,15 @@
       <c r="H184" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="K184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B185" s="3" t="n">
-        <v>44580.1168055556</v>
+        <v>44580</v>
       </c>
       <c r="C185" s="1" t="n">
         <v>0.7</v>
@@ -5716,14 +5904,15 @@
       <c r="H185" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="K185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B186" s="3" t="n">
-        <v>44670.936099537</v>
+        <v>44670</v>
       </c>
       <c r="C186" s="1" t="n">
         <v>0</v>
@@ -5743,14 +5932,15 @@
       <c r="H186" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="K186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B187" s="3" t="n">
-        <v>44726.3143518519</v>
+        <v>44726</v>
       </c>
       <c r="C187" s="1" t="n">
         <v>0</v>
@@ -5770,14 +5960,15 @@
       <c r="H187" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="K187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B188" s="3" t="n">
-        <v>44761.7555555556</v>
+        <v>44761</v>
       </c>
       <c r="C188" s="1" t="n">
         <v>0</v>
@@ -5797,14 +5988,15 @@
       <c r="H188" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="K188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B189" s="3" t="n">
-        <v>44817.1337731482</v>
+        <v>44817</v>
       </c>
       <c r="C189" s="1" t="n">
         <v>0</v>
@@ -5824,14 +6016,15 @@
       <c r="H189" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="K189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B190" s="3" t="n">
-        <v>44943.3940625</v>
+        <v>44943</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190" s="0" t="n">
@@ -5843,14 +6036,15 @@
       <c r="H190" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="K190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B191" s="3" t="n">
-        <v>45034.2133564815</v>
+        <v>45034</v>
       </c>
       <c r="F191" s="0" t="n">
         <v>-121.606</v>
@@ -5861,14 +6055,15 @@
       <c r="H191" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="K191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B192" s="3" t="n">
-        <v>45089.5913310185</v>
+        <v>45089</v>
       </c>
       <c r="C192" s="1" t="n">
         <v>0</v>
@@ -5888,14 +6083,15 @@
       <c r="H192" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="K192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B193" s="3" t="n">
-        <v>45125.0323148148</v>
+        <v>45125</v>
       </c>
       <c r="C193" s="1" t="n">
         <v>0</v>
@@ -5915,14 +6111,15 @@
       <c r="H193" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="K193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B194" s="3" t="n">
-        <v>45362.048587963</v>
+        <v>45362</v>
       </c>
       <c r="C194" s="1" t="n">
         <v>0.7</v>
@@ -5942,14 +6139,15 @@
       <c r="H194" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="K194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B195" s="3" t="n">
-        <v>45397.4896296296</v>
+        <v>45397</v>
       </c>
       <c r="C195" s="1" t="n">
         <v>0</v>
@@ -5969,14 +6167,15 @@
       <c r="H195" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="K195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="K195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B196" s="3" t="n">
-        <v>45488.3087847222</v>
+        <v>45488</v>
       </c>
       <c r="C196" s="1" t="n">
         <v>0</v>
@@ -5996,6 +6195,7 @@
       <c r="H196" s="0" t="n">
         <v>977</v>
       </c>
+      <c r="I196" s="5"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="3"/>
@@ -6011,163 +6211,163 @@
       <c r="B200" s="3"/>
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K204" s="5"/>
+      <c r="K204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K205" s="5"/>
+      <c r="K205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K206" s="5"/>
+      <c r="K206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K207" s="5"/>
+      <c r="K207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K208" s="5"/>
+      <c r="K208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K209" s="5"/>
+      <c r="K209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K210" s="5"/>
+      <c r="K210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K211" s="5"/>
+      <c r="K211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K212" s="5"/>
+      <c r="K212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K213" s="5"/>
+      <c r="K213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K214" s="5"/>
+      <c r="K214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K215" s="5"/>
+      <c r="K215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K216" s="5"/>
+      <c r="K216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K217" s="5"/>
+      <c r="K217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K218" s="5"/>
+      <c r="K218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K219" s="5"/>
+      <c r="K219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K220" s="5"/>
+      <c r="K220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K221" s="5"/>
+      <c r="K221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K222" s="5"/>
+      <c r="K222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K223" s="5"/>
+      <c r="K223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K224" s="5"/>
+      <c r="K224" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K251" s="5"/>
+      <c r="K251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K252" s="5"/>
+      <c r="K252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K253" s="5"/>
+      <c r="K253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K254" s="5"/>
+      <c r="K254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K255" s="5"/>
+      <c r="K255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K256" s="5"/>
+      <c r="K256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K257" s="5"/>
+      <c r="K257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K258" s="5"/>
+      <c r="K258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K259" s="5"/>
+      <c r="K259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K260" s="5"/>
+      <c r="K260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K261" s="5"/>
+      <c r="K261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K262" s="5"/>
+      <c r="K262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K263" s="5"/>
+      <c r="K263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K264" s="5"/>
+      <c r="K264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K265" s="5"/>
+      <c r="K265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K266" s="5"/>
+      <c r="K266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K267" s="5"/>
+      <c r="K267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K268" s="5"/>
+      <c r="K268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K269" s="5"/>
+      <c r="K269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K270" s="5"/>
+      <c r="K270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K271" s="5"/>
+      <c r="K271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K272" s="5"/>
+      <c r="K272" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K298" s="5"/>
+      <c r="K298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K299" s="5"/>
+      <c r="K299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K300" s="5"/>
+      <c r="K300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K301" s="5"/>
+      <c r="K301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K302" s="5"/>
+      <c r="K302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K303" s="5"/>
+      <c r="K303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K304" s="5"/>
+      <c r="K304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K305" s="5"/>
+      <c r="K305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K306" s="5"/>
+      <c r="K306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K307" s="5"/>
+      <c r="K307" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -839,11 +839,11 @@
   </sheetPr>
   <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D122" activeCellId="0" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
@@ -4012,10 +4012,10 @@
         <v>43802</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>124</v>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>130</v>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -839,11 +839,11 @@
   </sheetPr>
   <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D122" activeCellId="0" sqref="D122"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
@@ -2265,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>59</v>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAD0450-AD5C-4B59-9946-A45F1501BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A270AE2-1707-4D98-A8C2-A99715D7F9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11472" yWindow="1008" windowWidth="23040" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1008" windowWidth="23040" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="253">
   <si>
     <t>Camera</t>
   </si>
@@ -658,6 +658,132 @@
   </si>
   <si>
     <t>NEON.D13.WLOU.DP1.20002_2024_10_20_170004.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>underc</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2019_05_07_043005.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2019_05_13_170005.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2019_12_04_073006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2020_02_10_070006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2020_11_02_063006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2020_11_08_150006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2021_02_01_070005.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2021_02_07_110006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2021_11_07_063006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2022_10_29_160006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2023_01_28_123006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2023_10_28_063004.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2023_11_03_113006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2024_02_02_070006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>NEON.D05.UNDE.DP1.00033_2024_04_26_090006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>u_mich_bio</t>
+  </si>
+  <si>
+    <t>umichbiological_2018_11_18_080006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>umichbiological_2020_01_10_170006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>umichbiological_2020_02_15_080007.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>umichbiological_2020_05_16_070006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>umichbiological_2021_02_12_110005.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>umichbiological_2023_02_09_080005.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>umichbiological_2024_02_07_080005.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>bartlett</t>
+  </si>
+  <si>
+    <t>bartlettir_2019_05_06_055944.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>bartlettir_2020_02_02_162506.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>bartlettir_2020_04_07_100505.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>bartlettir_2021_01_31_070505.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>bartlettir_2021_11_02_062505.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>bartlettir_2023_01_27_140506.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>bartlettir_2023_04_02_052506.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>bartlettir_2024_03_30_052338.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>underhill</t>
+  </si>
+  <si>
+    <t>proctor_2019_01_17_070137.jpg (1296×976)</t>
+  </si>
+  <si>
+    <t>proctor_2019_04_17_184639.jpg (1296×976)</t>
+  </si>
+  <si>
+    <t>proctor_2021_11_07_094638.jpg (1296×976)</t>
+  </si>
+  <si>
+    <t>proctor_2022_01_10_144638.jpg (1296×976)</t>
+  </si>
+  <si>
+    <t>proctor_2023_04_10_063137.jpg (1296×976)</t>
+  </si>
+  <si>
+    <t>proctor_2023_10_08_061637.jpg (1296×976)</t>
+  </si>
+  <si>
+    <t>proctor_2024_04_07_051637.jpg (1296×976)</t>
+  </si>
+  <si>
+    <t>proctor_2024_10_06_090139.jpg (1296×976)</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D202" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F220" sqref="F220"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A291" sqref="A291:H299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7062,111 +7188,1977 @@
       <c r="K217" s="6"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>211</v>
+      </c>
+      <c r="B218" s="9">
+        <v>43592</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F218">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G218">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H218">
+        <v>520</v>
+      </c>
       <c r="K218" s="6"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>211</v>
+      </c>
+      <c r="B219" s="9">
+        <v>43598</v>
+      </c>
+      <c r="C219" s="1">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F219">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G219">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H219">
+        <v>520</v>
+      </c>
       <c r="K219" s="6"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>211</v>
+      </c>
+      <c r="B220" s="9">
+        <v>43689</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F220">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G220">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H220">
+        <v>520</v>
+      </c>
       <c r="K220" s="6"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>211</v>
+      </c>
+      <c r="B221" s="9">
+        <v>43803</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F221">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G221">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H221">
+        <v>520</v>
+      </c>
       <c r="K221" s="6"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>211</v>
+      </c>
+      <c r="B222" s="9">
+        <v>43871</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F222">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G222">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H222">
+        <v>520</v>
+      </c>
       <c r="K222" s="6"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>211</v>
+      </c>
+      <c r="B223" s="9">
+        <v>44046</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F223">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G223">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H223">
+        <v>520</v>
+      </c>
       <c r="K223" s="6"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>211</v>
+      </c>
+      <c r="B224" s="9">
+        <v>44053</v>
+      </c>
+      <c r="C224" s="1">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F224">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G224">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H224">
+        <v>520</v>
+      </c>
       <c r="K224" s="6"/>
     </row>
-    <row r="251" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>211</v>
+      </c>
+      <c r="B225" s="9">
+        <v>44137</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F225">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G225">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H225">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>211</v>
+      </c>
+      <c r="B226" s="9">
+        <v>44143</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F226">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G226">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H226">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>211</v>
+      </c>
+      <c r="B227" s="9">
+        <v>44228</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F227">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G227">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H227">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>211</v>
+      </c>
+      <c r="B228" s="9">
+        <v>44234</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F228">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G228">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H228">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>211</v>
+      </c>
+      <c r="B229" s="9">
+        <v>44409</v>
+      </c>
+      <c r="C229" s="1">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F229">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G229">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H229">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>211</v>
+      </c>
+      <c r="B230" s="9">
+        <v>44500</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F230">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G230">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H230">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>211</v>
+      </c>
+      <c r="B231" s="9">
+        <v>44507</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F231">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G231">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H231">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>211</v>
+      </c>
+      <c r="B232" s="9">
+        <v>44773</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F232">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G232">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H232">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>211</v>
+      </c>
+      <c r="B233" s="9">
+        <v>44863</v>
+      </c>
+      <c r="C233" s="1">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F233">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G233">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H233">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>211</v>
+      </c>
+      <c r="B234" s="9">
+        <v>44954</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F234">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G234">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H234">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>211</v>
+      </c>
+      <c r="B235" s="9">
+        <v>45142</v>
+      </c>
+      <c r="C235" s="1">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F235">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G235">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H235">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>211</v>
+      </c>
+      <c r="B236" s="9">
+        <v>45227</v>
+      </c>
+      <c r="C236" s="1">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F236">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G236">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H236">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>211</v>
+      </c>
+      <c r="B237" s="9">
+        <v>45233</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F237">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G237">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H237">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>211</v>
+      </c>
+      <c r="B238" s="9">
+        <v>45324</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F238">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G238">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H238">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>211</v>
+      </c>
+      <c r="B239" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F239">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G239">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H239">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>211</v>
+      </c>
+      <c r="B240" s="9">
+        <v>45499</v>
+      </c>
+      <c r="C240" s="1">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F240">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G240">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H240">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>211</v>
+      </c>
+      <c r="B241" s="9">
+        <v>45506</v>
+      </c>
+      <c r="C241" s="1">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F241">
+        <v>-89.537300000000002</v>
+      </c>
+      <c r="G241">
+        <v>46.233899999999998</v>
+      </c>
+      <c r="H241">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>227</v>
+      </c>
+      <c r="B242" s="9">
+        <v>43422</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F242">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G242">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H242">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>227</v>
+      </c>
+      <c r="B243" s="9">
+        <v>43688</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F243">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G243">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H243">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>227</v>
+      </c>
+      <c r="B244" s="9">
+        <v>43694</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F244">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G244">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H244">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>227</v>
+      </c>
+      <c r="B245" s="9">
+        <v>43840</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F245">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G245">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H245">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>227</v>
+      </c>
+      <c r="B246" s="9">
+        <v>43876</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F246">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G246">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H246">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>227</v>
+      </c>
+      <c r="B247" s="9">
+        <v>43967</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F247">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G247">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H247">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>227</v>
+      </c>
+      <c r="B248" s="9">
+        <v>44058</v>
+      </c>
+      <c r="C248" s="1">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F248">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G248">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H248">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>227</v>
+      </c>
+      <c r="B249" s="9">
+        <v>44239</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>0.5</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F249">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G249">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H249">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>227</v>
+      </c>
+      <c r="B250" s="9">
+        <v>44421</v>
+      </c>
+      <c r="C250" s="1">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F250">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G250">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H250">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>227</v>
+      </c>
+      <c r="B251" s="9">
+        <v>44476</v>
+      </c>
+      <c r="C251" s="1">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F251">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G251">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H251">
+        <v>230</v>
+      </c>
       <c r="K251" s="6"/>
     </row>
-    <row r="252" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>227</v>
+      </c>
+      <c r="B252" s="9">
+        <v>44512</v>
+      </c>
+      <c r="C252" s="1">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F252">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G252">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H252">
+        <v>230</v>
+      </c>
       <c r="K252" s="6"/>
     </row>
-    <row r="253" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>227</v>
+      </c>
+      <c r="B253" s="9">
+        <v>44839</v>
+      </c>
+      <c r="C253" s="1">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F253">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G253">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H253">
+        <v>230</v>
+      </c>
       <c r="K253" s="6"/>
     </row>
-    <row r="254" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>227</v>
+      </c>
+      <c r="B254" s="9">
+        <v>44875</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F254">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G254">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H254">
+        <v>230</v>
+      </c>
       <c r="K254" s="6"/>
     </row>
-    <row r="255" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>227</v>
+      </c>
+      <c r="B255" s="9">
+        <v>44966</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F255">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G255">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H255">
+        <v>230</v>
+      </c>
       <c r="K255" s="6"/>
     </row>
-    <row r="256" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>227</v>
+      </c>
+      <c r="B256" s="9">
+        <v>45057</v>
+      </c>
+      <c r="C256" s="1">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F256">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G256">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H256">
+        <v>230</v>
+      </c>
       <c r="K256" s="6"/>
     </row>
-    <row r="257" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>227</v>
+      </c>
+      <c r="B257" s="9">
+        <v>45112</v>
+      </c>
+      <c r="C257" s="1">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F257">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G257">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H257">
+        <v>230</v>
+      </c>
       <c r="K257" s="6"/>
     </row>
-    <row r="258" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>227</v>
+      </c>
+      <c r="B258" s="9">
+        <v>45203</v>
+      </c>
+      <c r="C258" s="1">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F258">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G258">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H258">
+        <v>230</v>
+      </c>
       <c r="K258" s="6"/>
     </row>
-    <row r="259" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>227</v>
+      </c>
+      <c r="B259" s="9">
+        <v>45329</v>
+      </c>
+      <c r="C259" s="1">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F259">
+        <v>-84.713800000000006</v>
+      </c>
+      <c r="G259">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="H259">
+        <v>230</v>
+      </c>
       <c r="K259" s="6"/>
     </row>
-    <row r="260" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>235</v>
+      </c>
+      <c r="B260" s="9">
+        <v>43591</v>
+      </c>
+      <c r="C260" s="1">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F260">
+        <v>-71.2881</v>
+      </c>
+      <c r="G260">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H260">
+        <v>268</v>
+      </c>
       <c r="K260" s="6"/>
     </row>
-    <row r="261" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>235</v>
+      </c>
+      <c r="B261" s="9">
+        <v>43684</v>
+      </c>
+      <c r="C261" s="1">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F261">
+        <v>-71.2881</v>
+      </c>
+      <c r="G261">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H261">
+        <v>268</v>
+      </c>
       <c r="K261" s="6"/>
     </row>
-    <row r="262" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>235</v>
+      </c>
+      <c r="B262" s="9">
+        <v>43711</v>
+      </c>
+      <c r="C262" s="1">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F262">
+        <v>-71.2881</v>
+      </c>
+      <c r="G262">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H262">
+        <v>268</v>
+      </c>
       <c r="K262" s="6"/>
     </row>
-    <row r="263" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>235</v>
+      </c>
+      <c r="B263" s="9">
+        <v>43863</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F263">
+        <v>-71.2881</v>
+      </c>
+      <c r="G263">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H263">
+        <v>268</v>
+      </c>
       <c r="K263" s="6"/>
     </row>
-    <row r="264" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>235</v>
+      </c>
+      <c r="B264" s="9">
+        <v>43928</v>
+      </c>
+      <c r="C264" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F264">
+        <v>-71.2881</v>
+      </c>
+      <c r="G264">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H264">
+        <v>268</v>
+      </c>
       <c r="K264" s="6"/>
     </row>
-    <row r="265" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>235</v>
+      </c>
+      <c r="B265" s="9">
+        <v>44019</v>
+      </c>
+      <c r="C265" s="1">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F265">
+        <v>-71.2881</v>
+      </c>
+      <c r="G265">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H265">
+        <v>268</v>
+      </c>
       <c r="K265" s="6"/>
     </row>
-    <row r="266" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>235</v>
+      </c>
+      <c r="B266" s="9">
+        <v>44227</v>
+      </c>
+      <c r="C266" s="1">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F266">
+        <v>-71.2881</v>
+      </c>
+      <c r="G266">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H266">
+        <v>268</v>
+      </c>
       <c r="K266" s="6"/>
     </row>
-    <row r="267" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>235</v>
+      </c>
+      <c r="B267" s="9">
+        <v>44382</v>
+      </c>
+      <c r="C267" s="1">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>-71.2881</v>
+      </c>
+      <c r="G267">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H267">
+        <v>268</v>
+      </c>
       <c r="K267" s="6"/>
     </row>
-    <row r="268" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>235</v>
+      </c>
+      <c r="B268" s="9">
+        <v>44408</v>
+      </c>
+      <c r="C268" s="1">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>-71.2881</v>
+      </c>
+      <c r="G268">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H268">
+        <v>268</v>
+      </c>
       <c r="K268" s="6"/>
     </row>
-    <row r="269" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>235</v>
+      </c>
+      <c r="B269" s="9">
+        <v>44502</v>
+      </c>
+      <c r="C269" s="1">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F269">
+        <v>-71.2881</v>
+      </c>
+      <c r="G269">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H269">
+        <v>268</v>
+      </c>
       <c r="K269" s="6"/>
     </row>
-    <row r="270" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>235</v>
+      </c>
+      <c r="B270" s="9">
+        <v>44710</v>
+      </c>
+      <c r="C270" s="1">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F270">
+        <v>-71.2881</v>
+      </c>
+      <c r="G270">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H270">
+        <v>268</v>
+      </c>
       <c r="K270" s="6"/>
     </row>
-    <row r="271" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>235</v>
+      </c>
+      <c r="B271" s="9">
+        <v>44745</v>
+      </c>
+      <c r="C271" s="1">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F271">
+        <v>-71.2881</v>
+      </c>
+      <c r="G271">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H271">
+        <v>268</v>
+      </c>
       <c r="K271" s="6"/>
     </row>
-    <row r="272" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>235</v>
+      </c>
+      <c r="B272" s="9">
+        <v>44862</v>
+      </c>
+      <c r="C272" s="1">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F272">
+        <v>-71.2881</v>
+      </c>
+      <c r="G272">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H272">
+        <v>268</v>
+      </c>
       <c r="K272" s="6"/>
     </row>
-    <row r="298" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>235</v>
+      </c>
+      <c r="B273" s="9">
+        <v>44953</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F273">
+        <v>-71.2881</v>
+      </c>
+      <c r="G273">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H273">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>235</v>
+      </c>
+      <c r="B274" s="9">
+        <v>45018</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F274">
+        <v>-71.2881</v>
+      </c>
+      <c r="G274">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H274">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>235</v>
+      </c>
+      <c r="B275" s="9">
+        <v>45135</v>
+      </c>
+      <c r="C275" s="1">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F275">
+        <v>-71.2881</v>
+      </c>
+      <c r="G275">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H275">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>235</v>
+      </c>
+      <c r="B276" s="9">
+        <v>45199</v>
+      </c>
+      <c r="C276" s="1">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F276">
+        <v>-71.2881</v>
+      </c>
+      <c r="G276">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H276">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>235</v>
+      </c>
+      <c r="B277" s="9">
+        <v>45381</v>
+      </c>
+      <c r="C277" s="1">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F277">
+        <v>-71.2881</v>
+      </c>
+      <c r="G277">
+        <v>44.064599999999999</v>
+      </c>
+      <c r="H277">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>244</v>
+      </c>
+      <c r="B278" s="9">
+        <v>43482</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F278">
+        <v>-72.866</v>
+      </c>
+      <c r="G278">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H278">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>244</v>
+      </c>
+      <c r="B279" s="9">
+        <v>43572</v>
+      </c>
+      <c r="C279" s="1">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F279">
+        <v>-72.866</v>
+      </c>
+      <c r="G279">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H279">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>244</v>
+      </c>
+      <c r="B280" s="9">
+        <v>44027</v>
+      </c>
+      <c r="C280" s="1">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F280">
+        <v>-72.866</v>
+      </c>
+      <c r="G280">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H280">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>244</v>
+      </c>
+      <c r="B281" s="9">
+        <v>44354</v>
+      </c>
+      <c r="C281" s="1">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F281">
+        <v>-72.866</v>
+      </c>
+      <c r="G281">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H281">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>244</v>
+      </c>
+      <c r="B282" s="9">
+        <v>44481</v>
+      </c>
+      <c r="C282" s="1">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F282">
+        <v>-72.866</v>
+      </c>
+      <c r="G282">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H282">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>244</v>
+      </c>
+      <c r="B283" s="9">
+        <v>44507</v>
+      </c>
+      <c r="C283" s="1">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F283">
+        <v>-72.866</v>
+      </c>
+      <c r="G283">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H283">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>244</v>
+      </c>
+      <c r="B284" s="9">
+        <v>44571</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F284">
+        <v>-72.866</v>
+      </c>
+      <c r="G284">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H284">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>244</v>
+      </c>
+      <c r="B285" s="9">
+        <v>44718</v>
+      </c>
+      <c r="C285" s="1">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F285">
+        <v>-72.866</v>
+      </c>
+      <c r="G285">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H285">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>244</v>
+      </c>
+      <c r="B286" s="9">
+        <v>45026</v>
+      </c>
+      <c r="C286" s="1">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F286">
+        <v>-72.866</v>
+      </c>
+      <c r="G286">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H286">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>244</v>
+      </c>
+      <c r="B287" s="9">
+        <v>45207</v>
+      </c>
+      <c r="C287" s="1">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F287">
+        <v>-72.866</v>
+      </c>
+      <c r="G287">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H287">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>244</v>
+      </c>
+      <c r="B288" s="9">
+        <v>45389</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F288">
+        <v>-72.866</v>
+      </c>
+      <c r="G288">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H288">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>244</v>
+      </c>
+      <c r="B289" s="9">
+        <v>45480</v>
+      </c>
+      <c r="C289" s="1">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F289">
+        <v>-72.866</v>
+      </c>
+      <c r="G289">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H289">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>244</v>
+      </c>
+      <c r="B290" s="9">
+        <v>45571</v>
+      </c>
+      <c r="C290" s="1">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F290">
+        <v>-72.866</v>
+      </c>
+      <c r="G290">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H290">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B291" s="9"/>
+      <c r="E291" s="8"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B292" s="9"/>
+      <c r="E292" s="8"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B293" s="9"/>
+      <c r="E293" s="8"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B294" s="9"/>
+      <c r="E294" s="8"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B295" s="9"/>
+      <c r="E295" s="8"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B296" s="9"/>
+      <c r="E296" s="8"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B297" s="9"/>
+      <c r="E297" s="8"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B298" s="9"/>
+      <c r="E298" s="8"/>
       <c r="K298" s="6"/>
     </row>
-    <row r="299" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B299" s="9"/>
+      <c r="E299" s="8"/>
       <c r="K299" s="6"/>
     </row>
-    <row r="300" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K300" s="6"/>
     </row>
-    <row r="301" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K301" s="6"/>
     </row>
-    <row r="302" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K302" s="6"/>
     </row>
-    <row r="303" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K303" s="6"/>
     </row>
-    <row r="304" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K304" s="6"/>
     </row>
     <row r="305" spans="11:11" x14ac:dyDescent="0.3">
@@ -7380,8 +9372,79 @@
     <hyperlink ref="E215" r:id="rId198" display="https://phenocam.nau.edu/webcam/browse/NEON.D13.WLOU.DP1.20002/2024/07/" xr:uid="{2F365000-0D75-4716-9B6C-198A0387097D}"/>
     <hyperlink ref="E216" r:id="rId199" display="https://phenocam.nau.edu/webcam/browse/NEON.D13.WLOU.DP1.20002/2024/07/" xr:uid="{859C3D97-E21A-4C83-9E83-089C90B2BD00}"/>
     <hyperlink ref="E217" r:id="rId200" display="https://phenocam.nau.edu/data/archive/NEON.D13.WLOU.DP1.20002/2024/10/NEON.D13.WLOU.DP1.20002_2024_10_20_170004.jpg" xr:uid="{44E91FAD-29F2-4A5A-9FD2-627E05EEB23E}"/>
+    <hyperlink ref="E218" r:id="rId201" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2019/05/NEON.D05.UNDE.DP1.00033_2019_05_07_043005.jpg" xr:uid="{D66C5E74-EFF1-45AD-A5BC-F7F569B58FE5}"/>
+    <hyperlink ref="E219" r:id="rId202" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2019/05/NEON.D05.UNDE.DP1.00033_2019_05_13_170005.jpg" xr:uid="{EF56BCCF-02CB-4EB2-B1EC-FE893632D26E}"/>
+    <hyperlink ref="E220" r:id="rId203" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2019/08/" xr:uid="{82FB2559-A686-4D51-B173-55A8FE656A17}"/>
+    <hyperlink ref="E221" r:id="rId204" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2019/12/NEON.D05.UNDE.DP1.00033_2019_12_04_073006.jpg" xr:uid="{6239CE5A-3709-4B18-BBA2-73060E361B4C}"/>
+    <hyperlink ref="E222" r:id="rId205" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2020/02/NEON.D05.UNDE.DP1.00033_2020_02_10_070006.jpg" xr:uid="{5B04B807-8BC8-4ECA-96A1-8F9B586B5CDB}"/>
+    <hyperlink ref="E223" r:id="rId206" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2020/08/" xr:uid="{506C3802-2FB4-4E4F-96F1-7298F72E8303}"/>
+    <hyperlink ref="E224" r:id="rId207" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2020/08/" xr:uid="{C7A57713-1228-4A07-9BE4-973F0D07629E}"/>
+    <hyperlink ref="E225" r:id="rId208" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2020/11/NEON.D05.UNDE.DP1.00033_2020_11_02_063006.jpg" xr:uid="{E3013DE9-2505-46E5-A2CE-A01763D9D041}"/>
+    <hyperlink ref="E226" r:id="rId209" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2020/11/NEON.D05.UNDE.DP1.00033_2020_11_08_150006.jpg" xr:uid="{5C29A56E-04E7-4237-A61F-EF511E4446C8}"/>
+    <hyperlink ref="E227" r:id="rId210" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2021/02/NEON.D05.UNDE.DP1.00033_2021_02_01_070005.jpg" xr:uid="{5E01BA4C-194D-4BE9-9817-13219F8400B8}"/>
+    <hyperlink ref="E228" r:id="rId211" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2021/02/NEON.D05.UNDE.DP1.00033_2021_02_07_110006.jpg" xr:uid="{7F5FFEBF-D727-487D-8827-B5DB942C3430}"/>
+    <hyperlink ref="E229" r:id="rId212" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2021/08/" xr:uid="{1AE7D698-D5BA-4AD4-9337-460646EE87A4}"/>
+    <hyperlink ref="E230" r:id="rId213" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2021/11/" xr:uid="{1BAB9C79-FB67-46C0-A9E1-FFF784351935}"/>
+    <hyperlink ref="E231" r:id="rId214" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2021/11/NEON.D05.UNDE.DP1.00033_2021_11_07_063006.jpg" xr:uid="{2678FA21-14E9-40A1-8377-5CA771A8CFC4}"/>
+    <hyperlink ref="E232" r:id="rId215" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2022/07/" xr:uid="{9001F3DC-A22F-4D7D-B6DD-C2DF1D4474A3}"/>
+    <hyperlink ref="E233" r:id="rId216" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2022/10/NEON.D05.UNDE.DP1.00033_2022_10_29_160006.jpg" xr:uid="{F68C6F06-31EA-4BEF-ABB6-5073B5DF0201}"/>
+    <hyperlink ref="E234" r:id="rId217" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2023/01/NEON.D05.UNDE.DP1.00033_2023_01_28_123006.jpg" xr:uid="{EAEEEC1A-9B1E-4056-B0BC-A9C323BBF293}"/>
+    <hyperlink ref="E235" r:id="rId218" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2023/08/" xr:uid="{3343EB24-96C4-45F9-88EC-648E69FC7180}"/>
+    <hyperlink ref="E236" r:id="rId219" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2023/10/NEON.D05.UNDE.DP1.00033_2023_10_28_063004.jpg" xr:uid="{D7F7948D-BF01-4FE0-BECF-54278F7D20EC}"/>
+    <hyperlink ref="E237" r:id="rId220" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2023/11/NEON.D05.UNDE.DP1.00033_2023_11_03_113006.jpg" xr:uid="{F2779DC9-D8C0-4649-8925-7A8F110D9BCD}"/>
+    <hyperlink ref="E238" r:id="rId221" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2024/02/NEON.D05.UNDE.DP1.00033_2024_02_02_070006.jpg" xr:uid="{5A49980C-A409-40CC-BC3D-E3115139451E}"/>
+    <hyperlink ref="E239" r:id="rId222" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2024/04/NEON.D05.UNDE.DP1.00033_2024_04_26_090006.jpg" xr:uid="{524D5EC4-4836-4AA7-84F5-5C353CCCE7A5}"/>
+    <hyperlink ref="E240" r:id="rId223" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2024/07/" xr:uid="{355BC6C1-A66F-4DC0-A22D-83DB6B900A14}"/>
+    <hyperlink ref="E241" r:id="rId224" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2024/08/" xr:uid="{7595BD57-644A-450B-9DA2-9C32E7F15583}"/>
+    <hyperlink ref="E242" r:id="rId225" display="https://phenocam.nau.edu/data/archive/umichbiological/2018/11/umichbiological_2018_11_18_080006.jpg" xr:uid="{92636FFD-C9E0-4ADE-B221-567C8B036988}"/>
+    <hyperlink ref="E243" r:id="rId226" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2019/08/" xr:uid="{F63491CA-0A59-4046-955C-9C0E5C02545F}"/>
+    <hyperlink ref="E244" r:id="rId227" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2019/08/" xr:uid="{DB1CE86D-0333-4ED1-B091-4F7ECE8A3CCD}"/>
+    <hyperlink ref="E245" r:id="rId228" display="https://phenocam.nau.edu/data/archive/umichbiological/2020/01/umichbiological_2020_01_10_170006.jpg" xr:uid="{F8B3761D-84D2-45EC-9A5C-A2130CF347B1}"/>
+    <hyperlink ref="E246" r:id="rId229" display="https://phenocam.nau.edu/data/archive/umichbiological/2020/02/umichbiological_2020_02_15_080007.jpg" xr:uid="{9B5829ED-2138-40A0-8880-2F4D2607FE83}"/>
+    <hyperlink ref="E247" r:id="rId230" display="https://phenocam.nau.edu/data/archive/umichbiological/2020/05/umichbiological_2020_05_16_070006.jpg" xr:uid="{EBC9FA66-B74B-4641-B37B-137B136BDCE1}"/>
+    <hyperlink ref="E248" r:id="rId231" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2020/08/" xr:uid="{4FFE1B46-D03B-42EA-B165-2E872D0B7489}"/>
+    <hyperlink ref="E249" r:id="rId232" display="https://phenocam.nau.edu/data/archive/umichbiological/2021/02/umichbiological_2021_02_12_110005.jpg" xr:uid="{7EACB058-AF29-48B7-8BE1-97B252B4C9F5}"/>
+    <hyperlink ref="E250" r:id="rId233" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2021/08/" xr:uid="{5A7C072F-E403-43F7-8E1C-52C74F9618F8}"/>
+    <hyperlink ref="E251" r:id="rId234" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2021/10/07/" xr:uid="{742D6F80-734F-4758-AA7B-34C4A4253122}"/>
+    <hyperlink ref="E252" r:id="rId235" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2021/11/12/" xr:uid="{E2117F57-13D2-4641-B14D-C18BFEC32212}"/>
+    <hyperlink ref="E253" r:id="rId236" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2022/10/05/" xr:uid="{2BD13A85-5E33-4E96-A86B-7F0611230BAB}"/>
+    <hyperlink ref="E254" r:id="rId237" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2022/11/10/" xr:uid="{80A4C5E3-96AC-4954-8B4D-23BA52C28DC2}"/>
+    <hyperlink ref="E255" r:id="rId238" display="https://phenocam.nau.edu/data/archive/umichbiological/2023/02/umichbiological_2023_02_09_080005.jpg" xr:uid="{85FDAFEA-CCC0-4573-8D27-6D503FCBEE97}"/>
+    <hyperlink ref="E256" r:id="rId239" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2023/05/11/" xr:uid="{D265320E-B661-4D3B-A0CF-92519FB9F338}"/>
+    <hyperlink ref="E257" r:id="rId240" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2023/07/" xr:uid="{C3A1451B-2EAA-4F39-9B56-519A03D759CC}"/>
+    <hyperlink ref="E258" r:id="rId241" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2023/10/04/" xr:uid="{66082038-C69A-4462-A5B4-70F5885DE2A0}"/>
+    <hyperlink ref="E259" r:id="rId242" display="https://phenocam.nau.edu/data/archive/umichbiological/2024/02/umichbiological_2024_02_07_080005.jpg" xr:uid="{EBF7367C-F18A-48C2-9938-EA326C55123E}"/>
+    <hyperlink ref="E260" r:id="rId243" display="https://phenocam.nau.edu/data/archive/bartlettir/2019/05/bartlettir_2019_05_06_055944.jpg" xr:uid="{2E9F07F6-9E87-4BC9-85DD-56EE0D292283}"/>
+    <hyperlink ref="E261" r:id="rId244" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2019/08/" xr:uid="{29D58332-D583-4FDF-A562-5448A2E4D531}"/>
+    <hyperlink ref="E262" r:id="rId245" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2019/09/" xr:uid="{D0EA10D7-155A-4278-ACC8-9C95BEA584F9}"/>
+    <hyperlink ref="E263" r:id="rId246" display="https://phenocam.nau.edu/data/archive/bartlettir/2020/02/bartlettir_2020_02_02_162506.jpg" xr:uid="{416ABDB4-88FA-40DA-8EDF-AA39F0F8BEB2}"/>
+    <hyperlink ref="E264" r:id="rId247" display="https://phenocam.nau.edu/data/archive/bartlettir/2020/04/bartlettir_2020_04_07_100505.jpg" xr:uid="{8DA6645B-AB1B-4BDB-B788-06F0EF7718AD}"/>
+    <hyperlink ref="E265" r:id="rId248" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2020/07/" xr:uid="{572A5C17-F693-4177-B460-C4D62F4BA647}"/>
+    <hyperlink ref="E266" r:id="rId249" display="https://phenocam.nau.edu/data/archive/bartlettir/2021/01/bartlettir_2021_01_31_070505.jpg" xr:uid="{C127B832-D2C6-4834-B108-4E183C528F4B}"/>
+    <hyperlink ref="E269" r:id="rId250" display="https://phenocam.nau.edu/data/archive/bartlettir/2021/11/bartlettir_2021_11_02_062505.jpg" xr:uid="{5FE733E5-77F2-40C1-A0CD-76E45B181AF3}"/>
+    <hyperlink ref="E270" r:id="rId251" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2022/05/" xr:uid="{28E5BE17-1069-4170-B91C-47299ADBCD32}"/>
+    <hyperlink ref="E271" r:id="rId252" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2022/07/" xr:uid="{08B12680-939C-45EE-A25A-9C04392014A4}"/>
+    <hyperlink ref="E272" r:id="rId253" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2022/10/28/" xr:uid="{D82E8E98-81C6-407A-91F4-95E1DA6C4C89}"/>
+    <hyperlink ref="E273" r:id="rId254" display="https://phenocam.nau.edu/data/archive/bartlettir/2023/01/bartlettir_2023_01_27_140506.jpg" xr:uid="{DFBEF2A3-834A-4E23-B0B6-E9D5D0E37D72}"/>
+    <hyperlink ref="E274" r:id="rId255" display="https://phenocam.nau.edu/data/archive/bartlettir/2023/04/bartlettir_2023_04_02_052506.jpg" xr:uid="{863DDE4A-2955-41E0-B540-64CA4756C575}"/>
+    <hyperlink ref="E275" r:id="rId256" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2023/07/" xr:uid="{EF3C9342-A1A3-4817-BEC2-640D30547B9B}"/>
+    <hyperlink ref="E276" r:id="rId257" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2023/09/" xr:uid="{C664D669-8555-4C90-989D-C246944DE5C3}"/>
+    <hyperlink ref="E277" r:id="rId258" display="https://phenocam.nau.edu/data/archive/bartlettir/2024/03/bartlettir_2024_03_30_052338.jpg" xr:uid="{C799028B-DB48-4BE1-805E-7F37A668CC2A}"/>
+    <hyperlink ref="E278" r:id="rId259" display="https://phenocam.nau.edu/data/archive/proctor/2019/01/proctor_2019_01_17_070137.jpg" xr:uid="{D9836648-1740-4313-97BA-CC9589AB0D64}"/>
+    <hyperlink ref="E279" r:id="rId260" display="https://phenocam.nau.edu/data/archive/proctor/2019/04/proctor_2019_04_17_184639.jpg" xr:uid="{016381A8-7205-4342-9C51-32EAE703507B}"/>
+    <hyperlink ref="E280" r:id="rId261" display="https://phenocam.nau.edu/webcam/browse/proctor/2020/07/" xr:uid="{42D24833-A47D-43C9-AE49-1BE69325177A}"/>
+    <hyperlink ref="E281" r:id="rId262" display="https://phenocam.nau.edu/webcam/browse/proctor/2021/06/" xr:uid="{E8FEE7A6-9CEC-4C88-A280-CD6E3DDFBFA1}"/>
+    <hyperlink ref="E282" r:id="rId263" display="https://phenocam.nau.edu/webcam/browse/proctor/2021/10/12/" xr:uid="{FAAD5F92-EEF9-433E-AD16-E82ABDB8F0B4}"/>
+    <hyperlink ref="E283" r:id="rId264" display="https://phenocam.nau.edu/data/archive/proctor/2021/11/proctor_2021_11_07_094638.jpg" xr:uid="{92B2D28A-6436-41CB-BE9C-9D3234628D17}"/>
+    <hyperlink ref="E284" r:id="rId265" display="https://phenocam.nau.edu/data/archive/proctor/2022/01/proctor_2022_01_10_144638.jpg" xr:uid="{4E5BA090-613E-4F0D-B9C2-205D651C9FDA}"/>
+    <hyperlink ref="E285" r:id="rId266" display="https://phenocam.nau.edu/webcam/browse/proctor/2022/06/" xr:uid="{542159CF-ABE1-457A-8855-9838B5996706}"/>
+    <hyperlink ref="E286" r:id="rId267" display="https://phenocam.nau.edu/data/archive/proctor/2023/04/proctor_2023_04_10_063137.jpg" xr:uid="{751A2166-1764-4E91-A481-868611210BCC}"/>
+    <hyperlink ref="E287" r:id="rId268" display="https://phenocam.nau.edu/data/archive/proctor/2023/10/proctor_2023_10_08_061637.jpg" xr:uid="{AAD577FF-82A7-49C0-8D3B-0DA9A92F42A7}"/>
+    <hyperlink ref="E288" r:id="rId269" display="https://phenocam.nau.edu/data/archive/proctor/2024/04/proctor_2024_04_07_051637.jpg" xr:uid="{85B04C31-7805-4162-8028-E74A4C19DEF5}"/>
+    <hyperlink ref="E290" r:id="rId270" display="https://phenocam.nau.edu/data/archive/proctor/2024/10/proctor_2024_10_06_090139.jpg" xr:uid="{E95592BA-839F-44BC-971F-CC0EA5DB1F1F}"/>
+    <hyperlink ref="E289" r:id="rId271" display="https://phenocam.nau.edu/webcam/browse/proctor/2024/07/" xr:uid="{0F8661B5-0F8D-4D40-8786-0DAEE1AFC8A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId272"/>
 </worksheet>
 </file>
--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A270AE2-1707-4D98-A8C2-A99715D7F9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20235A6F-F1B1-4074-A15A-53D69992DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1008" windowWidth="23040" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="319">
   <si>
     <t>Camera</t>
   </si>
@@ -784,6 +784,204 @@
   </si>
   <si>
     <t>proctor_2024_10_06_090139.jpg (1296×976)</t>
+  </si>
+  <si>
+    <t>willowcreek</t>
+  </si>
+  <si>
+    <t>willowcreek_2018_12_09_083108.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>willowcreek_2018_12_16_080109.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>willowcreek_2019_03_17_060108.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>willowcreek_2020_03_14_063105.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>willowcreek_2022_03_04_063106.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>willowcreek_2022_12_01_072605.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>willowcreek_2023_03_02_065605.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>willowcreek_2024_02_28_175606.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>willowcreek_2024_03_06_062605.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees</t>
+  </si>
+  <si>
+    <t>glees_2018_12_05_071605.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2019_01_04_111605.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2019_04_05_074605.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2019_06_04_164606.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2019_08_03_120306.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2019_10_04_123305.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2019_11_02_063305.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2020_01_03_073305.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2020_03_03_070305.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2020_06_02_050305.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2020_07_02_110305.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2020_10_01_103305.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2021_04_01_054006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2022_04_28_044806.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2022_11_27_071806.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2022_12_27_141805.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2023_02_25_174805.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2023_11_25_101805.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2024_02_24_062405.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2024_09_23_105506.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>glees_2024_11_22_142506.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>queens</t>
+  </si>
+  <si>
+    <t>queens_2019_01_30_100006.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>queens_2021_01_26_133705.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>queens_2021_04_26_183705.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>queens_2022_01_24_073705.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>queens_2024_01_20_170705.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>queens_2024_04_20_080705.jpg (1296×960)</t>
+  </si>
+  <si>
+    <t>old_jack_pine</t>
+  </si>
+  <si>
+    <t>phenocam.nau.edu/data/archive/canadaojp/2018/10/canadaojp_2018_10_18_162959.jpg</t>
+  </si>
+  <si>
+    <t>phenocam.nau.edu/data/archive/canadaojp/2018/11/canadaojp_2018_11_06_075959.jpg</t>
+  </si>
+  <si>
+    <t>phenocam.nau.edu/data/archive/canadaojp/2019/01/canadaojp_2019_01_17_112959.jpg</t>
+  </si>
+  <si>
+    <t>canadaojp_2019_04_19_052959.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2019_05_07_055959.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2020_01_15_172959.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2020_02_03_082959.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2020_04_15_145959.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2020_05_04_045959.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2020_10_14_073000.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2020_10_31_172959.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2021_07_13_090017.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2021_10_31_080028.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2022_05_11_050011.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2022_10_29_080013.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2023_01_28_083014.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2023_04_10_090014.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2023_04_28_203029.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2023_10_27_130014.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2024_01_07_170018.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2024_04_07_200012.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>canadaojp_2024_04_25_053015.jpg (2592×1944)</t>
+  </si>
+  <si>
+    <t>kenttarova</t>
+  </si>
+  <si>
+    <t>varrio</t>
+  </si>
+  <si>
+    <t>hyytiala</t>
+  </si>
+  <si>
+    <t>tammela</t>
   </si>
 </sst>
 </file>
@@ -1267,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K307"/>
+  <dimension ref="A1:K474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:H299"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C406" sqref="C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9109,66 +9307,4537 @@
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B291" s="9"/>
-      <c r="E291" s="8"/>
+      <c r="A291" t="s">
+        <v>253</v>
+      </c>
+      <c r="B291" s="9">
+        <v>43443</v>
+      </c>
+      <c r="C291" s="1">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F291">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G291">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H291">
+        <v>521</v>
+      </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B292" s="9"/>
-      <c r="E292" s="8"/>
+      <c r="A292" t="s">
+        <v>253</v>
+      </c>
+      <c r="B292" s="9">
+        <v>43450</v>
+      </c>
+      <c r="C292" s="1">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F292">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G292">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H292">
+        <v>521</v>
+      </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B293" s="9"/>
-      <c r="E293" s="8"/>
+      <c r="A293" t="s">
+        <v>253</v>
+      </c>
+      <c r="B293" s="9">
+        <v>43541</v>
+      </c>
+      <c r="C293" s="1">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F293">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G293">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H293">
+        <v>521</v>
+      </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B294" s="9"/>
-      <c r="E294" s="8"/>
+      <c r="A294" t="s">
+        <v>253</v>
+      </c>
+      <c r="B294" s="9">
+        <v>43631</v>
+      </c>
+      <c r="C294" s="1">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F294">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G294">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H294">
+        <v>521</v>
+      </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B295" s="9"/>
-      <c r="E295" s="8"/>
+      <c r="A295" t="s">
+        <v>253</v>
+      </c>
+      <c r="B295" s="9">
+        <v>43904</v>
+      </c>
+      <c r="C295" s="1">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F295">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G295">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H295">
+        <v>521</v>
+      </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B296" s="9"/>
-      <c r="E296" s="8"/>
+      <c r="A296" t="s">
+        <v>253</v>
+      </c>
+      <c r="B296" s="9">
+        <v>43988</v>
+      </c>
+      <c r="C296" s="1">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F296">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G296">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H296">
+        <v>521</v>
+      </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B297" s="9"/>
-      <c r="E297" s="8"/>
+      <c r="A297" t="s">
+        <v>253</v>
+      </c>
+      <c r="B297" s="9">
+        <v>43995</v>
+      </c>
+      <c r="C297" s="1">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F297">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G297">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H297">
+        <v>521</v>
+      </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B298" s="9"/>
-      <c r="E298" s="8"/>
+      <c r="A298" t="s">
+        <v>253</v>
+      </c>
+      <c r="B298" s="9">
+        <v>44079</v>
+      </c>
+      <c r="C298" s="1">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F298">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G298">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H298">
+        <v>521</v>
+      </c>
       <c r="K298" s="6"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B299" s="9"/>
-      <c r="E299" s="8"/>
+      <c r="A299" t="s">
+        <v>253</v>
+      </c>
+      <c r="B299" s="9">
+        <v>44351</v>
+      </c>
+      <c r="C299" s="1">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F299">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G299">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H299">
+        <v>521</v>
+      </c>
       <c r="K299" s="6"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>253</v>
+      </c>
+      <c r="B300" s="9">
+        <v>44449</v>
+      </c>
+      <c r="C300" s="1">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F300">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G300">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H300">
+        <v>521</v>
+      </c>
       <c r="K300" s="6"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>253</v>
+      </c>
+      <c r="B301" s="9">
+        <v>44624</v>
+      </c>
+      <c r="C301" s="1">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F301">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G301">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H301">
+        <v>521</v>
+      </c>
       <c r="K301" s="6"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>253</v>
+      </c>
+      <c r="B302" s="9">
+        <v>44806</v>
+      </c>
+      <c r="C302" s="1">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F302">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G302">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H302">
+        <v>521</v>
+      </c>
       <c r="K302" s="6"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>253</v>
+      </c>
+      <c r="B303" s="9">
+        <v>44812</v>
+      </c>
+      <c r="C303" s="1">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F303">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G303">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H303">
+        <v>521</v>
+      </c>
       <c r="K303" s="6"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>253</v>
+      </c>
+      <c r="B304" s="9">
+        <v>44896</v>
+      </c>
+      <c r="C304" s="1">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F304">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G304">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H304">
+        <v>521</v>
+      </c>
       <c r="K304" s="6"/>
     </row>
-    <row r="305" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>253</v>
+      </c>
+      <c r="B305" s="9">
+        <v>44987</v>
+      </c>
+      <c r="C305" s="1">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F305">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G305">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H305">
+        <v>521</v>
+      </c>
       <c r="K305" s="6"/>
     </row>
-    <row r="306" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>253</v>
+      </c>
+      <c r="B306" s="9">
+        <v>45078</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F306">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G306">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H306">
+        <v>521</v>
+      </c>
       <c r="K306" s="6"/>
     </row>
-    <row r="307" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>253</v>
+      </c>
+      <c r="B307" s="9">
+        <v>45085</v>
+      </c>
+      <c r="C307" s="1">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F307">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G307">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H307">
+        <v>521</v>
+      </c>
       <c r="K307" s="6"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>253</v>
+      </c>
+      <c r="B308" s="9">
+        <v>45350</v>
+      </c>
+      <c r="C308" s="1">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F308">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G308">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H308">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>253</v>
+      </c>
+      <c r="B309" s="9">
+        <v>45357</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F309">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G309">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H309">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>253</v>
+      </c>
+      <c r="B310" s="9">
+        <v>45532</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F310">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G310">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H310">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>253</v>
+      </c>
+      <c r="B311" s="9">
+        <v>45539</v>
+      </c>
+      <c r="C311" s="1">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F311">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G311">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H311">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>263</v>
+      </c>
+      <c r="B312" s="9">
+        <v>43439</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>0.5</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F312">
+        <v>-106.2394</v>
+      </c>
+      <c r="G312">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H312">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>263</v>
+      </c>
+      <c r="B313" s="9">
+        <v>43469</v>
+      </c>
+      <c r="C313" s="1">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F313">
+        <v>-106.2394</v>
+      </c>
+      <c r="G313">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H313">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>263</v>
+      </c>
+      <c r="B314" s="9">
+        <v>43560</v>
+      </c>
+      <c r="C314" s="1">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F314">
+        <v>-106.2394</v>
+      </c>
+      <c r="G314">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H314">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>263</v>
+      </c>
+      <c r="B315" s="9">
+        <v>43620</v>
+      </c>
+      <c r="C315" s="1">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F315">
+        <v>-106.2394</v>
+      </c>
+      <c r="G315">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H315">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>263</v>
+      </c>
+      <c r="B316" s="9">
+        <v>43680</v>
+      </c>
+      <c r="C316" s="1">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F316">
+        <v>-106.2394</v>
+      </c>
+      <c r="G316">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H316">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>263</v>
+      </c>
+      <c r="B317" s="9">
+        <v>43742</v>
+      </c>
+      <c r="C317" s="1">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F317">
+        <v>-106.2394</v>
+      </c>
+      <c r="G317">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H317">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>263</v>
+      </c>
+      <c r="B318" s="9">
+        <v>43771</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F318">
+        <v>-106.2394</v>
+      </c>
+      <c r="G318">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H318">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>263</v>
+      </c>
+      <c r="B319" s="9">
+        <v>43833</v>
+      </c>
+      <c r="C319" s="1">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F319">
+        <v>-106.2394</v>
+      </c>
+      <c r="G319">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H319">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>263</v>
+      </c>
+      <c r="B320" s="9">
+        <v>43893</v>
+      </c>
+      <c r="C320" s="1">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F320">
+        <v>-106.2394</v>
+      </c>
+      <c r="G320">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H320">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>263</v>
+      </c>
+      <c r="B321" s="9">
+        <v>43984</v>
+      </c>
+      <c r="C321" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F321">
+        <v>-106.2394</v>
+      </c>
+      <c r="G321">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H321">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>263</v>
+      </c>
+      <c r="B322" s="9">
+        <v>44014</v>
+      </c>
+      <c r="C322" s="1">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F322">
+        <v>-106.2394</v>
+      </c>
+      <c r="G322">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H322">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>263</v>
+      </c>
+      <c r="B323" s="9">
+        <v>44105</v>
+      </c>
+      <c r="C323" s="1">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F323">
+        <v>-106.2394</v>
+      </c>
+      <c r="G323">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H323">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>263</v>
+      </c>
+      <c r="B324" s="9">
+        <v>44287</v>
+      </c>
+      <c r="C324" s="1">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F324">
+        <v>-106.2394</v>
+      </c>
+      <c r="G324">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H324">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>263</v>
+      </c>
+      <c r="B325" s="9">
+        <v>44679</v>
+      </c>
+      <c r="C325" s="1">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F325">
+        <v>-106.2394</v>
+      </c>
+      <c r="G325">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H325">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>263</v>
+      </c>
+      <c r="B326" s="9">
+        <v>44801</v>
+      </c>
+      <c r="C326" s="1">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F326">
+        <v>-106.2394</v>
+      </c>
+      <c r="G326">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H326">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>263</v>
+      </c>
+      <c r="B327" s="9">
+        <v>44832</v>
+      </c>
+      <c r="C327" s="1">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F327">
+        <v>-106.2394</v>
+      </c>
+      <c r="G327">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H327">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>263</v>
+      </c>
+      <c r="B328" s="9">
+        <v>44892</v>
+      </c>
+      <c r="C328" s="1">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F328">
+        <v>-106.2394</v>
+      </c>
+      <c r="G328">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H328">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>263</v>
+      </c>
+      <c r="B329" s="9">
+        <v>44922</v>
+      </c>
+      <c r="C329" s="1">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F329">
+        <v>-106.2394</v>
+      </c>
+      <c r="G329">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H329">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>263</v>
+      </c>
+      <c r="B330" s="9">
+        <v>44983</v>
+      </c>
+      <c r="C330" s="1">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>0.5</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F330">
+        <v>-106.2394</v>
+      </c>
+      <c r="G330">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H330">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>263</v>
+      </c>
+      <c r="B331" s="9">
+        <v>45074</v>
+      </c>
+      <c r="C331" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F331">
+        <v>-106.2394</v>
+      </c>
+      <c r="G331">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H331">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>263</v>
+      </c>
+      <c r="B332" s="9">
+        <v>45104</v>
+      </c>
+      <c r="C332" s="1">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F332">
+        <v>-106.2394</v>
+      </c>
+      <c r="G332">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H332">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>263</v>
+      </c>
+      <c r="B333" s="9">
+        <v>45164</v>
+      </c>
+      <c r="C333" s="1">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F333">
+        <v>-106.2394</v>
+      </c>
+      <c r="G333">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H333">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>263</v>
+      </c>
+      <c r="B334" s="9">
+        <v>45195</v>
+      </c>
+      <c r="C334" s="1">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F334">
+        <v>-106.2394</v>
+      </c>
+      <c r="G334">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H334">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>263</v>
+      </c>
+      <c r="B335" s="9">
+        <v>45255</v>
+      </c>
+      <c r="C335" s="1">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F335">
+        <v>-106.2394</v>
+      </c>
+      <c r="G335">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H335">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>263</v>
+      </c>
+      <c r="B336" s="9">
+        <v>45346</v>
+      </c>
+      <c r="C336" s="1">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F336">
+        <v>-106.2394</v>
+      </c>
+      <c r="G336">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H336">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>263</v>
+      </c>
+      <c r="B337" s="9">
+        <v>45558</v>
+      </c>
+      <c r="C337" s="1">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F337">
+        <v>-106.2394</v>
+      </c>
+      <c r="G337">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H337">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>263</v>
+      </c>
+      <c r="B338" s="9">
+        <v>45619</v>
+      </c>
+      <c r="C338" s="1">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F338">
+        <v>-106.2394</v>
+      </c>
+      <c r="G338">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H338">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>285</v>
+      </c>
+      <c r="B339" s="9">
+        <v>43495</v>
+      </c>
+      <c r="C339" s="1">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F339">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G339">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H339">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>285</v>
+      </c>
+      <c r="B340" s="9">
+        <v>43706</v>
+      </c>
+      <c r="C340" s="1">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F340">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G340">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H340">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>285</v>
+      </c>
+      <c r="B341" s="9">
+        <v>43985</v>
+      </c>
+      <c r="C341" s="1">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F341">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G341">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H341">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>285</v>
+      </c>
+      <c r="B342" s="9">
+        <v>44014</v>
+      </c>
+      <c r="C342" s="1">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F342">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G342">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H342">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>285</v>
+      </c>
+      <c r="B343" s="9">
+        <v>44040</v>
+      </c>
+      <c r="C343" s="1">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F343">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G343">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H343">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>285</v>
+      </c>
+      <c r="B344" s="9">
+        <v>44222</v>
+      </c>
+      <c r="C344" s="1">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F344">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G344">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H344">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>285</v>
+      </c>
+      <c r="B345" s="9">
+        <v>44313</v>
+      </c>
+      <c r="C345" s="1">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F345">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G345">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H345">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>285</v>
+      </c>
+      <c r="B346" s="9">
+        <v>44404</v>
+      </c>
+      <c r="C346" s="1">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F346">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G346">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H346">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>285</v>
+      </c>
+      <c r="B347" s="9">
+        <v>44468</v>
+      </c>
+      <c r="C347" s="1">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F347">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G347">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H347">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>285</v>
+      </c>
+      <c r="B348" s="9">
+        <v>44585</v>
+      </c>
+      <c r="C348" s="1">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F348">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G348">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H348">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>285</v>
+      </c>
+      <c r="B349" s="9">
+        <v>44711</v>
+      </c>
+      <c r="C349" s="1">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F349">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G349">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H349">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>285</v>
+      </c>
+      <c r="B350" s="9">
+        <v>44802</v>
+      </c>
+      <c r="C350" s="1">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F350">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G350">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H350">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>285</v>
+      </c>
+      <c r="B351" s="9">
+        <v>44857</v>
+      </c>
+      <c r="C351" s="1">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F351">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G351">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H351">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>285</v>
+      </c>
+      <c r="B352" s="9">
+        <v>45103</v>
+      </c>
+      <c r="C352" s="1">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F352">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G352">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H352">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>285</v>
+      </c>
+      <c r="B353" s="9">
+        <v>45130</v>
+      </c>
+      <c r="C353" s="1">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F353">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G353">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H353">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>285</v>
+      </c>
+      <c r="B354" s="9">
+        <v>45194</v>
+      </c>
+      <c r="C354" s="1">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F354">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G354">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H354">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>285</v>
+      </c>
+      <c r="B355" s="9">
+        <v>45312</v>
+      </c>
+      <c r="C355" s="1">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F355">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G355">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H355">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>285</v>
+      </c>
+      <c r="B356" s="9">
+        <v>45402</v>
+      </c>
+      <c r="C356" s="1">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F356">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G356">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H356">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>285</v>
+      </c>
+      <c r="B357" s="9">
+        <v>45493</v>
+      </c>
+      <c r="C357" s="1">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F357">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G357">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H357">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>285</v>
+      </c>
+      <c r="B358" s="9">
+        <v>45558</v>
+      </c>
+      <c r="C358" s="1">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F358">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G358">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H358">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>285</v>
+      </c>
+      <c r="B359" s="9">
+        <v>45584</v>
+      </c>
+      <c r="C359" s="1">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F359">
+        <v>-76.323999999999998</v>
+      </c>
+      <c r="G359">
+        <v>44.564999999999998</v>
+      </c>
+      <c r="H359">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>292</v>
+      </c>
+      <c r="B360" s="9">
+        <v>43391</v>
+      </c>
+      <c r="C360" s="1">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F360">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G360">
+        <v>53.9163</v>
+      </c>
+      <c r="H360">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>292</v>
+      </c>
+      <c r="B361" s="9">
+        <v>43410</v>
+      </c>
+      <c r="C361" s="1">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F361">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G361">
+        <v>53.9163</v>
+      </c>
+      <c r="H361">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>292</v>
+      </c>
+      <c r="B362" s="9">
+        <v>43482</v>
+      </c>
+      <c r="C362" s="1">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F362">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G362">
+        <v>53.9163</v>
+      </c>
+      <c r="H362">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>292</v>
+      </c>
+      <c r="B363" s="9">
+        <v>43573</v>
+      </c>
+      <c r="C363" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F363">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G363">
+        <v>53.9163</v>
+      </c>
+      <c r="H363">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>292</v>
+      </c>
+      <c r="B364" s="9">
+        <v>43592</v>
+      </c>
+      <c r="C364" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F364">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G364">
+        <v>53.9163</v>
+      </c>
+      <c r="H364">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>292</v>
+      </c>
+      <c r="B365" s="9">
+        <v>43693</v>
+      </c>
+      <c r="C365" s="1">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G365">
+        <v>53.9163</v>
+      </c>
+      <c r="H365">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>292</v>
+      </c>
+      <c r="B366" s="9">
+        <v>43846</v>
+      </c>
+      <c r="C366" s="1">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F366">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G366">
+        <v>53.9163</v>
+      </c>
+      <c r="H366">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>292</v>
+      </c>
+      <c r="B367" s="9">
+        <v>43864</v>
+      </c>
+      <c r="C367" s="1">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F367">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G367">
+        <v>53.9163</v>
+      </c>
+      <c r="H367">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>292</v>
+      </c>
+      <c r="B368" s="9">
+        <v>43936</v>
+      </c>
+      <c r="C368" s="1">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F368">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G368">
+        <v>53.9163</v>
+      </c>
+      <c r="H368">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>292</v>
+      </c>
+      <c r="B369" s="9">
+        <v>43955</v>
+      </c>
+      <c r="C369" s="1">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F369">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G369">
+        <v>53.9163</v>
+      </c>
+      <c r="H369">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>292</v>
+      </c>
+      <c r="B370" s="9">
+        <v>44046</v>
+      </c>
+      <c r="C370" s="1">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F370">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G370">
+        <v>53.9163</v>
+      </c>
+      <c r="H370">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>292</v>
+      </c>
+      <c r="B371" s="9">
+        <v>44118</v>
+      </c>
+      <c r="C371" s="1">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F371">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G371">
+        <v>53.9163</v>
+      </c>
+      <c r="H371">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>292</v>
+      </c>
+      <c r="B372" s="9">
+        <v>44136</v>
+      </c>
+      <c r="C372" s="1">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F372">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G372">
+        <v>53.9163</v>
+      </c>
+      <c r="H372">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>292</v>
+      </c>
+      <c r="B373" s="9">
+        <v>44390</v>
+      </c>
+      <c r="C373" s="1">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F373">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G373">
+        <v>53.9163</v>
+      </c>
+      <c r="H373">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>292</v>
+      </c>
+      <c r="B374" s="9">
+        <v>44409</v>
+      </c>
+      <c r="C374" s="1">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F374">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G374">
+        <v>53.9163</v>
+      </c>
+      <c r="H374">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>292</v>
+      </c>
+      <c r="B375" s="9">
+        <v>44500</v>
+      </c>
+      <c r="C375" s="1">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F375">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G375">
+        <v>53.9163</v>
+      </c>
+      <c r="H375">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>292</v>
+      </c>
+      <c r="B376" s="9">
+        <v>44692</v>
+      </c>
+      <c r="C376" s="1">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F376">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G376">
+        <v>53.9163</v>
+      </c>
+      <c r="H376">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>292</v>
+      </c>
+      <c r="B377" s="9">
+        <v>44863</v>
+      </c>
+      <c r="C377" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F377">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G377">
+        <v>53.9163</v>
+      </c>
+      <c r="H377">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>292</v>
+      </c>
+      <c r="B378" s="9">
+        <v>44954</v>
+      </c>
+      <c r="C378" s="1">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F378">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G378">
+        <v>53.9163</v>
+      </c>
+      <c r="H378">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>292</v>
+      </c>
+      <c r="B379" s="9">
+        <v>45026</v>
+      </c>
+      <c r="C379" s="1">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F379">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G379">
+        <v>53.9163</v>
+      </c>
+      <c r="H379">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>292</v>
+      </c>
+      <c r="B380" s="9">
+        <v>45045</v>
+      </c>
+      <c r="C380" s="1">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F380">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G380">
+        <v>53.9163</v>
+      </c>
+      <c r="H380">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>292</v>
+      </c>
+      <c r="B381" s="9">
+        <v>45117</v>
+      </c>
+      <c r="C381" s="1">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F381">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G381">
+        <v>53.9163</v>
+      </c>
+      <c r="H381">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>292</v>
+      </c>
+      <c r="B382" s="9">
+        <v>45135</v>
+      </c>
+      <c r="C382" s="1">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F382">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G382">
+        <v>53.9163</v>
+      </c>
+      <c r="H382">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>292</v>
+      </c>
+      <c r="B383" s="9">
+        <v>45208</v>
+      </c>
+      <c r="C383" s="1">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F383">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G383">
+        <v>53.9163</v>
+      </c>
+      <c r="H383">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>292</v>
+      </c>
+      <c r="B384" s="9">
+        <v>45226</v>
+      </c>
+      <c r="C384" s="1">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F384">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G384">
+        <v>53.9163</v>
+      </c>
+      <c r="H384">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>292</v>
+      </c>
+      <c r="B385" s="9">
+        <v>45299</v>
+      </c>
+      <c r="C385" s="1">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F385">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G385">
+        <v>53.9163</v>
+      </c>
+      <c r="H385">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>292</v>
+      </c>
+      <c r="B386" s="9">
+        <v>45317</v>
+      </c>
+      <c r="C386" s="1">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F386">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G386">
+        <v>53.9163</v>
+      </c>
+      <c r="H386">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>292</v>
+      </c>
+      <c r="B387" s="9">
+        <v>45389</v>
+      </c>
+      <c r="C387" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F387">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G387">
+        <v>53.9163</v>
+      </c>
+      <c r="H387">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>292</v>
+      </c>
+      <c r="B388" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C388" s="1">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F388">
+        <v>-104.69199999999999</v>
+      </c>
+      <c r="G388">
+        <v>53.9163</v>
+      </c>
+      <c r="H388">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>315</v>
+      </c>
+      <c r="B389" s="9">
+        <v>43501</v>
+      </c>
+      <c r="C389" s="1">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G389">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H389">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>315</v>
+      </c>
+      <c r="B390" s="9">
+        <v>43551</v>
+      </c>
+      <c r="C390" s="1">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G390">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H390">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>315</v>
+      </c>
+      <c r="B391" s="9">
+        <v>43592</v>
+      </c>
+      <c r="C391" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G391">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H391">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>315</v>
+      </c>
+      <c r="B392" s="9">
+        <v>43642</v>
+      </c>
+      <c r="C392" s="1">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G392">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H392">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>315</v>
+      </c>
+      <c r="B393" s="9">
+        <v>43682</v>
+      </c>
+      <c r="C393" s="1">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G393">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H393">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>315</v>
+      </c>
+      <c r="B394" s="9">
+        <v>43773</v>
+      </c>
+      <c r="C394" s="1">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G394">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H394">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>315</v>
+      </c>
+      <c r="B395" s="9">
+        <v>43864</v>
+      </c>
+      <c r="C395" s="1">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="F395">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G395">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H395">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>315</v>
+      </c>
+      <c r="B396" s="9">
+        <v>43886</v>
+      </c>
+      <c r="C396" s="1">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="F396">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G396">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H396">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>315</v>
+      </c>
+      <c r="B397" s="9">
+        <v>43915</v>
+      </c>
+      <c r="C397" s="1">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G397">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H397">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>315</v>
+      </c>
+      <c r="B398" s="9">
+        <v>43976</v>
+      </c>
+      <c r="C398" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G398">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H398">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>315</v>
+      </c>
+      <c r="B399" s="9">
+        <v>43984</v>
+      </c>
+      <c r="C399" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G399">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H399">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>315</v>
+      </c>
+      <c r="B400" s="9">
+        <v>44005</v>
+      </c>
+      <c r="C400" s="1">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G400">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H400">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>315</v>
+      </c>
+      <c r="B401" s="9">
+        <v>44046</v>
+      </c>
+      <c r="C401" s="1">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G401">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H401">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>315</v>
+      </c>
+      <c r="B402" s="9">
+        <v>44096</v>
+      </c>
+      <c r="C402" s="1">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G402">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H402">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>315</v>
+      </c>
+      <c r="B403" s="9">
+        <v>44187</v>
+      </c>
+      <c r="C403" s="1">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="F403">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G403">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H403">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>315</v>
+      </c>
+      <c r="B404" s="9">
+        <v>44278</v>
+      </c>
+      <c r="C404" s="1">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G404">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H404">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>315</v>
+      </c>
+      <c r="B405" s="9">
+        <v>44318</v>
+      </c>
+      <c r="C405" s="1">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G405">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H405">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>315</v>
+      </c>
+      <c r="B406" s="9">
+        <v>44347</v>
+      </c>
+      <c r="C406" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="F406">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G406">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H406">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>315</v>
+      </c>
+      <c r="B407" s="9">
+        <v>44369</v>
+      </c>
+      <c r="C407" s="1">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="F407">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G407">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H407">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>315</v>
+      </c>
+      <c r="B408" s="9">
+        <v>44550</v>
+      </c>
+      <c r="C408" s="1">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>24.242982999999999</v>
+      </c>
+      <c r="G408">
+        <v>67.987283000000005</v>
+      </c>
+      <c r="H408">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>316</v>
+      </c>
+      <c r="B409" s="9">
+        <v>43473</v>
+      </c>
+      <c r="C409" s="1">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="F409">
+        <v>29.60989</v>
+      </c>
+      <c r="G409">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H409">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>316</v>
+      </c>
+      <c r="B410" s="9">
+        <v>43535</v>
+      </c>
+      <c r="C410" s="1">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="F410">
+        <v>29.60989</v>
+      </c>
+      <c r="G410">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H410">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>316</v>
+      </c>
+      <c r="B411" s="9">
+        <v>43584</v>
+      </c>
+      <c r="C411" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>29.60989</v>
+      </c>
+      <c r="G411">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H411">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>316</v>
+      </c>
+      <c r="B412" s="9">
+        <v>43676</v>
+      </c>
+      <c r="C412" s="1">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>29.60989</v>
+      </c>
+      <c r="G412">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H412">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>316</v>
+      </c>
+      <c r="B413" s="9">
+        <v>43705</v>
+      </c>
+      <c r="C413" s="1">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>29.60989</v>
+      </c>
+      <c r="G413">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H413">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>316</v>
+      </c>
+      <c r="B414" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C414" s="1">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="F414">
+        <v>29.60989</v>
+      </c>
+      <c r="G414">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H414">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>316</v>
+      </c>
+      <c r="B415" s="9">
+        <v>43927</v>
+      </c>
+      <c r="C415" s="1">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>29.60989</v>
+      </c>
+      <c r="G415">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H415">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>316</v>
+      </c>
+      <c r="B416" s="9">
+        <v>43948</v>
+      </c>
+      <c r="C416" s="1">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>29.60989</v>
+      </c>
+      <c r="G416">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H416">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>316</v>
+      </c>
+      <c r="B417" s="9">
+        <v>43977</v>
+      </c>
+      <c r="C417" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>29.60989</v>
+      </c>
+      <c r="G417">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H417">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>316</v>
+      </c>
+      <c r="B418" s="9">
+        <v>44018</v>
+      </c>
+      <c r="C418" s="1">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>29.60989</v>
+      </c>
+      <c r="G418">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H418">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>316</v>
+      </c>
+      <c r="B419" s="9">
+        <v>44068</v>
+      </c>
+      <c r="C419" s="1">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>29.60989</v>
+      </c>
+      <c r="G419">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H419">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>316</v>
+      </c>
+      <c r="B420" s="9">
+        <v>44159</v>
+      </c>
+      <c r="C420" s="1">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="F420">
+        <v>29.60989</v>
+      </c>
+      <c r="G420">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H420">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>316</v>
+      </c>
+      <c r="B421" s="9">
+        <v>44290</v>
+      </c>
+      <c r="C421" s="1">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>29.60989</v>
+      </c>
+      <c r="G421">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H421">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>316</v>
+      </c>
+      <c r="B422" s="9">
+        <v>44312</v>
+      </c>
+      <c r="C422" s="1">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>0.5</v>
+      </c>
+      <c r="F422">
+        <v>29.60989</v>
+      </c>
+      <c r="G422">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H422">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>316</v>
+      </c>
+      <c r="B423" s="9">
+        <v>44381</v>
+      </c>
+      <c r="C423" s="1">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>29.60989</v>
+      </c>
+      <c r="G423">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H423">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>316</v>
+      </c>
+      <c r="B424" s="9">
+        <v>44431</v>
+      </c>
+      <c r="C424" s="1">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>29.60989</v>
+      </c>
+      <c r="G424">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H424">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>316</v>
+      </c>
+      <c r="B425" s="9">
+        <v>44443</v>
+      </c>
+      <c r="C425" s="1">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>29.60989</v>
+      </c>
+      <c r="G425">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H425">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>316</v>
+      </c>
+      <c r="B426" s="9">
+        <v>44522</v>
+      </c>
+      <c r="C426" s="1">
+        <v>1</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="F426">
+        <v>29.60989</v>
+      </c>
+      <c r="G426">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H426">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>316</v>
+      </c>
+      <c r="B427" s="9">
+        <v>44534</v>
+      </c>
+      <c r="C427" s="1">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="F427">
+        <v>29.60989</v>
+      </c>
+      <c r="G427">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H427">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>316</v>
+      </c>
+      <c r="B428" s="9">
+        <v>44584</v>
+      </c>
+      <c r="C428" s="1">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+      <c r="F428">
+        <v>29.60989</v>
+      </c>
+      <c r="G428">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H428">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>316</v>
+      </c>
+      <c r="B429" s="9">
+        <v>44593</v>
+      </c>
+      <c r="C429" s="1">
+        <v>1</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="F429">
+        <v>29.60989</v>
+      </c>
+      <c r="G429">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H429">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>316</v>
+      </c>
+      <c r="B430" s="9">
+        <v>44675</v>
+      </c>
+      <c r="C430" s="1">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>29.60989</v>
+      </c>
+      <c r="G430">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H430">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>316</v>
+      </c>
+      <c r="B431" s="9">
+        <v>44744</v>
+      </c>
+      <c r="C431" s="1">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>29.60989</v>
+      </c>
+      <c r="G431">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H431">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>316</v>
+      </c>
+      <c r="B432" s="9">
+        <v>44766</v>
+      </c>
+      <c r="C432" s="1">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>29.60989</v>
+      </c>
+      <c r="G432">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H432">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>316</v>
+      </c>
+      <c r="B433" s="9">
+        <v>44886</v>
+      </c>
+      <c r="C433" s="1">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="F433">
+        <v>29.60989</v>
+      </c>
+      <c r="G433">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H433">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>316</v>
+      </c>
+      <c r="B434" s="9">
+        <v>44897</v>
+      </c>
+      <c r="C434" s="1">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="F434">
+        <v>29.60989</v>
+      </c>
+      <c r="G434">
+        <v>67.754919999999998</v>
+      </c>
+      <c r="H434">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>317</v>
+      </c>
+      <c r="B435" s="9">
+        <v>43600</v>
+      </c>
+      <c r="C435" s="1">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>24.29496</v>
+      </c>
+      <c r="G435">
+        <v>61.84769</v>
+      </c>
+      <c r="H435">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>317</v>
+      </c>
+      <c r="B436" s="9">
+        <v>43634</v>
+      </c>
+      <c r="C436" s="1">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>24.29496</v>
+      </c>
+      <c r="G436">
+        <v>61.84769</v>
+      </c>
+      <c r="H436">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>317</v>
+      </c>
+      <c r="B437" s="9">
+        <v>43690</v>
+      </c>
+      <c r="C437" s="1">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>24.29496</v>
+      </c>
+      <c r="G437">
+        <v>61.84769</v>
+      </c>
+      <c r="H437">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>317</v>
+      </c>
+      <c r="B438" s="9">
+        <v>43872</v>
+      </c>
+      <c r="C438" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>24.29496</v>
+      </c>
+      <c r="G438">
+        <v>61.84769</v>
+      </c>
+      <c r="H438">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>317</v>
+      </c>
+      <c r="B439" s="9">
+        <v>43907</v>
+      </c>
+      <c r="C439" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>24.29496</v>
+      </c>
+      <c r="G439">
+        <v>61.84769</v>
+      </c>
+      <c r="H439">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>317</v>
+      </c>
+      <c r="B440" s="9">
+        <v>43963</v>
+      </c>
+      <c r="C440" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>24.29496</v>
+      </c>
+      <c r="G440">
+        <v>61.84769</v>
+      </c>
+      <c r="H440">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>317</v>
+      </c>
+      <c r="B441" s="9">
+        <v>43997</v>
+      </c>
+      <c r="C441" s="1">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>24.29496</v>
+      </c>
+      <c r="G441">
+        <v>61.84769</v>
+      </c>
+      <c r="H441">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>317</v>
+      </c>
+      <c r="B442" s="9">
+        <v>44054</v>
+      </c>
+      <c r="C442" s="1">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>24.29496</v>
+      </c>
+      <c r="G442">
+        <v>61.84769</v>
+      </c>
+      <c r="H442">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>317</v>
+      </c>
+      <c r="B443" s="9">
+        <v>44088</v>
+      </c>
+      <c r="C443" s="1">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>24.29496</v>
+      </c>
+      <c r="G443">
+        <v>61.84769</v>
+      </c>
+      <c r="H443">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>317</v>
+      </c>
+      <c r="B444" s="9">
+        <v>44145</v>
+      </c>
+      <c r="C444" s="1">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>24.29496</v>
+      </c>
+      <c r="G444">
+        <v>61.84769</v>
+      </c>
+      <c r="H444">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>317</v>
+      </c>
+      <c r="B445" s="9">
+        <v>44235</v>
+      </c>
+      <c r="C445" s="1">
+        <v>1</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="F445">
+        <v>24.29496</v>
+      </c>
+      <c r="G445">
+        <v>61.84769</v>
+      </c>
+      <c r="H445">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>317</v>
+      </c>
+      <c r="B446" s="9">
+        <v>44361</v>
+      </c>
+      <c r="C446" s="1">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>24.29496</v>
+      </c>
+      <c r="G446">
+        <v>61.84769</v>
+      </c>
+      <c r="H446">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>317</v>
+      </c>
+      <c r="B447" s="9">
+        <v>44417</v>
+      </c>
+      <c r="C447" s="1">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>24.29496</v>
+      </c>
+      <c r="G447">
+        <v>61.84769</v>
+      </c>
+      <c r="H447">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>317</v>
+      </c>
+      <c r="B448" s="9">
+        <v>44508</v>
+      </c>
+      <c r="C448" s="1">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>24.29496</v>
+      </c>
+      <c r="G448">
+        <v>61.84769</v>
+      </c>
+      <c r="H448">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>317</v>
+      </c>
+      <c r="B449" s="9">
+        <v>44599</v>
+      </c>
+      <c r="C449" s="1">
+        <v>1</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="F449">
+        <v>24.29496</v>
+      </c>
+      <c r="G449">
+        <v>61.84769</v>
+      </c>
+      <c r="H449">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>317</v>
+      </c>
+      <c r="B450" s="9">
+        <v>44633</v>
+      </c>
+      <c r="C450" s="1">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>24.29496</v>
+      </c>
+      <c r="G450">
+        <v>61.84769</v>
+      </c>
+      <c r="H450">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>317</v>
+      </c>
+      <c r="B451" s="9">
+        <v>44689</v>
+      </c>
+      <c r="C451" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>24.29496</v>
+      </c>
+      <c r="G451">
+        <v>61.84769</v>
+      </c>
+      <c r="H451">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>317</v>
+      </c>
+      <c r="B452" s="9">
+        <v>44718</v>
+      </c>
+      <c r="C452" s="1">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>24.29496</v>
+      </c>
+      <c r="G452">
+        <v>61.84769</v>
+      </c>
+      <c r="H452">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>317</v>
+      </c>
+      <c r="B453" s="9">
+        <v>44724</v>
+      </c>
+      <c r="C453" s="1">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>24.29496</v>
+      </c>
+      <c r="G453">
+        <v>61.84769</v>
+      </c>
+      <c r="H453">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>317</v>
+      </c>
+      <c r="B454" s="9">
+        <v>44780</v>
+      </c>
+      <c r="C454" s="1">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>24.29496</v>
+      </c>
+      <c r="G454">
+        <v>61.84769</v>
+      </c>
+      <c r="H454">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>317</v>
+      </c>
+      <c r="B455" s="9">
+        <v>44815</v>
+      </c>
+      <c r="C455" s="1">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>24.29496</v>
+      </c>
+      <c r="G455">
+        <v>61.84769</v>
+      </c>
+      <c r="H455">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>317</v>
+      </c>
+      <c r="B456" s="9">
+        <v>44871</v>
+      </c>
+      <c r="C456" s="1">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>24.29496</v>
+      </c>
+      <c r="G456">
+        <v>61.84769</v>
+      </c>
+      <c r="H456">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>318</v>
+      </c>
+      <c r="B457" s="9">
+        <v>43422</v>
+      </c>
+      <c r="C457" s="1">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G457">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H457">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>318</v>
+      </c>
+      <c r="B458" s="9">
+        <v>43513</v>
+      </c>
+      <c r="C458" s="1">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G458">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H458">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>318</v>
+      </c>
+      <c r="B459" s="9">
+        <v>43604</v>
+      </c>
+      <c r="C459" s="1">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G459">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H459">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>318</v>
+      </c>
+      <c r="B460" s="9">
+        <v>43723</v>
+      </c>
+      <c r="C460" s="1">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G460">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H460">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>318</v>
+      </c>
+      <c r="B461" s="9">
+        <v>43725</v>
+      </c>
+      <c r="C461" s="1">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G461">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H461">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>318</v>
+      </c>
+      <c r="B462" s="9">
+        <v>43787</v>
+      </c>
+      <c r="C462" s="1">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G462">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H462">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>318</v>
+      </c>
+      <c r="B463" s="9">
+        <v>43968</v>
+      </c>
+      <c r="C463" s="1">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G463">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H463">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>318</v>
+      </c>
+      <c r="B464" s="9">
+        <v>44058</v>
+      </c>
+      <c r="C464" s="1">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G464">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H464">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>318</v>
+      </c>
+      <c r="B465" s="9">
+        <v>44239</v>
+      </c>
+      <c r="C465" s="1">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="F465">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G465">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H465">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>318</v>
+      </c>
+      <c r="B466" s="9">
+        <v>44330</v>
+      </c>
+      <c r="C466" s="1">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G466">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H466">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>318</v>
+      </c>
+      <c r="B467" s="9">
+        <v>44332</v>
+      </c>
+      <c r="C467" s="1">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G467">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H467">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>318</v>
+      </c>
+      <c r="B468" s="9">
+        <v>44421</v>
+      </c>
+      <c r="C468" s="1">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G468">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H468">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>318</v>
+      </c>
+      <c r="B469" s="9">
+        <v>44423</v>
+      </c>
+      <c r="C469" s="1">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G469">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H469">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>318</v>
+      </c>
+      <c r="B470" s="9">
+        <v>44604</v>
+      </c>
+      <c r="C470" s="1">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G470">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H470">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>318</v>
+      </c>
+      <c r="B471" s="9">
+        <v>44693</v>
+      </c>
+      <c r="C471" s="1">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G471">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H471">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>318</v>
+      </c>
+      <c r="B472" s="9">
+        <v>44784</v>
+      </c>
+      <c r="C472" s="1">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G472">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H472">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>318</v>
+      </c>
+      <c r="B473" s="9">
+        <v>44786</v>
+      </c>
+      <c r="C473" s="1">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G473">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H473">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>318</v>
+      </c>
+      <c r="B474" s="9">
+        <v>44875</v>
+      </c>
+      <c r="C474" s="1">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>23.806501109999999</v>
+      </c>
+      <c r="G474">
+        <v>60.645983059999999</v>
+      </c>
+      <c r="H474">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9443,8 +14112,105 @@
     <hyperlink ref="E288" r:id="rId269" display="https://phenocam.nau.edu/data/archive/proctor/2024/04/proctor_2024_04_07_051637.jpg" xr:uid="{85B04C31-7805-4162-8028-E74A4C19DEF5}"/>
     <hyperlink ref="E290" r:id="rId270" display="https://phenocam.nau.edu/data/archive/proctor/2024/10/proctor_2024_10_06_090139.jpg" xr:uid="{E95592BA-839F-44BC-971F-CC0EA5DB1F1F}"/>
     <hyperlink ref="E289" r:id="rId271" display="https://phenocam.nau.edu/webcam/browse/proctor/2024/07/" xr:uid="{0F8661B5-0F8D-4D40-8786-0DAEE1AFC8A7}"/>
+    <hyperlink ref="E291" r:id="rId272" display="https://phenocam.nau.edu/data/archive/willowcreek/2018/12/willowcreek_2018_12_09_083108.jpg" xr:uid="{6432E501-EFA2-4D6F-9F0A-B7493023825D}"/>
+    <hyperlink ref="E292" r:id="rId273" display="https://phenocam.nau.edu/data/archive/willowcreek/2018/12/willowcreek_2018_12_16_080109.jpg" xr:uid="{FC15C15E-950A-41F0-9237-E8A3D9BC4FB2}"/>
+    <hyperlink ref="E293" r:id="rId274" display="https://phenocam.nau.edu/data/archive/willowcreek/2019/03/willowcreek_2019_03_17_060108.jpg" xr:uid="{5557FD73-980C-4188-9FC1-51E99B6E152F}"/>
+    <hyperlink ref="E294" r:id="rId275" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2019/06/" xr:uid="{48B02168-424F-4A1F-A458-00D963C30792}"/>
+    <hyperlink ref="E295" r:id="rId276" display="https://phenocam.nau.edu/data/archive/willowcreek/2020/03/willowcreek_2020_03_14_063105.jpg" xr:uid="{58144E2F-76D3-46CD-8E95-AD80290175BF}"/>
+    <hyperlink ref="E296" r:id="rId277" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2020/06/" xr:uid="{91945D52-B2BC-484D-9201-8B80B6E17DB7}"/>
+    <hyperlink ref="E297" r:id="rId278" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2020/06/" xr:uid="{61CC7370-165F-4BB7-89C6-FED6FD7ACCFA}"/>
+    <hyperlink ref="E298" r:id="rId279" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2020/09/" xr:uid="{402139CC-9192-4046-BE3B-DB97440CA216}"/>
+    <hyperlink ref="E299" r:id="rId280" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2021/06/" xr:uid="{6EC0245A-B03A-4288-AD58-A2CB3590681D}"/>
+    <hyperlink ref="E300" r:id="rId281" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2021/09/" xr:uid="{A679CCD7-4343-4CF6-9BF8-66B2F2BCC06B}"/>
+    <hyperlink ref="E301" r:id="rId282" display="https://phenocam.nau.edu/data/archive/willowcreek/2022/03/willowcreek_2022_03_04_063106.jpg" xr:uid="{17266103-B18F-4011-8EE8-12D67B19B5C7}"/>
+    <hyperlink ref="E302" r:id="rId283" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2022/09/" xr:uid="{5A9C1D53-8030-42B1-851D-97A6EAF87391}"/>
+    <hyperlink ref="E303" r:id="rId284" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2022/09/" xr:uid="{B18DD1AD-A3B3-48D5-87F4-7063990DA3A5}"/>
+    <hyperlink ref="E304" r:id="rId285" display="https://phenocam.nau.edu/data/archive/willowcreek/2022/12/willowcreek_2022_12_01_072605.jpg" xr:uid="{F6BFB5C2-D842-4A98-8C29-395AED71811E}"/>
+    <hyperlink ref="E305" r:id="rId286" display="https://phenocam.nau.edu/data/archive/willowcreek/2023/03/willowcreek_2023_03_02_065605.jpg" xr:uid="{4570D739-09BE-42D8-8843-B291C9D81D35}"/>
+    <hyperlink ref="E306" r:id="rId287" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2023/06/" xr:uid="{B1317228-667C-4B73-AA4D-EAC19A7B4859}"/>
+    <hyperlink ref="E307" r:id="rId288" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2023/06/" xr:uid="{FA19DABF-EC5A-4F7F-9326-2B0BF1044A3A}"/>
+    <hyperlink ref="E308" r:id="rId289" display="https://phenocam.nau.edu/data/archive/willowcreek/2024/02/willowcreek_2024_02_28_175606.jpg" xr:uid="{5D782857-21B1-467C-A6ED-679371F826F6}"/>
+    <hyperlink ref="E309" r:id="rId290" display="https://phenocam.nau.edu/data/archive/willowcreek/2024/03/willowcreek_2024_03_06_062605.jpg" xr:uid="{5E748BB4-DB6C-450E-8896-B6A9C06C0248}"/>
+    <hyperlink ref="E310" r:id="rId291" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2024/" xr:uid="{87646E42-AE1E-469C-87CA-69B6041E75F0}"/>
+    <hyperlink ref="E311" r:id="rId292" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2024/09/" xr:uid="{BB6F797D-3C56-44C6-87D3-30ACD3B79854}"/>
+    <hyperlink ref="E312" r:id="rId293" display="https://phenocam.nau.edu/data/archive/glees/2018/12/glees_2018_12_05_071605.jpg" xr:uid="{0855E031-F91B-4CB1-ADFB-FAB8A11E9F59}"/>
+    <hyperlink ref="E313" r:id="rId294" display="https://phenocam.nau.edu/data/archive/glees/2019/01/glees_2019_01_04_111605.jpg" xr:uid="{437B9811-352A-4443-989A-4345272ECB75}"/>
+    <hyperlink ref="E314" r:id="rId295" display="https://phenocam.nau.edu/data/archive/glees/2019/04/glees_2019_04_05_074605.jpg" xr:uid="{F7C7BB6D-9318-4EBB-89CC-E8B9DAC9A0C9}"/>
+    <hyperlink ref="E315" r:id="rId296" display="https://phenocam.nau.edu/data/archive/glees/2019/06/glees_2019_06_04_164606.jpg" xr:uid="{1E1C5962-0E10-41B1-96A0-C52B9E359534}"/>
+    <hyperlink ref="E316" r:id="rId297" display="https://phenocam.nau.edu/data/archive/glees/2019/08/glees_2019_08_03_120306.jpg" xr:uid="{017A3BF1-3BC2-437B-8B32-FB40E39292D7}"/>
+    <hyperlink ref="E317" r:id="rId298" display="https://phenocam.nau.edu/data/archive/glees/2019/10/glees_2019_10_04_123305.jpg" xr:uid="{28403825-69E3-43EE-88DB-03AD3F49815E}"/>
+    <hyperlink ref="E318" r:id="rId299" display="https://phenocam.nau.edu/data/archive/glees/2019/11/glees_2019_11_02_063305.jpg" xr:uid="{7B39AA23-B14B-45B4-8EC6-41E0878BE7AA}"/>
+    <hyperlink ref="E319" r:id="rId300" display="https://phenocam.nau.edu/data/archive/glees/2020/01/glees_2020_01_03_073305.jpg" xr:uid="{1DB2F385-A104-45A6-93A9-060D5DFB5CE3}"/>
+    <hyperlink ref="E320" r:id="rId301" display="https://phenocam.nau.edu/data/archive/glees/2020/03/glees_2020_03_03_070305.jpg" xr:uid="{2534D488-3314-4557-92CF-77C5803D4965}"/>
+    <hyperlink ref="E321" r:id="rId302" display="https://phenocam.nau.edu/data/archive/glees/2020/06/glees_2020_06_02_050305.jpg" xr:uid="{2A3933AB-6672-4199-82C6-B2352587BB16}"/>
+    <hyperlink ref="E322" r:id="rId303" display="https://phenocam.nau.edu/data/archive/glees/2020/07/glees_2020_07_02_110305.jpg" xr:uid="{6CB5D1BB-CD73-47B6-BFC8-0387409979A6}"/>
+    <hyperlink ref="E323" r:id="rId304" display="https://phenocam.nau.edu/data/archive/glees/2020/10/glees_2020_10_01_103305.jpg" xr:uid="{222F97D3-CE1D-4B7D-8DCF-18B842A16194}"/>
+    <hyperlink ref="E324" r:id="rId305" display="https://phenocam.nau.edu/data/archive/glees/2021/04/glees_2021_04_01_054006.jpg" xr:uid="{715A8B9F-9FB4-4357-9C4D-45CED3E8FE2E}"/>
+    <hyperlink ref="E325" r:id="rId306" display="https://phenocam.nau.edu/data/archive/glees/2022/04/glees_2022_04_28_044806.jpg" xr:uid="{E34AA6E0-EB3E-4B68-B694-8E5F568640AC}"/>
+    <hyperlink ref="E326" r:id="rId307" display="https://phenocam.nau.edu/webcam/browse/glees/2022/08/" xr:uid="{55B1706D-F5A0-4BE4-9315-5632A266E441}"/>
+    <hyperlink ref="E327" r:id="rId308" display="https://phenocam.nau.edu/webcam/browse/glees/2022/09/" xr:uid="{73DC32F1-C1F8-4226-B882-6E46F29937E2}"/>
+    <hyperlink ref="E328" r:id="rId309" display="https://phenocam.nau.edu/data/archive/glees/2022/11/glees_2022_11_27_071806.jpg" xr:uid="{5094B975-0F33-40BE-B874-A81E254B5174}"/>
+    <hyperlink ref="E329" r:id="rId310" display="https://phenocam.nau.edu/data/archive/glees/2022/12/glees_2022_12_27_141805.jpg" xr:uid="{7A4792F3-0312-4795-B04B-BCDB0951B1F4}"/>
+    <hyperlink ref="E330" r:id="rId311" display="https://phenocam.nau.edu/data/archive/glees/2023/02/glees_2023_02_25_174805.jpg" xr:uid="{F779320D-FB2E-4CAC-8E7E-0B7F2E27E68B}"/>
+    <hyperlink ref="E331" r:id="rId312" display="https://phenocam.nau.edu/data/archive/glees/2023/02/glees_2023_02_25_174805.jpg" xr:uid="{91B91078-D2EB-4472-AE5F-521E35969643}"/>
+    <hyperlink ref="E332" r:id="rId313" display="https://phenocam.nau.edu/webcam/browse/glees/2023/07/27/" xr:uid="{C8E3C780-EC07-4537-B840-07B99DEED25B}"/>
+    <hyperlink ref="E333" r:id="rId314" display="https://phenocam.nau.edu/webcam/browse/glees/2023/08/" xr:uid="{0C819187-DC48-4F89-9813-0A0146E9F5FA}"/>
+    <hyperlink ref="E334" r:id="rId315" display="https://phenocam.nau.edu/webcam/browse/glees/2023/09/26/" xr:uid="{36C522E2-D700-4C4F-98F9-A0546BE2F81D}"/>
+    <hyperlink ref="E335" r:id="rId316" display="https://phenocam.nau.edu/data/archive/glees/2023/11/glees_2023_11_25_101805.jpg" xr:uid="{6D1CD72D-C030-4CC5-A7AF-549A10BD2546}"/>
+    <hyperlink ref="E336" r:id="rId317" display="https://phenocam.nau.edu/data/archive/glees/2024/02/glees_2024_02_24_062405.jpg" xr:uid="{5345F4CD-3564-450C-943B-70633598128C}"/>
+    <hyperlink ref="E337" r:id="rId318" display="https://phenocam.nau.edu/data/archive/glees/2024/09/glees_2024_09_23_105506.jpg" xr:uid="{4E919C48-7CBB-4E7D-9895-D0BB2CFB3163}"/>
+    <hyperlink ref="E338" r:id="rId319" display="https://phenocam.nau.edu/data/archive/glees/2024/11/glees_2024_11_22_142506.jpg" xr:uid="{14E42D84-99AA-4B45-A212-8EC3E01FE30B}"/>
+    <hyperlink ref="E339" r:id="rId320" display="https://phenocam.nau.edu/data/archive/queens/2019/01/queens_2019_01_30_100006.jpg" xr:uid="{360F97A1-32E3-4B32-8EF1-D0E2AFDD25AC}"/>
+    <hyperlink ref="E340" r:id="rId321" display="https://phenocam.nau.edu/webcam/browse/queens/2019/08/29/" xr:uid="{64300654-71D6-45F2-B166-4DAE35EC5864}"/>
+    <hyperlink ref="E341" r:id="rId322" display="https://phenocam.nau.edu/webcam/browse/queens/2020/06/" xr:uid="{3606B5EA-BE7D-4442-9176-5F6FCB4B4BA0}"/>
+    <hyperlink ref="E342" r:id="rId323" display="https://phenocam.nau.edu/webcam/browse/queens/2020/07/" xr:uid="{DFB63F6C-F29B-40B2-B756-FE377A238D6B}"/>
+    <hyperlink ref="E343" r:id="rId324" display="https://phenocam.nau.edu/webcam/browse/queens/2020/07/" xr:uid="{8BE3C269-7F7E-4102-8D0F-8E803322BA1D}"/>
+    <hyperlink ref="E344" r:id="rId325" display="https://phenocam.nau.edu/data/archive/queens/2021/01/queens_2021_01_26_133705.jpg" xr:uid="{581C972E-FAD5-4C40-81F6-BE5C2719AABE}"/>
+    <hyperlink ref="E345" r:id="rId326" display="https://phenocam.nau.edu/data/archive/queens/2021/04/queens_2021_04_26_183705.jpg" xr:uid="{8134EC7C-C2DF-4851-B86C-88CCB2699F60}"/>
+    <hyperlink ref="E346" r:id="rId327" display="https://phenocam.nau.edu/webcam/browse/queens/2021/07/" xr:uid="{39E80B6E-830D-420C-978D-CB24403FA304}"/>
+    <hyperlink ref="E347" r:id="rId328" display="https://phenocam.nau.edu/webcam/browse/queens/2021/09/29/" xr:uid="{A1F0B736-794E-45FB-812E-87EA6B13AFFA}"/>
+    <hyperlink ref="E348" r:id="rId329" display="https://phenocam.nau.edu/data/archive/queens/2022/01/queens_2022_01_24_073705.jpg" xr:uid="{C92BEEB3-7357-41C6-A5E6-717D317A2BDD}"/>
+    <hyperlink ref="E349" r:id="rId330" display="https://phenocam.nau.edu/webcam/browse/queens/2022/05/30/" xr:uid="{08C0B088-AF09-4EF3-905D-339DD7F7D166}"/>
+    <hyperlink ref="E350" r:id="rId331" display="https://phenocam.nau.edu/webcam/browse/queens/2022/08/" xr:uid="{CDDD0D64-5427-4AA4-BE50-DCF21C8A44AC}"/>
+    <hyperlink ref="E351" r:id="rId332" display="https://phenocam.nau.edu/webcam/browse/queens/2022/10/23/" xr:uid="{B6A785FC-7351-432F-83AF-200ABF0AEC47}"/>
+    <hyperlink ref="E352" r:id="rId333" display="https://phenocam.nau.edu/webcam/browse/queens/2023/06/" xr:uid="{0AD0347E-2ED3-4371-80DC-7EA8EAAAA724}"/>
+    <hyperlink ref="E353" r:id="rId334" display="https://phenocam.nau.edu/webcam/browse/queens/2023/07/" xr:uid="{693642E3-0B7D-415D-8F27-B39C16D5B5BB}"/>
+    <hyperlink ref="E354" r:id="rId335" display="https://phenocam.nau.edu/webcam/browse/queens/2023/09/" xr:uid="{C80C9464-DE78-4B01-BB15-E2B4899D7D89}"/>
+    <hyperlink ref="E355" r:id="rId336" display="https://phenocam.nau.edu/data/archive/queens/2024/01/queens_2024_01_20_170705.jpg" xr:uid="{A02E6DE4-2A3F-4711-BBD0-CCC283B58833}"/>
+    <hyperlink ref="E356" r:id="rId337" display="https://phenocam.nau.edu/data/archive/queens/2024/04/queens_2024_04_20_080705.jpg" xr:uid="{71732A73-A45E-43B7-BEA9-D0176B6680A4}"/>
+    <hyperlink ref="E357" r:id="rId338" display="https://phenocam.nau.edu/webcam/browse/queens/2024/07/" xr:uid="{BA4883D8-62EC-4BE3-9CB5-EE63A5099E48}"/>
+    <hyperlink ref="E358" r:id="rId339" display="https://phenocam.nau.edu/webcam/browse/queens/2024/09/" xr:uid="{D3B1FC12-0785-4C5F-B805-8724451A0B43}"/>
+    <hyperlink ref="E359" r:id="rId340" display="https://phenocam.nau.edu/webcam/browse/queens/2024/10/19/" xr:uid="{91474577-2D62-4B5F-8CD6-28E81DEBF0DA}"/>
+    <hyperlink ref="E360" r:id="rId341" display="https://phenocam.nau.edu/data/archive/canadaojp/2018/10/canadaojp_2018_10_18_162959.jpg" xr:uid="{290773FF-E96A-430B-89B5-8F0643BDC8A2}"/>
+    <hyperlink ref="E361" r:id="rId342" display="https://phenocam.nau.edu/data/archive/canadaojp/2018/11/canadaojp_2018_11_06_075959.jpg" xr:uid="{1F0819BD-00BB-48DD-A9B0-9AB4CCCC9C6D}"/>
+    <hyperlink ref="E362" r:id="rId343" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/01/canadaojp_2019_01_17_112959.jpg" xr:uid="{A1B0AB39-29F1-42F2-9848-0F99E964C900}"/>
+    <hyperlink ref="E363" r:id="rId344" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/04/canadaojp_2019_04_19_052959.jpg" xr:uid="{EE3E83E5-CD91-4EE6-B043-E4AD901B7E66}"/>
+    <hyperlink ref="E364" r:id="rId345" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/05/canadaojp_2019_05_07_055959.jpg" xr:uid="{402003C0-325E-4DDE-B5C8-F49920BF9CD4}"/>
+    <hyperlink ref="E366" r:id="rId346" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/01/canadaojp_2020_01_15_172959.jpg" xr:uid="{BF63B7FE-8773-4E1B-AF38-10A9318138F0}"/>
+    <hyperlink ref="E367" r:id="rId347" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/02/canadaojp_2020_02_03_082959.jpg" xr:uid="{97357D13-902B-4AD9-97C0-B7172BE7D222}"/>
+    <hyperlink ref="E368" r:id="rId348" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/04/canadaojp_2020_04_15_145959.jpg" xr:uid="{1AEA1DE9-CAC3-4D50-BD68-91F6C040C124}"/>
+    <hyperlink ref="E369" r:id="rId349" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/05/canadaojp_2020_05_04_045959.jpg" xr:uid="{7FEFF69E-8EF3-47C2-97DC-E2FCDF6D1F66}"/>
+    <hyperlink ref="E370" r:id="rId350" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2020/08/" xr:uid="{7D494400-A0AC-4B0C-8B31-50CE9D455FD4}"/>
+    <hyperlink ref="E371" r:id="rId351" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/10/canadaojp_2020_10_14_073000.jpg" xr:uid="{BE6B4BF5-12D7-45AF-A709-93A34BEBD7B0}"/>
+    <hyperlink ref="E372" r:id="rId352" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/10/canadaojp_2020_10_31_172959.jpg" xr:uid="{7C0A5B0C-8750-43C5-BE13-04552E2E9AF0}"/>
+    <hyperlink ref="E373" r:id="rId353" display="https://phenocam.nau.edu/data/archive/canadaojp/2021/07/canadaojp_2021_07_13_090017.jpg" xr:uid="{012E2006-40F4-4D21-932F-372E49393B4C}"/>
+    <hyperlink ref="E374" r:id="rId354" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2021/08/" xr:uid="{7EC7461C-3AB0-47A8-B754-B4EE9C17ED39}"/>
+    <hyperlink ref="E375" r:id="rId355" display="https://phenocam.nau.edu/data/archive/canadaojp/2021/10/canadaojp_2021_10_31_080028.jpg" xr:uid="{497814D7-EF41-404C-8AAD-E4741DF8E19B}"/>
+    <hyperlink ref="E376" r:id="rId356" display="https://phenocam.nau.edu/data/archive/canadaojp/2022/05/canadaojp_2022_05_11_050011.jpg" xr:uid="{8CAA40C0-1C7A-4FF8-8BB2-E942B8CEE438}"/>
+    <hyperlink ref="E377" r:id="rId357" display="https://phenocam.nau.edu/data/archive/canadaojp/2022/10/canadaojp_2022_10_29_080013.jpg" xr:uid="{C3000DF7-BF58-4692-8626-749F7D0D773F}"/>
+    <hyperlink ref="E378" r:id="rId358" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/01/canadaojp_2023_01_28_083014.jpg" xr:uid="{2969C543-FFEE-4527-97DE-746F39BB0BC2}"/>
+    <hyperlink ref="E379" r:id="rId359" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/04/canadaojp_2023_04_10_090014.jpg" xr:uid="{F4B832AA-6FAD-4C6B-BA3D-DBE9AA5B24D8}"/>
+    <hyperlink ref="E380" r:id="rId360" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/04/canadaojp_2023_04_28_203029.jpg" xr:uid="{D5C2A1F1-F3A0-4F54-869F-B2B6D674B001}"/>
+    <hyperlink ref="E381" r:id="rId361" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/07/10/" xr:uid="{2ECA9FF1-435F-44AE-A2D7-B86172E6B01A}"/>
+    <hyperlink ref="E382" r:id="rId362" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/07/" xr:uid="{12398967-610E-46D5-A894-2C8944AF6C68}"/>
+    <hyperlink ref="E383" r:id="rId363" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/10/09/" xr:uid="{E6742861-834D-45E2-9706-635FAAE98023}"/>
+    <hyperlink ref="E384" r:id="rId364" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/10/canadaojp_2023_10_27_130014.jpg" xr:uid="{B60B8613-CA12-40FB-BCF3-7F93CB0F48CD}"/>
+    <hyperlink ref="E385" r:id="rId365" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/01/canadaojp_2024_01_07_170018.jpg" xr:uid="{4B4F5252-CCC6-4800-8B5F-FF892D1A6027}"/>
+    <hyperlink ref="E386" r:id="rId366" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2024/01/26/" xr:uid="{E43DABBC-EB84-4E4C-B9B9-CE913621480E}"/>
+    <hyperlink ref="E387" r:id="rId367" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/04/canadaojp_2024_04_07_200012.jpg" xr:uid="{AD1C1CC3-CC54-4F32-ABD9-063EF8DD5798}"/>
+    <hyperlink ref="E388" r:id="rId368" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/04/canadaojp_2024_04_25_053015.jpg" xr:uid="{234FFA58-932A-4A85-BC44-C3309B72CE1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId272"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId369"/>
 </worksheet>
 </file>
--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20235A6F-F1B1-4074-A15A-53D69992DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3441705-62C8-4660-BEF8-52C4F9521665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1008" windowWidth="23040" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="311">
   <si>
     <t>Camera</t>
   </si>
@@ -706,30 +706,6 @@
   </si>
   <si>
     <t>NEON.D05.UNDE.DP1.00033_2024_04_26_090006.jpg (1296×960)</t>
-  </si>
-  <si>
-    <t>u_mich_bio</t>
-  </si>
-  <si>
-    <t>umichbiological_2018_11_18_080006.jpg (1296×960)</t>
-  </si>
-  <si>
-    <t>umichbiological_2020_01_10_170006.jpg (1296×960)</t>
-  </si>
-  <si>
-    <t>umichbiological_2020_02_15_080007.jpg (1296×960)</t>
-  </si>
-  <si>
-    <t>umichbiological_2020_05_16_070006.jpg (1296×960)</t>
-  </si>
-  <si>
-    <t>umichbiological_2021_02_12_110005.jpg (1296×960)</t>
-  </si>
-  <si>
-    <t>umichbiological_2023_02_09_080005.jpg (1296×960)</t>
-  </si>
-  <si>
-    <t>umichbiological_2024_02_07_080005.jpg (1296×960)</t>
   </si>
   <si>
     <t>bartlett</t>
@@ -1465,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K474"/>
+  <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C406" sqref="C406"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8021,10 +7997,10 @@
         <v>227</v>
       </c>
       <c r="B242" s="9">
-        <v>43422</v>
+        <v>43591</v>
       </c>
       <c r="C242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8033,21 +8009,22 @@
         <v>228</v>
       </c>
       <c r="F242">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G242">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H242">
-        <v>230</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K242" s="6"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>227</v>
       </c>
       <c r="B243" s="9">
-        <v>43688</v>
+        <v>43684</v>
       </c>
       <c r="C243" s="1">
         <v>0</v>
@@ -8059,21 +8036,22 @@
         <v>206</v>
       </c>
       <c r="F243">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G243">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H243">
-        <v>230</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K243" s="6"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>227</v>
       </c>
       <c r="B244" s="9">
-        <v>43694</v>
+        <v>43711</v>
       </c>
       <c r="C244" s="1">
         <v>0</v>
@@ -8085,21 +8063,22 @@
         <v>206</v>
       </c>
       <c r="F244">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G244">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H244">
-        <v>230</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K244" s="6"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>227</v>
       </c>
       <c r="B245" s="9">
-        <v>43840</v>
+        <v>43863</v>
       </c>
       <c r="C245" s="1">
         <v>1</v>
@@ -8111,24 +8090,25 @@
         <v>229</v>
       </c>
       <c r="F245">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G245">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H245">
-        <v>230</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K245" s="6"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>227</v>
       </c>
       <c r="B246" s="9">
-        <v>43876</v>
+        <v>43928</v>
       </c>
       <c r="C246" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8137,21 +8117,22 @@
         <v>230</v>
       </c>
       <c r="F246">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G246">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H246">
-        <v>230</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K246" s="6"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>227</v>
       </c>
       <c r="B247" s="9">
-        <v>43967</v>
+        <v>44019</v>
       </c>
       <c r="C247" s="1">
         <v>0</v>
@@ -8160,76 +8141,76 @@
         <v>0</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="F247">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G247">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H247">
-        <v>230</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K247" s="6"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>227</v>
       </c>
       <c r="B248" s="9">
-        <v>44058</v>
+        <v>44227</v>
       </c>
       <c r="C248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="F248">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G248">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H248">
-        <v>230</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K248" s="6"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>227</v>
       </c>
       <c r="B249" s="9">
-        <v>44239</v>
+        <v>44382</v>
       </c>
       <c r="C249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249">
-        <v>0.5</v>
-      </c>
-      <c r="E249" s="8" t="s">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G249">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H249">
-        <v>230</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K249" s="6"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>227</v>
       </c>
       <c r="B250" s="9">
-        <v>44421</v>
+        <v>44408</v>
       </c>
       <c r="C250" s="1">
         <v>0</v>
@@ -8237,25 +8218,23 @@
       <c r="D250">
         <v>0</v>
       </c>
-      <c r="E250" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="F250">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G250">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H250">
-        <v>230</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K250" s="6"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>227</v>
       </c>
       <c r="B251" s="9">
-        <v>44476</v>
+        <v>44502</v>
       </c>
       <c r="C251" s="1">
         <v>0</v>
@@ -8264,16 +8243,16 @@
         <v>0</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="F251">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G251">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H251">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="K251" s="6"/>
     </row>
@@ -8282,7 +8261,7 @@
         <v>227</v>
       </c>
       <c r="B252" s="9">
-        <v>44512</v>
+        <v>44710</v>
       </c>
       <c r="C252" s="1">
         <v>0</v>
@@ -8294,13 +8273,13 @@
         <v>206</v>
       </c>
       <c r="F252">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G252">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H252">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="K252" s="6"/>
     </row>
@@ -8309,7 +8288,7 @@
         <v>227</v>
       </c>
       <c r="B253" s="9">
-        <v>44839</v>
+        <v>44745</v>
       </c>
       <c r="C253" s="1">
         <v>0</v>
@@ -8321,13 +8300,13 @@
         <v>206</v>
       </c>
       <c r="F253">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G253">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H253">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="K253" s="6"/>
     </row>
@@ -8336,7 +8315,7 @@
         <v>227</v>
       </c>
       <c r="B254" s="9">
-        <v>44875</v>
+        <v>44862</v>
       </c>
       <c r="C254" s="1">
         <v>0</v>
@@ -8348,13 +8327,13 @@
         <v>206</v>
       </c>
       <c r="F254">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G254">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H254">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="K254" s="6"/>
     </row>
@@ -8363,7 +8342,7 @@
         <v>227</v>
       </c>
       <c r="B255" s="9">
-        <v>44966</v>
+        <v>44953</v>
       </c>
       <c r="C255" s="1">
         <v>1</v>
@@ -8375,49 +8354,47 @@
         <v>233</v>
       </c>
       <c r="F255">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G255">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H255">
-        <v>230</v>
-      </c>
-      <c r="K255" s="6"/>
+        <v>268</v>
+      </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>227</v>
       </c>
       <c r="B256" s="9">
-        <v>45057</v>
+        <v>45018</v>
       </c>
       <c r="C256" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F256">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G256">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H256">
-        <v>230</v>
-      </c>
-      <c r="K256" s="6"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>227</v>
       </c>
       <c r="B257" s="9">
-        <v>45112</v>
+        <v>45135</v>
       </c>
       <c r="C257" s="1">
         <v>0</v>
@@ -8429,22 +8406,21 @@
         <v>206</v>
       </c>
       <c r="F257">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G257">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H257">
-        <v>230</v>
-      </c>
-      <c r="K257" s="6"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>227</v>
       </c>
       <c r="B258" s="9">
-        <v>45203</v>
+        <v>45199</v>
       </c>
       <c r="C258" s="1">
         <v>0</v>
@@ -8456,22 +8432,21 @@
         <v>206</v>
       </c>
       <c r="F258">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G258">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H258">
-        <v>230</v>
-      </c>
-      <c r="K258" s="6"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>227</v>
       </c>
       <c r="B259" s="9">
-        <v>45329</v>
+        <v>45381</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
@@ -8480,52 +8455,50 @@
         <v>0</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F259">
-        <v>-84.713800000000006</v>
+        <v>-71.2881</v>
       </c>
       <c r="G259">
-        <v>45.559800000000003</v>
+        <v>44.064599999999999</v>
       </c>
       <c r="H259">
-        <v>230</v>
-      </c>
-      <c r="K259" s="6"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B260" s="9">
-        <v>43591</v>
+        <v>43482</v>
       </c>
       <c r="C260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F260">
+        <v>-72.866</v>
+      </c>
+      <c r="G260">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H260">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>236</v>
       </c>
-      <c r="F260">
-        <v>-71.2881</v>
-      </c>
-      <c r="G260">
-        <v>44.064599999999999</v>
-      </c>
-      <c r="H260">
-        <v>268</v>
-      </c>
-      <c r="K260" s="6"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>235</v>
-      </c>
       <c r="B261" s="9">
-        <v>43684</v>
+        <v>43572</v>
       </c>
       <c r="C261" s="1">
         <v>0</v>
@@ -8534,25 +8507,24 @@
         <v>0</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F261">
-        <v>-71.2881</v>
+        <v>-72.866</v>
       </c>
       <c r="G261">
-        <v>44.064599999999999</v>
+        <v>44.524999999999999</v>
       </c>
       <c r="H261">
-        <v>268</v>
-      </c>
-      <c r="K261" s="6"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B262" s="9">
-        <v>43711</v>
+        <v>44027</v>
       </c>
       <c r="C262" s="1">
         <v>0</v>
@@ -8564,76 +8536,73 @@
         <v>206</v>
       </c>
       <c r="F262">
-        <v>-71.2881</v>
+        <v>-72.866</v>
       </c>
       <c r="G262">
-        <v>44.064599999999999</v>
+        <v>44.524999999999999</v>
       </c>
       <c r="H262">
-        <v>268</v>
-      </c>
-      <c r="K262" s="6"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B263" s="9">
-        <v>43863</v>
+        <v>44354</v>
       </c>
       <c r="C263" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F263">
-        <v>-71.2881</v>
+        <v>-72.866</v>
       </c>
       <c r="G263">
-        <v>44.064599999999999</v>
+        <v>44.524999999999999</v>
       </c>
       <c r="H263">
-        <v>268</v>
-      </c>
-      <c r="K263" s="6"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B264" s="9">
-        <v>43928</v>
+        <v>44481</v>
       </c>
       <c r="C264" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="F264">
-        <v>-71.2881</v>
+        <v>-72.866</v>
       </c>
       <c r="G264">
-        <v>44.064599999999999</v>
+        <v>44.524999999999999</v>
       </c>
       <c r="H264">
-        <v>268</v>
-      </c>
-      <c r="K264" s="6"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B265" s="9">
-        <v>44019</v>
+        <v>44507</v>
       </c>
       <c r="C265" s="1">
         <v>0</v>
@@ -8642,76 +8611,76 @@
         <v>0</v>
       </c>
       <c r="E265" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F265">
+        <v>-72.866</v>
+      </c>
+      <c r="G265">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H265">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>236</v>
+      </c>
+      <c r="B266" s="9">
+        <v>44571</v>
+      </c>
+      <c r="C266" s="1">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F266">
+        <v>-72.866</v>
+      </c>
+      <c r="G266">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="H266">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>236</v>
+      </c>
+      <c r="B267" s="9">
+        <v>44718</v>
+      </c>
+      <c r="C267" s="1">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F265">
-        <v>-71.2881</v>
-      </c>
-      <c r="G265">
-        <v>44.064599999999999</v>
-      </c>
-      <c r="H265">
-        <v>268</v>
-      </c>
-      <c r="K265" s="6"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>235</v>
-      </c>
-      <c r="B266" s="9">
-        <v>44227</v>
-      </c>
-      <c r="C266" s="1">
-        <v>1</v>
-      </c>
-      <c r="D266">
-        <v>0</v>
-      </c>
-      <c r="E266" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F266">
-        <v>-71.2881</v>
-      </c>
-      <c r="G266">
-        <v>44.064599999999999</v>
-      </c>
-      <c r="H266">
-        <v>268</v>
-      </c>
-      <c r="K266" s="6"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>235</v>
-      </c>
-      <c r="B267" s="9">
-        <v>44382</v>
-      </c>
-      <c r="C267" s="1">
-        <v>0</v>
-      </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
       <c r="F267">
-        <v>-71.2881</v>
+        <v>-72.866</v>
       </c>
       <c r="G267">
-        <v>44.064599999999999</v>
+        <v>44.524999999999999</v>
       </c>
       <c r="H267">
-        <v>268</v>
-      </c>
-      <c r="K267" s="6"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B268" s="9">
-        <v>44408</v>
+        <v>45026</v>
       </c>
       <c r="C268" s="1">
         <v>0</v>
@@ -8719,23 +8688,25 @@
       <c r="D268">
         <v>0</v>
       </c>
+      <c r="E268" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="F268">
-        <v>-71.2881</v>
+        <v>-72.866</v>
       </c>
       <c r="G268">
-        <v>44.064599999999999</v>
+        <v>44.524999999999999</v>
       </c>
       <c r="H268">
-        <v>268</v>
-      </c>
-      <c r="K268" s="6"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B269" s="9">
-        <v>44502</v>
+        <v>45207</v>
       </c>
       <c r="C269" s="1">
         <v>0</v>
@@ -8744,52 +8715,50 @@
         <v>0</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F269">
-        <v>-71.2881</v>
+        <v>-72.866</v>
       </c>
       <c r="G269">
-        <v>44.064599999999999</v>
+        <v>44.524999999999999</v>
       </c>
       <c r="H269">
-        <v>268</v>
-      </c>
-      <c r="K269" s="6"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B270" s="9">
-        <v>44710</v>
+        <v>45389</v>
       </c>
       <c r="C270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="F270">
-        <v>-71.2881</v>
+        <v>-72.866</v>
       </c>
       <c r="G270">
-        <v>44.064599999999999</v>
+        <v>44.524999999999999</v>
       </c>
       <c r="H270">
-        <v>268</v>
-      </c>
-      <c r="K270" s="6"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B271" s="9">
-        <v>44745</v>
+        <v>45480</v>
       </c>
       <c r="C271" s="1">
         <v>0</v>
@@ -8801,22 +8770,21 @@
         <v>206</v>
       </c>
       <c r="F271">
-        <v>-71.2881</v>
+        <v>-72.866</v>
       </c>
       <c r="G271">
-        <v>44.064599999999999</v>
+        <v>44.524999999999999</v>
       </c>
       <c r="H271">
-        <v>268</v>
-      </c>
-      <c r="K271" s="6"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B272" s="9">
-        <v>44862</v>
+        <v>45571</v>
       </c>
       <c r="C272" s="1">
         <v>0</v>
@@ -8825,25 +8793,24 @@
         <v>0</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="F272">
-        <v>-71.2881</v>
+        <v>-72.866</v>
       </c>
       <c r="G272">
-        <v>44.064599999999999</v>
+        <v>44.524999999999999</v>
       </c>
       <c r="H272">
-        <v>268</v>
-      </c>
-      <c r="K272" s="6"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B273" s="9">
-        <v>44953</v>
+        <v>43443</v>
       </c>
       <c r="C273" s="1">
         <v>1</v>
@@ -8852,24 +8819,24 @@
         <v>0</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F273">
-        <v>-71.2881</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G273">
-        <v>44.064599999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H273">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B274" s="9">
-        <v>45018</v>
+        <v>43450</v>
       </c>
       <c r="C274" s="1">
         <v>1</v>
@@ -8878,50 +8845,50 @@
         <v>0</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F274">
-        <v>-71.2881</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G274">
-        <v>44.064599999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H274">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B275" s="9">
-        <v>45135</v>
+        <v>43541</v>
       </c>
       <c r="C275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275">
         <v>0</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="F275">
-        <v>-71.2881</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G275">
-        <v>44.064599999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H275">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B276" s="9">
-        <v>45199</v>
+        <v>43631</v>
       </c>
       <c r="C276" s="1">
         <v>0</v>
@@ -8933,21 +8900,21 @@
         <v>206</v>
       </c>
       <c r="F276">
-        <v>-71.2881</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G276">
-        <v>44.064599999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H276">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B277" s="9">
-        <v>45381</v>
+        <v>43904</v>
       </c>
       <c r="C277" s="1">
         <v>1</v>
@@ -8956,50 +8923,50 @@
         <v>0</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F277">
-        <v>-71.2881</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G277">
-        <v>44.064599999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H277">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B278" s="9">
-        <v>43482</v>
+        <v>43988</v>
       </c>
       <c r="C278" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E278" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F278">
+        <v>-90.079099999999997</v>
+      </c>
+      <c r="G278">
+        <v>45.805999999999997</v>
+      </c>
+      <c r="H278">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>245</v>
       </c>
-      <c r="F278">
-        <v>-72.866</v>
-      </c>
-      <c r="G278">
-        <v>44.524999999999999</v>
-      </c>
-      <c r="H278">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>244</v>
-      </c>
       <c r="B279" s="9">
-        <v>43572</v>
+        <v>43995</v>
       </c>
       <c r="C279" s="1">
         <v>0</v>
@@ -9008,24 +8975,24 @@
         <v>0</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="F279">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G279">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H279">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B280" s="9">
-        <v>44027</v>
+        <v>44079</v>
       </c>
       <c r="C280" s="1">
         <v>0</v>
@@ -9037,21 +9004,22 @@
         <v>206</v>
       </c>
       <c r="F280">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G280">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H280">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="K280" s="6"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B281" s="9">
-        <v>44354</v>
+        <v>44351</v>
       </c>
       <c r="C281" s="1">
         <v>0</v>
@@ -9063,21 +9031,22 @@
         <v>206</v>
       </c>
       <c r="F281">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G281">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H281">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="K281" s="6"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B282" s="9">
-        <v>44481</v>
+        <v>44449</v>
       </c>
       <c r="C282" s="1">
         <v>0</v>
@@ -9089,73 +9058,76 @@
         <v>206</v>
       </c>
       <c r="F282">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G282">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H282">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="K282" s="6"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B283" s="9">
-        <v>44507</v>
+        <v>44624</v>
       </c>
       <c r="C283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D283">
         <v>0</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F283">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G283">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H283">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="K283" s="6"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B284" s="9">
-        <v>44571</v>
+        <v>44806</v>
       </c>
       <c r="C284" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D284">
         <v>0</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="F284">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G284">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H284">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="K284" s="6"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B285" s="9">
-        <v>44718</v>
+        <v>44812</v>
       </c>
       <c r="C285" s="1">
         <v>0</v>
@@ -9167,99 +9139,103 @@
         <v>206</v>
       </c>
       <c r="F285">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G285">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H285">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="K285" s="6"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B286" s="9">
-        <v>45026</v>
+        <v>44896</v>
       </c>
       <c r="C286" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F286">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G286">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H286">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="K286" s="6"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B287" s="9">
-        <v>45207</v>
+        <v>44987</v>
       </c>
       <c r="C287" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287">
         <v>0</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F287">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G287">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H287">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="K287" s="6"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B288" s="9">
-        <v>45389</v>
+        <v>45078</v>
       </c>
       <c r="C288" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D288">
         <v>0</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="F288">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G288">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H288">
-        <v>403</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="K288" s="6"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B289" s="9">
-        <v>45480</v>
+        <v>45085</v>
       </c>
       <c r="C289" s="1">
         <v>0</v>
@@ -9271,50 +9247,51 @@
         <v>206</v>
       </c>
       <c r="F289">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G289">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H289">
-        <v>403</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="K289" s="6"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B290" s="9">
-        <v>45571</v>
+        <v>45350</v>
       </c>
       <c r="C290" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F290">
-        <v>-72.866</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="G290">
-        <v>44.524999999999999</v>
+        <v>45.805999999999997</v>
       </c>
       <c r="H290">
-        <v>403</v>
+        <v>521</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B291" s="9">
-        <v>43443</v>
+        <v>45357</v>
       </c>
       <c r="C291" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9334,19 +9311,19 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B292" s="9">
-        <v>43450</v>
+        <v>45532</v>
       </c>
       <c r="C292" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D292">
         <v>0</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="F292">
         <v>-90.079099999999997</v>
@@ -9360,19 +9337,19 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B293" s="9">
-        <v>43541</v>
+        <v>45539</v>
       </c>
       <c r="C293" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293">
         <v>0</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="F293">
         <v>-90.079099999999997</v>
@@ -9386,36 +9363,36 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B294" s="9">
-        <v>43631</v>
+        <v>43439</v>
       </c>
       <c r="C294" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="F294">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G294">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H294">
-        <v>521</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B295" s="9">
-        <v>43904</v>
+        <v>43469</v>
       </c>
       <c r="C295" s="1">
         <v>1</v>
@@ -9427,73 +9404,73 @@
         <v>257</v>
       </c>
       <c r="F295">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G295">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H295">
-        <v>521</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B296" s="9">
-        <v>43988</v>
+        <v>43560</v>
       </c>
       <c r="C296" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D296">
         <v>0</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="F296">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G296">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H296">
-        <v>521</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B297" s="9">
-        <v>43995</v>
+        <v>43620</v>
       </c>
       <c r="C297" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297">
         <v>0</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="F297">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G297">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H297">
-        <v>521</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B298" s="9">
-        <v>44079</v>
+        <v>43680</v>
       </c>
       <c r="C298" s="1">
         <v>0</v>
@@ -9502,25 +9479,24 @@
         <v>0</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="F298">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G298">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H298">
-        <v>521</v>
-      </c>
-      <c r="K298" s="6"/>
+        <v>3150</v>
+      </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B299" s="9">
-        <v>44351</v>
+        <v>43742</v>
       </c>
       <c r="C299" s="1">
         <v>0</v>
@@ -9529,345 +9505,336 @@
         <v>0</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="F299">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G299">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H299">
-        <v>521</v>
-      </c>
-      <c r="K299" s="6"/>
+        <v>3150</v>
+      </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B300" s="9">
-        <v>44449</v>
+        <v>43771</v>
       </c>
       <c r="C300" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D300">
         <v>0</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="F300">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G300">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H300">
-        <v>521</v>
-      </c>
-      <c r="K300" s="6"/>
+        <v>3150</v>
+      </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B301" s="9">
-        <v>44624</v>
+        <v>43833</v>
       </c>
       <c r="C301" s="1">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F301">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G301">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H301">
-        <v>521</v>
-      </c>
-      <c r="K301" s="6"/>
+        <v>3150</v>
+      </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B302" s="9">
-        <v>44806</v>
+        <v>43893</v>
       </c>
       <c r="C302" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D302">
         <v>0</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="F302">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G302">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H302">
-        <v>521</v>
-      </c>
-      <c r="K302" s="6"/>
+        <v>3150</v>
+      </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B303" s="9">
-        <v>44812</v>
+        <v>43984</v>
       </c>
       <c r="C303" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D303">
         <v>0</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="F303">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G303">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H303">
-        <v>521</v>
-      </c>
-      <c r="K303" s="6"/>
+        <v>3150</v>
+      </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B304" s="9">
-        <v>44896</v>
+        <v>44014</v>
       </c>
       <c r="C304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F304">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G304">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H304">
-        <v>521</v>
-      </c>
-      <c r="K304" s="6"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B305" s="9">
-        <v>44987</v>
+        <v>44105</v>
       </c>
       <c r="C305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D305">
         <v>0</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F305">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G305">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H305">
-        <v>521</v>
-      </c>
-      <c r="K305" s="6"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B306" s="9">
-        <v>45078</v>
+        <v>44287</v>
       </c>
       <c r="C306" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D306">
         <v>0</v>
       </c>
       <c r="E306" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F306">
+        <v>-106.2394</v>
+      </c>
+      <c r="G306">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H306">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>255</v>
+      </c>
+      <c r="B307" s="9">
+        <v>44679</v>
+      </c>
+      <c r="C307" s="1">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F307">
+        <v>-106.2394</v>
+      </c>
+      <c r="G307">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H307">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>255</v>
+      </c>
+      <c r="B308" s="9">
+        <v>44801</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F306">
-        <v>-90.079099999999997</v>
-      </c>
-      <c r="G306">
-        <v>45.805999999999997</v>
-      </c>
-      <c r="H306">
-        <v>521</v>
-      </c>
-      <c r="K306" s="6"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>253</v>
-      </c>
-      <c r="B307" s="9">
-        <v>45085</v>
-      </c>
-      <c r="C307" s="1">
-        <v>0</v>
-      </c>
-      <c r="D307">
-        <v>0</v>
-      </c>
-      <c r="E307" s="8" t="s">
+      <c r="F308">
+        <v>-106.2394</v>
+      </c>
+      <c r="G308">
+        <v>41.364400000000003</v>
+      </c>
+      <c r="H308">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>255</v>
+      </c>
+      <c r="B309" s="9">
+        <v>44832</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F307">
-        <v>-90.079099999999997</v>
-      </c>
-      <c r="G307">
-        <v>45.805999999999997</v>
-      </c>
-      <c r="H307">
-        <v>521</v>
-      </c>
-      <c r="K307" s="6"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>253</v>
-      </c>
-      <c r="B308" s="9">
-        <v>45350</v>
-      </c>
-      <c r="C308" s="1">
-        <v>1</v>
-      </c>
-      <c r="D308">
-        <v>0</v>
-      </c>
-      <c r="E308" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F308">
-        <v>-90.079099999999997</v>
-      </c>
-      <c r="G308">
-        <v>45.805999999999997</v>
-      </c>
-      <c r="H308">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>253</v>
-      </c>
-      <c r="B309" s="9">
-        <v>45357</v>
-      </c>
-      <c r="C309" s="1">
-        <v>0</v>
-      </c>
-      <c r="D309">
-        <v>0</v>
-      </c>
-      <c r="E309" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="F309">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G309">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H309">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B310" s="9">
-        <v>45532</v>
+        <v>44892</v>
       </c>
       <c r="C310" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="F310">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G310">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H310">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B311" s="9">
-        <v>45539</v>
+        <v>44922</v>
       </c>
       <c r="C311" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D311">
         <v>0</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="F311">
-        <v>-90.079099999999997</v>
+        <v>-106.2394</v>
       </c>
       <c r="G311">
-        <v>45.805999999999997</v>
+        <v>41.364400000000003</v>
       </c>
       <c r="H311">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B312" s="9">
-        <v>43439</v>
+        <v>44983</v>
       </c>
       <c r="C312" s="1">
         <v>1</v>
@@ -9876,7 +9843,7 @@
         <v>0.5</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F312">
         <v>-106.2394</v>
@@ -9888,21 +9855,21 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B313" s="9">
-        <v>43469</v>
+        <v>45074</v>
       </c>
       <c r="C313" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D313">
         <v>0</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F313">
         <v>-106.2394</v>
@@ -9914,21 +9881,21 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B314" s="9">
-        <v>43560</v>
+        <v>45104</v>
       </c>
       <c r="C314" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D314">
         <v>0</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F314">
         <v>-106.2394</v>
@@ -9940,21 +9907,21 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B315" s="9">
-        <v>43620</v>
+        <v>45164</v>
       </c>
       <c r="C315" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D315">
         <v>0</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F315">
         <v>-106.2394</v>
@@ -9966,12 +9933,12 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B316" s="9">
-        <v>43680</v>
+        <v>45195</v>
       </c>
       <c r="C316" s="1">
         <v>0</v>
@@ -9980,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="F316">
         <v>-106.2394</v>
@@ -9992,21 +9959,21 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B317" s="9">
-        <v>43742</v>
+        <v>45255</v>
       </c>
       <c r="C317" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F317">
         <v>-106.2394</v>
@@ -10018,21 +9985,21 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B318" s="9">
-        <v>43771</v>
+        <v>45346</v>
       </c>
       <c r="C318" s="1">
         <v>1</v>
       </c>
       <c r="D318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F318">
         <v>-106.2394</v>
@@ -10044,21 +10011,21 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B319" s="9">
-        <v>43833</v>
+        <v>45558</v>
       </c>
       <c r="C319" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F319">
         <v>-106.2394</v>
@@ -10070,12 +10037,12 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B320" s="9">
-        <v>43893</v>
+        <v>45619</v>
       </c>
       <c r="C320" s="1">
         <v>1</v>
@@ -10084,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F320">
         <v>-106.2394</v>
@@ -10098,36 +10065,36 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B321" s="9">
-        <v>43984</v>
+        <v>43495</v>
       </c>
       <c r="C321" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D321">
         <v>0</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F321">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G321">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H321">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B322" s="9">
-        <v>44014</v>
+        <v>43706</v>
       </c>
       <c r="C322" s="1">
         <v>0</v>
@@ -10136,24 +10103,24 @@
         <v>0</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="F322">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G322">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H322">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B323" s="9">
-        <v>44105</v>
+        <v>43985</v>
       </c>
       <c r="C323" s="1">
         <v>0</v>
@@ -10162,102 +10129,102 @@
         <v>0</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="F323">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G323">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H323">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B324" s="9">
-        <v>44287</v>
+        <v>44014</v>
       </c>
       <c r="C324" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D324">
         <v>0</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="F324">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G324">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H324">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B325" s="9">
-        <v>44679</v>
+        <v>44040</v>
       </c>
       <c r="C325" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D325">
         <v>0</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="F325">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G325">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H325">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B326" s="9">
-        <v>44801</v>
+        <v>44222</v>
       </c>
       <c r="C326" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D326">
         <v>0</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="F326">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G326">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H326">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B327" s="9">
-        <v>44832</v>
+        <v>44313</v>
       </c>
       <c r="C327" s="1">
         <v>0</v>
@@ -10266,128 +10233,128 @@
         <v>0</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="F327">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G327">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H327">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B328" s="9">
-        <v>44892</v>
+        <v>44404</v>
       </c>
       <c r="C328" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D328">
         <v>0</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="F328">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G328">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H328">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B329" s="9">
-        <v>44922</v>
+        <v>44468</v>
       </c>
       <c r="C329" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D329">
         <v>0</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="F329">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G329">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H329">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B330" s="9">
-        <v>44983</v>
+        <v>44585</v>
       </c>
       <c r="C330" s="1">
         <v>1</v>
       </c>
       <c r="D330">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F330">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G330">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H330">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B331" s="9">
-        <v>45074</v>
+        <v>44711</v>
       </c>
       <c r="C331" s="1">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D331">
         <v>0</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="F331">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G331">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H331">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B332" s="9">
-        <v>45104</v>
+        <v>44802</v>
       </c>
       <c r="C332" s="1">
         <v>0</v>
@@ -10399,21 +10366,21 @@
         <v>206</v>
       </c>
       <c r="F332">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G332">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H332">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B333" s="9">
-        <v>45164</v>
+        <v>44857</v>
       </c>
       <c r="C333" s="1">
         <v>0</v>
@@ -10425,21 +10392,21 @@
         <v>206</v>
       </c>
       <c r="F333">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G333">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H333">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B334" s="9">
-        <v>45195</v>
+        <v>45103</v>
       </c>
       <c r="C334" s="1">
         <v>0</v>
@@ -10451,134 +10418,134 @@
         <v>206</v>
       </c>
       <c r="F334">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G334">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H334">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B335" s="9">
-        <v>45255</v>
+        <v>45130</v>
       </c>
       <c r="C335" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="F335">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G335">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H335">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B336" s="9">
-        <v>45346</v>
+        <v>45194</v>
       </c>
       <c r="C336" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="F336">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G336">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H336">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B337" s="9">
-        <v>45558</v>
+        <v>45312</v>
       </c>
       <c r="C337" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D337">
         <v>0</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F337">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G337">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H337">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B338" s="9">
-        <v>45619</v>
+        <v>45402</v>
       </c>
       <c r="C338" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D338">
         <v>0</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F338">
-        <v>-106.2394</v>
+        <v>-76.323999999999998</v>
       </c>
       <c r="G338">
-        <v>41.364400000000003</v>
+        <v>44.564999999999998</v>
       </c>
       <c r="H338">
-        <v>3150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B339" s="9">
-        <v>43495</v>
+        <v>45493</v>
       </c>
       <c r="C339" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D339">
         <v>0</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="F339">
         <v>-76.323999999999998</v>
@@ -10592,10 +10559,10 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B340" s="9">
-        <v>43706</v>
+        <v>45558</v>
       </c>
       <c r="C340" s="1">
         <v>0</v>
@@ -10618,10 +10585,10 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B341" s="9">
-        <v>43985</v>
+        <v>45584</v>
       </c>
       <c r="C341" s="1">
         <v>0</v>
@@ -10644,91 +10611,91 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
+        <v>284</v>
+      </c>
+      <c r="B342" s="9">
+        <v>43391</v>
+      </c>
+      <c r="C342" s="1">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B342" s="9">
-        <v>44014</v>
-      </c>
-      <c r="C342" s="1">
-        <v>0</v>
-      </c>
-      <c r="D342">
-        <v>0</v>
-      </c>
-      <c r="E342" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="F342">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G342">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H342">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B343" s="9">
-        <v>44040</v>
+        <v>43410</v>
       </c>
       <c r="C343" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E343" s="8" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="F343">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G343">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H343">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B344" s="9">
-        <v>44222</v>
+        <v>43482</v>
       </c>
       <c r="C344" s="1">
         <v>1</v>
       </c>
       <c r="D344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E344" s="8" t="s">
         <v>287</v>
       </c>
       <c r="F344">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G344">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H344">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B345" s="9">
-        <v>44313</v>
+        <v>43573</v>
       </c>
       <c r="C345" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -10737,47 +10704,47 @@
         <v>288</v>
       </c>
       <c r="F345">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G345">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H345">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B346" s="9">
-        <v>44404</v>
+        <v>43592</v>
       </c>
       <c r="C346" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D346">
         <v>0</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="F346">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G346">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H346">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B347" s="9">
-        <v>44468</v>
+        <v>43693</v>
       </c>
       <c r="C347" s="1">
         <v>0</v>
@@ -10785,103 +10752,100 @@
       <c r="D347">
         <v>0</v>
       </c>
-      <c r="E347" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="F347">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G347">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H347">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B348" s="9">
-        <v>44585</v>
+        <v>43846</v>
       </c>
       <c r="C348" s="1">
         <v>1</v>
       </c>
       <c r="D348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E348" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F348">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G348">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H348">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B349" s="9">
-        <v>44711</v>
+        <v>43864</v>
       </c>
       <c r="C349" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D349">
         <v>0</v>
       </c>
       <c r="E349" s="8" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="F349">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G349">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H349">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B350" s="9">
-        <v>44802</v>
+        <v>43936</v>
       </c>
       <c r="C350" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350">
         <v>0</v>
       </c>
       <c r="E350" s="8" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="F350">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G350">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H350">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B351" s="9">
-        <v>44857</v>
+        <v>43955</v>
       </c>
       <c r="C351" s="1">
         <v>0</v>
@@ -10890,24 +10854,24 @@
         <v>0</v>
       </c>
       <c r="E351" s="8" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="F351">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G351">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H351">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B352" s="9">
-        <v>45103</v>
+        <v>44046</v>
       </c>
       <c r="C352" s="1">
         <v>0</v>
@@ -10919,21 +10883,21 @@
         <v>206</v>
       </c>
       <c r="F352">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G352">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H352">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B353" s="9">
-        <v>45130</v>
+        <v>44118</v>
       </c>
       <c r="C353" s="1">
         <v>0</v>
@@ -10942,76 +10906,76 @@
         <v>0</v>
       </c>
       <c r="E353" s="8" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="F353">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G353">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H353">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B354" s="9">
-        <v>45194</v>
+        <v>44136</v>
       </c>
       <c r="C354" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D354">
         <v>0</v>
       </c>
       <c r="E354" s="8" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="F354">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G354">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H354">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B355" s="9">
-        <v>45312</v>
+        <v>44390</v>
       </c>
       <c r="C355" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D355">
         <v>0</v>
       </c>
       <c r="E355" s="8" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F355">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G355">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H355">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B356" s="9">
-        <v>45402</v>
+        <v>44409</v>
       </c>
       <c r="C356" s="1">
         <v>0</v>
@@ -11020,24 +10984,24 @@
         <v>0</v>
       </c>
       <c r="E356" s="8" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="F356">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G356">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H356">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B357" s="9">
-        <v>45493</v>
+        <v>44500</v>
       </c>
       <c r="C357" s="1">
         <v>0</v>
@@ -11046,24 +11010,24 @@
         <v>0</v>
       </c>
       <c r="E357" s="8" t="s">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="F357">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G357">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H357">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B358" s="9">
-        <v>45558</v>
+        <v>44692</v>
       </c>
       <c r="C358" s="1">
         <v>0</v>
@@ -11072,59 +11036,59 @@
         <v>0</v>
       </c>
       <c r="E358" s="8" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="F358">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G358">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H358">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B359" s="9">
-        <v>45584</v>
+        <v>44863</v>
       </c>
       <c r="C359" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D359">
         <v>0</v>
       </c>
       <c r="E359" s="8" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="F359">
-        <v>-76.323999999999998</v>
+        <v>-104.69199999999999</v>
       </c>
       <c r="G359">
-        <v>44.564999999999998</v>
+        <v>53.9163</v>
       </c>
       <c r="H359">
-        <v>126</v>
+        <v>451</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B360" s="9">
-        <v>43391</v>
+        <v>44954</v>
       </c>
       <c r="C360" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E360" s="8" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F360">
         <v>-104.69199999999999</v>
@@ -11138,19 +11102,19 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B361" s="9">
-        <v>43410</v>
+        <v>45026</v>
       </c>
       <c r="C361" s="1">
         <v>1</v>
       </c>
       <c r="D361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E361" s="8" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F361">
         <v>-104.69199999999999</v>
@@ -11164,19 +11128,19 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B362" s="9">
-        <v>43482</v>
+        <v>45045</v>
       </c>
       <c r="C362" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E362" s="8" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F362">
         <v>-104.69199999999999</v>
@@ -11190,19 +11154,19 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B363" s="9">
-        <v>43573</v>
+        <v>45117</v>
       </c>
       <c r="C363" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D363">
         <v>0</v>
       </c>
       <c r="E363" s="8" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="F363">
         <v>-104.69199999999999</v>
@@ -11216,19 +11180,19 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B364" s="9">
-        <v>43592</v>
+        <v>45135</v>
       </c>
       <c r="C364" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D364">
         <v>0</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="F364">
         <v>-104.69199999999999</v>
@@ -11242,16 +11206,19 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B365" s="9">
-        <v>43693</v>
+        <v>45208</v>
       </c>
       <c r="C365" s="1">
         <v>0</v>
       </c>
       <c r="D365">
         <v>0</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="F365">
         <v>-104.69199999999999</v>
@@ -11265,19 +11232,19 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B366" s="9">
-        <v>43846</v>
+        <v>45226</v>
       </c>
       <c r="C366" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E366" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F366">
         <v>-104.69199999999999</v>
@@ -11291,19 +11258,19 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B367" s="9">
-        <v>43864</v>
+        <v>45299</v>
       </c>
       <c r="C367" s="1">
         <v>1</v>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E367" s="8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F367">
         <v>-104.69199999999999</v>
@@ -11317,19 +11284,19 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B368" s="9">
-        <v>43936</v>
+        <v>45317</v>
       </c>
       <c r="C368" s="1">
         <v>1</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E368" s="8" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="F368">
         <v>-104.69199999999999</v>
@@ -11343,19 +11310,19 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B369" s="9">
-        <v>43955</v>
+        <v>45389</v>
       </c>
       <c r="C369" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D369">
         <v>0</v>
       </c>
       <c r="E369" s="8" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F369">
         <v>-104.69199999999999</v>
@@ -11369,10 +11336,10 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B370" s="9">
-        <v>44046</v>
+        <v>45408</v>
       </c>
       <c r="C370" s="1">
         <v>0</v>
@@ -11381,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="E370" s="8" t="s">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="F370">
         <v>-104.69199999999999</v>
@@ -11395,36 +11362,33 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B371" s="9">
-        <v>44118</v>
+        <v>43501</v>
       </c>
       <c r="C371" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D371">
-        <v>0</v>
-      </c>
-      <c r="E371" s="8" t="s">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="F371">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G371">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H371">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B372" s="9">
-        <v>44136</v>
+        <v>43551</v>
       </c>
       <c r="C372" s="1">
         <v>1</v>
@@ -11432,51 +11396,45 @@
       <c r="D372">
         <v>0</v>
       </c>
-      <c r="E372" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="F372">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G372">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H372">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B373" s="9">
-        <v>44390</v>
+        <v>43592</v>
       </c>
       <c r="C373" s="1">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="D373">
         <v>0</v>
       </c>
-      <c r="E373" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="F373">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G373">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H373">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B374" s="9">
-        <v>44409</v>
+        <v>43642</v>
       </c>
       <c r="C374" s="1">
         <v>0</v>
@@ -11484,25 +11442,22 @@
       <c r="D374">
         <v>0</v>
       </c>
-      <c r="E374" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="F374">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G374">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H374">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B375" s="9">
-        <v>44500</v>
+        <v>43682</v>
       </c>
       <c r="C375" s="1">
         <v>0</v>
@@ -11510,77 +11465,68 @@
       <c r="D375">
         <v>0</v>
       </c>
-      <c r="E375" s="8" t="s">
-        <v>305</v>
-      </c>
       <c r="F375">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G375">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H375">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B376" s="9">
-        <v>44692</v>
+        <v>43773</v>
       </c>
       <c r="C376" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D376">
-        <v>0</v>
-      </c>
-      <c r="E376" s="8" t="s">
-        <v>306</v>
+        <v>1</v>
       </c>
       <c r="F376">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G376">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H376">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B377" s="9">
-        <v>44863</v>
+        <v>43864</v>
       </c>
       <c r="C377" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D377">
-        <v>0</v>
-      </c>
-      <c r="E377" s="8" t="s">
-        <v>307</v>
+        <v>1</v>
       </c>
       <c r="F377">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G377">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H377">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B378" s="9">
-        <v>44954</v>
+        <v>43886</v>
       </c>
       <c r="C378" s="1">
         <v>1</v>
@@ -11588,25 +11534,22 @@
       <c r="D378">
         <v>1</v>
       </c>
-      <c r="E378" s="8" t="s">
-        <v>308</v>
-      </c>
       <c r="F378">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G378">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H378">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B379" s="9">
-        <v>45026</v>
+        <v>43915</v>
       </c>
       <c r="C379" s="1">
         <v>1</v>
@@ -11614,77 +11557,68 @@
       <c r="D379">
         <v>0</v>
       </c>
-      <c r="E379" s="8" t="s">
-        <v>309</v>
-      </c>
       <c r="F379">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G379">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H379">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B380" s="9">
-        <v>45045</v>
+        <v>43976</v>
       </c>
       <c r="C380" s="1">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="D380">
         <v>0</v>
       </c>
-      <c r="E380" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="F380">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G380">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H380">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B381" s="9">
-        <v>45117</v>
+        <v>43984</v>
       </c>
       <c r="C381" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D381">
         <v>0</v>
       </c>
-      <c r="E381" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="F381">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G381">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H381">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B382" s="9">
-        <v>45135</v>
+        <v>44005</v>
       </c>
       <c r="C382" s="1">
         <v>0</v>
@@ -11692,25 +11626,22 @@
       <c r="D382">
         <v>0</v>
       </c>
-      <c r="E382" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="F382">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G382">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H382">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B383" s="9">
-        <v>45208</v>
+        <v>44046</v>
       </c>
       <c r="C383" s="1">
         <v>0</v>
@@ -11718,25 +11649,22 @@
       <c r="D383">
         <v>0</v>
       </c>
-      <c r="E383" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="F383">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G383">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H383">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B384" s="9">
-        <v>45226</v>
+        <v>44096</v>
       </c>
       <c r="C384" s="1">
         <v>0</v>
@@ -11744,25 +11672,22 @@
       <c r="D384">
         <v>0</v>
       </c>
-      <c r="E384" s="8" t="s">
-        <v>311</v>
-      </c>
       <c r="F384">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G384">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H384">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B385" s="9">
-        <v>45299</v>
+        <v>44187</v>
       </c>
       <c r="C385" s="1">
         <v>1</v>
@@ -11770,109 +11695,97 @@
       <c r="D385">
         <v>1</v>
       </c>
-      <c r="E385" s="8" t="s">
-        <v>312</v>
-      </c>
       <c r="F385">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G385">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H385">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B386" s="9">
-        <v>45317</v>
+        <v>44278</v>
       </c>
       <c r="C386" s="1">
         <v>1</v>
       </c>
       <c r="D386">
-        <v>1</v>
-      </c>
-      <c r="E386" s="8" t="s">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="F386">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G386">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H386">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B387" s="9">
-        <v>45389</v>
+        <v>44318</v>
       </c>
       <c r="C387" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D387">
         <v>0</v>
       </c>
-      <c r="E387" s="8" t="s">
-        <v>313</v>
-      </c>
       <c r="F387">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G387">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H387">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B388" s="9">
-        <v>45408</v>
+        <v>44347</v>
       </c>
       <c r="C388" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D388">
         <v>0</v>
       </c>
-      <c r="E388" s="8" t="s">
-        <v>314</v>
-      </c>
       <c r="F388">
-        <v>-104.69199999999999</v>
+        <v>24.242982999999999</v>
       </c>
       <c r="G388">
-        <v>53.9163</v>
+        <v>67.987283000000005</v>
       </c>
       <c r="H388">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B389" s="9">
-        <v>43501</v>
+        <v>44369</v>
       </c>
       <c r="C389" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F389">
         <v>24.242982999999999</v>
@@ -11886,16 +11799,16 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B390" s="9">
-        <v>43551</v>
+        <v>44550</v>
       </c>
       <c r="C390" s="1">
         <v>1</v>
       </c>
       <c r="D390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F390">
         <v>24.242982999999999</v>
@@ -11909,125 +11822,125 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B391" s="9">
-        <v>43592</v>
+        <v>43473</v>
       </c>
       <c r="C391" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F391">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G391">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H391">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B392" s="9">
-        <v>43642</v>
+        <v>43535</v>
       </c>
       <c r="C392" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F392">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G392">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H392">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B393" s="9">
-        <v>43682</v>
+        <v>43584</v>
       </c>
       <c r="C393" s="1">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D393">
         <v>0</v>
       </c>
       <c r="F393">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G393">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H393">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B394" s="9">
-        <v>43773</v>
+        <v>43676</v>
       </c>
       <c r="C394" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F394">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G394">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H394">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B395" s="9">
-        <v>43864</v>
+        <v>43705</v>
       </c>
       <c r="C395" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F395">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G395">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H395">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B396" s="9">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="C396" s="1">
         <v>1</v>
@@ -12036,21 +11949,21 @@
         <v>1</v>
       </c>
       <c r="F396">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G396">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H396">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B397" s="9">
-        <v>43915</v>
+        <v>43927</v>
       </c>
       <c r="C397" s="1">
         <v>1</v>
@@ -12059,67 +11972,67 @@
         <v>0</v>
       </c>
       <c r="F397">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G397">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H397">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B398" s="9">
-        <v>43976</v>
+        <v>43948</v>
       </c>
       <c r="C398" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D398">
         <v>0</v>
       </c>
       <c r="F398">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G398">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H398">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B399" s="9">
-        <v>43984</v>
+        <v>43977</v>
       </c>
       <c r="C399" s="1">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="D399">
         <v>0</v>
       </c>
       <c r="F399">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G399">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H399">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B400" s="9">
-        <v>44005</v>
+        <v>44018</v>
       </c>
       <c r="C400" s="1">
         <v>0</v>
@@ -12128,21 +12041,21 @@
         <v>0</v>
       </c>
       <c r="F400">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G400">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H400">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B401" s="9">
-        <v>44046</v>
+        <v>44068</v>
       </c>
       <c r="C401" s="1">
         <v>0</v>
@@ -12151,136 +12064,136 @@
         <v>0</v>
       </c>
       <c r="F401">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G401">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H401">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B402" s="9">
-        <v>44096</v>
+        <v>44159</v>
       </c>
       <c r="C402" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F402">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G402">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H402">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B403" s="9">
-        <v>44187</v>
+        <v>44290</v>
       </c>
       <c r="C403" s="1">
         <v>1</v>
       </c>
       <c r="D403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F403">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G403">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H403">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B404" s="9">
-        <v>44278</v>
+        <v>44312</v>
       </c>
       <c r="C404" s="1">
         <v>1</v>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F404">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G404">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H404">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B405" s="9">
-        <v>44318</v>
+        <v>44381</v>
       </c>
       <c r="C405" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D405">
         <v>0</v>
       </c>
       <c r="F405">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G405">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H405">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B406" s="9">
-        <v>44347</v>
+        <v>44431</v>
       </c>
       <c r="C406" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D406">
         <v>0</v>
       </c>
       <c r="F406">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G406">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H406">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B407" s="9">
-        <v>44369</v>
+        <v>44443</v>
       </c>
       <c r="C407" s="1">
         <v>0</v>
@@ -12289,21 +12202,21 @@
         <v>0</v>
       </c>
       <c r="F407">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G407">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H407">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B408" s="9">
-        <v>44550</v>
+        <v>44522</v>
       </c>
       <c r="C408" s="1">
         <v>1</v>
@@ -12312,21 +12225,21 @@
         <v>1</v>
       </c>
       <c r="F408">
-        <v>24.242982999999999</v>
+        <v>29.60989</v>
       </c>
       <c r="G408">
-        <v>67.987283000000005</v>
+        <v>67.754919999999998</v>
       </c>
       <c r="H408">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B409" s="9">
-        <v>43473</v>
+        <v>44534</v>
       </c>
       <c r="C409" s="1">
         <v>1</v>
@@ -12346,10 +12259,10 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B410" s="9">
-        <v>43535</v>
+        <v>44584</v>
       </c>
       <c r="C410" s="1">
         <v>1</v>
@@ -12369,16 +12282,16 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B411" s="9">
-        <v>43584</v>
+        <v>44593</v>
       </c>
       <c r="C411" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F411">
         <v>29.60989</v>
@@ -12392,13 +12305,13 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B412" s="9">
-        <v>43676</v>
+        <v>44675</v>
       </c>
       <c r="C412" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D412">
         <v>0</v>
@@ -12415,10 +12328,10 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B413" s="9">
-        <v>43705</v>
+        <v>44744</v>
       </c>
       <c r="C413" s="1">
         <v>0</v>
@@ -12438,16 +12351,16 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B414" s="9">
-        <v>43887</v>
+        <v>44766</v>
       </c>
       <c r="C414" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F414">
         <v>29.60989</v>
@@ -12461,16 +12374,16 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B415" s="9">
-        <v>43927</v>
+        <v>44886</v>
       </c>
       <c r="C415" s="1">
         <v>1</v>
       </c>
       <c r="D415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F415">
         <v>29.60989</v>
@@ -12484,16 +12397,16 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B416" s="9">
-        <v>43948</v>
+        <v>44897</v>
       </c>
       <c r="C416" s="1">
         <v>1</v>
       </c>
       <c r="D416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F416">
         <v>29.60989</v>
@@ -12507,33 +12420,33 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B417" s="9">
-        <v>43977</v>
+        <v>43600</v>
       </c>
       <c r="C417" s="1">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="D417">
         <v>0</v>
       </c>
       <c r="F417">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G417">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H417">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B418" s="9">
-        <v>44018</v>
+        <v>43634</v>
       </c>
       <c r="C418" s="1">
         <v>0</v>
@@ -12542,21 +12455,21 @@
         <v>0</v>
       </c>
       <c r="F418">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G418">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H418">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B419" s="9">
-        <v>44068</v>
+        <v>43690</v>
       </c>
       <c r="C419" s="1">
         <v>0</v>
@@ -12565,90 +12478,90 @@
         <v>0</v>
       </c>
       <c r="F419">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G419">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H419">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B420" s="9">
-        <v>44159</v>
+        <v>43872</v>
       </c>
       <c r="C420" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F420">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G420">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H420">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B421" s="9">
-        <v>44290</v>
+        <v>43907</v>
       </c>
       <c r="C421" s="1">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="D421">
         <v>0</v>
       </c>
       <c r="F421">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G421">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H421">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B422" s="9">
-        <v>44312</v>
+        <v>43963</v>
       </c>
       <c r="C422" s="1">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="D422">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F422">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G422">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H422">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B423" s="9">
-        <v>44381</v>
+        <v>43997</v>
       </c>
       <c r="C423" s="1">
         <v>0</v>
@@ -12657,21 +12570,21 @@
         <v>0</v>
       </c>
       <c r="F423">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G423">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H423">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B424" s="9">
-        <v>44431</v>
+        <v>44054</v>
       </c>
       <c r="C424" s="1">
         <v>0</v>
@@ -12680,21 +12593,21 @@
         <v>0</v>
       </c>
       <c r="F424">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G424">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H424">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B425" s="9">
-        <v>44443</v>
+        <v>44088</v>
       </c>
       <c r="C425" s="1">
         <v>0</v>
@@ -12703,44 +12616,44 @@
         <v>0</v>
       </c>
       <c r="F425">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G425">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H425">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B426" s="9">
-        <v>44522</v>
+        <v>44145</v>
       </c>
       <c r="C426" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F426">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G426">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H426">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B427" s="9">
-        <v>44534</v>
+        <v>44235</v>
       </c>
       <c r="C427" s="1">
         <v>1</v>
@@ -12749,182 +12662,182 @@
         <v>1</v>
       </c>
       <c r="F427">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G427">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H427">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B428" s="9">
-        <v>44584</v>
+        <v>44361</v>
       </c>
       <c r="C428" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F428">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G428">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H428">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B429" s="9">
-        <v>44593</v>
+        <v>44417</v>
       </c>
       <c r="C429" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F429">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G429">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H429">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B430" s="9">
-        <v>44675</v>
+        <v>44508</v>
       </c>
       <c r="C430" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D430">
         <v>0</v>
       </c>
       <c r="F430">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G430">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H430">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B431" s="9">
-        <v>44744</v>
+        <v>44599</v>
       </c>
       <c r="C431" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F431">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G431">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H431">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B432" s="9">
-        <v>44766</v>
+        <v>44633</v>
       </c>
       <c r="C432" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D432">
         <v>0</v>
       </c>
       <c r="F432">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G432">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H432">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B433" s="9">
-        <v>44886</v>
+        <v>44689</v>
       </c>
       <c r="C433" s="1">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="D433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F433">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G433">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H433">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B434" s="9">
-        <v>44897</v>
+        <v>44718</v>
       </c>
       <c r="C434" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F434">
-        <v>29.60989</v>
+        <v>24.29496</v>
       </c>
       <c r="G434">
-        <v>67.754919999999998</v>
+        <v>61.84769</v>
       </c>
       <c r="H434">
-        <v>395</v>
+        <v>187</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B435" s="9">
-        <v>43600</v>
+        <v>44724</v>
       </c>
       <c r="C435" s="1">
         <v>0</v>
@@ -12944,10 +12857,10 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B436" s="9">
-        <v>43634</v>
+        <v>44780</v>
       </c>
       <c r="C436" s="1">
         <v>0</v>
@@ -12967,10 +12880,10 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B437" s="9">
-        <v>43690</v>
+        <v>44815</v>
       </c>
       <c r="C437" s="1">
         <v>0</v>
@@ -12990,13 +12903,13 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B438" s="9">
-        <v>43872</v>
+        <v>44871</v>
       </c>
       <c r="C438" s="1">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -13013,56 +12926,56 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B439" s="9">
-        <v>43907</v>
+        <v>43422</v>
       </c>
       <c r="C439" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D439">
         <v>0</v>
       </c>
       <c r="F439">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G439">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H439">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B440" s="9">
-        <v>43963</v>
+        <v>43513</v>
       </c>
       <c r="C440" s="1">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D440">
         <v>0</v>
       </c>
       <c r="F440">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G440">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H440">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B441" s="9">
-        <v>43997</v>
+        <v>43604</v>
       </c>
       <c r="C441" s="1">
         <v>0</v>
@@ -13071,21 +12984,21 @@
         <v>0</v>
       </c>
       <c r="F441">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G441">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H441">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B442" s="9">
-        <v>44054</v>
+        <v>43723</v>
       </c>
       <c r="C442" s="1">
         <v>0</v>
@@ -13094,21 +13007,21 @@
         <v>0</v>
       </c>
       <c r="F442">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G442">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H442">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B443" s="9">
-        <v>44088</v>
+        <v>43725</v>
       </c>
       <c r="C443" s="1">
         <v>0</v>
@@ -13117,21 +13030,21 @@
         <v>0</v>
       </c>
       <c r="F443">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G443">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H443">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B444" s="9">
-        <v>44145</v>
+        <v>43787</v>
       </c>
       <c r="C444" s="1">
         <v>0</v>
@@ -13140,44 +13053,44 @@
         <v>0</v>
       </c>
       <c r="F444">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G444">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H444">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B445" s="9">
-        <v>44235</v>
+        <v>43968</v>
       </c>
       <c r="C445" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F445">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G445">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H445">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B446" s="9">
-        <v>44361</v>
+        <v>44058</v>
       </c>
       <c r="C446" s="1">
         <v>0</v>
@@ -13186,44 +13099,44 @@
         <v>0</v>
       </c>
       <c r="F446">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G446">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H446">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B447" s="9">
-        <v>44417</v>
+        <v>44239</v>
       </c>
       <c r="C447" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F447">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G447">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H447">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B448" s="9">
-        <v>44508</v>
+        <v>44330</v>
       </c>
       <c r="C448" s="1">
         <v>0</v>
@@ -13232,113 +13145,113 @@
         <v>0</v>
       </c>
       <c r="F448">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G448">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H448">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B449" s="9">
-        <v>44599</v>
+        <v>44332</v>
       </c>
       <c r="C449" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F449">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G449">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H449">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B450" s="9">
-        <v>44633</v>
+        <v>44421</v>
       </c>
       <c r="C450" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D450">
         <v>0</v>
       </c>
       <c r="F450">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G450">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H450">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B451" s="9">
-        <v>44689</v>
+        <v>44423</v>
       </c>
       <c r="C451" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D451">
         <v>0</v>
       </c>
       <c r="F451">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G451">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H451">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B452" s="9">
-        <v>44718</v>
+        <v>44604</v>
       </c>
       <c r="C452" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F452">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G452">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H452">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B453" s="9">
-        <v>44724</v>
+        <v>44693</v>
       </c>
       <c r="C453" s="1">
         <v>0</v>
@@ -13347,21 +13260,21 @@
         <v>0</v>
       </c>
       <c r="F453">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G453">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H453">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B454" s="9">
-        <v>44780</v>
+        <v>44784</v>
       </c>
       <c r="C454" s="1">
         <v>0</v>
@@ -13370,21 +13283,21 @@
         <v>0</v>
       </c>
       <c r="F454">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G454">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H454">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B455" s="9">
-        <v>44815</v>
+        <v>44786</v>
       </c>
       <c r="C455" s="1">
         <v>0</v>
@@ -13393,21 +13306,21 @@
         <v>0</v>
       </c>
       <c r="F455">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G455">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H455">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B456" s="9">
-        <v>44871</v>
+        <v>44875</v>
       </c>
       <c r="C456" s="1">
         <v>0</v>
@@ -13416,426 +13329,12 @@
         <v>0</v>
       </c>
       <c r="F456">
-        <v>24.29496</v>
+        <v>23.806501109999999</v>
       </c>
       <c r="G456">
-        <v>61.84769</v>
+        <v>60.645983059999999</v>
       </c>
       <c r="H456">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
-        <v>318</v>
-      </c>
-      <c r="B457" s="9">
-        <v>43422</v>
-      </c>
-      <c r="C457" s="1">
-        <v>0</v>
-      </c>
-      <c r="D457">
-        <v>0</v>
-      </c>
-      <c r="F457">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G457">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H457">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
-        <v>318</v>
-      </c>
-      <c r="B458" s="9">
-        <v>43513</v>
-      </c>
-      <c r="C458" s="1">
-        <v>1</v>
-      </c>
-      <c r="D458">
-        <v>0</v>
-      </c>
-      <c r="F458">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G458">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H458">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
-        <v>318</v>
-      </c>
-      <c r="B459" s="9">
-        <v>43604</v>
-      </c>
-      <c r="C459" s="1">
-        <v>0</v>
-      </c>
-      <c r="D459">
-        <v>0</v>
-      </c>
-      <c r="F459">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G459">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H459">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
-        <v>318</v>
-      </c>
-      <c r="B460" s="9">
-        <v>43723</v>
-      </c>
-      <c r="C460" s="1">
-        <v>0</v>
-      </c>
-      <c r="D460">
-        <v>0</v>
-      </c>
-      <c r="F460">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G460">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H460">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
-        <v>318</v>
-      </c>
-      <c r="B461" s="9">
-        <v>43725</v>
-      </c>
-      <c r="C461" s="1">
-        <v>0</v>
-      </c>
-      <c r="D461">
-        <v>0</v>
-      </c>
-      <c r="F461">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G461">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H461">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
-        <v>318</v>
-      </c>
-      <c r="B462" s="9">
-        <v>43787</v>
-      </c>
-      <c r="C462" s="1">
-        <v>0</v>
-      </c>
-      <c r="D462">
-        <v>0</v>
-      </c>
-      <c r="F462">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G462">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H462">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
-        <v>318</v>
-      </c>
-      <c r="B463" s="9">
-        <v>43968</v>
-      </c>
-      <c r="C463" s="1">
-        <v>0</v>
-      </c>
-      <c r="D463">
-        <v>0</v>
-      </c>
-      <c r="F463">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G463">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H463">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
-        <v>318</v>
-      </c>
-      <c r="B464" s="9">
-        <v>44058</v>
-      </c>
-      <c r="C464" s="1">
-        <v>0</v>
-      </c>
-      <c r="D464">
-        <v>0</v>
-      </c>
-      <c r="F464">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G464">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H464">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
-        <v>318</v>
-      </c>
-      <c r="B465" s="9">
-        <v>44239</v>
-      </c>
-      <c r="C465" s="1">
-        <v>1</v>
-      </c>
-      <c r="D465">
-        <v>1</v>
-      </c>
-      <c r="F465">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G465">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H465">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
-        <v>318</v>
-      </c>
-      <c r="B466" s="9">
-        <v>44330</v>
-      </c>
-      <c r="C466" s="1">
-        <v>0</v>
-      </c>
-      <c r="D466">
-        <v>0</v>
-      </c>
-      <c r="F466">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G466">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H466">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
-        <v>318</v>
-      </c>
-      <c r="B467" s="9">
-        <v>44332</v>
-      </c>
-      <c r="C467" s="1">
-        <v>0</v>
-      </c>
-      <c r="D467">
-        <v>0</v>
-      </c>
-      <c r="F467">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G467">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H467">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
-        <v>318</v>
-      </c>
-      <c r="B468" s="9">
-        <v>44421</v>
-      </c>
-      <c r="C468" s="1">
-        <v>0</v>
-      </c>
-      <c r="D468">
-        <v>0</v>
-      </c>
-      <c r="F468">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G468">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H468">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
-        <v>318</v>
-      </c>
-      <c r="B469" s="9">
-        <v>44423</v>
-      </c>
-      <c r="C469" s="1">
-        <v>0</v>
-      </c>
-      <c r="D469">
-        <v>0</v>
-      </c>
-      <c r="F469">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G469">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H469">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
-        <v>318</v>
-      </c>
-      <c r="B470" s="9">
-        <v>44604</v>
-      </c>
-      <c r="C470" s="1">
-        <v>1</v>
-      </c>
-      <c r="D470">
-        <v>1</v>
-      </c>
-      <c r="F470">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G470">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H470">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
-        <v>318</v>
-      </c>
-      <c r="B471" s="9">
-        <v>44693</v>
-      </c>
-      <c r="C471" s="1">
-        <v>0</v>
-      </c>
-      <c r="D471">
-        <v>0</v>
-      </c>
-      <c r="F471">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G471">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H471">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
-        <v>318</v>
-      </c>
-      <c r="B472" s="9">
-        <v>44784</v>
-      </c>
-      <c r="C472" s="1">
-        <v>0</v>
-      </c>
-      <c r="D472">
-        <v>0</v>
-      </c>
-      <c r="F472">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G472">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H472">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
-        <v>318</v>
-      </c>
-      <c r="B473" s="9">
-        <v>44786</v>
-      </c>
-      <c r="C473" s="1">
-        <v>0</v>
-      </c>
-      <c r="D473">
-        <v>0</v>
-      </c>
-      <c r="F473">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G473">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H473">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
-        <v>318</v>
-      </c>
-      <c r="B474" s="9">
-        <v>44875</v>
-      </c>
-      <c r="C474" s="1">
-        <v>0</v>
-      </c>
-      <c r="D474">
-        <v>0</v>
-      </c>
-      <c r="F474">
-        <v>23.806501109999999</v>
-      </c>
-      <c r="G474">
-        <v>60.645983059999999</v>
-      </c>
-      <c r="H474">
         <v>142</v>
       </c>
     </row>
@@ -14065,152 +13564,134 @@
     <hyperlink ref="E239" r:id="rId222" display="https://phenocam.nau.edu/data/archive/NEON.D05.UNDE.DP1.00033/2024/04/NEON.D05.UNDE.DP1.00033_2024_04_26_090006.jpg" xr:uid="{524D5EC4-4836-4AA7-84F5-5C353CCCE7A5}"/>
     <hyperlink ref="E240" r:id="rId223" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2024/07/" xr:uid="{355BC6C1-A66F-4DC0-A22D-83DB6B900A14}"/>
     <hyperlink ref="E241" r:id="rId224" display="https://phenocam.nau.edu/webcam/browse/NEON.D05.UNDE.DP1.00033/2024/08/" xr:uid="{7595BD57-644A-450B-9DA2-9C32E7F15583}"/>
-    <hyperlink ref="E242" r:id="rId225" display="https://phenocam.nau.edu/data/archive/umichbiological/2018/11/umichbiological_2018_11_18_080006.jpg" xr:uid="{92636FFD-C9E0-4ADE-B221-567C8B036988}"/>
-    <hyperlink ref="E243" r:id="rId226" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2019/08/" xr:uid="{F63491CA-0A59-4046-955C-9C0E5C02545F}"/>
-    <hyperlink ref="E244" r:id="rId227" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2019/08/" xr:uid="{DB1CE86D-0333-4ED1-B091-4F7ECE8A3CCD}"/>
-    <hyperlink ref="E245" r:id="rId228" display="https://phenocam.nau.edu/data/archive/umichbiological/2020/01/umichbiological_2020_01_10_170006.jpg" xr:uid="{F8B3761D-84D2-45EC-9A5C-A2130CF347B1}"/>
-    <hyperlink ref="E246" r:id="rId229" display="https://phenocam.nau.edu/data/archive/umichbiological/2020/02/umichbiological_2020_02_15_080007.jpg" xr:uid="{9B5829ED-2138-40A0-8880-2F4D2607FE83}"/>
-    <hyperlink ref="E247" r:id="rId230" display="https://phenocam.nau.edu/data/archive/umichbiological/2020/05/umichbiological_2020_05_16_070006.jpg" xr:uid="{EBC9FA66-B74B-4641-B37B-137B136BDCE1}"/>
-    <hyperlink ref="E248" r:id="rId231" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2020/08/" xr:uid="{4FFE1B46-D03B-42EA-B165-2E872D0B7489}"/>
-    <hyperlink ref="E249" r:id="rId232" display="https://phenocam.nau.edu/data/archive/umichbiological/2021/02/umichbiological_2021_02_12_110005.jpg" xr:uid="{7EACB058-AF29-48B7-8BE1-97B252B4C9F5}"/>
-    <hyperlink ref="E250" r:id="rId233" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2021/08/" xr:uid="{5A7C072F-E403-43F7-8E1C-52C74F9618F8}"/>
-    <hyperlink ref="E251" r:id="rId234" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2021/10/07/" xr:uid="{742D6F80-734F-4758-AA7B-34C4A4253122}"/>
-    <hyperlink ref="E252" r:id="rId235" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2021/11/12/" xr:uid="{E2117F57-13D2-4641-B14D-C18BFEC32212}"/>
-    <hyperlink ref="E253" r:id="rId236" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2022/10/05/" xr:uid="{2BD13A85-5E33-4E96-A86B-7F0611230BAB}"/>
-    <hyperlink ref="E254" r:id="rId237" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2022/11/10/" xr:uid="{80A4C5E3-96AC-4954-8B4D-23BA52C28DC2}"/>
-    <hyperlink ref="E255" r:id="rId238" display="https://phenocam.nau.edu/data/archive/umichbiological/2023/02/umichbiological_2023_02_09_080005.jpg" xr:uid="{85FDAFEA-CCC0-4573-8D27-6D503FCBEE97}"/>
-    <hyperlink ref="E256" r:id="rId239" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2023/05/11/" xr:uid="{D265320E-B661-4D3B-A0CF-92519FB9F338}"/>
-    <hyperlink ref="E257" r:id="rId240" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2023/07/" xr:uid="{C3A1451B-2EAA-4F39-9B56-519A03D759CC}"/>
-    <hyperlink ref="E258" r:id="rId241" display="https://phenocam.nau.edu/webcam/browse/umichbiological/2023/10/04/" xr:uid="{66082038-C69A-4462-A5B4-70F5885DE2A0}"/>
-    <hyperlink ref="E259" r:id="rId242" display="https://phenocam.nau.edu/data/archive/umichbiological/2024/02/umichbiological_2024_02_07_080005.jpg" xr:uid="{EBF7367C-F18A-48C2-9938-EA326C55123E}"/>
-    <hyperlink ref="E260" r:id="rId243" display="https://phenocam.nau.edu/data/archive/bartlettir/2019/05/bartlettir_2019_05_06_055944.jpg" xr:uid="{2E9F07F6-9E87-4BC9-85DD-56EE0D292283}"/>
-    <hyperlink ref="E261" r:id="rId244" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2019/08/" xr:uid="{29D58332-D583-4FDF-A562-5448A2E4D531}"/>
-    <hyperlink ref="E262" r:id="rId245" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2019/09/" xr:uid="{D0EA10D7-155A-4278-ACC8-9C95BEA584F9}"/>
-    <hyperlink ref="E263" r:id="rId246" display="https://phenocam.nau.edu/data/archive/bartlettir/2020/02/bartlettir_2020_02_02_162506.jpg" xr:uid="{416ABDB4-88FA-40DA-8EDF-AA39F0F8BEB2}"/>
-    <hyperlink ref="E264" r:id="rId247" display="https://phenocam.nau.edu/data/archive/bartlettir/2020/04/bartlettir_2020_04_07_100505.jpg" xr:uid="{8DA6645B-AB1B-4BDB-B788-06F0EF7718AD}"/>
-    <hyperlink ref="E265" r:id="rId248" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2020/07/" xr:uid="{572A5C17-F693-4177-B460-C4D62F4BA647}"/>
-    <hyperlink ref="E266" r:id="rId249" display="https://phenocam.nau.edu/data/archive/bartlettir/2021/01/bartlettir_2021_01_31_070505.jpg" xr:uid="{C127B832-D2C6-4834-B108-4E183C528F4B}"/>
-    <hyperlink ref="E269" r:id="rId250" display="https://phenocam.nau.edu/data/archive/bartlettir/2021/11/bartlettir_2021_11_02_062505.jpg" xr:uid="{5FE733E5-77F2-40C1-A0CD-76E45B181AF3}"/>
-    <hyperlink ref="E270" r:id="rId251" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2022/05/" xr:uid="{28E5BE17-1069-4170-B91C-47299ADBCD32}"/>
-    <hyperlink ref="E271" r:id="rId252" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2022/07/" xr:uid="{08B12680-939C-45EE-A25A-9C04392014A4}"/>
-    <hyperlink ref="E272" r:id="rId253" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2022/10/28/" xr:uid="{D82E8E98-81C6-407A-91F4-95E1DA6C4C89}"/>
-    <hyperlink ref="E273" r:id="rId254" display="https://phenocam.nau.edu/data/archive/bartlettir/2023/01/bartlettir_2023_01_27_140506.jpg" xr:uid="{DFBEF2A3-834A-4E23-B0B6-E9D5D0E37D72}"/>
-    <hyperlink ref="E274" r:id="rId255" display="https://phenocam.nau.edu/data/archive/bartlettir/2023/04/bartlettir_2023_04_02_052506.jpg" xr:uid="{863DDE4A-2955-41E0-B540-64CA4756C575}"/>
-    <hyperlink ref="E275" r:id="rId256" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2023/07/" xr:uid="{EF3C9342-A1A3-4817-BEC2-640D30547B9B}"/>
-    <hyperlink ref="E276" r:id="rId257" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2023/09/" xr:uid="{C664D669-8555-4C90-989D-C246944DE5C3}"/>
-    <hyperlink ref="E277" r:id="rId258" display="https://phenocam.nau.edu/data/archive/bartlettir/2024/03/bartlettir_2024_03_30_052338.jpg" xr:uid="{C799028B-DB48-4BE1-805E-7F37A668CC2A}"/>
-    <hyperlink ref="E278" r:id="rId259" display="https://phenocam.nau.edu/data/archive/proctor/2019/01/proctor_2019_01_17_070137.jpg" xr:uid="{D9836648-1740-4313-97BA-CC9589AB0D64}"/>
-    <hyperlink ref="E279" r:id="rId260" display="https://phenocam.nau.edu/data/archive/proctor/2019/04/proctor_2019_04_17_184639.jpg" xr:uid="{016381A8-7205-4342-9C51-32EAE703507B}"/>
-    <hyperlink ref="E280" r:id="rId261" display="https://phenocam.nau.edu/webcam/browse/proctor/2020/07/" xr:uid="{42D24833-A47D-43C9-AE49-1BE69325177A}"/>
-    <hyperlink ref="E281" r:id="rId262" display="https://phenocam.nau.edu/webcam/browse/proctor/2021/06/" xr:uid="{E8FEE7A6-9CEC-4C88-A280-CD6E3DDFBFA1}"/>
-    <hyperlink ref="E282" r:id="rId263" display="https://phenocam.nau.edu/webcam/browse/proctor/2021/10/12/" xr:uid="{FAAD5F92-EEF9-433E-AD16-E82ABDB8F0B4}"/>
-    <hyperlink ref="E283" r:id="rId264" display="https://phenocam.nau.edu/data/archive/proctor/2021/11/proctor_2021_11_07_094638.jpg" xr:uid="{92B2D28A-6436-41CB-BE9C-9D3234628D17}"/>
-    <hyperlink ref="E284" r:id="rId265" display="https://phenocam.nau.edu/data/archive/proctor/2022/01/proctor_2022_01_10_144638.jpg" xr:uid="{4E5BA090-613E-4F0D-B9C2-205D651C9FDA}"/>
-    <hyperlink ref="E285" r:id="rId266" display="https://phenocam.nau.edu/webcam/browse/proctor/2022/06/" xr:uid="{542159CF-ABE1-457A-8855-9838B5996706}"/>
-    <hyperlink ref="E286" r:id="rId267" display="https://phenocam.nau.edu/data/archive/proctor/2023/04/proctor_2023_04_10_063137.jpg" xr:uid="{751A2166-1764-4E91-A481-868611210BCC}"/>
-    <hyperlink ref="E287" r:id="rId268" display="https://phenocam.nau.edu/data/archive/proctor/2023/10/proctor_2023_10_08_061637.jpg" xr:uid="{AAD577FF-82A7-49C0-8D3B-0DA9A92F42A7}"/>
-    <hyperlink ref="E288" r:id="rId269" display="https://phenocam.nau.edu/data/archive/proctor/2024/04/proctor_2024_04_07_051637.jpg" xr:uid="{85B04C31-7805-4162-8028-E74A4C19DEF5}"/>
-    <hyperlink ref="E290" r:id="rId270" display="https://phenocam.nau.edu/data/archive/proctor/2024/10/proctor_2024_10_06_090139.jpg" xr:uid="{E95592BA-839F-44BC-971F-CC0EA5DB1F1F}"/>
-    <hyperlink ref="E289" r:id="rId271" display="https://phenocam.nau.edu/webcam/browse/proctor/2024/07/" xr:uid="{0F8661B5-0F8D-4D40-8786-0DAEE1AFC8A7}"/>
-    <hyperlink ref="E291" r:id="rId272" display="https://phenocam.nau.edu/data/archive/willowcreek/2018/12/willowcreek_2018_12_09_083108.jpg" xr:uid="{6432E501-EFA2-4D6F-9F0A-B7493023825D}"/>
-    <hyperlink ref="E292" r:id="rId273" display="https://phenocam.nau.edu/data/archive/willowcreek/2018/12/willowcreek_2018_12_16_080109.jpg" xr:uid="{FC15C15E-950A-41F0-9237-E8A3D9BC4FB2}"/>
-    <hyperlink ref="E293" r:id="rId274" display="https://phenocam.nau.edu/data/archive/willowcreek/2019/03/willowcreek_2019_03_17_060108.jpg" xr:uid="{5557FD73-980C-4188-9FC1-51E99B6E152F}"/>
-    <hyperlink ref="E294" r:id="rId275" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2019/06/" xr:uid="{48B02168-424F-4A1F-A458-00D963C30792}"/>
-    <hyperlink ref="E295" r:id="rId276" display="https://phenocam.nau.edu/data/archive/willowcreek/2020/03/willowcreek_2020_03_14_063105.jpg" xr:uid="{58144E2F-76D3-46CD-8E95-AD80290175BF}"/>
-    <hyperlink ref="E296" r:id="rId277" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2020/06/" xr:uid="{91945D52-B2BC-484D-9201-8B80B6E17DB7}"/>
-    <hyperlink ref="E297" r:id="rId278" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2020/06/" xr:uid="{61CC7370-165F-4BB7-89C6-FED6FD7ACCFA}"/>
-    <hyperlink ref="E298" r:id="rId279" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2020/09/" xr:uid="{402139CC-9192-4046-BE3B-DB97440CA216}"/>
-    <hyperlink ref="E299" r:id="rId280" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2021/06/" xr:uid="{6EC0245A-B03A-4288-AD58-A2CB3590681D}"/>
-    <hyperlink ref="E300" r:id="rId281" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2021/09/" xr:uid="{A679CCD7-4343-4CF6-9BF8-66B2F2BCC06B}"/>
-    <hyperlink ref="E301" r:id="rId282" display="https://phenocam.nau.edu/data/archive/willowcreek/2022/03/willowcreek_2022_03_04_063106.jpg" xr:uid="{17266103-B18F-4011-8EE8-12D67B19B5C7}"/>
-    <hyperlink ref="E302" r:id="rId283" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2022/09/" xr:uid="{5A9C1D53-8030-42B1-851D-97A6EAF87391}"/>
-    <hyperlink ref="E303" r:id="rId284" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2022/09/" xr:uid="{B18DD1AD-A3B3-48D5-87F4-7063990DA3A5}"/>
-    <hyperlink ref="E304" r:id="rId285" display="https://phenocam.nau.edu/data/archive/willowcreek/2022/12/willowcreek_2022_12_01_072605.jpg" xr:uid="{F6BFB5C2-D842-4A98-8C29-395AED71811E}"/>
-    <hyperlink ref="E305" r:id="rId286" display="https://phenocam.nau.edu/data/archive/willowcreek/2023/03/willowcreek_2023_03_02_065605.jpg" xr:uid="{4570D739-09BE-42D8-8843-B291C9D81D35}"/>
-    <hyperlink ref="E306" r:id="rId287" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2023/06/" xr:uid="{B1317228-667C-4B73-AA4D-EAC19A7B4859}"/>
-    <hyperlink ref="E307" r:id="rId288" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2023/06/" xr:uid="{FA19DABF-EC5A-4F7F-9326-2B0BF1044A3A}"/>
-    <hyperlink ref="E308" r:id="rId289" display="https://phenocam.nau.edu/data/archive/willowcreek/2024/02/willowcreek_2024_02_28_175606.jpg" xr:uid="{5D782857-21B1-467C-A6ED-679371F826F6}"/>
-    <hyperlink ref="E309" r:id="rId290" display="https://phenocam.nau.edu/data/archive/willowcreek/2024/03/willowcreek_2024_03_06_062605.jpg" xr:uid="{5E748BB4-DB6C-450E-8896-B6A9C06C0248}"/>
-    <hyperlink ref="E310" r:id="rId291" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2024/" xr:uid="{87646E42-AE1E-469C-87CA-69B6041E75F0}"/>
-    <hyperlink ref="E311" r:id="rId292" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2024/09/" xr:uid="{BB6F797D-3C56-44C6-87D3-30ACD3B79854}"/>
-    <hyperlink ref="E312" r:id="rId293" display="https://phenocam.nau.edu/data/archive/glees/2018/12/glees_2018_12_05_071605.jpg" xr:uid="{0855E031-F91B-4CB1-ADFB-FAB8A11E9F59}"/>
-    <hyperlink ref="E313" r:id="rId294" display="https://phenocam.nau.edu/data/archive/glees/2019/01/glees_2019_01_04_111605.jpg" xr:uid="{437B9811-352A-4443-989A-4345272ECB75}"/>
-    <hyperlink ref="E314" r:id="rId295" display="https://phenocam.nau.edu/data/archive/glees/2019/04/glees_2019_04_05_074605.jpg" xr:uid="{F7C7BB6D-9318-4EBB-89CC-E8B9DAC9A0C9}"/>
-    <hyperlink ref="E315" r:id="rId296" display="https://phenocam.nau.edu/data/archive/glees/2019/06/glees_2019_06_04_164606.jpg" xr:uid="{1E1C5962-0E10-41B1-96A0-C52B9E359534}"/>
-    <hyperlink ref="E316" r:id="rId297" display="https://phenocam.nau.edu/data/archive/glees/2019/08/glees_2019_08_03_120306.jpg" xr:uid="{017A3BF1-3BC2-437B-8B32-FB40E39292D7}"/>
-    <hyperlink ref="E317" r:id="rId298" display="https://phenocam.nau.edu/data/archive/glees/2019/10/glees_2019_10_04_123305.jpg" xr:uid="{28403825-69E3-43EE-88DB-03AD3F49815E}"/>
-    <hyperlink ref="E318" r:id="rId299" display="https://phenocam.nau.edu/data/archive/glees/2019/11/glees_2019_11_02_063305.jpg" xr:uid="{7B39AA23-B14B-45B4-8EC6-41E0878BE7AA}"/>
-    <hyperlink ref="E319" r:id="rId300" display="https://phenocam.nau.edu/data/archive/glees/2020/01/glees_2020_01_03_073305.jpg" xr:uid="{1DB2F385-A104-45A6-93A9-060D5DFB5CE3}"/>
-    <hyperlink ref="E320" r:id="rId301" display="https://phenocam.nau.edu/data/archive/glees/2020/03/glees_2020_03_03_070305.jpg" xr:uid="{2534D488-3314-4557-92CF-77C5803D4965}"/>
-    <hyperlink ref="E321" r:id="rId302" display="https://phenocam.nau.edu/data/archive/glees/2020/06/glees_2020_06_02_050305.jpg" xr:uid="{2A3933AB-6672-4199-82C6-B2352587BB16}"/>
-    <hyperlink ref="E322" r:id="rId303" display="https://phenocam.nau.edu/data/archive/glees/2020/07/glees_2020_07_02_110305.jpg" xr:uid="{6CB5D1BB-CD73-47B6-BFC8-0387409979A6}"/>
-    <hyperlink ref="E323" r:id="rId304" display="https://phenocam.nau.edu/data/archive/glees/2020/10/glees_2020_10_01_103305.jpg" xr:uid="{222F97D3-CE1D-4B7D-8DCF-18B842A16194}"/>
-    <hyperlink ref="E324" r:id="rId305" display="https://phenocam.nau.edu/data/archive/glees/2021/04/glees_2021_04_01_054006.jpg" xr:uid="{715A8B9F-9FB4-4357-9C4D-45CED3E8FE2E}"/>
-    <hyperlink ref="E325" r:id="rId306" display="https://phenocam.nau.edu/data/archive/glees/2022/04/glees_2022_04_28_044806.jpg" xr:uid="{E34AA6E0-EB3E-4B68-B694-8E5F568640AC}"/>
-    <hyperlink ref="E326" r:id="rId307" display="https://phenocam.nau.edu/webcam/browse/glees/2022/08/" xr:uid="{55B1706D-F5A0-4BE4-9315-5632A266E441}"/>
-    <hyperlink ref="E327" r:id="rId308" display="https://phenocam.nau.edu/webcam/browse/glees/2022/09/" xr:uid="{73DC32F1-C1F8-4226-B882-6E46F29937E2}"/>
-    <hyperlink ref="E328" r:id="rId309" display="https://phenocam.nau.edu/data/archive/glees/2022/11/glees_2022_11_27_071806.jpg" xr:uid="{5094B975-0F33-40BE-B874-A81E254B5174}"/>
-    <hyperlink ref="E329" r:id="rId310" display="https://phenocam.nau.edu/data/archive/glees/2022/12/glees_2022_12_27_141805.jpg" xr:uid="{7A4792F3-0312-4795-B04B-BCDB0951B1F4}"/>
-    <hyperlink ref="E330" r:id="rId311" display="https://phenocam.nau.edu/data/archive/glees/2023/02/glees_2023_02_25_174805.jpg" xr:uid="{F779320D-FB2E-4CAC-8E7E-0B7F2E27E68B}"/>
-    <hyperlink ref="E331" r:id="rId312" display="https://phenocam.nau.edu/data/archive/glees/2023/02/glees_2023_02_25_174805.jpg" xr:uid="{91B91078-D2EB-4472-AE5F-521E35969643}"/>
-    <hyperlink ref="E332" r:id="rId313" display="https://phenocam.nau.edu/webcam/browse/glees/2023/07/27/" xr:uid="{C8E3C780-EC07-4537-B840-07B99DEED25B}"/>
-    <hyperlink ref="E333" r:id="rId314" display="https://phenocam.nau.edu/webcam/browse/glees/2023/08/" xr:uid="{0C819187-DC48-4F89-9813-0A0146E9F5FA}"/>
-    <hyperlink ref="E334" r:id="rId315" display="https://phenocam.nau.edu/webcam/browse/glees/2023/09/26/" xr:uid="{36C522E2-D700-4C4F-98F9-A0546BE2F81D}"/>
-    <hyperlink ref="E335" r:id="rId316" display="https://phenocam.nau.edu/data/archive/glees/2023/11/glees_2023_11_25_101805.jpg" xr:uid="{6D1CD72D-C030-4CC5-A7AF-549A10BD2546}"/>
-    <hyperlink ref="E336" r:id="rId317" display="https://phenocam.nau.edu/data/archive/glees/2024/02/glees_2024_02_24_062405.jpg" xr:uid="{5345F4CD-3564-450C-943B-70633598128C}"/>
-    <hyperlink ref="E337" r:id="rId318" display="https://phenocam.nau.edu/data/archive/glees/2024/09/glees_2024_09_23_105506.jpg" xr:uid="{4E919C48-7CBB-4E7D-9895-D0BB2CFB3163}"/>
-    <hyperlink ref="E338" r:id="rId319" display="https://phenocam.nau.edu/data/archive/glees/2024/11/glees_2024_11_22_142506.jpg" xr:uid="{14E42D84-99AA-4B45-A212-8EC3E01FE30B}"/>
-    <hyperlink ref="E339" r:id="rId320" display="https://phenocam.nau.edu/data/archive/queens/2019/01/queens_2019_01_30_100006.jpg" xr:uid="{360F97A1-32E3-4B32-8EF1-D0E2AFDD25AC}"/>
-    <hyperlink ref="E340" r:id="rId321" display="https://phenocam.nau.edu/webcam/browse/queens/2019/08/29/" xr:uid="{64300654-71D6-45F2-B166-4DAE35EC5864}"/>
-    <hyperlink ref="E341" r:id="rId322" display="https://phenocam.nau.edu/webcam/browse/queens/2020/06/" xr:uid="{3606B5EA-BE7D-4442-9176-5F6FCB4B4BA0}"/>
-    <hyperlink ref="E342" r:id="rId323" display="https://phenocam.nau.edu/webcam/browse/queens/2020/07/" xr:uid="{DFB63F6C-F29B-40B2-B756-FE377A238D6B}"/>
-    <hyperlink ref="E343" r:id="rId324" display="https://phenocam.nau.edu/webcam/browse/queens/2020/07/" xr:uid="{8BE3C269-7F7E-4102-8D0F-8E803322BA1D}"/>
-    <hyperlink ref="E344" r:id="rId325" display="https://phenocam.nau.edu/data/archive/queens/2021/01/queens_2021_01_26_133705.jpg" xr:uid="{581C972E-FAD5-4C40-81F6-BE5C2719AABE}"/>
-    <hyperlink ref="E345" r:id="rId326" display="https://phenocam.nau.edu/data/archive/queens/2021/04/queens_2021_04_26_183705.jpg" xr:uid="{8134EC7C-C2DF-4851-B86C-88CCB2699F60}"/>
-    <hyperlink ref="E346" r:id="rId327" display="https://phenocam.nau.edu/webcam/browse/queens/2021/07/" xr:uid="{39E80B6E-830D-420C-978D-CB24403FA304}"/>
-    <hyperlink ref="E347" r:id="rId328" display="https://phenocam.nau.edu/webcam/browse/queens/2021/09/29/" xr:uid="{A1F0B736-794E-45FB-812E-87EA6B13AFFA}"/>
-    <hyperlink ref="E348" r:id="rId329" display="https://phenocam.nau.edu/data/archive/queens/2022/01/queens_2022_01_24_073705.jpg" xr:uid="{C92BEEB3-7357-41C6-A5E6-717D317A2BDD}"/>
-    <hyperlink ref="E349" r:id="rId330" display="https://phenocam.nau.edu/webcam/browse/queens/2022/05/30/" xr:uid="{08C0B088-AF09-4EF3-905D-339DD7F7D166}"/>
-    <hyperlink ref="E350" r:id="rId331" display="https://phenocam.nau.edu/webcam/browse/queens/2022/08/" xr:uid="{CDDD0D64-5427-4AA4-BE50-DCF21C8A44AC}"/>
-    <hyperlink ref="E351" r:id="rId332" display="https://phenocam.nau.edu/webcam/browse/queens/2022/10/23/" xr:uid="{B6A785FC-7351-432F-83AF-200ABF0AEC47}"/>
-    <hyperlink ref="E352" r:id="rId333" display="https://phenocam.nau.edu/webcam/browse/queens/2023/06/" xr:uid="{0AD0347E-2ED3-4371-80DC-7EA8EAAAA724}"/>
-    <hyperlink ref="E353" r:id="rId334" display="https://phenocam.nau.edu/webcam/browse/queens/2023/07/" xr:uid="{693642E3-0B7D-415D-8F27-B39C16D5B5BB}"/>
-    <hyperlink ref="E354" r:id="rId335" display="https://phenocam.nau.edu/webcam/browse/queens/2023/09/" xr:uid="{C80C9464-DE78-4B01-BB15-E2B4899D7D89}"/>
-    <hyperlink ref="E355" r:id="rId336" display="https://phenocam.nau.edu/data/archive/queens/2024/01/queens_2024_01_20_170705.jpg" xr:uid="{A02E6DE4-2A3F-4711-BBD0-CCC283B58833}"/>
-    <hyperlink ref="E356" r:id="rId337" display="https://phenocam.nau.edu/data/archive/queens/2024/04/queens_2024_04_20_080705.jpg" xr:uid="{71732A73-A45E-43B7-BEA9-D0176B6680A4}"/>
-    <hyperlink ref="E357" r:id="rId338" display="https://phenocam.nau.edu/webcam/browse/queens/2024/07/" xr:uid="{BA4883D8-62EC-4BE3-9CB5-EE63A5099E48}"/>
-    <hyperlink ref="E358" r:id="rId339" display="https://phenocam.nau.edu/webcam/browse/queens/2024/09/" xr:uid="{D3B1FC12-0785-4C5F-B805-8724451A0B43}"/>
-    <hyperlink ref="E359" r:id="rId340" display="https://phenocam.nau.edu/webcam/browse/queens/2024/10/19/" xr:uid="{91474577-2D62-4B5F-8CD6-28E81DEBF0DA}"/>
-    <hyperlink ref="E360" r:id="rId341" display="https://phenocam.nau.edu/data/archive/canadaojp/2018/10/canadaojp_2018_10_18_162959.jpg" xr:uid="{290773FF-E96A-430B-89B5-8F0643BDC8A2}"/>
-    <hyperlink ref="E361" r:id="rId342" display="https://phenocam.nau.edu/data/archive/canadaojp/2018/11/canadaojp_2018_11_06_075959.jpg" xr:uid="{1F0819BD-00BB-48DD-A9B0-9AB4CCCC9C6D}"/>
-    <hyperlink ref="E362" r:id="rId343" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/01/canadaojp_2019_01_17_112959.jpg" xr:uid="{A1B0AB39-29F1-42F2-9848-0F99E964C900}"/>
-    <hyperlink ref="E363" r:id="rId344" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/04/canadaojp_2019_04_19_052959.jpg" xr:uid="{EE3E83E5-CD91-4EE6-B043-E4AD901B7E66}"/>
-    <hyperlink ref="E364" r:id="rId345" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/05/canadaojp_2019_05_07_055959.jpg" xr:uid="{402003C0-325E-4DDE-B5C8-F49920BF9CD4}"/>
-    <hyperlink ref="E366" r:id="rId346" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/01/canadaojp_2020_01_15_172959.jpg" xr:uid="{BF63B7FE-8773-4E1B-AF38-10A9318138F0}"/>
-    <hyperlink ref="E367" r:id="rId347" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/02/canadaojp_2020_02_03_082959.jpg" xr:uid="{97357D13-902B-4AD9-97C0-B7172BE7D222}"/>
-    <hyperlink ref="E368" r:id="rId348" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/04/canadaojp_2020_04_15_145959.jpg" xr:uid="{1AEA1DE9-CAC3-4D50-BD68-91F6C040C124}"/>
-    <hyperlink ref="E369" r:id="rId349" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/05/canadaojp_2020_05_04_045959.jpg" xr:uid="{7FEFF69E-8EF3-47C2-97DC-E2FCDF6D1F66}"/>
-    <hyperlink ref="E370" r:id="rId350" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2020/08/" xr:uid="{7D494400-A0AC-4B0C-8B31-50CE9D455FD4}"/>
-    <hyperlink ref="E371" r:id="rId351" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/10/canadaojp_2020_10_14_073000.jpg" xr:uid="{BE6B4BF5-12D7-45AF-A709-93A34BEBD7B0}"/>
-    <hyperlink ref="E372" r:id="rId352" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/10/canadaojp_2020_10_31_172959.jpg" xr:uid="{7C0A5B0C-8750-43C5-BE13-04552E2E9AF0}"/>
-    <hyperlink ref="E373" r:id="rId353" display="https://phenocam.nau.edu/data/archive/canadaojp/2021/07/canadaojp_2021_07_13_090017.jpg" xr:uid="{012E2006-40F4-4D21-932F-372E49393B4C}"/>
-    <hyperlink ref="E374" r:id="rId354" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2021/08/" xr:uid="{7EC7461C-3AB0-47A8-B754-B4EE9C17ED39}"/>
-    <hyperlink ref="E375" r:id="rId355" display="https://phenocam.nau.edu/data/archive/canadaojp/2021/10/canadaojp_2021_10_31_080028.jpg" xr:uid="{497814D7-EF41-404C-8AAD-E4741DF8E19B}"/>
-    <hyperlink ref="E376" r:id="rId356" display="https://phenocam.nau.edu/data/archive/canadaojp/2022/05/canadaojp_2022_05_11_050011.jpg" xr:uid="{8CAA40C0-1C7A-4FF8-8BB2-E942B8CEE438}"/>
-    <hyperlink ref="E377" r:id="rId357" display="https://phenocam.nau.edu/data/archive/canadaojp/2022/10/canadaojp_2022_10_29_080013.jpg" xr:uid="{C3000DF7-BF58-4692-8626-749F7D0D773F}"/>
-    <hyperlink ref="E378" r:id="rId358" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/01/canadaojp_2023_01_28_083014.jpg" xr:uid="{2969C543-FFEE-4527-97DE-746F39BB0BC2}"/>
-    <hyperlink ref="E379" r:id="rId359" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/04/canadaojp_2023_04_10_090014.jpg" xr:uid="{F4B832AA-6FAD-4C6B-BA3D-DBE9AA5B24D8}"/>
-    <hyperlink ref="E380" r:id="rId360" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/04/canadaojp_2023_04_28_203029.jpg" xr:uid="{D5C2A1F1-F3A0-4F54-869F-B2B6D674B001}"/>
-    <hyperlink ref="E381" r:id="rId361" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/07/10/" xr:uid="{2ECA9FF1-435F-44AE-A2D7-B86172E6B01A}"/>
-    <hyperlink ref="E382" r:id="rId362" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/07/" xr:uid="{12398967-610E-46D5-A894-2C8944AF6C68}"/>
-    <hyperlink ref="E383" r:id="rId363" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/10/09/" xr:uid="{E6742861-834D-45E2-9706-635FAAE98023}"/>
-    <hyperlink ref="E384" r:id="rId364" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/10/canadaojp_2023_10_27_130014.jpg" xr:uid="{B60B8613-CA12-40FB-BCF3-7F93CB0F48CD}"/>
-    <hyperlink ref="E385" r:id="rId365" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/01/canadaojp_2024_01_07_170018.jpg" xr:uid="{4B4F5252-CCC6-4800-8B5F-FF892D1A6027}"/>
-    <hyperlink ref="E386" r:id="rId366" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2024/01/26/" xr:uid="{E43DABBC-EB84-4E4C-B9B9-CE913621480E}"/>
-    <hyperlink ref="E387" r:id="rId367" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/04/canadaojp_2024_04_07_200012.jpg" xr:uid="{AD1C1CC3-CC54-4F32-ABD9-063EF8DD5798}"/>
-    <hyperlink ref="E388" r:id="rId368" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/04/canadaojp_2024_04_25_053015.jpg" xr:uid="{234FFA58-932A-4A85-BC44-C3309B72CE1C}"/>
+    <hyperlink ref="E242" r:id="rId225" display="https://phenocam.nau.edu/data/archive/bartlettir/2019/05/bartlettir_2019_05_06_055944.jpg" xr:uid="{2E9F07F6-9E87-4BC9-85DD-56EE0D292283}"/>
+    <hyperlink ref="E243" r:id="rId226" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2019/08/" xr:uid="{29D58332-D583-4FDF-A562-5448A2E4D531}"/>
+    <hyperlink ref="E244" r:id="rId227" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2019/09/" xr:uid="{D0EA10D7-155A-4278-ACC8-9C95BEA584F9}"/>
+    <hyperlink ref="E245" r:id="rId228" display="https://phenocam.nau.edu/data/archive/bartlettir/2020/02/bartlettir_2020_02_02_162506.jpg" xr:uid="{416ABDB4-88FA-40DA-8EDF-AA39F0F8BEB2}"/>
+    <hyperlink ref="E246" r:id="rId229" display="https://phenocam.nau.edu/data/archive/bartlettir/2020/04/bartlettir_2020_04_07_100505.jpg" xr:uid="{8DA6645B-AB1B-4BDB-B788-06F0EF7718AD}"/>
+    <hyperlink ref="E247" r:id="rId230" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2020/07/" xr:uid="{572A5C17-F693-4177-B460-C4D62F4BA647}"/>
+    <hyperlink ref="E248" r:id="rId231" display="https://phenocam.nau.edu/data/archive/bartlettir/2021/01/bartlettir_2021_01_31_070505.jpg" xr:uid="{C127B832-D2C6-4834-B108-4E183C528F4B}"/>
+    <hyperlink ref="E251" r:id="rId232" display="https://phenocam.nau.edu/data/archive/bartlettir/2021/11/bartlettir_2021_11_02_062505.jpg" xr:uid="{5FE733E5-77F2-40C1-A0CD-76E45B181AF3}"/>
+    <hyperlink ref="E252" r:id="rId233" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2022/05/" xr:uid="{28E5BE17-1069-4170-B91C-47299ADBCD32}"/>
+    <hyperlink ref="E253" r:id="rId234" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2022/07/" xr:uid="{08B12680-939C-45EE-A25A-9C04392014A4}"/>
+    <hyperlink ref="E254" r:id="rId235" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2022/10/28/" xr:uid="{D82E8E98-81C6-407A-91F4-95E1DA6C4C89}"/>
+    <hyperlink ref="E255" r:id="rId236" display="https://phenocam.nau.edu/data/archive/bartlettir/2023/01/bartlettir_2023_01_27_140506.jpg" xr:uid="{DFBEF2A3-834A-4E23-B0B6-E9D5D0E37D72}"/>
+    <hyperlink ref="E256" r:id="rId237" display="https://phenocam.nau.edu/data/archive/bartlettir/2023/04/bartlettir_2023_04_02_052506.jpg" xr:uid="{863DDE4A-2955-41E0-B540-64CA4756C575}"/>
+    <hyperlink ref="E257" r:id="rId238" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2023/07/" xr:uid="{EF3C9342-A1A3-4817-BEC2-640D30547B9B}"/>
+    <hyperlink ref="E258" r:id="rId239" display="https://phenocam.nau.edu/webcam/browse/bartlettir/2023/09/" xr:uid="{C664D669-8555-4C90-989D-C246944DE5C3}"/>
+    <hyperlink ref="E259" r:id="rId240" display="https://phenocam.nau.edu/data/archive/bartlettir/2024/03/bartlettir_2024_03_30_052338.jpg" xr:uid="{C799028B-DB48-4BE1-805E-7F37A668CC2A}"/>
+    <hyperlink ref="E260" r:id="rId241" display="https://phenocam.nau.edu/data/archive/proctor/2019/01/proctor_2019_01_17_070137.jpg" xr:uid="{D9836648-1740-4313-97BA-CC9589AB0D64}"/>
+    <hyperlink ref="E261" r:id="rId242" display="https://phenocam.nau.edu/data/archive/proctor/2019/04/proctor_2019_04_17_184639.jpg" xr:uid="{016381A8-7205-4342-9C51-32EAE703507B}"/>
+    <hyperlink ref="E262" r:id="rId243" display="https://phenocam.nau.edu/webcam/browse/proctor/2020/07/" xr:uid="{42D24833-A47D-43C9-AE49-1BE69325177A}"/>
+    <hyperlink ref="E263" r:id="rId244" display="https://phenocam.nau.edu/webcam/browse/proctor/2021/06/" xr:uid="{E8FEE7A6-9CEC-4C88-A280-CD6E3DDFBFA1}"/>
+    <hyperlink ref="E264" r:id="rId245" display="https://phenocam.nau.edu/webcam/browse/proctor/2021/10/12/" xr:uid="{FAAD5F92-EEF9-433E-AD16-E82ABDB8F0B4}"/>
+    <hyperlink ref="E265" r:id="rId246" display="https://phenocam.nau.edu/data/archive/proctor/2021/11/proctor_2021_11_07_094638.jpg" xr:uid="{92B2D28A-6436-41CB-BE9C-9D3234628D17}"/>
+    <hyperlink ref="E266" r:id="rId247" display="https://phenocam.nau.edu/data/archive/proctor/2022/01/proctor_2022_01_10_144638.jpg" xr:uid="{4E5BA090-613E-4F0D-B9C2-205D651C9FDA}"/>
+    <hyperlink ref="E267" r:id="rId248" display="https://phenocam.nau.edu/webcam/browse/proctor/2022/06/" xr:uid="{542159CF-ABE1-457A-8855-9838B5996706}"/>
+    <hyperlink ref="E268" r:id="rId249" display="https://phenocam.nau.edu/data/archive/proctor/2023/04/proctor_2023_04_10_063137.jpg" xr:uid="{751A2166-1764-4E91-A481-868611210BCC}"/>
+    <hyperlink ref="E269" r:id="rId250" display="https://phenocam.nau.edu/data/archive/proctor/2023/10/proctor_2023_10_08_061637.jpg" xr:uid="{AAD577FF-82A7-49C0-8D3B-0DA9A92F42A7}"/>
+    <hyperlink ref="E270" r:id="rId251" display="https://phenocam.nau.edu/data/archive/proctor/2024/04/proctor_2024_04_07_051637.jpg" xr:uid="{85B04C31-7805-4162-8028-E74A4C19DEF5}"/>
+    <hyperlink ref="E272" r:id="rId252" display="https://phenocam.nau.edu/data/archive/proctor/2024/10/proctor_2024_10_06_090139.jpg" xr:uid="{E95592BA-839F-44BC-971F-CC0EA5DB1F1F}"/>
+    <hyperlink ref="E271" r:id="rId253" display="https://phenocam.nau.edu/webcam/browse/proctor/2024/07/" xr:uid="{0F8661B5-0F8D-4D40-8786-0DAEE1AFC8A7}"/>
+    <hyperlink ref="E273" r:id="rId254" display="https://phenocam.nau.edu/data/archive/willowcreek/2018/12/willowcreek_2018_12_09_083108.jpg" xr:uid="{6432E501-EFA2-4D6F-9F0A-B7493023825D}"/>
+    <hyperlink ref="E274" r:id="rId255" display="https://phenocam.nau.edu/data/archive/willowcreek/2018/12/willowcreek_2018_12_16_080109.jpg" xr:uid="{FC15C15E-950A-41F0-9237-E8A3D9BC4FB2}"/>
+    <hyperlink ref="E275" r:id="rId256" display="https://phenocam.nau.edu/data/archive/willowcreek/2019/03/willowcreek_2019_03_17_060108.jpg" xr:uid="{5557FD73-980C-4188-9FC1-51E99B6E152F}"/>
+    <hyperlink ref="E276" r:id="rId257" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2019/06/" xr:uid="{48B02168-424F-4A1F-A458-00D963C30792}"/>
+    <hyperlink ref="E277" r:id="rId258" display="https://phenocam.nau.edu/data/archive/willowcreek/2020/03/willowcreek_2020_03_14_063105.jpg" xr:uid="{58144E2F-76D3-46CD-8E95-AD80290175BF}"/>
+    <hyperlink ref="E278" r:id="rId259" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2020/06/" xr:uid="{91945D52-B2BC-484D-9201-8B80B6E17DB7}"/>
+    <hyperlink ref="E279" r:id="rId260" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2020/06/" xr:uid="{61CC7370-165F-4BB7-89C6-FED6FD7ACCFA}"/>
+    <hyperlink ref="E280" r:id="rId261" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2020/09/" xr:uid="{402139CC-9192-4046-BE3B-DB97440CA216}"/>
+    <hyperlink ref="E281" r:id="rId262" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2021/06/" xr:uid="{6EC0245A-B03A-4288-AD58-A2CB3590681D}"/>
+    <hyperlink ref="E282" r:id="rId263" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2021/09/" xr:uid="{A679CCD7-4343-4CF6-9BF8-66B2F2BCC06B}"/>
+    <hyperlink ref="E283" r:id="rId264" display="https://phenocam.nau.edu/data/archive/willowcreek/2022/03/willowcreek_2022_03_04_063106.jpg" xr:uid="{17266103-B18F-4011-8EE8-12D67B19B5C7}"/>
+    <hyperlink ref="E284" r:id="rId265" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2022/09/" xr:uid="{5A9C1D53-8030-42B1-851D-97A6EAF87391}"/>
+    <hyperlink ref="E285" r:id="rId266" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2022/09/" xr:uid="{B18DD1AD-A3B3-48D5-87F4-7063990DA3A5}"/>
+    <hyperlink ref="E286" r:id="rId267" display="https://phenocam.nau.edu/data/archive/willowcreek/2022/12/willowcreek_2022_12_01_072605.jpg" xr:uid="{F6BFB5C2-D842-4A98-8C29-395AED71811E}"/>
+    <hyperlink ref="E287" r:id="rId268" display="https://phenocam.nau.edu/data/archive/willowcreek/2023/03/willowcreek_2023_03_02_065605.jpg" xr:uid="{4570D739-09BE-42D8-8843-B291C9D81D35}"/>
+    <hyperlink ref="E288" r:id="rId269" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2023/06/" xr:uid="{B1317228-667C-4B73-AA4D-EAC19A7B4859}"/>
+    <hyperlink ref="E289" r:id="rId270" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2023/06/" xr:uid="{FA19DABF-EC5A-4F7F-9326-2B0BF1044A3A}"/>
+    <hyperlink ref="E290" r:id="rId271" display="https://phenocam.nau.edu/data/archive/willowcreek/2024/02/willowcreek_2024_02_28_175606.jpg" xr:uid="{5D782857-21B1-467C-A6ED-679371F826F6}"/>
+    <hyperlink ref="E291" r:id="rId272" display="https://phenocam.nau.edu/data/archive/willowcreek/2024/03/willowcreek_2024_03_06_062605.jpg" xr:uid="{5E748BB4-DB6C-450E-8896-B6A9C06C0248}"/>
+    <hyperlink ref="E292" r:id="rId273" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2024/" xr:uid="{87646E42-AE1E-469C-87CA-69B6041E75F0}"/>
+    <hyperlink ref="E293" r:id="rId274" display="https://phenocam.nau.edu/webcam/browse/willowcreek/2024/09/" xr:uid="{BB6F797D-3C56-44C6-87D3-30ACD3B79854}"/>
+    <hyperlink ref="E294" r:id="rId275" display="https://phenocam.nau.edu/data/archive/glees/2018/12/glees_2018_12_05_071605.jpg" xr:uid="{0855E031-F91B-4CB1-ADFB-FAB8A11E9F59}"/>
+    <hyperlink ref="E295" r:id="rId276" display="https://phenocam.nau.edu/data/archive/glees/2019/01/glees_2019_01_04_111605.jpg" xr:uid="{437B9811-352A-4443-989A-4345272ECB75}"/>
+    <hyperlink ref="E296" r:id="rId277" display="https://phenocam.nau.edu/data/archive/glees/2019/04/glees_2019_04_05_074605.jpg" xr:uid="{F7C7BB6D-9318-4EBB-89CC-E8B9DAC9A0C9}"/>
+    <hyperlink ref="E297" r:id="rId278" display="https://phenocam.nau.edu/data/archive/glees/2019/06/glees_2019_06_04_164606.jpg" xr:uid="{1E1C5962-0E10-41B1-96A0-C52B9E359534}"/>
+    <hyperlink ref="E298" r:id="rId279" display="https://phenocam.nau.edu/data/archive/glees/2019/08/glees_2019_08_03_120306.jpg" xr:uid="{017A3BF1-3BC2-437B-8B32-FB40E39292D7}"/>
+    <hyperlink ref="E299" r:id="rId280" display="https://phenocam.nau.edu/data/archive/glees/2019/10/glees_2019_10_04_123305.jpg" xr:uid="{28403825-69E3-43EE-88DB-03AD3F49815E}"/>
+    <hyperlink ref="E300" r:id="rId281" display="https://phenocam.nau.edu/data/archive/glees/2019/11/glees_2019_11_02_063305.jpg" xr:uid="{7B39AA23-B14B-45B4-8EC6-41E0878BE7AA}"/>
+    <hyperlink ref="E301" r:id="rId282" display="https://phenocam.nau.edu/data/archive/glees/2020/01/glees_2020_01_03_073305.jpg" xr:uid="{1DB2F385-A104-45A6-93A9-060D5DFB5CE3}"/>
+    <hyperlink ref="E302" r:id="rId283" display="https://phenocam.nau.edu/data/archive/glees/2020/03/glees_2020_03_03_070305.jpg" xr:uid="{2534D488-3314-4557-92CF-77C5803D4965}"/>
+    <hyperlink ref="E303" r:id="rId284" display="https://phenocam.nau.edu/data/archive/glees/2020/06/glees_2020_06_02_050305.jpg" xr:uid="{2A3933AB-6672-4199-82C6-B2352587BB16}"/>
+    <hyperlink ref="E304" r:id="rId285" display="https://phenocam.nau.edu/data/archive/glees/2020/07/glees_2020_07_02_110305.jpg" xr:uid="{6CB5D1BB-CD73-47B6-BFC8-0387409979A6}"/>
+    <hyperlink ref="E305" r:id="rId286" display="https://phenocam.nau.edu/data/archive/glees/2020/10/glees_2020_10_01_103305.jpg" xr:uid="{222F97D3-CE1D-4B7D-8DCF-18B842A16194}"/>
+    <hyperlink ref="E306" r:id="rId287" display="https://phenocam.nau.edu/data/archive/glees/2021/04/glees_2021_04_01_054006.jpg" xr:uid="{715A8B9F-9FB4-4357-9C4D-45CED3E8FE2E}"/>
+    <hyperlink ref="E307" r:id="rId288" display="https://phenocam.nau.edu/data/archive/glees/2022/04/glees_2022_04_28_044806.jpg" xr:uid="{E34AA6E0-EB3E-4B68-B694-8E5F568640AC}"/>
+    <hyperlink ref="E308" r:id="rId289" display="https://phenocam.nau.edu/webcam/browse/glees/2022/08/" xr:uid="{55B1706D-F5A0-4BE4-9315-5632A266E441}"/>
+    <hyperlink ref="E309" r:id="rId290" display="https://phenocam.nau.edu/webcam/browse/glees/2022/09/" xr:uid="{73DC32F1-C1F8-4226-B882-6E46F29937E2}"/>
+    <hyperlink ref="E310" r:id="rId291" display="https://phenocam.nau.edu/data/archive/glees/2022/11/glees_2022_11_27_071806.jpg" xr:uid="{5094B975-0F33-40BE-B874-A81E254B5174}"/>
+    <hyperlink ref="E311" r:id="rId292" display="https://phenocam.nau.edu/data/archive/glees/2022/12/glees_2022_12_27_141805.jpg" xr:uid="{7A4792F3-0312-4795-B04B-BCDB0951B1F4}"/>
+    <hyperlink ref="E312" r:id="rId293" display="https://phenocam.nau.edu/data/archive/glees/2023/02/glees_2023_02_25_174805.jpg" xr:uid="{F779320D-FB2E-4CAC-8E7E-0B7F2E27E68B}"/>
+    <hyperlink ref="E313" r:id="rId294" display="https://phenocam.nau.edu/data/archive/glees/2023/02/glees_2023_02_25_174805.jpg" xr:uid="{91B91078-D2EB-4472-AE5F-521E35969643}"/>
+    <hyperlink ref="E314" r:id="rId295" display="https://phenocam.nau.edu/webcam/browse/glees/2023/07/27/" xr:uid="{C8E3C780-EC07-4537-B840-07B99DEED25B}"/>
+    <hyperlink ref="E315" r:id="rId296" display="https://phenocam.nau.edu/webcam/browse/glees/2023/08/" xr:uid="{0C819187-DC48-4F89-9813-0A0146E9F5FA}"/>
+    <hyperlink ref="E316" r:id="rId297" display="https://phenocam.nau.edu/webcam/browse/glees/2023/09/26/" xr:uid="{36C522E2-D700-4C4F-98F9-A0546BE2F81D}"/>
+    <hyperlink ref="E317" r:id="rId298" display="https://phenocam.nau.edu/data/archive/glees/2023/11/glees_2023_11_25_101805.jpg" xr:uid="{6D1CD72D-C030-4CC5-A7AF-549A10BD2546}"/>
+    <hyperlink ref="E318" r:id="rId299" display="https://phenocam.nau.edu/data/archive/glees/2024/02/glees_2024_02_24_062405.jpg" xr:uid="{5345F4CD-3564-450C-943B-70633598128C}"/>
+    <hyperlink ref="E319" r:id="rId300" display="https://phenocam.nau.edu/data/archive/glees/2024/09/glees_2024_09_23_105506.jpg" xr:uid="{4E919C48-7CBB-4E7D-9895-D0BB2CFB3163}"/>
+    <hyperlink ref="E320" r:id="rId301" display="https://phenocam.nau.edu/data/archive/glees/2024/11/glees_2024_11_22_142506.jpg" xr:uid="{14E42D84-99AA-4B45-A212-8EC3E01FE30B}"/>
+    <hyperlink ref="E321" r:id="rId302" display="https://phenocam.nau.edu/data/archive/queens/2019/01/queens_2019_01_30_100006.jpg" xr:uid="{360F97A1-32E3-4B32-8EF1-D0E2AFDD25AC}"/>
+    <hyperlink ref="E322" r:id="rId303" display="https://phenocam.nau.edu/webcam/browse/queens/2019/08/29/" xr:uid="{64300654-71D6-45F2-B166-4DAE35EC5864}"/>
+    <hyperlink ref="E323" r:id="rId304" display="https://phenocam.nau.edu/webcam/browse/queens/2020/06/" xr:uid="{3606B5EA-BE7D-4442-9176-5F6FCB4B4BA0}"/>
+    <hyperlink ref="E324" r:id="rId305" display="https://phenocam.nau.edu/webcam/browse/queens/2020/07/" xr:uid="{DFB63F6C-F29B-40B2-B756-FE377A238D6B}"/>
+    <hyperlink ref="E325" r:id="rId306" display="https://phenocam.nau.edu/webcam/browse/queens/2020/07/" xr:uid="{8BE3C269-7F7E-4102-8D0F-8E803322BA1D}"/>
+    <hyperlink ref="E326" r:id="rId307" display="https://phenocam.nau.edu/data/archive/queens/2021/01/queens_2021_01_26_133705.jpg" xr:uid="{581C972E-FAD5-4C40-81F6-BE5C2719AABE}"/>
+    <hyperlink ref="E327" r:id="rId308" display="https://phenocam.nau.edu/data/archive/queens/2021/04/queens_2021_04_26_183705.jpg" xr:uid="{8134EC7C-C2DF-4851-B86C-88CCB2699F60}"/>
+    <hyperlink ref="E328" r:id="rId309" display="https://phenocam.nau.edu/webcam/browse/queens/2021/07/" xr:uid="{39E80B6E-830D-420C-978D-CB24403FA304}"/>
+    <hyperlink ref="E329" r:id="rId310" display="https://phenocam.nau.edu/webcam/browse/queens/2021/09/29/" xr:uid="{A1F0B736-794E-45FB-812E-87EA6B13AFFA}"/>
+    <hyperlink ref="E330" r:id="rId311" display="https://phenocam.nau.edu/data/archive/queens/2022/01/queens_2022_01_24_073705.jpg" xr:uid="{C92BEEB3-7357-41C6-A5E6-717D317A2BDD}"/>
+    <hyperlink ref="E331" r:id="rId312" display="https://phenocam.nau.edu/webcam/browse/queens/2022/05/30/" xr:uid="{08C0B088-AF09-4EF3-905D-339DD7F7D166}"/>
+    <hyperlink ref="E332" r:id="rId313" display="https://phenocam.nau.edu/webcam/browse/queens/2022/08/" xr:uid="{CDDD0D64-5427-4AA4-BE50-DCF21C8A44AC}"/>
+    <hyperlink ref="E333" r:id="rId314" display="https://phenocam.nau.edu/webcam/browse/queens/2022/10/23/" xr:uid="{B6A785FC-7351-432F-83AF-200ABF0AEC47}"/>
+    <hyperlink ref="E334" r:id="rId315" display="https://phenocam.nau.edu/webcam/browse/queens/2023/06/" xr:uid="{0AD0347E-2ED3-4371-80DC-7EA8EAAAA724}"/>
+    <hyperlink ref="E335" r:id="rId316" display="https://phenocam.nau.edu/webcam/browse/queens/2023/07/" xr:uid="{693642E3-0B7D-415D-8F27-B39C16D5B5BB}"/>
+    <hyperlink ref="E336" r:id="rId317" display="https://phenocam.nau.edu/webcam/browse/queens/2023/09/" xr:uid="{C80C9464-DE78-4B01-BB15-E2B4899D7D89}"/>
+    <hyperlink ref="E337" r:id="rId318" display="https://phenocam.nau.edu/data/archive/queens/2024/01/queens_2024_01_20_170705.jpg" xr:uid="{A02E6DE4-2A3F-4711-BBD0-CCC283B58833}"/>
+    <hyperlink ref="E338" r:id="rId319" display="https://phenocam.nau.edu/data/archive/queens/2024/04/queens_2024_04_20_080705.jpg" xr:uid="{71732A73-A45E-43B7-BEA9-D0176B6680A4}"/>
+    <hyperlink ref="E339" r:id="rId320" display="https://phenocam.nau.edu/webcam/browse/queens/2024/07/" xr:uid="{BA4883D8-62EC-4BE3-9CB5-EE63A5099E48}"/>
+    <hyperlink ref="E340" r:id="rId321" display="https://phenocam.nau.edu/webcam/browse/queens/2024/09/" xr:uid="{D3B1FC12-0785-4C5F-B805-8724451A0B43}"/>
+    <hyperlink ref="E341" r:id="rId322" display="https://phenocam.nau.edu/webcam/browse/queens/2024/10/19/" xr:uid="{91474577-2D62-4B5F-8CD6-28E81DEBF0DA}"/>
+    <hyperlink ref="E342" r:id="rId323" display="https://phenocam.nau.edu/data/archive/canadaojp/2018/10/canadaojp_2018_10_18_162959.jpg" xr:uid="{290773FF-E96A-430B-89B5-8F0643BDC8A2}"/>
+    <hyperlink ref="E343" r:id="rId324" display="https://phenocam.nau.edu/data/archive/canadaojp/2018/11/canadaojp_2018_11_06_075959.jpg" xr:uid="{1F0819BD-00BB-48DD-A9B0-9AB4CCCC9C6D}"/>
+    <hyperlink ref="E344" r:id="rId325" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/01/canadaojp_2019_01_17_112959.jpg" xr:uid="{A1B0AB39-29F1-42F2-9848-0F99E964C900}"/>
+    <hyperlink ref="E345" r:id="rId326" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/04/canadaojp_2019_04_19_052959.jpg" xr:uid="{EE3E83E5-CD91-4EE6-B043-E4AD901B7E66}"/>
+    <hyperlink ref="E346" r:id="rId327" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/05/canadaojp_2019_05_07_055959.jpg" xr:uid="{402003C0-325E-4DDE-B5C8-F49920BF9CD4}"/>
+    <hyperlink ref="E348" r:id="rId328" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/01/canadaojp_2020_01_15_172959.jpg" xr:uid="{BF63B7FE-8773-4E1B-AF38-10A9318138F0}"/>
+    <hyperlink ref="E349" r:id="rId329" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/02/canadaojp_2020_02_03_082959.jpg" xr:uid="{97357D13-902B-4AD9-97C0-B7172BE7D222}"/>
+    <hyperlink ref="E350" r:id="rId330" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/04/canadaojp_2020_04_15_145959.jpg" xr:uid="{1AEA1DE9-CAC3-4D50-BD68-91F6C040C124}"/>
+    <hyperlink ref="E351" r:id="rId331" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/05/canadaojp_2020_05_04_045959.jpg" xr:uid="{7FEFF69E-8EF3-47C2-97DC-E2FCDF6D1F66}"/>
+    <hyperlink ref="E352" r:id="rId332" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2020/08/" xr:uid="{7D494400-A0AC-4B0C-8B31-50CE9D455FD4}"/>
+    <hyperlink ref="E353" r:id="rId333" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/10/canadaojp_2020_10_14_073000.jpg" xr:uid="{BE6B4BF5-12D7-45AF-A709-93A34BEBD7B0}"/>
+    <hyperlink ref="E354" r:id="rId334" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/10/canadaojp_2020_10_31_172959.jpg" xr:uid="{7C0A5B0C-8750-43C5-BE13-04552E2E9AF0}"/>
+    <hyperlink ref="E355" r:id="rId335" display="https://phenocam.nau.edu/data/archive/canadaojp/2021/07/canadaojp_2021_07_13_090017.jpg" xr:uid="{012E2006-40F4-4D21-932F-372E49393B4C}"/>
+    <hyperlink ref="E356" r:id="rId336" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2021/08/" xr:uid="{7EC7461C-3AB0-47A8-B754-B4EE9C17ED39}"/>
+    <hyperlink ref="E357" r:id="rId337" display="https://phenocam.nau.edu/data/archive/canadaojp/2021/10/canadaojp_2021_10_31_080028.jpg" xr:uid="{497814D7-EF41-404C-8AAD-E4741DF8E19B}"/>
+    <hyperlink ref="E358" r:id="rId338" display="https://phenocam.nau.edu/data/archive/canadaojp/2022/05/canadaojp_2022_05_11_050011.jpg" xr:uid="{8CAA40C0-1C7A-4FF8-8BB2-E942B8CEE438}"/>
+    <hyperlink ref="E359" r:id="rId339" display="https://phenocam.nau.edu/data/archive/canadaojp/2022/10/canadaojp_2022_10_29_080013.jpg" xr:uid="{C3000DF7-BF58-4692-8626-749F7D0D773F}"/>
+    <hyperlink ref="E360" r:id="rId340" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/01/canadaojp_2023_01_28_083014.jpg" xr:uid="{2969C543-FFEE-4527-97DE-746F39BB0BC2}"/>
+    <hyperlink ref="E361" r:id="rId341" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/04/canadaojp_2023_04_10_090014.jpg" xr:uid="{F4B832AA-6FAD-4C6B-BA3D-DBE9AA5B24D8}"/>
+    <hyperlink ref="E362" r:id="rId342" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/04/canadaojp_2023_04_28_203029.jpg" xr:uid="{D5C2A1F1-F3A0-4F54-869F-B2B6D674B001}"/>
+    <hyperlink ref="E363" r:id="rId343" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/07/10/" xr:uid="{2ECA9FF1-435F-44AE-A2D7-B86172E6B01A}"/>
+    <hyperlink ref="E364" r:id="rId344" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/07/" xr:uid="{12398967-610E-46D5-A894-2C8944AF6C68}"/>
+    <hyperlink ref="E365" r:id="rId345" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/10/09/" xr:uid="{E6742861-834D-45E2-9706-635FAAE98023}"/>
+    <hyperlink ref="E366" r:id="rId346" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/10/canadaojp_2023_10_27_130014.jpg" xr:uid="{B60B8613-CA12-40FB-BCF3-7F93CB0F48CD}"/>
+    <hyperlink ref="E367" r:id="rId347" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/01/canadaojp_2024_01_07_170018.jpg" xr:uid="{4B4F5252-CCC6-4800-8B5F-FF892D1A6027}"/>
+    <hyperlink ref="E368" r:id="rId348" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2024/01/26/" xr:uid="{E43DABBC-EB84-4E4C-B9B9-CE913621480E}"/>
+    <hyperlink ref="E369" r:id="rId349" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/04/canadaojp_2024_04_07_200012.jpg" xr:uid="{AD1C1CC3-CC54-4F32-ABD9-063EF8DD5798}"/>
+    <hyperlink ref="E370" r:id="rId350" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/04/canadaojp_2024_04_25_053015.jpg" xr:uid="{234FFA58-932A-4A85-BC44-C3309B72CE1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId369"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId351"/>
 </worksheet>
 </file>
--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3441705-62C8-4660-BEF8-52C4F9521665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A8D86-3703-4781-BF7A-A5629AAE7AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-324" yWindow="576" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="312">
   <si>
     <t>Camera</t>
   </si>
@@ -958,6 +958,9 @@
   </si>
   <si>
     <t>tammela</t>
+  </si>
+  <si>
+    <t>glees_2023_05_28_101805.jpg (1296×960)</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C434" sqref="C434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2026,7 +2029,7 @@
         <v>44306</v>
       </c>
       <c r="C21" s="7">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3062,7 +3065,7 @@
         <v>43954</v>
       </c>
       <c r="C58" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3286,7 +3289,7 @@
         <v>44318</v>
       </c>
       <c r="C66" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3370,7 +3373,7 @@
         <v>44681</v>
       </c>
       <c r="C69" s="1">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3565,7 +3568,7 @@
         <v>45054</v>
       </c>
       <c r="C76" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3725,7 +3728,7 @@
         <v>45408</v>
       </c>
       <c r="C82" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4022,7 +4025,7 @@
         <v>44134</v>
       </c>
       <c r="C93" s="1">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -4184,7 +4187,7 @@
         <v>44520</v>
       </c>
       <c r="C99" s="1">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5204,7 +5207,7 @@
         <v>43524</v>
       </c>
       <c r="C137" s="1">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5232,7 +5235,7 @@
         <v>43609</v>
       </c>
       <c r="C138" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -5624,7 +5627,7 @@
         <v>44608</v>
       </c>
       <c r="C152" s="1">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -5993,7 +5996,7 @@
         <v>43490</v>
       </c>
       <c r="C167" s="1">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -6158,7 +6161,7 @@
         <v>43853</v>
       </c>
       <c r="C173" s="1">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -8108,7 +8111,7 @@
         <v>43928</v>
       </c>
       <c r="C246" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -9603,7 +9606,7 @@
         <v>43984</v>
       </c>
       <c r="C303" s="1">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -9863,13 +9866,13 @@
         <v>45074</v>
       </c>
       <c r="C313" s="1">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="D313">
         <v>0</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="F313">
         <v>-106.2394</v>
@@ -10695,7 +10698,7 @@
         <v>43573</v>
       </c>
       <c r="C345" s="1">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -10721,7 +10724,7 @@
         <v>43592</v>
       </c>
       <c r="C346" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -11056,7 +11059,7 @@
         <v>44863</v>
       </c>
       <c r="C359" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -11414,7 +11417,7 @@
         <v>43592</v>
       </c>
       <c r="C373" s="1">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -11575,7 +11578,7 @@
         <v>43976</v>
       </c>
       <c r="C380" s="1">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -11598,7 +11601,7 @@
         <v>43984</v>
       </c>
       <c r="C381" s="1">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -11759,7 +11762,7 @@
         <v>44347</v>
       </c>
       <c r="C388" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -12012,7 +12015,7 @@
         <v>43977</v>
       </c>
       <c r="C399" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D399">
         <v>0</v>
@@ -12495,7 +12498,7 @@
         <v>43872</v>
       </c>
       <c r="C420" s="1">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D420">
         <v>0</v>
@@ -12518,7 +12521,7 @@
         <v>43907</v>
       </c>
       <c r="C421" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D421">
         <v>0</v>
@@ -12541,7 +12544,7 @@
         <v>43963</v>
       </c>
       <c r="C422" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -12794,7 +12797,7 @@
         <v>44689</v>
       </c>
       <c r="C433" s="1">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -13633,63 +13636,63 @@
     <hyperlink ref="E310" r:id="rId291" display="https://phenocam.nau.edu/data/archive/glees/2022/11/glees_2022_11_27_071806.jpg" xr:uid="{5094B975-0F33-40BE-B874-A81E254B5174}"/>
     <hyperlink ref="E311" r:id="rId292" display="https://phenocam.nau.edu/data/archive/glees/2022/12/glees_2022_12_27_141805.jpg" xr:uid="{7A4792F3-0312-4795-B04B-BCDB0951B1F4}"/>
     <hyperlink ref="E312" r:id="rId293" display="https://phenocam.nau.edu/data/archive/glees/2023/02/glees_2023_02_25_174805.jpg" xr:uid="{F779320D-FB2E-4CAC-8E7E-0B7F2E27E68B}"/>
-    <hyperlink ref="E313" r:id="rId294" display="https://phenocam.nau.edu/data/archive/glees/2023/02/glees_2023_02_25_174805.jpg" xr:uid="{91B91078-D2EB-4472-AE5F-521E35969643}"/>
-    <hyperlink ref="E314" r:id="rId295" display="https://phenocam.nau.edu/webcam/browse/glees/2023/07/27/" xr:uid="{C8E3C780-EC07-4537-B840-07B99DEED25B}"/>
-    <hyperlink ref="E315" r:id="rId296" display="https://phenocam.nau.edu/webcam/browse/glees/2023/08/" xr:uid="{0C819187-DC48-4F89-9813-0A0146E9F5FA}"/>
-    <hyperlink ref="E316" r:id="rId297" display="https://phenocam.nau.edu/webcam/browse/glees/2023/09/26/" xr:uid="{36C522E2-D700-4C4F-98F9-A0546BE2F81D}"/>
-    <hyperlink ref="E317" r:id="rId298" display="https://phenocam.nau.edu/data/archive/glees/2023/11/glees_2023_11_25_101805.jpg" xr:uid="{6D1CD72D-C030-4CC5-A7AF-549A10BD2546}"/>
-    <hyperlink ref="E318" r:id="rId299" display="https://phenocam.nau.edu/data/archive/glees/2024/02/glees_2024_02_24_062405.jpg" xr:uid="{5345F4CD-3564-450C-943B-70633598128C}"/>
-    <hyperlink ref="E319" r:id="rId300" display="https://phenocam.nau.edu/data/archive/glees/2024/09/glees_2024_09_23_105506.jpg" xr:uid="{4E919C48-7CBB-4E7D-9895-D0BB2CFB3163}"/>
-    <hyperlink ref="E320" r:id="rId301" display="https://phenocam.nau.edu/data/archive/glees/2024/11/glees_2024_11_22_142506.jpg" xr:uid="{14E42D84-99AA-4B45-A212-8EC3E01FE30B}"/>
-    <hyperlink ref="E321" r:id="rId302" display="https://phenocam.nau.edu/data/archive/queens/2019/01/queens_2019_01_30_100006.jpg" xr:uid="{360F97A1-32E3-4B32-8EF1-D0E2AFDD25AC}"/>
-    <hyperlink ref="E322" r:id="rId303" display="https://phenocam.nau.edu/webcam/browse/queens/2019/08/29/" xr:uid="{64300654-71D6-45F2-B166-4DAE35EC5864}"/>
-    <hyperlink ref="E323" r:id="rId304" display="https://phenocam.nau.edu/webcam/browse/queens/2020/06/" xr:uid="{3606B5EA-BE7D-4442-9176-5F6FCB4B4BA0}"/>
-    <hyperlink ref="E324" r:id="rId305" display="https://phenocam.nau.edu/webcam/browse/queens/2020/07/" xr:uid="{DFB63F6C-F29B-40B2-B756-FE377A238D6B}"/>
-    <hyperlink ref="E325" r:id="rId306" display="https://phenocam.nau.edu/webcam/browse/queens/2020/07/" xr:uid="{8BE3C269-7F7E-4102-8D0F-8E803322BA1D}"/>
-    <hyperlink ref="E326" r:id="rId307" display="https://phenocam.nau.edu/data/archive/queens/2021/01/queens_2021_01_26_133705.jpg" xr:uid="{581C972E-FAD5-4C40-81F6-BE5C2719AABE}"/>
-    <hyperlink ref="E327" r:id="rId308" display="https://phenocam.nau.edu/data/archive/queens/2021/04/queens_2021_04_26_183705.jpg" xr:uid="{8134EC7C-C2DF-4851-B86C-88CCB2699F60}"/>
-    <hyperlink ref="E328" r:id="rId309" display="https://phenocam.nau.edu/webcam/browse/queens/2021/07/" xr:uid="{39E80B6E-830D-420C-978D-CB24403FA304}"/>
-    <hyperlink ref="E329" r:id="rId310" display="https://phenocam.nau.edu/webcam/browse/queens/2021/09/29/" xr:uid="{A1F0B736-794E-45FB-812E-87EA6B13AFFA}"/>
-    <hyperlink ref="E330" r:id="rId311" display="https://phenocam.nau.edu/data/archive/queens/2022/01/queens_2022_01_24_073705.jpg" xr:uid="{C92BEEB3-7357-41C6-A5E6-717D317A2BDD}"/>
-    <hyperlink ref="E331" r:id="rId312" display="https://phenocam.nau.edu/webcam/browse/queens/2022/05/30/" xr:uid="{08C0B088-AF09-4EF3-905D-339DD7F7D166}"/>
-    <hyperlink ref="E332" r:id="rId313" display="https://phenocam.nau.edu/webcam/browse/queens/2022/08/" xr:uid="{CDDD0D64-5427-4AA4-BE50-DCF21C8A44AC}"/>
-    <hyperlink ref="E333" r:id="rId314" display="https://phenocam.nau.edu/webcam/browse/queens/2022/10/23/" xr:uid="{B6A785FC-7351-432F-83AF-200ABF0AEC47}"/>
-    <hyperlink ref="E334" r:id="rId315" display="https://phenocam.nau.edu/webcam/browse/queens/2023/06/" xr:uid="{0AD0347E-2ED3-4371-80DC-7EA8EAAAA724}"/>
-    <hyperlink ref="E335" r:id="rId316" display="https://phenocam.nau.edu/webcam/browse/queens/2023/07/" xr:uid="{693642E3-0B7D-415D-8F27-B39C16D5B5BB}"/>
-    <hyperlink ref="E336" r:id="rId317" display="https://phenocam.nau.edu/webcam/browse/queens/2023/09/" xr:uid="{C80C9464-DE78-4B01-BB15-E2B4899D7D89}"/>
-    <hyperlink ref="E337" r:id="rId318" display="https://phenocam.nau.edu/data/archive/queens/2024/01/queens_2024_01_20_170705.jpg" xr:uid="{A02E6DE4-2A3F-4711-BBD0-CCC283B58833}"/>
-    <hyperlink ref="E338" r:id="rId319" display="https://phenocam.nau.edu/data/archive/queens/2024/04/queens_2024_04_20_080705.jpg" xr:uid="{71732A73-A45E-43B7-BEA9-D0176B6680A4}"/>
-    <hyperlink ref="E339" r:id="rId320" display="https://phenocam.nau.edu/webcam/browse/queens/2024/07/" xr:uid="{BA4883D8-62EC-4BE3-9CB5-EE63A5099E48}"/>
-    <hyperlink ref="E340" r:id="rId321" display="https://phenocam.nau.edu/webcam/browse/queens/2024/09/" xr:uid="{D3B1FC12-0785-4C5F-B805-8724451A0B43}"/>
-    <hyperlink ref="E341" r:id="rId322" display="https://phenocam.nau.edu/webcam/browse/queens/2024/10/19/" xr:uid="{91474577-2D62-4B5F-8CD6-28E81DEBF0DA}"/>
-    <hyperlink ref="E342" r:id="rId323" display="https://phenocam.nau.edu/data/archive/canadaojp/2018/10/canadaojp_2018_10_18_162959.jpg" xr:uid="{290773FF-E96A-430B-89B5-8F0643BDC8A2}"/>
-    <hyperlink ref="E343" r:id="rId324" display="https://phenocam.nau.edu/data/archive/canadaojp/2018/11/canadaojp_2018_11_06_075959.jpg" xr:uid="{1F0819BD-00BB-48DD-A9B0-9AB4CCCC9C6D}"/>
-    <hyperlink ref="E344" r:id="rId325" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/01/canadaojp_2019_01_17_112959.jpg" xr:uid="{A1B0AB39-29F1-42F2-9848-0F99E964C900}"/>
-    <hyperlink ref="E345" r:id="rId326" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/04/canadaojp_2019_04_19_052959.jpg" xr:uid="{EE3E83E5-CD91-4EE6-B043-E4AD901B7E66}"/>
-    <hyperlink ref="E346" r:id="rId327" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/05/canadaojp_2019_05_07_055959.jpg" xr:uid="{402003C0-325E-4DDE-B5C8-F49920BF9CD4}"/>
-    <hyperlink ref="E348" r:id="rId328" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/01/canadaojp_2020_01_15_172959.jpg" xr:uid="{BF63B7FE-8773-4E1B-AF38-10A9318138F0}"/>
-    <hyperlink ref="E349" r:id="rId329" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/02/canadaojp_2020_02_03_082959.jpg" xr:uid="{97357D13-902B-4AD9-97C0-B7172BE7D222}"/>
-    <hyperlink ref="E350" r:id="rId330" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/04/canadaojp_2020_04_15_145959.jpg" xr:uid="{1AEA1DE9-CAC3-4D50-BD68-91F6C040C124}"/>
-    <hyperlink ref="E351" r:id="rId331" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/05/canadaojp_2020_05_04_045959.jpg" xr:uid="{7FEFF69E-8EF3-47C2-97DC-E2FCDF6D1F66}"/>
-    <hyperlink ref="E352" r:id="rId332" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2020/08/" xr:uid="{7D494400-A0AC-4B0C-8B31-50CE9D455FD4}"/>
-    <hyperlink ref="E353" r:id="rId333" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/10/canadaojp_2020_10_14_073000.jpg" xr:uid="{BE6B4BF5-12D7-45AF-A709-93A34BEBD7B0}"/>
-    <hyperlink ref="E354" r:id="rId334" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/10/canadaojp_2020_10_31_172959.jpg" xr:uid="{7C0A5B0C-8750-43C5-BE13-04552E2E9AF0}"/>
-    <hyperlink ref="E355" r:id="rId335" display="https://phenocam.nau.edu/data/archive/canadaojp/2021/07/canadaojp_2021_07_13_090017.jpg" xr:uid="{012E2006-40F4-4D21-932F-372E49393B4C}"/>
-    <hyperlink ref="E356" r:id="rId336" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2021/08/" xr:uid="{7EC7461C-3AB0-47A8-B754-B4EE9C17ED39}"/>
-    <hyperlink ref="E357" r:id="rId337" display="https://phenocam.nau.edu/data/archive/canadaojp/2021/10/canadaojp_2021_10_31_080028.jpg" xr:uid="{497814D7-EF41-404C-8AAD-E4741DF8E19B}"/>
-    <hyperlink ref="E358" r:id="rId338" display="https://phenocam.nau.edu/data/archive/canadaojp/2022/05/canadaojp_2022_05_11_050011.jpg" xr:uid="{8CAA40C0-1C7A-4FF8-8BB2-E942B8CEE438}"/>
-    <hyperlink ref="E359" r:id="rId339" display="https://phenocam.nau.edu/data/archive/canadaojp/2022/10/canadaojp_2022_10_29_080013.jpg" xr:uid="{C3000DF7-BF58-4692-8626-749F7D0D773F}"/>
-    <hyperlink ref="E360" r:id="rId340" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/01/canadaojp_2023_01_28_083014.jpg" xr:uid="{2969C543-FFEE-4527-97DE-746F39BB0BC2}"/>
-    <hyperlink ref="E361" r:id="rId341" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/04/canadaojp_2023_04_10_090014.jpg" xr:uid="{F4B832AA-6FAD-4C6B-BA3D-DBE9AA5B24D8}"/>
-    <hyperlink ref="E362" r:id="rId342" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/04/canadaojp_2023_04_28_203029.jpg" xr:uid="{D5C2A1F1-F3A0-4F54-869F-B2B6D674B001}"/>
-    <hyperlink ref="E363" r:id="rId343" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/07/10/" xr:uid="{2ECA9FF1-435F-44AE-A2D7-B86172E6B01A}"/>
-    <hyperlink ref="E364" r:id="rId344" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/07/" xr:uid="{12398967-610E-46D5-A894-2C8944AF6C68}"/>
-    <hyperlink ref="E365" r:id="rId345" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/10/09/" xr:uid="{E6742861-834D-45E2-9706-635FAAE98023}"/>
-    <hyperlink ref="E366" r:id="rId346" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/10/canadaojp_2023_10_27_130014.jpg" xr:uid="{B60B8613-CA12-40FB-BCF3-7F93CB0F48CD}"/>
-    <hyperlink ref="E367" r:id="rId347" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/01/canadaojp_2024_01_07_170018.jpg" xr:uid="{4B4F5252-CCC6-4800-8B5F-FF892D1A6027}"/>
-    <hyperlink ref="E368" r:id="rId348" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2024/01/26/" xr:uid="{E43DABBC-EB84-4E4C-B9B9-CE913621480E}"/>
-    <hyperlink ref="E369" r:id="rId349" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/04/canadaojp_2024_04_07_200012.jpg" xr:uid="{AD1C1CC3-CC54-4F32-ABD9-063EF8DD5798}"/>
-    <hyperlink ref="E370" r:id="rId350" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/04/canadaojp_2024_04_25_053015.jpg" xr:uid="{234FFA58-932A-4A85-BC44-C3309B72CE1C}"/>
+    <hyperlink ref="E314" r:id="rId294" display="https://phenocam.nau.edu/webcam/browse/glees/2023/07/27/" xr:uid="{C8E3C780-EC07-4537-B840-07B99DEED25B}"/>
+    <hyperlink ref="E315" r:id="rId295" display="https://phenocam.nau.edu/webcam/browse/glees/2023/08/" xr:uid="{0C819187-DC48-4F89-9813-0A0146E9F5FA}"/>
+    <hyperlink ref="E316" r:id="rId296" display="https://phenocam.nau.edu/webcam/browse/glees/2023/09/26/" xr:uid="{36C522E2-D700-4C4F-98F9-A0546BE2F81D}"/>
+    <hyperlink ref="E317" r:id="rId297" display="https://phenocam.nau.edu/data/archive/glees/2023/11/glees_2023_11_25_101805.jpg" xr:uid="{6D1CD72D-C030-4CC5-A7AF-549A10BD2546}"/>
+    <hyperlink ref="E318" r:id="rId298" display="https://phenocam.nau.edu/data/archive/glees/2024/02/glees_2024_02_24_062405.jpg" xr:uid="{5345F4CD-3564-450C-943B-70633598128C}"/>
+    <hyperlink ref="E319" r:id="rId299" display="https://phenocam.nau.edu/data/archive/glees/2024/09/glees_2024_09_23_105506.jpg" xr:uid="{4E919C48-7CBB-4E7D-9895-D0BB2CFB3163}"/>
+    <hyperlink ref="E320" r:id="rId300" display="https://phenocam.nau.edu/data/archive/glees/2024/11/glees_2024_11_22_142506.jpg" xr:uid="{14E42D84-99AA-4B45-A212-8EC3E01FE30B}"/>
+    <hyperlink ref="E321" r:id="rId301" display="https://phenocam.nau.edu/data/archive/queens/2019/01/queens_2019_01_30_100006.jpg" xr:uid="{360F97A1-32E3-4B32-8EF1-D0E2AFDD25AC}"/>
+    <hyperlink ref="E322" r:id="rId302" display="https://phenocam.nau.edu/webcam/browse/queens/2019/08/29/" xr:uid="{64300654-71D6-45F2-B166-4DAE35EC5864}"/>
+    <hyperlink ref="E323" r:id="rId303" display="https://phenocam.nau.edu/webcam/browse/queens/2020/06/" xr:uid="{3606B5EA-BE7D-4442-9176-5F6FCB4B4BA0}"/>
+    <hyperlink ref="E324" r:id="rId304" display="https://phenocam.nau.edu/webcam/browse/queens/2020/07/" xr:uid="{DFB63F6C-F29B-40B2-B756-FE377A238D6B}"/>
+    <hyperlink ref="E325" r:id="rId305" display="https://phenocam.nau.edu/webcam/browse/queens/2020/07/" xr:uid="{8BE3C269-7F7E-4102-8D0F-8E803322BA1D}"/>
+    <hyperlink ref="E326" r:id="rId306" display="https://phenocam.nau.edu/data/archive/queens/2021/01/queens_2021_01_26_133705.jpg" xr:uid="{581C972E-FAD5-4C40-81F6-BE5C2719AABE}"/>
+    <hyperlink ref="E327" r:id="rId307" display="https://phenocam.nau.edu/data/archive/queens/2021/04/queens_2021_04_26_183705.jpg" xr:uid="{8134EC7C-C2DF-4851-B86C-88CCB2699F60}"/>
+    <hyperlink ref="E328" r:id="rId308" display="https://phenocam.nau.edu/webcam/browse/queens/2021/07/" xr:uid="{39E80B6E-830D-420C-978D-CB24403FA304}"/>
+    <hyperlink ref="E329" r:id="rId309" display="https://phenocam.nau.edu/webcam/browse/queens/2021/09/29/" xr:uid="{A1F0B736-794E-45FB-812E-87EA6B13AFFA}"/>
+    <hyperlink ref="E330" r:id="rId310" display="https://phenocam.nau.edu/data/archive/queens/2022/01/queens_2022_01_24_073705.jpg" xr:uid="{C92BEEB3-7357-41C6-A5E6-717D317A2BDD}"/>
+    <hyperlink ref="E331" r:id="rId311" display="https://phenocam.nau.edu/webcam/browse/queens/2022/05/30/" xr:uid="{08C0B088-AF09-4EF3-905D-339DD7F7D166}"/>
+    <hyperlink ref="E332" r:id="rId312" display="https://phenocam.nau.edu/webcam/browse/queens/2022/08/" xr:uid="{CDDD0D64-5427-4AA4-BE50-DCF21C8A44AC}"/>
+    <hyperlink ref="E333" r:id="rId313" display="https://phenocam.nau.edu/webcam/browse/queens/2022/10/23/" xr:uid="{B6A785FC-7351-432F-83AF-200ABF0AEC47}"/>
+    <hyperlink ref="E334" r:id="rId314" display="https://phenocam.nau.edu/webcam/browse/queens/2023/06/" xr:uid="{0AD0347E-2ED3-4371-80DC-7EA8EAAAA724}"/>
+    <hyperlink ref="E335" r:id="rId315" display="https://phenocam.nau.edu/webcam/browse/queens/2023/07/" xr:uid="{693642E3-0B7D-415D-8F27-B39C16D5B5BB}"/>
+    <hyperlink ref="E336" r:id="rId316" display="https://phenocam.nau.edu/webcam/browse/queens/2023/09/" xr:uid="{C80C9464-DE78-4B01-BB15-E2B4899D7D89}"/>
+    <hyperlink ref="E337" r:id="rId317" display="https://phenocam.nau.edu/data/archive/queens/2024/01/queens_2024_01_20_170705.jpg" xr:uid="{A02E6DE4-2A3F-4711-BBD0-CCC283B58833}"/>
+    <hyperlink ref="E338" r:id="rId318" display="https://phenocam.nau.edu/data/archive/queens/2024/04/queens_2024_04_20_080705.jpg" xr:uid="{71732A73-A45E-43B7-BEA9-D0176B6680A4}"/>
+    <hyperlink ref="E339" r:id="rId319" display="https://phenocam.nau.edu/webcam/browse/queens/2024/07/" xr:uid="{BA4883D8-62EC-4BE3-9CB5-EE63A5099E48}"/>
+    <hyperlink ref="E340" r:id="rId320" display="https://phenocam.nau.edu/webcam/browse/queens/2024/09/" xr:uid="{D3B1FC12-0785-4C5F-B805-8724451A0B43}"/>
+    <hyperlink ref="E341" r:id="rId321" display="https://phenocam.nau.edu/webcam/browse/queens/2024/10/19/" xr:uid="{91474577-2D62-4B5F-8CD6-28E81DEBF0DA}"/>
+    <hyperlink ref="E342" r:id="rId322" display="https://phenocam.nau.edu/data/archive/canadaojp/2018/10/canadaojp_2018_10_18_162959.jpg" xr:uid="{290773FF-E96A-430B-89B5-8F0643BDC8A2}"/>
+    <hyperlink ref="E343" r:id="rId323" display="https://phenocam.nau.edu/data/archive/canadaojp/2018/11/canadaojp_2018_11_06_075959.jpg" xr:uid="{1F0819BD-00BB-48DD-A9B0-9AB4CCCC9C6D}"/>
+    <hyperlink ref="E344" r:id="rId324" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/01/canadaojp_2019_01_17_112959.jpg" xr:uid="{A1B0AB39-29F1-42F2-9848-0F99E964C900}"/>
+    <hyperlink ref="E345" r:id="rId325" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/04/canadaojp_2019_04_19_052959.jpg" xr:uid="{EE3E83E5-CD91-4EE6-B043-E4AD901B7E66}"/>
+    <hyperlink ref="E346" r:id="rId326" display="https://phenocam.nau.edu/data/archive/canadaojp/2019/05/canadaojp_2019_05_07_055959.jpg" xr:uid="{402003C0-325E-4DDE-B5C8-F49920BF9CD4}"/>
+    <hyperlink ref="E348" r:id="rId327" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/01/canadaojp_2020_01_15_172959.jpg" xr:uid="{BF63B7FE-8773-4E1B-AF38-10A9318138F0}"/>
+    <hyperlink ref="E349" r:id="rId328" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/02/canadaojp_2020_02_03_082959.jpg" xr:uid="{97357D13-902B-4AD9-97C0-B7172BE7D222}"/>
+    <hyperlink ref="E350" r:id="rId329" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/04/canadaojp_2020_04_15_145959.jpg" xr:uid="{1AEA1DE9-CAC3-4D50-BD68-91F6C040C124}"/>
+    <hyperlink ref="E351" r:id="rId330" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/05/canadaojp_2020_05_04_045959.jpg" xr:uid="{7FEFF69E-8EF3-47C2-97DC-E2FCDF6D1F66}"/>
+    <hyperlink ref="E352" r:id="rId331" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2020/08/" xr:uid="{7D494400-A0AC-4B0C-8B31-50CE9D455FD4}"/>
+    <hyperlink ref="E353" r:id="rId332" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/10/canadaojp_2020_10_14_073000.jpg" xr:uid="{BE6B4BF5-12D7-45AF-A709-93A34BEBD7B0}"/>
+    <hyperlink ref="E354" r:id="rId333" display="https://phenocam.nau.edu/data/archive/canadaojp/2020/10/canadaojp_2020_10_31_172959.jpg" xr:uid="{7C0A5B0C-8750-43C5-BE13-04552E2E9AF0}"/>
+    <hyperlink ref="E355" r:id="rId334" display="https://phenocam.nau.edu/data/archive/canadaojp/2021/07/canadaojp_2021_07_13_090017.jpg" xr:uid="{012E2006-40F4-4D21-932F-372E49393B4C}"/>
+    <hyperlink ref="E356" r:id="rId335" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2021/08/" xr:uid="{7EC7461C-3AB0-47A8-B754-B4EE9C17ED39}"/>
+    <hyperlink ref="E357" r:id="rId336" display="https://phenocam.nau.edu/data/archive/canadaojp/2021/10/canadaojp_2021_10_31_080028.jpg" xr:uid="{497814D7-EF41-404C-8AAD-E4741DF8E19B}"/>
+    <hyperlink ref="E358" r:id="rId337" display="https://phenocam.nau.edu/data/archive/canadaojp/2022/05/canadaojp_2022_05_11_050011.jpg" xr:uid="{8CAA40C0-1C7A-4FF8-8BB2-E942B8CEE438}"/>
+    <hyperlink ref="E359" r:id="rId338" display="https://phenocam.nau.edu/data/archive/canadaojp/2022/10/canadaojp_2022_10_29_080013.jpg" xr:uid="{C3000DF7-BF58-4692-8626-749F7D0D773F}"/>
+    <hyperlink ref="E360" r:id="rId339" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/01/canadaojp_2023_01_28_083014.jpg" xr:uid="{2969C543-FFEE-4527-97DE-746F39BB0BC2}"/>
+    <hyperlink ref="E361" r:id="rId340" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/04/canadaojp_2023_04_10_090014.jpg" xr:uid="{F4B832AA-6FAD-4C6B-BA3D-DBE9AA5B24D8}"/>
+    <hyperlink ref="E362" r:id="rId341" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/04/canadaojp_2023_04_28_203029.jpg" xr:uid="{D5C2A1F1-F3A0-4F54-869F-B2B6D674B001}"/>
+    <hyperlink ref="E363" r:id="rId342" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/07/10/" xr:uid="{2ECA9FF1-435F-44AE-A2D7-B86172E6B01A}"/>
+    <hyperlink ref="E364" r:id="rId343" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/07/" xr:uid="{12398967-610E-46D5-A894-2C8944AF6C68}"/>
+    <hyperlink ref="E365" r:id="rId344" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2023/10/09/" xr:uid="{E6742861-834D-45E2-9706-635FAAE98023}"/>
+    <hyperlink ref="E366" r:id="rId345" display="https://phenocam.nau.edu/data/archive/canadaojp/2023/10/canadaojp_2023_10_27_130014.jpg" xr:uid="{B60B8613-CA12-40FB-BCF3-7F93CB0F48CD}"/>
+    <hyperlink ref="E367" r:id="rId346" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/01/canadaojp_2024_01_07_170018.jpg" xr:uid="{4B4F5252-CCC6-4800-8B5F-FF892D1A6027}"/>
+    <hyperlink ref="E368" r:id="rId347" display="https://phenocam.nau.edu/webcam/browse/canadaojp/2024/01/26/" xr:uid="{E43DABBC-EB84-4E4C-B9B9-CE913621480E}"/>
+    <hyperlink ref="E369" r:id="rId348" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/04/canadaojp_2024_04_07_200012.jpg" xr:uid="{AD1C1CC3-CC54-4F32-ABD9-063EF8DD5798}"/>
+    <hyperlink ref="E370" r:id="rId349" display="https://phenocam.nau.edu/data/archive/canadaojp/2024/04/canadaojp_2024_04_25_053015.jpg" xr:uid="{234FFA58-932A-4A85-BC44-C3309B72CE1C}"/>
+    <hyperlink ref="E313" r:id="rId350" display="https://phenocam.nau.edu/data/archive/glees/2023/05/glees_2023_05_28_101805.jpg" xr:uid="{9774200D-54B4-40DA-BC49-62011D659168}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId351"/>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A8D86-3703-4781-BF7A-A5629AAE7AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430377A5-C3B3-4FF9-AB54-B65A44B224CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-324" yWindow="576" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -1446,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C434" sqref="C434"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8111,7 +8120,7 @@
         <v>43928</v>
       </c>
       <c r="C246" s="1">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="D246">
         <v>0</v>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430377A5-C3B3-4FF9-AB54-B65A44B224CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F863748A-D7B9-4F50-996A-A8C78ADE1587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="2736" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="F2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F343" sqref="F343:G343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3074,7 +3074,7 @@
         <v>43954</v>
       </c>
       <c r="C58" s="1">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D58">
         <v>0</v>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -1200,19 +1200,19 @@
   </sheetPr>
   <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A205" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C238" activeCellId="0" sqref="C238"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="8.89"/>
   </cols>
@@ -2819,7 +2819,7 @@
         <v>43954</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>44318</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>45408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
@@ -7627,7 +7627,7 @@
         <v>45233</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D237" s="0" t="n">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>43573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>0.33</v>
+        <v>0.7</v>
       </c>
       <c r="D345" s="0" t="n">
         <v>0</v>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -1200,17 +1200,17 @@
   </sheetPr>
   <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A313" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E359" activeCellId="0" sqref="E359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.44"/>
@@ -10452,7 +10452,7 @@
         <v>43573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D345" s="0" t="n">
         <v>0</v>
@@ -10813,7 +10813,7 @@
         <v>44863</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D359" s="0" t="n">
         <v>0</v>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -1204,19 +1204,19 @@
   </sheetPr>
   <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H102" activeCellId="0" sqref="H102:H121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A415" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D403" activeCellId="0" sqref="D403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="8.89"/>
   </cols>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
@@ -2672,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>52</v>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>68</v>
@@ -4539,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>81</v>
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>87</v>
@@ -7958,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="D253" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E253" s="7" t="s">
         <v>186</v>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="D280" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E280" s="7" t="s">
         <v>213</v>
@@ -11713,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="D402" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F402" s="0" t="n">
         <v>29.60989</v>

--- a/snow_cam_details.xlsx
+++ b/snow_cam_details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="451">
   <si>
     <t xml:space="preserve">Camera</t>
   </si>
@@ -460,6 +460,9 @@
     <t xml:space="preserve">lacclair_2020_08_02_123005.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2020/10/09/</t>
+  </si>
+  <si>
     <t xml:space="preserve">lacclair_2021_01_31_070006.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
@@ -469,9 +472,18 @@
     <t xml:space="preserve">lacclair_2021_04_09_130006.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2021/07/09/</t>
+  </si>
+  <si>
     <t xml:space="preserve">lacclair_2021_07_31_183005.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2021/10/30/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2022/01/07/</t>
+  </si>
+  <si>
     <t xml:space="preserve">lacclair_2022_05_29_043006.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
@@ -487,36 +499,96 @@
     <t xml:space="preserve">lacclair_2022_10_28_153006.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2023/04/06/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2023/05/</t>
+  </si>
+  <si>
     <t xml:space="preserve">lacclair_2023_07_05_183006.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2023/07/28/</t>
+  </si>
+  <si>
     <t xml:space="preserve">lacclair_2023_10_04_090006.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2023/10/27/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2024/01/03/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2024/01/25/</t>
+  </si>
+  <si>
     <t xml:space="preserve">lacclair_2024_04_03_090006.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2024/04/25/</t>
+  </si>
+  <si>
     <t xml:space="preserve">lacclair_2024_07_03_050006.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2024/08/23/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2024/10/02/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2024/10/24/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2024/12/30/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/lacclair/2025/01/23/</t>
+  </si>
+  <si>
     <t xml:space="preserve">marcell_MN</t>
   </si>
   <si>
     <t xml:space="preserve">spruceA0P07_2018_11_04_085107.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2018/01/25/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2019/02/03/</t>
+  </si>
+  <si>
     <t xml:space="preserve">spruceA0P07_2019_03_26_135107.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2019/05/05/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2019/06/25/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2019/08/03/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2019/09/01/</t>
+  </si>
+  <si>
     <t xml:space="preserve">spruceA0P07_2019_09_24_062105.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/spruceA0P07/2019/11/spruceA0P07_2019_11_02_092106.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">spruceA0P07_2019_12_24_075106.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
     <t xml:space="preserve">spruceA0P07_2020_02_01_112105.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/spruceA0P07/2020/03/spruceA0P07_2020_03_23_142106.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">spruceA0P07_2020_05_02_065106.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
@@ -532,6 +604,9 @@
     <t xml:space="preserve">spruceA0P07_2020_10_30_165106.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/spruceA0P07/2020/12/spruceA0P07_2020_12_21_115107.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">spruceA0P07_2021_01_29_172106.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
@@ -541,15 +616,24 @@
     <t xml:space="preserve">spruceA0P07_2021_04_30_135105.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2021/06/20/</t>
+  </si>
+  <si>
     <t xml:space="preserve">spruceA0P07_2021_07_30_092106.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
     <t xml:space="preserve">spruceA0P07_2021_09_19_175106.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2021/10/29/</t>
+  </si>
+  <si>
     <t xml:space="preserve">spruceA0P07_2021_11_20_112106.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2022/01/28/</t>
+  </si>
+  <si>
     <t xml:space="preserve">spruceA0P07_2022_03_20_095107.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
@@ -565,6 +649,9 @@
     <t xml:space="preserve">spruceA0P07_2022_10_27_112107.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2022/12/17/</t>
+  </si>
+  <si>
     <t xml:space="preserve">spruceA0P07_2023_01_26_075105.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
@@ -577,12 +664,33 @@
     <t xml:space="preserve">spruceA0P07_2023_07_26_195105.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2023/09/16/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2023/10/25/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclear overnight snowfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2024/03/15/</t>
+  </si>
+  <si>
     <t xml:space="preserve">spruceA0P07_2024_04_24_092105.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
     <t xml:space="preserve">spruceA0P07_2024_07_24_052106.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2024/09/13/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/spruceA0P07/2024/10/23/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/marcell/2025/01/marcell_2025_01_21_141405.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">old_jack_pine</t>
   </si>
   <si>
@@ -595,12 +703,21 @@
     <t xml:space="preserve">phenocam.nau.edu/data/archive/canadaojp/2019/01/canadaojp_2019_01_17_112959.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/canadaojp/2019/02/05/</t>
+  </si>
+  <si>
     <t xml:space="preserve">canadaojp_2019_04_19_052959.jpg (2592×1944)</t>
   </si>
   <si>
     <t xml:space="preserve">canadaojp_2019_05_07_055959.jpg (2592×1944)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/canadaojp/2019/11/canadaojp_2019_11_04_103000.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/canadaojp/2019/11/canadaojp_2019_11_15_083000.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">canadaojp_2020_01_15_172959.jpg (2592×1944)</t>
   </si>
   <si>
@@ -613,24 +730,57 @@
     <t xml:space="preserve">canadaojp_2020_05_04_045959.jpg (2592×1944)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/canadaojp/2020/07/15/</t>
+  </si>
+  <si>
     <t xml:space="preserve">canadaojp_2020_10_14_073000.jpg (2592×1944)</t>
   </si>
   <si>
     <t xml:space="preserve">canadaojp_2020_10_31_172959.jpg (2592×1944)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/canadaojp/2021/01/canadaojp_2021_01_13_090015.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/canadaojp/2021/01/canadaojp_2021_01_31_090016.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/canadaojp/2021/05/02/</t>
+  </si>
+  <si>
     <t xml:space="preserve">canadaojp_2021_07_13_090017.jpg (2592×1944)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/canadaojp/2021/10/12/</t>
+  </si>
+  <si>
     <t xml:space="preserve">canadaojp_2021_10_31_080028.jpg (2592×1944)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/canadaojp/2022/04/canadaojp_2022_04_12_060014.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/canadaojp/2022/04/canadaojp_2022_04_30_060015.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">canadaojp_2022_05_11_050011.jpg (2592×1944)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/canadaojp/2022/07/12/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/canadaojp/2022/07/30/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/canadaojp/2022/10/11/</t>
+  </si>
+  <si>
     <t xml:space="preserve">canadaojp_2022_10_29_080013.jpg (2592×1944)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/canadaojp/2023/01/canadaojp_2023_01_09_133016.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">canadaojp_2023_01_28_083014.jpg (2592×1944)</t>
   </si>
   <si>
@@ -652,12 +802,21 @@
     <t xml:space="preserve">canadaojp_2024_04_25_053015.jpg (2592×1944)</t>
   </si>
   <si>
+    <t xml:space="preserve">camera stopped</t>
+  </si>
+  <si>
     <t xml:space="preserve">oregon_yp</t>
   </si>
   <si>
     <t xml:space="preserve">oregonYP_2019_01_25_073105.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/oregonYP/2019/03/oregonYP_2019_03_21_073106.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/oregonYP/2019/04/26/</t>
+  </si>
+  <si>
     <t xml:space="preserve">oregonYP_2019_06_20_113923.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
@@ -688,9 +847,15 @@
     <t xml:space="preserve">oregonYP_2020_10_22_113107.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/oregonYP/2020/12/oregonYP_2020_12_15_163106.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">oregonYP_2021_02_16_090152.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/oregonYP/2021/02/oregonYP_2021_02_18_100106.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">oregonYP_2021_04_21_153107.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
@@ -706,6 +871,9 @@
     <t xml:space="preserve">oregonYP_2022_01_19_163112.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/oregonYP/2022/03/15/</t>
+  </si>
+  <si>
     <t xml:space="preserve">oregonYP_2022_04_19_173109.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
@@ -718,12 +886,27 @@
     <t xml:space="preserve">oregonYP_2022_09_13_063107.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/oregonYP/2022/10/18/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/oregonYP/2022/11/oregonYP_2022_11_13_161606.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/oregonYP/2023/03/oregonYP_2023_03_13_104605.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/oregonYP/2023/04/oregonYP_2023_04_17_184605.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">oregonYP_2023_06_12_141605.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
     <t xml:space="preserve">oregonYP_2023_07_18_074606.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/oregonYP/2023/10/16/</t>
+  </si>
+  <si>
     <t xml:space="preserve">oregonYP_2024_03_11_061606.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
@@ -733,27 +916,69 @@
     <t xml:space="preserve">oregonYP_2024_07_15_071606.jpg (1296×960) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/oregonYP/2024/09/08/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/oregonYP/2024/11/09/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/oregonYP/2024/11/12/</t>
+  </si>
+  <si>
     <t xml:space="preserve">queens</t>
   </si>
   <si>
     <t xml:space="preserve">queens_2019_01_30_100006.jpg (1296×960)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/queens/2019/05/queens_2019_05_01_050006.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/queens/2020/04/28/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/queens/2020/10/27/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/queens/2020/12/queens_2020_12_30_140705.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">queens_2021_01_26_133705.jpg (1296×960)</t>
   </si>
   <si>
     <t xml:space="preserve">queens_2021_04_26_183705.jpg (1296×960)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/queens/2021/06/01/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/queens/2021/10/25/</t>
+  </si>
+  <si>
     <t xml:space="preserve">queens_2022_01_24_073705.jpg (1296×960)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/queens/2022/07/25/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/queens/2023/01/22/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/queens/2023/04/23/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/queens/2023/10/22/</t>
+  </si>
+  <si>
     <t xml:space="preserve">queens_2024_01_20_170705.jpg (1296×960)</t>
   </si>
   <si>
     <t xml:space="preserve">queens_2024_04_20_080705.jpg (1296×960)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/queens/2025/01/18/</t>
+  </si>
+  <si>
     <t xml:space="preserve">sodankyla_full</t>
   </si>
   <si>
@@ -910,6 +1135,9 @@
     <t xml:space="preserve">torgnon</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/torgnon-ld/2018/11/23/</t>
+  </si>
+  <si>
     <t xml:space="preserve">torgnon-ld_2018_11_30_100000.jpg (640×425) (nau.edu)</t>
   </si>
   <si>
@@ -925,7 +1153,19 @@
     <t xml:space="preserve">torgnon-ld_2019_05_30_170000.jpg (640×425) (nau.edu)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/torgnon-ld/2019/08/29/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/torgnon-ld/2019/09/20/</t>
+  </si>
+  <si>
     <t xml:space="preserve">torgnon-ld_2019_09_27_100000.jpg (640×425) (nau.edu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/webcam/browse/torgnon-ld/2019/11/21/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.nau.edu/data/archive/torgnon-ld/2019/11/torgnon-ld_2019_11_27_170000.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">torgnon-ld_2020_02_20_150000.jpg (640×425) (nau.edu)</t>
@@ -1389,19 +1629,19 @@
   </sheetPr>
   <dimension ref="A1:K802"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E197" activeCellId="0" sqref="E197"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A550" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C566" activeCellId="0" sqref="C566"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="8.89"/>
   </cols>
@@ -7166,7 +7406,15 @@
       <c r="B224" s="3" t="n">
         <v>44113</v>
       </c>
-      <c r="E224" s="7"/>
+      <c r="C224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="F224" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7192,7 +7440,7 @@
         <v>0.2</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F225" s="0" t="n">
         <v>-71.6696</v>
@@ -7219,7 +7467,7 @@
         <v>0.5</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F226" s="0" t="n">
         <v>-71.6696</v>
@@ -7246,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F227" s="0" t="n">
         <v>-71.6696</v>
@@ -7266,7 +7514,15 @@
       <c r="B228" s="3" t="n">
         <v>44386</v>
       </c>
-      <c r="E228" s="7"/>
+      <c r="C228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="F228" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7292,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F229" s="0" t="n">
         <v>-71.6696</v>
@@ -7313,7 +7569,15 @@
       <c r="B230" s="3" t="n">
         <v>44499</v>
       </c>
-      <c r="E230" s="7"/>
+      <c r="C230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F230" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7333,7 +7597,15 @@
       <c r="B231" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="E231" s="7"/>
+      <c r="C231" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="F231" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7360,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F232" s="0" t="n">
         <v>-71.6696</v>
@@ -7388,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F233" s="0" t="n">
         <v>-71.6696</v>
@@ -7416,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F234" s="0" t="n">
         <v>-71.6696</v>
@@ -7444,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F235" s="0" t="n">
         <v>-71.6696</v>
@@ -7472,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F236" s="0" t="n">
         <v>-71.6696</v>
@@ -7513,7 +7785,15 @@
       <c r="B238" s="3" t="n">
         <v>45022</v>
       </c>
-      <c r="E238" s="7"/>
+      <c r="C238" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="F238" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7533,7 +7813,15 @@
       <c r="B239" s="3" t="n">
         <v>45073</v>
       </c>
-      <c r="E239" s="7"/>
+      <c r="C239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="F239" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7560,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F240" s="0" t="n">
         <v>-71.6696</v>
@@ -7581,7 +7869,15 @@
       <c r="B241" s="3" t="n">
         <v>45135</v>
       </c>
-      <c r="E241" s="7"/>
+      <c r="C241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="F241" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7608,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F242" s="0" t="n">
         <v>-71.6696</v>
@@ -7629,7 +7925,15 @@
       <c r="B243" s="3" t="n">
         <v>45226</v>
       </c>
-      <c r="E243" s="7"/>
+      <c r="C243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="F243" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7649,7 +7953,15 @@
       <c r="B244" s="3" t="n">
         <v>45294</v>
       </c>
-      <c r="E244" s="7"/>
+      <c r="C244" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="F244" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7669,7 +7981,15 @@
       <c r="B245" s="3" t="n">
         <v>45316</v>
       </c>
-      <c r="E245" s="7"/>
+      <c r="C245" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="F245" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7696,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F246" s="0" t="n">
         <v>-71.6696</v>
@@ -7717,7 +8037,15 @@
       <c r="B247" s="3" t="n">
         <v>45407</v>
       </c>
-      <c r="E247" s="7"/>
+      <c r="C247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="F247" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7744,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F248" s="0" t="n">
         <v>-71.6696</v>
@@ -7765,7 +8093,15 @@
       <c r="B249" s="3" t="n">
         <v>45527</v>
       </c>
-      <c r="E249" s="7"/>
+      <c r="C249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="F249" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7785,7 +8121,15 @@
       <c r="B250" s="3" t="n">
         <v>45567</v>
       </c>
-      <c r="E250" s="7"/>
+      <c r="C250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="F250" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7805,7 +8149,15 @@
       <c r="B251" s="3" t="n">
         <v>45589</v>
       </c>
-      <c r="E251" s="7"/>
+      <c r="C251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="F251" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7825,7 +8177,15 @@
       <c r="B252" s="3" t="n">
         <v>45657</v>
       </c>
-      <c r="E252" s="7"/>
+      <c r="C252" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="F252" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7845,7 +8205,15 @@
       <c r="B253" s="3" t="n">
         <v>45680</v>
       </c>
-      <c r="E253" s="7"/>
+      <c r="C253" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="F253" s="0" t="n">
         <v>-71.6696</v>
       </c>
@@ -7860,7 +8228,7 @@
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B254" s="3" t="n">
         <v>43408</v>
@@ -7872,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F254" s="0" t="n">
         <v>-93.4541</v>
@@ -7888,12 +8256,20 @@
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B255" s="3" t="n">
         <v>43459</v>
       </c>
-      <c r="E255" s="7"/>
+      <c r="C255" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="F255" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -7908,12 +8284,20 @@
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B256" s="3" t="n">
         <v>43499</v>
       </c>
-      <c r="E256" s="7"/>
+      <c r="C256" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="F256" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -7928,7 +8312,7 @@
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B257" s="3" t="n">
         <v>43550</v>
@@ -7940,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F257" s="0" t="n">
         <v>-93.4541</v>
@@ -7956,12 +8340,20 @@
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B258" s="3" t="n">
         <v>43590</v>
       </c>
-      <c r="E258" s="7"/>
+      <c r="C258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="F258" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -7976,12 +8368,20 @@
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B259" s="3" t="n">
         <v>43641</v>
       </c>
-      <c r="E259" s="7"/>
+      <c r="C259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="F259" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -7996,12 +8396,20 @@
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B260" s="3" t="n">
         <v>43680</v>
       </c>
-      <c r="E260" s="7"/>
+      <c r="C260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="F260" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8016,12 +8424,20 @@
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B261" s="3" t="n">
         <v>43709</v>
       </c>
-      <c r="E261" s="7"/>
+      <c r="C261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="F261" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8036,7 +8452,7 @@
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B262" s="3" t="n">
         <v>43732</v>
@@ -8048,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F262" s="0" t="n">
         <v>-93.4541</v>
@@ -8064,12 +8480,20 @@
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B263" s="3" t="n">
         <v>43771</v>
       </c>
-      <c r="E263" s="7"/>
+      <c r="C263" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="F263" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8084,7 +8508,7 @@
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B264" s="3" t="n">
         <v>43823</v>
@@ -8096,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="F264" s="0" t="n">
         <v>-93.4541</v>
@@ -8112,7 +8536,7 @@
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B265" s="3" t="n">
         <v>43862</v>
@@ -8124,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="F265" s="0" t="n">
         <v>-93.4541</v>
@@ -8140,12 +8564,20 @@
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B266" s="3" t="n">
         <v>43913</v>
       </c>
-      <c r="E266" s="7"/>
+      <c r="C266" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="F266" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8160,7 +8592,7 @@
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B267" s="3" t="n">
         <v>43953</v>
@@ -8172,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="F267" s="0" t="n">
         <v>-93.4541</v>
@@ -8188,7 +8620,7 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B268" s="3" t="n">
         <v>44004</v>
@@ -8200,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="F268" s="0" t="n">
         <v>-93.4541</v>
@@ -8216,7 +8648,7 @@
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B269" s="3" t="n">
         <v>44044</v>
@@ -8228,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="F269" s="0" t="n">
         <v>-93.4541</v>
@@ -8244,7 +8676,7 @@
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B270" s="3" t="n">
         <v>44095</v>
@@ -8256,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="F270" s="0" t="n">
         <v>-93.4541</v>
@@ -8271,7 +8703,7 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B271" s="3" t="n">
         <v>44134</v>
@@ -8283,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="F271" s="0" t="n">
         <v>-93.4541</v>
@@ -8298,12 +8730,20 @@
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B272" s="3" t="n">
         <v>44186</v>
       </c>
-      <c r="E272" s="7"/>
+      <c r="C272" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="F272" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8317,7 +8757,7 @@
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B273" s="10" t="n">
         <v>44225</v>
@@ -8329,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F273" s="0" t="n">
         <v>-93.4541</v>
@@ -8344,7 +8784,7 @@
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B274" s="3" t="n">
         <v>44248</v>
@@ -8356,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F274" s="0" t="n">
         <v>-93.4541</v>
@@ -8371,7 +8811,7 @@
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B275" s="3" t="n">
         <v>44316</v>
@@ -8383,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="F275" s="0" t="n">
         <v>-93.4541</v>
@@ -8398,12 +8838,20 @@
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B276" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="E276" s="7"/>
+      <c r="C276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="F276" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8417,7 +8865,7 @@
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B277" s="3" t="n">
         <v>44407</v>
@@ -8429,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="F277" s="0" t="n">
         <v>-93.4541</v>
@@ -8444,7 +8892,7 @@
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B278" s="3" t="n">
         <v>44458</v>
@@ -8456,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="F278" s="0" t="n">
         <v>-93.4541</v>
@@ -8471,12 +8919,20 @@
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B279" s="3" t="n">
         <v>44498</v>
       </c>
-      <c r="E279" s="7"/>
+      <c r="C279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="F279" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8490,7 +8946,7 @@
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B280" s="3" t="n">
         <v>44520</v>
@@ -8502,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="F280" s="0" t="n">
         <v>-93.4541</v>
@@ -8517,12 +8973,20 @@
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B281" s="3" t="n">
         <v>44589</v>
       </c>
-      <c r="E281" s="7"/>
+      <c r="C281" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="F281" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8536,7 +9000,7 @@
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B282" s="3" t="n">
         <v>44640</v>
@@ -8548,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F282" s="0" t="n">
         <v>-93.4541</v>
@@ -8563,7 +9027,7 @@
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B283" s="3" t="n">
         <v>44731</v>
@@ -8575,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="F283" s="0" t="n">
         <v>-93.4541</v>
@@ -8590,7 +9054,7 @@
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B284" s="3" t="n">
         <v>44770</v>
@@ -8602,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="F284" s="0" t="n">
         <v>-93.4541</v>
@@ -8617,7 +9081,7 @@
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B285" s="3" t="n">
         <v>44822</v>
@@ -8629,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="F285" s="0" t="n">
         <v>-93.4541</v>
@@ -8644,7 +9108,7 @@
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B286" s="3" t="n">
         <v>44861</v>
@@ -8656,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="F286" s="0" t="n">
         <v>-93.4541</v>
@@ -8671,12 +9135,20 @@
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B287" s="3" t="n">
         <v>44912</v>
       </c>
-      <c r="E287" s="7"/>
+      <c r="C287" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="F287" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8690,7 +9162,7 @@
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B288" s="3" t="n">
         <v>44952</v>
@@ -8702,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F288" s="0" t="n">
         <v>-93.4541</v>
@@ -8718,7 +9190,7 @@
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B289" s="3" t="n">
         <v>45003</v>
@@ -8730,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F289" s="0" t="n">
         <v>-93.4541</v>
@@ -8746,7 +9218,7 @@
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B290" s="3" t="n">
         <v>45094</v>
@@ -8758,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="F290" s="0" t="n">
         <v>-93.4541</v>
@@ -8774,7 +9246,7 @@
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B291" s="3" t="n">
         <v>45133</v>
@@ -8786,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="F291" s="0" t="n">
         <v>-93.4541</v>
@@ -8802,12 +9274,20 @@
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B292" s="3" t="n">
         <v>45185</v>
       </c>
-      <c r="E292" s="7"/>
+      <c r="C292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="F292" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8822,12 +9302,20 @@
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B293" s="3" t="n">
         <v>45224</v>
       </c>
-      <c r="E293" s="7"/>
+      <c r="C293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F293" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8842,12 +9330,14 @@
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B294" s="3" t="n">
         <v>45276</v>
       </c>
-      <c r="E294" s="7"/>
+      <c r="E294" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="F294" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8862,12 +9352,20 @@
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B295" s="3" t="n">
         <v>45366</v>
       </c>
-      <c r="E295" s="7"/>
+      <c r="C295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="F295" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8882,7 +9380,7 @@
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B296" s="3" t="n">
         <v>45406</v>
@@ -8894,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="F296" s="0" t="n">
         <v>-93.4541</v>
@@ -8910,7 +9408,7 @@
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B297" s="3" t="n">
         <v>45497</v>
@@ -8922,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="F297" s="0" t="n">
         <v>-93.4541</v>
@@ -8938,12 +9436,20 @@
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B298" s="3" t="n">
         <v>45548</v>
       </c>
-      <c r="E298" s="7"/>
+      <c r="C298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="F298" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8958,12 +9464,20 @@
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B299" s="3" t="n">
         <v>45588</v>
       </c>
-      <c r="E299" s="7"/>
+      <c r="C299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="F299" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8978,12 +9492,20 @@
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B300" s="3" t="n">
         <v>45678</v>
       </c>
-      <c r="E300" s="7"/>
+      <c r="C300" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E300" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="F300" s="0" t="n">
         <v>-93.4541</v>
       </c>
@@ -8998,7 +9520,7 @@
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B301" s="3" t="n">
         <v>43391</v>
@@ -9010,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="F301" s="0" t="n">
         <v>-104.692</v>
@@ -9026,7 +9548,7 @@
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B302" s="3" t="n">
         <v>43410</v>
@@ -9038,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="F302" s="0" t="n">
         <v>-104.692</v>
@@ -9054,7 +9576,7 @@
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B303" s="3" t="n">
         <v>43482</v>
@@ -9066,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F303" s="0" t="n">
         <v>-104.692</v>
@@ -9082,12 +9604,20 @@
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B304" s="3" t="n">
         <v>43501</v>
       </c>
-      <c r="E304" s="4"/>
+      <c r="C304" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="F304" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9102,7 +9632,7 @@
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B305" s="3" t="n">
         <v>43573</v>
@@ -9114,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="F305" s="0" t="n">
         <v>-104.692</v>
@@ -9130,7 +9660,7 @@
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B306" s="3" t="n">
         <v>43592</v>
@@ -9142,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="F306" s="0" t="n">
         <v>-104.692</v>
@@ -9158,12 +9688,20 @@
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B307" s="3" t="n">
         <v>43664</v>
       </c>
-      <c r="E307" s="4"/>
+      <c r="C307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="F307" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9178,12 +9716,20 @@
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B308" s="3" t="n">
         <v>43682</v>
       </c>
-      <c r="E308" s="4"/>
+      <c r="C308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D308" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="F308" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9198,7 +9744,7 @@
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B309" s="3" t="n">
         <v>43693</v>
@@ -9209,6 +9755,9 @@
       <c r="D309" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E309" s="0" t="s">
+        <v>84</v>
+      </c>
       <c r="F309" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9223,11 +9772,20 @@
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B310" s="3" t="n">
         <v>43773</v>
       </c>
+      <c r="C310" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>230</v>
+      </c>
       <c r="F310" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9242,11 +9800,20 @@
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B311" s="3" t="n">
         <v>43784</v>
       </c>
+      <c r="C311" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>231</v>
+      </c>
       <c r="F311" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9261,7 +9828,7 @@
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B312" s="3" t="n">
         <v>43846</v>
@@ -9273,7 +9840,7 @@
         <v>1</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="F312" s="0" t="n">
         <v>-104.692</v>
@@ -9289,7 +9856,7 @@
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B313" s="3" t="n">
         <v>43864</v>
@@ -9301,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="F313" s="0" t="n">
         <v>-104.692</v>
@@ -9317,7 +9884,7 @@
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B314" s="3" t="n">
         <v>43936</v>
@@ -9329,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="F314" s="0" t="n">
         <v>-104.692</v>
@@ -9345,7 +9912,7 @@
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B315" s="3" t="n">
         <v>43955</v>
@@ -9357,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="F315" s="0" t="n">
         <v>-104.692</v>
@@ -9373,12 +9940,20 @@
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B316" s="3" t="n">
         <v>44027</v>
       </c>
-      <c r="E316" s="4"/>
+      <c r="C316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="F316" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9393,7 +9968,7 @@
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B317" s="3" t="n">
         <v>44046</v>
@@ -9421,7 +9996,7 @@
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B318" s="3" t="n">
         <v>44118</v>
@@ -9433,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="F318" s="0" t="n">
         <v>-104.692</v>
@@ -9449,7 +10024,7 @@
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B319" s="3" t="n">
         <v>44136</v>
@@ -9461,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="F319" s="0" t="n">
         <v>-104.692</v>
@@ -9477,12 +10052,20 @@
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B320" s="3" t="n">
         <v>44209</v>
       </c>
-      <c r="E320" s="4"/>
+      <c r="C320" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="F320" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9497,12 +10080,20 @@
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B321" s="3" t="n">
         <v>44227</v>
       </c>
-      <c r="E321" s="4"/>
+      <c r="C321" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="F321" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9517,12 +10108,20 @@
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B322" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="E322" s="4"/>
+      <c r="C322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D322" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="F322" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9537,12 +10136,14 @@
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B323" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="E323" s="4"/>
+      <c r="E323" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="F323" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9557,7 +10158,7 @@
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B324" s="3" t="n">
         <v>44390</v>
@@ -9569,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="F324" s="0" t="n">
         <v>-104.692</v>
@@ -9585,7 +10186,7 @@
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B325" s="3" t="n">
         <v>44409</v>
@@ -9613,12 +10214,20 @@
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B326" s="3" t="n">
         <v>44481</v>
       </c>
-      <c r="E326" s="4"/>
+      <c r="C326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="F326" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9633,7 +10242,7 @@
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B327" s="3" t="n">
         <v>44500</v>
@@ -9645,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="F327" s="0" t="n">
         <v>-104.692</v>
@@ -9661,12 +10270,14 @@
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B328" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="E328" s="4"/>
+      <c r="E328" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="F328" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9681,12 +10292,14 @@
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B329" s="3" t="n">
-        <v>44226</v>
-      </c>
-      <c r="E329" s="4"/>
+        <v>44591</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="F329" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9701,12 +10314,20 @@
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B330" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="E330" s="4"/>
+      <c r="C330" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="F330" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9721,12 +10342,20 @@
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B331" s="3" t="n">
         <v>44681</v>
       </c>
-      <c r="E331" s="4"/>
+      <c r="C331" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D331" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="F331" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9741,7 +10370,7 @@
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B332" s="3" t="n">
         <v>44692</v>
@@ -9753,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="F332" s="0" t="n">
         <v>-104.692</v>
@@ -9769,12 +10398,20 @@
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B333" s="3" t="n">
         <v>44754</v>
       </c>
-      <c r="E333" s="4"/>
+      <c r="C333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="F333" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9789,12 +10426,20 @@
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B334" s="3" t="n">
         <v>44772</v>
       </c>
-      <c r="E334" s="4"/>
+      <c r="C334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="F334" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9809,12 +10454,20 @@
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B335" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="E335" s="4"/>
+      <c r="C335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="F335" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9829,7 +10482,7 @@
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B336" s="3" t="n">
         <v>44863</v>
@@ -9841,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="F336" s="0" t="n">
         <v>-104.692</v>
@@ -9857,12 +10510,20 @@
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B337" s="3" t="n">
         <v>44935</v>
       </c>
-      <c r="E337" s="4"/>
+      <c r="C337" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="F337" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -9877,7 +10538,7 @@
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B338" s="3" t="n">
         <v>44954</v>
@@ -9889,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="F338" s="0" t="n">
         <v>-104.692</v>
@@ -9905,7 +10566,7 @@
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B339" s="3" t="n">
         <v>45026</v>
@@ -9917,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="F339" s="0" t="n">
         <v>-104.692</v>
@@ -9933,7 +10594,7 @@
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B340" s="3" t="n">
         <v>45045</v>
@@ -9945,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="F340" s="0" t="n">
         <v>-104.692</v>
@@ -9961,7 +10622,7 @@
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B341" s="3" t="n">
         <v>45117</v>
@@ -9989,7 +10650,7 @@
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B342" s="3" t="n">
         <v>45135</v>
@@ -10017,7 +10678,7 @@
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B343" s="3" t="n">
         <v>45208</v>
@@ -10044,7 +10705,7 @@
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B344" s="3" t="n">
         <v>45226</v>
@@ -10056,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="F344" s="0" t="n">
         <v>-104.692</v>
@@ -10070,7 +10731,7 @@
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B345" s="3" t="n">
         <v>45299</v>
@@ -10082,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="F345" s="0" t="n">
         <v>-104.692</v>
@@ -10096,7 +10757,7 @@
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B346" s="3" t="n">
         <v>45317</v>
@@ -10122,7 +10783,7 @@
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B347" s="3" t="n">
         <v>45389</v>
@@ -10134,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="F347" s="0" t="n">
         <v>-104.692</v>
@@ -10148,7 +10809,7 @@
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B348" s="3" t="n">
         <v>45408</v>
@@ -10160,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="F348" s="0" t="n">
         <v>-104.692</v>
@@ -10174,12 +10835,14 @@
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B349" s="3" t="n">
         <v>45480</v>
       </c>
-      <c r="E349" s="4"/>
+      <c r="E349" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="F349" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -10192,12 +10855,14 @@
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B350" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="E350" s="4"/>
+      <c r="E350" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="F350" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -10210,12 +10875,14 @@
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B351" s="3" t="n">
         <v>45571</v>
       </c>
-      <c r="E351" s="4"/>
+      <c r="E351" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="F351" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -10228,12 +10895,14 @@
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B352" s="3" t="n">
         <v>45590</v>
       </c>
-      <c r="E352" s="4"/>
+      <c r="E352" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="F352" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -10246,12 +10915,14 @@
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B353" s="3" t="n">
         <v>45662</v>
       </c>
-      <c r="E353" s="4"/>
+      <c r="E353" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="F353" s="0" t="n">
         <v>-104.692</v>
       </c>
@@ -10264,7 +10935,7 @@
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B354" s="10" t="n">
         <v>43490</v>
@@ -10276,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="E354" s="7" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="F354" s="0" t="n">
         <v>-121.606</v>
@@ -10290,12 +10961,20 @@
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B355" s="10" t="n">
         <v>43545</v>
       </c>
-      <c r="E355" s="7"/>
+      <c r="C355" s="1" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="F355" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -10308,12 +10987,20 @@
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B356" s="10" t="n">
         <v>43581</v>
       </c>
-      <c r="E356" s="7"/>
+      <c r="C356" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E356" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="F356" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -10326,7 +11013,7 @@
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B357" s="3" t="n">
         <v>43636</v>
@@ -10338,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="E357" s="7" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="F357" s="0" t="n">
         <v>-121.606</v>
@@ -10352,7 +11039,7 @@
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B358" s="3" t="n">
         <v>43671</v>
@@ -10364,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="E358" s="7" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="F358" s="0" t="n">
         <v>-121.606</v>
@@ -10379,7 +11066,7 @@
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B359" s="3" t="n">
         <v>43700</v>
@@ -10391,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="E359" s="7" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="F359" s="0" t="n">
         <v>-121.606</v>
@@ -10406,7 +11093,7 @@
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B360" s="3" t="n">
         <v>43727</v>
@@ -10418,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="E360" s="7" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="F360" s="0" t="n">
         <v>-121.606</v>
@@ -10433,7 +11120,7 @@
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B361" s="3" t="n">
         <v>43762</v>
@@ -10457,7 +11144,7 @@
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B362" s="3" t="n">
         <v>43853</v>
@@ -10469,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="E362" s="7" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="F362" s="0" t="n">
         <v>-121.606</v>
@@ -10484,7 +11171,7 @@
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B363" s="3" t="n">
         <v>43879</v>
@@ -10496,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="E363" s="7" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="F363" s="0" t="n">
         <v>-121.606</v>
@@ -10511,7 +11198,7 @@
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B364" s="3" t="n">
         <v>43944</v>
@@ -10523,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="E364" s="7" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="F364" s="0" t="n">
         <v>-121.606</v>
@@ -10538,7 +11225,7 @@
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B365" s="3" t="n">
         <v>43999</v>
@@ -10550,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="F365" s="0" t="n">
         <v>-121.606</v>
@@ -10565,7 +11252,7 @@
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B366" s="3" t="n">
         <v>44035</v>
@@ -10577,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="E366" s="7" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="F366" s="0" t="n">
         <v>-121.606</v>
@@ -10592,7 +11279,7 @@
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B367" s="3" t="n">
         <v>44126</v>
@@ -10604,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="E367" s="7" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="F367" s="0" t="n">
         <v>-121.606</v>
@@ -10619,12 +11306,20 @@
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B368" s="3" t="n">
         <v>44181</v>
       </c>
-      <c r="E368" s="7"/>
+      <c r="C368" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D368" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E368" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="F368" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -10638,7 +11333,7 @@
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B369" s="3" t="n">
         <v>44243</v>
@@ -10650,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="E369" s="7" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="F369" s="0" t="n">
         <v>-121.606</v>
@@ -10665,12 +11360,20 @@
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B370" s="3" t="n">
         <v>44245</v>
       </c>
-      <c r="E370" s="7"/>
+      <c r="C370" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="F370" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -10684,7 +11387,7 @@
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B371" s="10" t="n">
         <v>44307</v>
@@ -10696,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="E371" s="7" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="F371" s="0" t="n">
         <v>-121.606</v>
@@ -10711,7 +11414,7 @@
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B372" s="3" t="n">
         <v>44363</v>
@@ -10723,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="E372" s="7" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="F372" s="0" t="n">
         <v>-121.606</v>
@@ -10738,7 +11441,7 @@
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B373" s="3" t="n">
         <v>44398</v>
@@ -10750,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="E373" s="7" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="F373" s="0" t="n">
         <v>-121.606</v>
@@ -10765,7 +11468,7 @@
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B374" s="3" t="n">
         <v>44453</v>
@@ -10777,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="E374" s="7" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="F374" s="0" t="n">
         <v>-121.606</v>
@@ -10792,7 +11495,7 @@
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B375" s="3" t="n">
         <v>44515</v>
@@ -10816,7 +11519,7 @@
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B376" s="3" t="n">
         <v>44580</v>
@@ -10828,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E376" s="7" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="F376" s="0" t="n">
         <v>-121.606</v>
@@ -10843,12 +11546,20 @@
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B377" s="3" t="n">
         <v>44635</v>
       </c>
-      <c r="E377" s="7"/>
+      <c r="C377" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D377" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E377" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="F377" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -10862,7 +11573,7 @@
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B378" s="3" t="n">
         <v>44670</v>
@@ -10874,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="E378" s="7" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="F378" s="0" t="n">
         <v>-121.606</v>
@@ -10889,7 +11600,7 @@
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B379" s="3" t="n">
         <v>44726</v>
@@ -10901,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="E379" s="7" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="F379" s="0" t="n">
         <v>-121.606</v>
@@ -10916,7 +11627,7 @@
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B380" s="3" t="n">
         <v>44761</v>
@@ -10928,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E380" s="7" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="F380" s="0" t="n">
         <v>-121.606</v>
@@ -10943,7 +11654,7 @@
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B381" s="3" t="n">
         <v>44817</v>
@@ -10955,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="E381" s="7" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="F381" s="0" t="n">
         <v>-121.606</v>
@@ -10970,12 +11681,20 @@
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B382" s="3" t="n">
         <v>44852</v>
       </c>
-      <c r="E382" s="7"/>
+      <c r="C382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E382" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="F382" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -10989,12 +11708,20 @@
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B383" s="3" t="n">
         <v>44879</v>
       </c>
-      <c r="E383" s="7"/>
+      <c r="C383" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D383" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E383" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="F383" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -11008,12 +11735,14 @@
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B384" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="E384" s="7"/>
+      <c r="E384" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="F384" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -11026,12 +11755,20 @@
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B385" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="E385" s="7"/>
+      <c r="C385" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E385" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="F385" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -11044,11 +11781,20 @@
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B386" s="3" t="n">
         <v>45034</v>
       </c>
+      <c r="C386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E386" s="0" t="s">
+        <v>291</v>
+      </c>
       <c r="F386" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -11061,7 +11807,7 @@
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B387" s="3" t="n">
         <v>45089</v>
@@ -11073,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="E387" s="7" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="F387" s="0" t="n">
         <v>-121.606</v>
@@ -11087,7 +11833,7 @@
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B388" s="3" t="n">
         <v>45125</v>
@@ -11099,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="E388" s="7" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="F388" s="0" t="n">
         <v>-121.606</v>
@@ -11113,12 +11859,20 @@
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B389" s="3" t="n">
         <v>45215</v>
       </c>
-      <c r="E389" s="7"/>
+      <c r="C389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E389" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="F389" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -11131,12 +11885,14 @@
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B390" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="E390" s="7"/>
+      <c r="E390" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="F390" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -11149,12 +11905,14 @@
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B391" s="3" t="n">
         <v>45306</v>
       </c>
-      <c r="E391" s="7"/>
+      <c r="E391" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="F391" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -11167,7 +11925,7 @@
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B392" s="3" t="n">
         <v>45362</v>
@@ -11179,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="E392" s="7" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="F392" s="0" t="n">
         <v>-121.606</v>
@@ -11193,7 +11951,7 @@
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B393" s="3" t="n">
         <v>45397</v>
@@ -11205,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="E393" s="7" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="F393" s="0" t="n">
         <v>-121.606</v>
@@ -11219,7 +11977,7 @@
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B394" s="3" t="n">
         <v>45488</v>
@@ -11231,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="E394" s="7" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="F394" s="0" t="n">
         <v>-121.606</v>
@@ -11245,12 +12003,20 @@
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B395" s="3" t="n">
         <v>45543</v>
       </c>
-      <c r="E395" s="7"/>
+      <c r="C395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="F395" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -11263,12 +12029,20 @@
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B396" s="3" t="n">
         <v>45605</v>
       </c>
-      <c r="E396" s="7"/>
+      <c r="C396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E396" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="F396" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -11281,12 +12055,20 @@
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B397" s="3" t="n">
         <v>45608</v>
       </c>
-      <c r="E397" s="7"/>
+      <c r="C397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D397" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E397" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="F397" s="0" t="n">
         <v>-121.606</v>
       </c>
@@ -11299,7 +12081,7 @@
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B398" s="3" t="n">
         <v>43495</v>
@@ -11311,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="F398" s="0" t="n">
         <v>-76.324</v>
@@ -11325,12 +12107,20 @@
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B399" s="3" t="n">
         <v>43586</v>
       </c>
-      <c r="E399" s="4"/>
+      <c r="C399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E399" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F399" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11343,12 +12133,14 @@
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B400" s="3" t="n">
         <v>43677</v>
       </c>
-      <c r="E400" s="4"/>
+      <c r="E400" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="F400" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11361,7 +12153,7 @@
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B401" s="3" t="n">
         <v>43706</v>
@@ -11387,12 +12179,14 @@
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B402" s="3" t="n">
         <v>43741</v>
       </c>
-      <c r="E402" s="4"/>
+      <c r="E402" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="F402" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11405,12 +12199,14 @@
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B403" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="E403" s="4"/>
+      <c r="E403" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="F403" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11423,12 +12219,14 @@
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B404" s="3" t="n">
         <v>43832</v>
       </c>
-      <c r="E404" s="4"/>
+      <c r="E404" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="F404" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11441,12 +12239,14 @@
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B405" s="3" t="n">
         <v>43858</v>
       </c>
-      <c r="E405" s="4"/>
+      <c r="E405" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="F405" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11459,12 +12259,20 @@
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B406" s="3" t="n">
         <v>43949</v>
       </c>
-      <c r="E406" s="4"/>
+      <c r="C406" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D406" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="F406" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11477,7 +12285,7 @@
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B407" s="3" t="n">
         <v>43985</v>
@@ -11503,7 +12311,7 @@
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B408" s="3" t="n">
         <v>44014</v>
@@ -11529,7 +12337,7 @@
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B409" s="3" t="n">
         <v>44040</v>
@@ -11555,12 +12363,20 @@
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B410" s="3" t="n">
         <v>44131</v>
       </c>
-      <c r="E410" s="4"/>
+      <c r="C410" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D410" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E410" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="F410" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11573,12 +12389,20 @@
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B411" s="3" t="n">
         <v>44195</v>
       </c>
-      <c r="E411" s="4"/>
+      <c r="C411" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D411" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E411" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="F411" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11591,7 +12415,7 @@
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B412" s="3" t="n">
         <v>44222</v>
@@ -11603,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="F412" s="0" t="n">
         <v>-76.324</v>
@@ -11617,7 +12441,7 @@
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B413" s="3" t="n">
         <v>44313</v>
@@ -11629,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="F413" s="0" t="n">
         <v>-76.324</v>
@@ -11643,12 +12467,20 @@
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B414" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="E414" s="4"/>
+      <c r="C414" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D414" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E414" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="F414" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11661,7 +12493,7 @@
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B415" s="3" t="n">
         <v>44403</v>
@@ -11687,7 +12519,7 @@
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B416" s="3" t="n">
         <v>44468</v>
@@ -11713,12 +12545,20 @@
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B417" s="3" t="n">
         <v>44494</v>
       </c>
-      <c r="E417" s="4"/>
+      <c r="C417" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D417" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="F417" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11731,7 +12571,7 @@
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B418" s="3" t="n">
         <v>44585</v>
@@ -11743,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="F418" s="0" t="n">
         <v>-76.324</v>
@@ -11757,7 +12597,7 @@
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B419" s="3" t="n">
         <v>44711</v>
@@ -11784,12 +12624,20 @@
     </row>
     <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B420" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="E420" s="4"/>
+      <c r="C420" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E420" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="F420" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11803,7 +12651,7 @@
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B421" s="3" t="n">
         <v>44802</v>
@@ -11830,7 +12678,7 @@
     </row>
     <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B422" s="3" t="n">
         <v>44857</v>
@@ -11857,12 +12705,20 @@
     </row>
     <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B423" s="3" t="n">
         <v>44948</v>
       </c>
-      <c r="E423" s="4"/>
+      <c r="C423" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E423" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="F423" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11876,12 +12732,20 @@
     </row>
     <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B424" s="3" t="n">
         <v>45039</v>
       </c>
-      <c r="E424" s="4"/>
+      <c r="C424" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E424" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="F424" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11895,7 +12759,7 @@
     </row>
     <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B425" s="3" t="n">
         <v>45103</v>
@@ -11922,7 +12786,7 @@
     </row>
     <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B426" s="3" t="n">
         <v>45130</v>
@@ -11949,7 +12813,7 @@
     </row>
     <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B427" s="3" t="n">
         <v>45194</v>
@@ -11976,12 +12840,20 @@
     </row>
     <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B428" s="3" t="n">
         <v>45221</v>
       </c>
-      <c r="E428" s="4"/>
+      <c r="C428" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E428" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="F428" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -11995,7 +12867,7 @@
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B429" s="3" t="n">
         <v>45312</v>
@@ -12007,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="F429" s="0" t="n">
         <v>-76.324</v>
@@ -12022,7 +12894,7 @@
     </row>
     <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B430" s="3" t="n">
         <v>45402</v>
@@ -12034,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="F430" s="0" t="n">
         <v>-76.324</v>
@@ -12049,7 +12921,7 @@
     </row>
     <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B431" s="3" t="n">
         <v>45493</v>
@@ -12076,7 +12948,7 @@
     </row>
     <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B432" s="3" t="n">
         <v>45558</v>
@@ -12103,7 +12975,7 @@
     </row>
     <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B433" s="3" t="n">
         <v>45584</v>
@@ -12130,12 +13002,20 @@
     </row>
     <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B434" s="3" t="n">
         <v>45675</v>
       </c>
-      <c r="E434" s="4"/>
+      <c r="C434" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E434" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="F434" s="0" t="n">
         <v>-76.324</v>
       </c>
@@ -12149,7 +13029,7 @@
     </row>
     <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B435" s="3" t="n">
         <v>43387</v>
@@ -12168,7 +13048,7 @@
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B436" s="3" t="n">
         <v>43398</v>
@@ -12187,7 +13067,7 @@
     </row>
     <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B437" s="3" t="n">
         <v>43448</v>
@@ -12206,7 +13086,7 @@
     </row>
     <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B438" s="3" t="n">
         <v>43460</v>
@@ -12225,7 +13105,7 @@
     </row>
     <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B439" s="3" t="n">
         <v>43477</v>
@@ -12237,7 +13117,7 @@
         <v>0.2</v>
       </c>
       <c r="E439" s="7" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="F439" s="0" t="n">
         <v>26.634154</v>
@@ -12252,7 +13132,7 @@
     </row>
     <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B440" s="3" t="n">
         <v>43489</v>
@@ -12264,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="E440" s="7" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="F440" s="0" t="n">
         <v>26.634154</v>
@@ -12279,7 +13159,7 @@
     </row>
     <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B441" s="3" t="n">
         <v>43539</v>
@@ -12298,7 +13178,7 @@
     </row>
     <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B442" s="3" t="n">
         <v>43551</v>
@@ -12310,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="E442" s="7" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="F442" s="0" t="n">
         <v>26.634154</v>
@@ -12324,7 +13204,7 @@
     </row>
     <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B443" s="3" t="n">
         <v>43568</v>
@@ -12336,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="E443" s="7" t="s">
-        <v>248</v>
+        <v>323</v>
       </c>
       <c r="F443" s="0" t="n">
         <v>26.634154</v>
@@ -12350,7 +13230,7 @@
     </row>
     <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B444" s="3" t="n">
         <v>43580</v>
@@ -12362,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="E444" s="7" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="F444" s="0" t="n">
         <v>26.634154</v>
@@ -12376,7 +13256,7 @@
     </row>
     <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B445" s="3" t="n">
         <v>43630</v>
@@ -12388,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="E445" s="7" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="F445" s="0" t="n">
         <v>26.634154</v>
@@ -12402,7 +13282,7 @@
     </row>
     <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B446" s="3" t="n">
         <v>43642</v>
@@ -12414,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="E446" s="7" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="F446" s="0" t="n">
         <v>26.634154</v>
@@ -12428,7 +13308,7 @@
     </row>
     <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B447" s="3" t="n">
         <v>43659</v>
@@ -12446,7 +13326,7 @@
     </row>
     <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B448" s="3" t="n">
         <v>43670</v>
@@ -12464,7 +13344,7 @@
     </row>
     <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B449" s="3" t="n">
         <v>43732</v>
@@ -12482,7 +13362,7 @@
     </row>
     <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B450" s="3" t="n">
         <v>43750</v>
@@ -12500,7 +13380,7 @@
     </row>
     <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B451" s="3" t="n">
         <v>43761</v>
@@ -12512,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="E451" s="7" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="F451" s="0" t="n">
         <v>26.634154</v>
@@ -12526,7 +13406,7 @@
     </row>
     <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B452" s="3" t="n">
         <v>43823</v>
@@ -12544,7 +13424,7 @@
     </row>
     <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B453" s="3" t="n">
         <v>43841</v>
@@ -12556,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="E453" s="7" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="F453" s="0" t="n">
         <v>26.634154</v>
@@ -12570,7 +13450,7 @@
     </row>
     <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B454" s="3" t="n">
         <v>43852</v>
@@ -12582,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="E454" s="7" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="F454" s="0" t="n">
         <v>26.634154</v>
@@ -12596,7 +13476,7 @@
     </row>
     <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B455" s="3" t="n">
         <v>43914</v>
@@ -12608,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="E455" s="7" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="F455" s="0" t="n">
         <v>26.634154</v>
@@ -12622,7 +13502,7 @@
     </row>
     <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B456" s="3" t="n">
         <v>43932</v>
@@ -12634,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="E456" s="7" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="F456" s="0" t="n">
         <v>26.634154</v>
@@ -12648,7 +13528,7 @@
     </row>
     <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B457" s="3" t="n">
         <v>43943</v>
@@ -12660,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="E457" s="7" t="s">
-        <v>257</v>
+        <v>332</v>
       </c>
       <c r="F457" s="0" t="n">
         <v>26.634154</v>
@@ -12674,7 +13554,7 @@
     </row>
     <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B458" s="3" t="n">
         <v>43993</v>
@@ -12686,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="E458" s="7" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="F458" s="0" t="n">
         <v>26.634154</v>
@@ -12700,7 +13580,7 @@
     </row>
     <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B459" s="3" t="n">
         <v>44005</v>
@@ -12712,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="E459" s="7" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="F459" s="0" t="n">
         <v>26.634154</v>
@@ -12726,7 +13606,7 @@
     </row>
     <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B460" s="3" t="n">
         <v>44022</v>
@@ -12738,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="E460" s="7" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="F460" s="0" t="n">
         <v>26.634154</v>
@@ -12752,7 +13632,7 @@
     </row>
     <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B461" s="3" t="n">
         <v>44034</v>
@@ -12771,7 +13651,7 @@
     </row>
     <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B462" s="3" t="n">
         <v>44084</v>
@@ -12783,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="E462" s="7" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="F462" s="0" t="n">
         <v>26.634154</v>
@@ -12797,7 +13677,7 @@
     </row>
     <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B463" s="3" t="n">
         <v>44096</v>
@@ -12816,7 +13696,7 @@
     </row>
     <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B464" s="3" t="n">
         <v>44113</v>
@@ -12835,7 +13715,7 @@
     </row>
     <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B465" s="3" t="n">
         <v>44125</v>
@@ -12847,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="E465" s="7" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="F465" s="0" t="n">
         <v>26.634154</v>
@@ -12861,7 +13741,7 @@
     </row>
     <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B466" s="3" t="n">
         <v>44175</v>
@@ -12880,7 +13760,7 @@
     </row>
     <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B467" s="3" t="n">
         <v>44204</v>
@@ -12899,7 +13779,7 @@
     </row>
     <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B468" s="3" t="n">
         <v>44215</v>
@@ -12918,7 +13798,7 @@
     </row>
     <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B469" s="3" t="n">
         <v>44277</v>
@@ -12937,7 +13817,7 @@
     </row>
     <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B470" s="3" t="n">
         <v>44295</v>
@@ -12949,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="E470" s="7" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="F470" s="0" t="n">
         <v>26.634154</v>
@@ -12963,7 +13843,7 @@
     </row>
     <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B471" s="3" t="n">
         <v>44306</v>
@@ -12975,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="E471" s="7" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="F471" s="0" t="n">
         <v>26.634154</v>
@@ -12989,7 +13869,7 @@
     </row>
     <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B472" s="3" t="n">
         <v>44357</v>
@@ -13001,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="E472" s="7" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="F472" s="0" t="n">
         <v>26.634154</v>
@@ -13015,7 +13895,7 @@
     </row>
     <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B473" s="3" t="n">
         <v>44368</v>
@@ -13033,7 +13913,7 @@
     </row>
     <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B474" s="3" t="n">
         <v>44386</v>
@@ -13045,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="E474" s="7" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="F474" s="0" t="n">
         <v>26.634154</v>
@@ -13059,7 +13939,7 @@
     </row>
     <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B475" s="3" t="n">
         <v>44397</v>
@@ -13071,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="E475" s="7" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="F475" s="0" t="n">
         <v>26.634154</v>
@@ -13085,7 +13965,7 @@
     </row>
     <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B476" s="3" t="n">
         <v>44447</v>
@@ -13097,7 +13977,7 @@
         <v>0</v>
       </c>
       <c r="E476" s="7" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="F476" s="0" t="n">
         <v>26.634154</v>
@@ -13111,7 +13991,7 @@
     </row>
     <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B477" s="3" t="n">
         <v>44459</v>
@@ -13123,7 +14003,7 @@
         <v>0</v>
       </c>
       <c r="E477" s="7" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="F477" s="0" t="n">
         <v>26.634154</v>
@@ -13137,7 +14017,7 @@
     </row>
     <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B478" s="3" t="n">
         <v>44476</v>
@@ -13149,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="E478" s="7" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="F478" s="0" t="n">
         <v>26.634154</v>
@@ -13163,7 +14043,7 @@
     </row>
     <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B479" s="3" t="n">
         <v>44550</v>
@@ -13175,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="E479" s="7" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="F479" s="0" t="n">
         <v>26.634154</v>
@@ -13189,7 +14069,7 @@
     </row>
     <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B480" s="3" t="n">
         <v>44567</v>
@@ -13207,7 +14087,7 @@
     </row>
     <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B481" s="3" t="n">
         <v>44579</v>
@@ -13219,7 +14099,7 @@
         <v>0.2</v>
       </c>
       <c r="E481" s="7" t="s">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="F481" s="0" t="n">
         <v>26.634154</v>
@@ -13234,7 +14114,7 @@
     </row>
     <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B482" s="3" t="n">
         <v>44629</v>
@@ -13253,7 +14133,7 @@
     </row>
     <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B483" s="3" t="n">
         <v>44641</v>
@@ -13272,7 +14152,7 @@
     </row>
     <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B484" s="3" t="n">
         <v>44670</v>
@@ -13284,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="E484" s="7" t="s">
-        <v>273</v>
+        <v>348</v>
       </c>
       <c r="F484" s="0" t="n">
         <v>26.634154</v>
@@ -13299,7 +14179,7 @@
     </row>
     <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B485" s="3" t="n">
         <v>44720</v>
@@ -13311,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E485" s="7" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="F485" s="0" t="n">
         <v>26.634154</v>
@@ -13326,7 +14206,7 @@
     </row>
     <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B486" s="3" t="n">
         <v>44749</v>
@@ -13338,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="E486" s="7" t="s">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="F486" s="0" t="n">
         <v>26.634154</v>
@@ -13353,7 +14233,7 @@
     </row>
     <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B487" s="3" t="n">
         <v>44760</v>
@@ -13365,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="E487" s="7" t="s">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="F487" s="0" t="n">
         <v>26.634154</v>
@@ -13380,7 +14260,7 @@
     </row>
     <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B488" s="3" t="n">
         <v>44811</v>
@@ -13399,7 +14279,7 @@
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B489" s="3" t="n">
         <v>44822</v>
@@ -13418,7 +14298,7 @@
     </row>
     <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B490" s="3" t="n">
         <v>44851</v>
@@ -13430,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="E490" s="7" t="s">
-        <v>277</v>
+        <v>352</v>
       </c>
       <c r="F490" s="0" t="n">
         <v>26.634154</v>
@@ -13445,7 +14325,7 @@
     </row>
     <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B491" s="3" t="n">
         <v>44902</v>
@@ -13464,7 +14344,7 @@
     </row>
     <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B492" s="3" t="n">
         <v>44913</v>
@@ -13483,7 +14363,7 @@
     </row>
     <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B493" s="3" t="n">
         <v>44931</v>
@@ -13502,7 +14382,7 @@
     </row>
     <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B494" s="3" t="n">
         <v>44942</v>
@@ -13521,7 +14401,7 @@
     </row>
     <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B495" s="3" t="n">
         <v>44992</v>
@@ -13533,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="E495" s="7" t="s">
-        <v>278</v>
+        <v>353</v>
       </c>
       <c r="F495" s="0" t="n">
         <v>26.634154</v>
@@ -13548,7 +14428,7 @@
     </row>
     <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B496" s="3" t="n">
         <v>45004</v>
@@ -13560,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="E496" s="7" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="F496" s="0" t="n">
         <v>26.634154</v>
@@ -13575,7 +14455,7 @@
     </row>
     <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B497" s="3" t="n">
         <v>45021</v>
@@ -13587,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="E497" s="7" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="F497" s="0" t="n">
         <v>26.634154</v>
@@ -13602,7 +14482,7 @@
     </row>
     <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B498" s="3" t="n">
         <v>45033</v>
@@ -13614,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="E498" s="7" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="F498" s="0" t="n">
         <v>26.634154</v>
@@ -13629,7 +14509,7 @@
     </row>
     <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B499" s="3" t="n">
         <v>45083</v>
@@ -13648,7 +14528,7 @@
     </row>
     <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B500" s="3" t="n">
         <v>45095</v>
@@ -13660,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="E500" s="7" t="s">
-        <v>282</v>
+        <v>357</v>
       </c>
       <c r="F500" s="0" t="n">
         <v>26.634154</v>
@@ -13674,7 +14554,7 @@
     </row>
     <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B501" s="3" t="n">
         <v>45112</v>
@@ -13686,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="E501" s="7" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="F501" s="0" t="n">
         <v>26.634154</v>
@@ -13700,7 +14580,7 @@
     </row>
     <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B502" s="3" t="n">
         <v>45124</v>
@@ -13712,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E502" s="7" t="s">
-        <v>284</v>
+        <v>359</v>
       </c>
       <c r="F502" s="0" t="n">
         <v>26.634154</v>
@@ -13726,7 +14606,7 @@
     </row>
     <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B503" s="3" t="n">
         <v>45174</v>
@@ -13738,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="E503" s="7" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="F503" s="0" t="n">
         <v>26.634154</v>
@@ -13752,7 +14632,7 @@
     </row>
     <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B504" s="3" t="n">
         <v>45185</v>
@@ -13770,7 +14650,7 @@
     </row>
     <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B505" s="3" t="n">
         <v>45203</v>
@@ -13782,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="E505" s="7" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="F505" s="0" t="n">
         <v>26.634154</v>
@@ -13796,7 +14676,7 @@
     </row>
     <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B506" s="3" t="n">
         <v>45214</v>
@@ -13814,7 +14694,7 @@
     </row>
     <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B507" s="3" t="n">
         <v>45265</v>
@@ -13832,7 +14712,7 @@
     </row>
     <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B508" s="3" t="n">
         <v>45294</v>
@@ -13844,7 +14724,7 @@
         <v>1</v>
       </c>
       <c r="E508" s="7" t="s">
-        <v>287</v>
+        <v>362</v>
       </c>
       <c r="F508" s="0" t="n">
         <v>26.634154</v>
@@ -13858,7 +14738,7 @@
     </row>
     <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B509" s="3" t="n">
         <v>45305</v>
@@ -13870,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="E509" s="7" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="F509" s="0" t="n">
         <v>26.634154</v>
@@ -13884,7 +14764,7 @@
     </row>
     <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B510" s="3" t="n">
         <v>45356</v>
@@ -13902,7 +14782,7 @@
     </row>
     <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B511" s="3" t="n">
         <v>45363</v>
@@ -13920,7 +14800,7 @@
     </row>
     <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B512" s="3" t="n">
         <v>45367</v>
@@ -13932,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="E512" s="7" t="s">
-        <v>289</v>
+        <v>364</v>
       </c>
       <c r="F512" s="0" t="n">
         <v>26.634154</v>
@@ -13946,7 +14826,7 @@
     </row>
     <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B513" s="3" t="n">
         <v>45385</v>
@@ -13958,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="E513" s="7" t="s">
-        <v>290</v>
+        <v>365</v>
       </c>
       <c r="F513" s="0" t="n">
         <v>26.634154</v>
@@ -13972,7 +14852,7 @@
     </row>
     <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B514" s="3" t="n">
         <v>45389</v>
@@ -13984,7 +14864,7 @@
         <v>0</v>
       </c>
       <c r="E514" s="7" t="s">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="F514" s="0" t="n">
         <v>26.634154</v>
@@ -13998,7 +14878,7 @@
     </row>
     <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B515" s="3" t="n">
         <v>45396</v>
@@ -14010,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="E515" s="7" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="F515" s="0" t="n">
         <v>26.634154</v>
@@ -14024,7 +14904,7 @@
     </row>
     <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B516" s="3" t="n">
         <v>45414</v>
@@ -14042,7 +14922,7 @@
     </row>
     <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B517" s="3" t="n">
         <v>45475</v>
@@ -14060,7 +14940,7 @@
     </row>
     <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B518" s="3" t="n">
         <v>45487</v>
@@ -14072,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="E518" s="7" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="F518" s="0" t="n">
         <v>26.634154</v>
@@ -14086,7 +14966,7 @@
     </row>
     <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B519" s="3" t="n">
         <v>45537</v>
@@ -14104,7 +14984,7 @@
     </row>
     <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B520" s="3" t="n">
         <v>45549</v>
@@ -14122,7 +15002,7 @@
     </row>
     <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B521" s="3" t="n">
         <v>45566</v>
@@ -14140,7 +15020,7 @@
     </row>
     <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B522" s="3" t="n">
         <v>45578</v>
@@ -14158,7 +15038,7 @@
     </row>
     <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B523" s="3" t="n">
         <v>45640</v>
@@ -14176,7 +15056,7 @@
     </row>
     <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B524" s="3" t="n">
         <v>45657</v>
@@ -14194,7 +15074,7 @@
     </row>
     <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B525" s="3" t="n">
         <v>45669</v>
@@ -14212,7 +15092,7 @@
     </row>
     <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B526" s="3" t="n">
         <v>43422</v>
@@ -14235,7 +15115,7 @@
     </row>
     <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B527" s="3" t="n">
         <v>43424</v>
@@ -14252,7 +15132,7 @@
     </row>
     <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B528" s="3" t="n">
         <v>43513</v>
@@ -14275,7 +15155,7 @@
     </row>
     <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B529" s="3" t="n">
         <v>43604</v>
@@ -14298,7 +15178,7 @@
     </row>
     <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B530" s="3" t="n">
         <v>43694</v>
@@ -14315,7 +15195,7 @@
     </row>
     <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B531" s="3" t="n">
         <v>43696</v>
@@ -14332,7 +15212,7 @@
     </row>
     <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B532" s="3" t="n">
         <v>43723</v>
@@ -14355,7 +15235,7 @@
     </row>
     <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B533" s="3" t="n">
         <v>43725</v>
@@ -14378,7 +15258,7 @@
     </row>
     <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B534" s="3" t="n">
         <v>43785</v>
@@ -14395,7 +15275,7 @@
     </row>
     <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B535" s="3" t="n">
         <v>43787</v>
@@ -14418,7 +15298,7 @@
     </row>
     <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B536" s="3" t="n">
         <v>43967</v>
@@ -14435,7 +15315,7 @@
     </row>
     <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B537" s="3" t="n">
         <v>43968</v>
@@ -14458,7 +15338,7 @@
     </row>
     <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B538" s="3" t="n">
         <v>44058</v>
@@ -14481,7 +15361,7 @@
     </row>
     <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B539" s="3" t="n">
         <v>44059</v>
@@ -14498,7 +15378,7 @@
     </row>
     <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B540" s="3" t="n">
         <v>44150</v>
@@ -14515,7 +15395,7 @@
     </row>
     <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B541" s="3" t="n">
         <v>44239</v>
@@ -14538,7 +15418,7 @@
     </row>
     <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B542" s="3" t="n">
         <v>44330</v>
@@ -14561,7 +15441,7 @@
     </row>
     <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B543" s="3" t="n">
         <v>44332</v>
@@ -14584,7 +15464,7 @@
     </row>
     <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B544" s="3" t="n">
         <v>44421</v>
@@ -14607,7 +15487,7 @@
     </row>
     <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B545" s="3" t="n">
         <v>44423</v>
@@ -14630,7 +15510,7 @@
     </row>
     <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B546" s="3" t="n">
         <v>44512</v>
@@ -14647,7 +15527,7 @@
     </row>
     <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B547" s="3" t="n">
         <v>44513</v>
@@ -14664,7 +15544,7 @@
     </row>
     <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B548" s="3" t="n">
         <v>44603</v>
@@ -14681,7 +15561,7 @@
     </row>
     <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B549" s="3" t="n">
         <v>44604</v>
@@ -14704,7 +15584,7 @@
     </row>
     <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B550" s="3" t="n">
         <v>44693</v>
@@ -14727,7 +15607,7 @@
     </row>
     <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B551" s="3" t="n">
         <v>44784</v>
@@ -14750,7 +15630,7 @@
     </row>
     <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B552" s="3" t="n">
         <v>44786</v>
@@ -14773,7 +15653,7 @@
     </row>
     <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B553" s="3" t="n">
         <v>44875</v>
@@ -14796,7 +15676,7 @@
     </row>
     <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B554" s="3" t="n">
         <v>44877</v>
@@ -14813,11 +15693,20 @@
     </row>
     <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B555" s="3" t="n">
         <v>43427</v>
       </c>
+      <c r="C555" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D555" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E555" s="0" t="s">
+        <v>371</v>
+      </c>
       <c r="F555" s="0" t="n">
         <v>7.5609</v>
       </c>
@@ -14830,7 +15719,7 @@
     </row>
     <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B556" s="3" t="n">
         <v>43434</v>
@@ -14842,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="E556" s="7" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
       <c r="F556" s="0" t="n">
         <v>7.5609</v>
@@ -14856,7 +15745,7 @@
     </row>
     <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B557" s="3" t="n">
         <v>43518</v>
@@ -14868,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="E557" s="7" t="s">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="F557" s="0" t="n">
         <v>7.5609</v>
@@ -14882,7 +15771,7 @@
     </row>
     <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B558" s="3" t="n">
         <v>43524</v>
@@ -14894,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="E558" s="7" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="F558" s="0" t="n">
         <v>7.5609</v>
@@ -14908,7 +15797,7 @@
     </row>
     <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B559" s="3" t="n">
         <v>43609</v>
@@ -14920,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="E559" s="7" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="F559" s="0" t="n">
         <v>7.5609</v>
@@ -14934,7 +15823,7 @@
     </row>
     <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B560" s="3" t="n">
         <v>43615</v>
@@ -14946,7 +15835,7 @@
         <v>0</v>
       </c>
       <c r="E560" s="7" t="s">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="F560" s="0" t="n">
         <v>7.5609</v>
@@ -14960,12 +15849,20 @@
     </row>
     <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B561" s="3" t="n">
         <v>43706</v>
       </c>
-      <c r="E561" s="7"/>
+      <c r="C561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E561" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="F561" s="0" t="n">
         <v>7.5609</v>
       </c>
@@ -14978,12 +15875,20 @@
     </row>
     <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B562" s="3" t="n">
         <v>43728</v>
       </c>
-      <c r="E562" s="7"/>
+      <c r="C562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E562" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="F562" s="0" t="n">
         <v>7.5609</v>
       </c>
@@ -14996,7 +15901,7 @@
     </row>
     <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B563" s="3" t="n">
         <v>43735</v>
@@ -15008,7 +15913,7 @@
         <v>0</v>
       </c>
       <c r="E563" s="7" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="F563" s="0" t="n">
         <v>7.5609</v>
@@ -15022,12 +15927,20 @@
     </row>
     <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B564" s="3" t="n">
         <v>43790</v>
       </c>
-      <c r="E564" s="7"/>
+      <c r="C564" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D564" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E564" s="7" t="s">
+        <v>380</v>
+      </c>
       <c r="F564" s="0" t="n">
         <v>7.5609</v>
       </c>
@@ -15040,12 +15953,20 @@
     </row>
     <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B565" s="3" t="n">
         <v>43797</v>
       </c>
-      <c r="E565" s="7"/>
+      <c r="C565" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D565" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E565" s="7" t="s">
+        <v>381</v>
+      </c>
       <c r="F565" s="0" t="n">
         <v>7.5609</v>
       </c>
@@ -15058,7 +15979,7 @@
     </row>
     <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B566" s="3" t="n">
         <v>43881</v>
@@ -15070,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="E566" s="7" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="F566" s="0" t="n">
         <v>7.5609</v>
@@ -15084,7 +16005,7 @@
     </row>
     <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B567" s="3" t="n">
         <v>43888</v>
@@ -15096,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="E567" s="7" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="F567" s="0" t="n">
         <v>7.5609</v>
@@ -15110,7 +16031,7 @@
     </row>
     <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B568" s="3" t="n">
         <v>43972</v>
@@ -15122,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="E568" s="7" t="s">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="F568" s="0" t="n">
         <v>7.5609</v>
@@ -15136,7 +16057,7 @@
     </row>
     <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B569" s="3" t="n">
         <v>43978</v>
@@ -15154,7 +16075,7 @@
     </row>
     <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B570" s="3" t="n">
         <v>44063</v>
@@ -15166,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="E570" s="7" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="F570" s="0" t="n">
         <v>7.5609</v>
@@ -15180,7 +16101,7 @@
     </row>
     <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B571" s="3" t="n">
         <v>44069</v>
@@ -15192,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="E571" s="7" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="F571" s="0" t="n">
         <v>7.5609</v>
@@ -15206,7 +16127,7 @@
     </row>
     <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B572" s="3" t="n">
         <v>44154</v>
@@ -15218,7 +16139,7 @@
         <v>0</v>
       </c>
       <c r="E572" s="7" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="F572" s="0" t="n">
         <v>7.5609</v>
@@ -15232,7 +16153,7 @@
     </row>
     <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B573" s="3" t="n">
         <v>44160</v>
@@ -15244,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="E573" s="7" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="F573" s="0" t="n">
         <v>7.5609</v>
@@ -15258,7 +16179,7 @@
     </row>
     <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B574" s="3" t="n">
         <v>44244</v>
@@ -15270,7 +16191,7 @@
         <v>0</v>
       </c>
       <c r="E574" s="7" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="F574" s="0" t="n">
         <v>7.5609</v>
@@ -15284,7 +16205,7 @@
     </row>
     <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B575" s="3" t="n">
         <v>44251</v>
@@ -15302,7 +16223,7 @@
     </row>
     <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B576" s="3" t="n">
         <v>44335</v>
@@ -15320,7 +16241,7 @@
     </row>
     <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B577" s="3" t="n">
         <v>44342</v>
@@ -15332,7 +16253,7 @@
         <v>0</v>
       </c>
       <c r="E577" s="7" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="F577" s="0" t="n">
         <v>7.5609</v>
@@ -15346,7 +16267,7 @@
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B578" s="3" t="n">
         <v>44426</v>
@@ -15358,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="E578" s="7" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="F578" s="0" t="n">
         <v>7.5609</v>
@@ -15372,7 +16293,7 @@
     </row>
     <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B579" s="3" t="n">
         <v>44433</v>
@@ -15384,7 +16305,7 @@
         <v>0</v>
       </c>
       <c r="E579" s="7" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="F579" s="0" t="n">
         <v>7.5609</v>
@@ -15398,7 +16319,7 @@
     </row>
     <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B580" s="3" t="n">
         <v>44517</v>
@@ -15416,7 +16337,7 @@
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B581" s="3" t="n">
         <v>44608</v>
@@ -15428,7 +16349,7 @@
         <v>0</v>
       </c>
       <c r="E581" s="7" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="F581" s="0" t="n">
         <v>7.5609</v>
@@ -15442,7 +16363,7 @@
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B582" s="3" t="n">
         <v>44614</v>
@@ -15454,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="E582" s="7" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="F582" s="0" t="n">
         <v>7.5609</v>
@@ -15468,7 +16389,7 @@
     </row>
     <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B583" s="3" t="n">
         <v>44705</v>
@@ -15480,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="E583" s="7" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="F583" s="0" t="n">
         <v>7.5609</v>
@@ -15494,7 +16415,7 @@
     </row>
     <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B584" s="3" t="n">
         <v>44789</v>
@@ -15506,7 +16427,7 @@
         <v>0</v>
       </c>
       <c r="E584" s="7" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="F584" s="0" t="n">
         <v>7.5609</v>
@@ -15520,7 +16441,7 @@
     </row>
     <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B585" s="3" t="n">
         <v>44796</v>
@@ -15532,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="E585" s="7" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="F585" s="0" t="n">
         <v>7.5609</v>
@@ -15546,7 +16467,7 @@
     </row>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B586" s="3" t="n">
         <v>44880</v>
@@ -15564,7 +16485,7 @@
     </row>
     <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B587" s="3" t="n">
         <v>44887</v>
@@ -15582,18 +16503,14 @@
     </row>
     <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B588" s="3" t="n">
         <v>44971</v>
       </c>
-      <c r="C588" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D588" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E588" s="7"/>
+      <c r="E588" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="F588" s="0" t="n">
         <v>7.5609</v>
       </c>
@@ -15606,18 +16523,14 @@
     </row>
     <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B589" s="3" t="n">
         <v>44977</v>
       </c>
-      <c r="C589" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D589" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E589" s="7"/>
+      <c r="E589" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="F589" s="0" t="n">
         <v>7.5609</v>
       </c>
@@ -15630,16 +16543,10 @@
     </row>
     <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B590" s="3" t="n">
         <v>45062</v>
-      </c>
-      <c r="C590" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D590" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="E590" s="7"/>
       <c r="F590" s="0" t="n">
@@ -15654,16 +16561,10 @@
     </row>
     <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B591" s="3" t="n">
         <v>45068</v>
-      </c>
-      <c r="C591" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D591" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="E591" s="7"/>
       <c r="F591" s="0" t="n">
@@ -15678,16 +16579,10 @@
     </row>
     <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B592" s="3" t="n">
         <v>45153</v>
-      </c>
-      <c r="C592" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D592" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="E592" s="7"/>
       <c r="F592" s="0" t="n">
@@ -15702,16 +16597,10 @@
     </row>
     <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B593" s="3" t="n">
         <v>45159</v>
-      </c>
-      <c r="C593" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D593" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="E593" s="7"/>
       <c r="F593" s="0" t="n">
@@ -15726,16 +16615,10 @@
     </row>
     <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B594" s="3" t="n">
         <v>45243</v>
-      </c>
-      <c r="C594" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D594" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="E594" s="7"/>
       <c r="F594" s="0" t="n">
@@ -15750,7 +16633,7 @@
     </row>
     <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B595" s="3" t="n">
         <v>45250</v>
@@ -15768,7 +16651,7 @@
     </row>
     <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B596" s="3" t="n">
         <v>45334</v>
@@ -15786,7 +16669,7 @@
     </row>
     <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B597" s="3" t="n">
         <v>45341</v>
@@ -15804,7 +16687,7 @@
     </row>
     <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B598" s="3" t="n">
         <v>45516</v>
@@ -15822,7 +16705,7 @@
     </row>
     <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B599" s="3" t="n">
         <v>45522</v>
@@ -15840,7 +16723,7 @@
     </row>
     <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B600" s="3" t="n">
         <v>45607</v>
@@ -15858,7 +16741,7 @@
     </row>
     <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B601" s="3" t="n">
         <v>45613</v>
@@ -15876,7 +16759,7 @@
     </row>
     <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B602" s="3" t="n">
         <v>45698</v>
@@ -15894,7 +16777,7 @@
     </row>
     <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="B603" s="3" t="n">
         <v>45704</v>
@@ -15912,7 +16795,7 @@
     </row>
     <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B604" s="3" t="n">
         <v>43410</v>
@@ -15930,7 +16813,7 @@
     </row>
     <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B605" s="3" t="n">
         <v>43501</v>
@@ -15948,7 +16831,7 @@
     </row>
     <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B606" s="3" t="n">
         <v>43508</v>
@@ -15966,7 +16849,7 @@
     </row>
     <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B607" s="3" t="n">
         <v>43592</v>
@@ -15978,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="E607" s="4" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="F607" s="0" t="n">
         <v>-89.5373</v>
@@ -15992,7 +16875,7 @@
     </row>
     <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B608" s="3" t="n">
         <v>43598</v>
@@ -16004,7 +16887,7 @@
         <v>0</v>
       </c>
       <c r="E608" s="4" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="F608" s="0" t="n">
         <v>-89.5373</v>
@@ -16018,7 +16901,7 @@
     </row>
     <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B609" s="3" t="n">
         <v>43689</v>
@@ -16044,7 +16927,7 @@
     </row>
     <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B610" s="3" t="n">
         <v>43712</v>
@@ -16062,7 +16945,7 @@
     </row>
     <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B611" s="3" t="n">
         <v>43803</v>
@@ -16074,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="E611" s="4" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="F611" s="0" t="n">
         <v>-89.5373</v>
@@ -16088,7 +16971,7 @@
     </row>
     <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B612" s="3" t="n">
         <v>43864</v>
@@ -16106,7 +16989,7 @@
     </row>
     <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B613" s="3" t="n">
         <v>43871</v>
@@ -16118,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="E613" s="4" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="F613" s="0" t="n">
         <v>-89.5373</v>
@@ -16132,7 +17015,7 @@
     </row>
     <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B614" s="3" t="n">
         <v>43962</v>
@@ -16150,7 +17033,7 @@
     </row>
     <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B615" s="3" t="n">
         <v>44046</v>
@@ -16176,7 +17059,7 @@
     </row>
     <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B616" s="3" t="n">
         <v>44053</v>
@@ -16202,7 +17085,7 @@
     </row>
     <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B617" s="3" t="n">
         <v>44137</v>
@@ -16214,7 +17097,7 @@
         <v>0</v>
       </c>
       <c r="E617" s="4" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="F617" s="0" t="n">
         <v>-89.5373</v>
@@ -16228,7 +17111,7 @@
     </row>
     <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B618" s="3" t="n">
         <v>44143</v>
@@ -16240,7 +17123,7 @@
         <v>0</v>
       </c>
       <c r="E618" s="4" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="F618" s="0" t="n">
         <v>-89.5373</v>
@@ -16254,7 +17137,7 @@
     </row>
     <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B619" s="3" t="n">
         <v>44228</v>
@@ -16266,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="E619" s="4" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="F619" s="0" t="n">
         <v>-89.5373</v>
@@ -16280,7 +17163,7 @@
     </row>
     <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B620" s="3" t="n">
         <v>44234</v>
@@ -16292,7 +17175,7 @@
         <v>1</v>
       </c>
       <c r="E620" s="4" t="s">
-        <v>326</v>
+        <v>406</v>
       </c>
       <c r="F620" s="0" t="n">
         <v>-89.5373</v>
@@ -16306,7 +17189,7 @@
     </row>
     <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B621" s="3" t="n">
         <v>44409</v>
@@ -16332,7 +17215,7 @@
     </row>
     <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B622" s="3" t="n">
         <v>44416</v>
@@ -16350,7 +17233,7 @@
     </row>
     <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B623" s="3" t="n">
         <v>44500</v>
@@ -16376,7 +17259,7 @@
     </row>
     <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B624" s="3" t="n">
         <v>44507</v>
@@ -16388,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="E624" s="4" t="s">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="F624" s="0" t="n">
         <v>-89.5373</v>
@@ -16402,7 +17285,7 @@
     </row>
     <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B625" s="3" t="n">
         <v>44591</v>
@@ -16420,7 +17303,7 @@
     </row>
     <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B626" s="3" t="n">
         <v>44597</v>
@@ -16438,7 +17321,7 @@
     </row>
     <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B627" s="3" t="n">
         <v>44773</v>
@@ -16464,7 +17347,7 @@
     </row>
     <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B628" s="3" t="n">
         <v>44779</v>
@@ -16482,7 +17365,7 @@
     </row>
     <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B629" s="3" t="n">
         <v>44863</v>
@@ -16494,7 +17377,7 @@
         <v>0</v>
       </c>
       <c r="E629" s="4" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="F629" s="0" t="n">
         <v>-89.5373</v>
@@ -16508,7 +17391,7 @@
     </row>
     <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B630" s="3" t="n">
         <v>44870</v>
@@ -16526,7 +17409,7 @@
     </row>
     <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B631" s="3" t="n">
         <v>44954</v>
@@ -16538,7 +17421,7 @@
         <v>1</v>
       </c>
       <c r="E631" s="4" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="F631" s="0" t="n">
         <v>-89.5373</v>
@@ -16552,7 +17435,7 @@
     </row>
     <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B632" s="3" t="n">
         <v>44961</v>
@@ -16570,7 +17453,7 @@
     </row>
     <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B633" s="3" t="n">
         <v>45045</v>
@@ -16588,7 +17471,7 @@
     </row>
     <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B634" s="3" t="n">
         <v>45052</v>
@@ -16606,7 +17489,7 @@
     </row>
     <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B635" s="3" t="n">
         <v>45136</v>
@@ -16624,7 +17507,7 @@
     </row>
     <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B636" s="3" t="n">
         <v>45142</v>
@@ -16650,7 +17533,7 @@
     </row>
     <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B637" s="3" t="n">
         <v>45227</v>
@@ -16662,7 +17545,7 @@
         <v>0</v>
       </c>
       <c r="E637" s="4" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="F637" s="0" t="n">
         <v>-89.5373</v>
@@ -16676,7 +17559,7 @@
     </row>
     <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B638" s="3" t="n">
         <v>45233</v>
@@ -16688,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="E638" s="4" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="F638" s="0" t="n">
         <v>-89.5373</v>
@@ -16702,7 +17585,7 @@
     </row>
     <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B639" s="3" t="n">
         <v>45324</v>
@@ -16714,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="E639" s="4" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="F639" s="0" t="n">
         <v>-89.5373</v>
@@ -16728,7 +17611,7 @@
     </row>
     <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B640" s="3" t="n">
         <v>45408</v>
@@ -16740,7 +17623,7 @@
         <v>0</v>
       </c>
       <c r="E640" s="4" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="F640" s="0" t="n">
         <v>-89.5373</v>
@@ -16754,7 +17637,7 @@
     </row>
     <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B641" s="3" t="n">
         <v>45499</v>
@@ -16780,7 +17663,7 @@
     </row>
     <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B642" s="3" t="n">
         <v>45506</v>
@@ -16806,7 +17689,7 @@
     </row>
     <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B643" s="3" t="n">
         <v>45590</v>
@@ -16824,7 +17707,7 @@
     </row>
     <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B644" s="3" t="n">
         <v>45597</v>
@@ -16842,7 +17725,7 @@
     </row>
     <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B645" s="3" t="n">
         <v>45681</v>
@@ -16860,7 +17743,7 @@
     </row>
     <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B646" s="3" t="n">
         <v>45687</v>
@@ -16878,7 +17761,7 @@
     </row>
     <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B647" s="3" t="n">
         <v>43482</v>
@@ -16890,7 +17773,7 @@
         <v>1</v>
       </c>
       <c r="E647" s="4" t="s">
-        <v>335</v>
+        <v>415</v>
       </c>
       <c r="F647" s="0" t="n">
         <v>-72.866</v>
@@ -16904,7 +17787,7 @@
     </row>
     <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B648" s="3" t="n">
         <v>43572</v>
@@ -16916,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="E648" s="4" t="s">
-        <v>336</v>
+        <v>416</v>
       </c>
       <c r="F648" s="0" t="n">
         <v>-72.866</v>
@@ -16930,7 +17813,7 @@
     </row>
     <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B649" s="3" t="n">
         <v>43663</v>
@@ -16948,7 +17831,7 @@
     </row>
     <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B650" s="3" t="n">
         <v>43719</v>
@@ -16966,7 +17849,7 @@
     </row>
     <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B651" s="3" t="n">
         <v>43754</v>
@@ -16984,7 +17867,7 @@
     </row>
     <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B652" s="3" t="n">
         <v>43810</v>
@@ -17002,7 +17885,7 @@
     </row>
     <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B653" s="3" t="n">
         <v>43845</v>
@@ -17020,7 +17903,7 @@
     </row>
     <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B654" s="3" t="n">
         <v>43871</v>
@@ -17038,7 +17921,7 @@
     </row>
     <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B655" s="3" t="n">
         <v>43936</v>
@@ -17056,7 +17939,7 @@
     </row>
     <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B656" s="3" t="n">
         <v>43991</v>
@@ -17074,7 +17957,7 @@
     </row>
     <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B657" s="3" t="n">
         <v>44027</v>
@@ -17100,7 +17983,7 @@
     </row>
     <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B658" s="3" t="n">
         <v>44117</v>
@@ -17118,7 +18001,7 @@
     </row>
     <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B659" s="3" t="n">
         <v>44235</v>
@@ -17136,7 +18019,7 @@
     </row>
     <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B660" s="3" t="n">
         <v>44354</v>
@@ -17162,7 +18045,7 @@
     </row>
     <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B661" s="3" t="n">
         <v>44481</v>
@@ -17188,7 +18071,7 @@
     </row>
     <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B662" s="3" t="n">
         <v>44507</v>
@@ -17200,7 +18083,7 @@
         <v>0</v>
       </c>
       <c r="E662" s="4" t="s">
-        <v>337</v>
+        <v>417</v>
       </c>
       <c r="F662" s="0" t="n">
         <v>-72.866</v>
@@ -17214,7 +18097,7 @@
     </row>
     <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B663" s="3" t="n">
         <v>44571</v>
@@ -17226,7 +18109,7 @@
         <v>0</v>
       </c>
       <c r="E663" s="4" t="s">
-        <v>338</v>
+        <v>418</v>
       </c>
       <c r="F663" s="0" t="n">
         <v>-72.866</v>
@@ -17240,7 +18123,7 @@
     </row>
     <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B664" s="3" t="n">
         <v>44718</v>
@@ -17266,7 +18149,7 @@
     </row>
     <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B665" s="3" t="n">
         <v>44753</v>
@@ -17284,7 +18167,7 @@
     </row>
     <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B666" s="3" t="n">
         <v>44809</v>
@@ -17302,7 +18185,7 @@
     </row>
     <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B667" s="3" t="n">
         <v>44844</v>
@@ -17320,7 +18203,7 @@
     </row>
     <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B668" s="3" t="n">
         <v>44870</v>
@@ -17338,7 +18221,7 @@
     </row>
     <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B669" s="3" t="n">
         <v>44935</v>
@@ -17356,7 +18239,7 @@
     </row>
     <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B670" s="3" t="n">
         <v>45026</v>
@@ -17368,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="E670" s="4" t="s">
-        <v>339</v>
+        <v>419</v>
       </c>
       <c r="F670" s="0" t="n">
         <v>-72.866</v>
@@ -17382,7 +18265,7 @@
     </row>
     <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B671" s="3" t="n">
         <v>45081</v>
@@ -17400,7 +18283,7 @@
     </row>
     <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B672" s="3" t="n">
         <v>45207</v>
@@ -17412,7 +18295,7 @@
         <v>0</v>
       </c>
       <c r="E672" s="4" t="s">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="F672" s="0" t="n">
         <v>-72.866</v>
@@ -17426,7 +18309,7 @@
     </row>
     <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B673" s="3" t="n">
         <v>45389</v>
@@ -17438,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="E673" s="4" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="F673" s="0" t="n">
         <v>-72.866</v>
@@ -17452,7 +18335,7 @@
     </row>
     <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B674" s="3" t="n">
         <v>45480</v>
@@ -17478,7 +18361,7 @@
     </row>
     <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B675" s="3" t="n">
         <v>45571</v>
@@ -17490,7 +18373,7 @@
         <v>0</v>
       </c>
       <c r="E675" s="4" t="s">
-        <v>342</v>
+        <v>422</v>
       </c>
       <c r="F675" s="0" t="n">
         <v>-72.866</v>
@@ -17504,7 +18387,7 @@
     </row>
     <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B676" s="3" t="n">
         <v>45597</v>
@@ -17522,7 +18405,7 @@
     </row>
     <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="B677" s="3" t="n">
         <v>45661</v>
@@ -17540,7 +18423,7 @@
     </row>
     <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B678" s="3" t="n">
         <v>43432</v>
@@ -17558,7 +18441,7 @@
     </row>
     <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B679" s="3" t="n">
         <v>43444</v>
@@ -17576,7 +18459,7 @@
     </row>
     <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B680" s="3" t="n">
         <v>43473</v>
@@ -17599,7 +18482,7 @@
     </row>
     <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B681" s="3" t="n">
         <v>43494</v>
@@ -17616,7 +18499,7 @@
     </row>
     <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B682" s="3" t="n">
         <v>43523</v>
@@ -17633,7 +18516,7 @@
     </row>
     <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B683" s="3" t="n">
         <v>43535</v>
@@ -17656,7 +18539,7 @@
     </row>
     <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B684" s="3" t="n">
         <v>43564</v>
@@ -17673,7 +18556,7 @@
     </row>
     <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B685" s="3" t="n">
         <v>43585</v>
@@ -17696,7 +18579,7 @@
     </row>
     <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B686" s="3" t="n">
         <v>43626</v>
@@ -17713,7 +18596,7 @@
     </row>
     <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B687" s="3" t="n">
         <v>43676</v>
@@ -17736,7 +18619,7 @@
     </row>
     <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B688" s="3" t="n">
         <v>43705</v>
@@ -17759,7 +18642,7 @@
     </row>
     <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B689" s="3" t="n">
         <v>43745</v>
@@ -17776,7 +18659,7 @@
     </row>
     <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B690" s="3" t="n">
         <v>43767</v>
@@ -17793,7 +18676,7 @@
     </row>
     <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B691" s="3" t="n">
         <v>43887</v>
@@ -17816,7 +18699,7 @@
     </row>
     <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B692" s="3" t="n">
         <v>43898</v>
@@ -17833,7 +18716,7 @@
     </row>
     <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B693" s="3" t="n">
         <v>43927</v>
@@ -17856,7 +18739,7 @@
     </row>
     <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B694" s="3" t="n">
         <v>43948</v>
@@ -17879,7 +18762,7 @@
     </row>
     <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B695" s="3" t="n">
         <v>43977</v>
@@ -17902,7 +18785,7 @@
     </row>
     <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B696" s="3" t="n">
         <v>44018</v>
@@ -17925,7 +18808,7 @@
     </row>
     <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B697" s="3" t="n">
         <v>44068</v>
@@ -17948,7 +18831,7 @@
     </row>
     <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B698" s="3" t="n">
         <v>44080</v>
@@ -17965,7 +18848,7 @@
     </row>
     <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B699" s="3" t="n">
         <v>44109</v>
@@ -17982,7 +18865,7 @@
     </row>
     <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B700" s="3" t="n">
         <v>44159</v>
@@ -18005,7 +18888,7 @@
     </row>
     <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B701" s="3" t="n">
         <v>44290</v>
@@ -18028,7 +18911,7 @@
     </row>
     <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B702" s="3" t="n">
         <v>44312</v>
@@ -18051,7 +18934,7 @@
     </row>
     <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B703" s="3" t="n">
         <v>44341</v>
@@ -18068,7 +18951,7 @@
     </row>
     <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B704" s="3" t="n">
         <v>44381</v>
@@ -18091,7 +18974,7 @@
     </row>
     <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B705" s="3" t="n">
         <v>44403</v>
@@ -18108,7 +18991,7 @@
     </row>
     <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B706" s="3" t="n">
         <v>44431</v>
@@ -18131,7 +19014,7 @@
     </row>
     <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B707" s="3" t="n">
         <v>44443</v>
@@ -18154,7 +19037,7 @@
     </row>
     <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B708" s="3" t="n">
         <v>44522</v>
@@ -18177,7 +19060,7 @@
     </row>
     <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B709" s="3" t="n">
         <v>44534</v>
@@ -18200,7 +19083,7 @@
     </row>
     <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B710" s="3" t="n">
         <v>44584</v>
@@ -18223,7 +19106,7 @@
     </row>
     <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B711" s="3" t="n">
         <v>44613</v>
@@ -18240,7 +19123,7 @@
     </row>
     <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B712" s="3" t="n">
         <v>44625</v>
@@ -18257,7 +19140,7 @@
     </row>
     <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B713" s="3" t="n">
         <v>44654</v>
@@ -18274,7 +19157,7 @@
     </row>
     <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B714" s="3" t="n">
         <v>44675</v>
@@ -18297,7 +19180,7 @@
     </row>
     <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B715" s="3" t="n">
         <v>44744</v>
@@ -18320,7 +19203,7 @@
     </row>
     <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B716" s="3" t="n">
         <v>44766</v>
@@ -18343,7 +19226,7 @@
     </row>
     <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B717" s="3" t="n">
         <v>44795</v>
@@ -18360,7 +19243,7 @@
     </row>
     <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B718" s="3" t="n">
         <v>44806</v>
@@ -18377,7 +19260,7 @@
     </row>
     <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B719" s="3" t="n">
         <v>44886</v>
@@ -18400,7 +19283,7 @@
     </row>
     <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B720" s="3" t="n">
         <v>44897</v>
@@ -18423,7 +19306,7 @@
     </row>
     <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B721" s="3" t="n">
         <v>44926</v>
@@ -18440,7 +19323,7 @@
     </row>
     <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B722" s="3" t="n">
         <v>43443</v>
@@ -18452,7 +19335,7 @@
         <v>0</v>
       </c>
       <c r="E722" s="4" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="F722" s="0" t="n">
         <v>-90.0791</v>
@@ -18466,7 +19349,7 @@
     </row>
     <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B723" s="3" t="n">
         <v>43450</v>
@@ -18478,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="E723" s="4" t="s">
-        <v>346</v>
+        <v>426</v>
       </c>
       <c r="F723" s="0" t="n">
         <v>-90.0791</v>
@@ -18492,7 +19375,7 @@
     </row>
     <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B724" s="3" t="n">
         <v>43534</v>
@@ -18510,7 +19393,7 @@
     </row>
     <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B725" s="3" t="n">
         <v>43541</v>
@@ -18522,7 +19405,7 @@
         <v>0</v>
       </c>
       <c r="E725" s="4" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="F725" s="0" t="n">
         <v>-90.0791</v>
@@ -18536,7 +19419,7 @@
     </row>
     <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B726" s="3" t="n">
         <v>43625</v>
@@ -18554,7 +19437,7 @@
     </row>
     <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B727" s="3" t="n">
         <v>43631</v>
@@ -18580,7 +19463,7 @@
     </row>
     <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B728" s="3" t="n">
         <v>43716</v>
@@ -18598,7 +19481,7 @@
     </row>
     <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B729" s="3" t="n">
         <v>43807</v>
@@ -18616,7 +19499,7 @@
     </row>
     <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B730" s="3" t="n">
         <v>43904</v>
@@ -18628,7 +19511,7 @@
         <v>0</v>
       </c>
       <c r="E730" s="4" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="F730" s="0" t="n">
         <v>-90.0791</v>
@@ -18642,7 +19525,7 @@
     </row>
     <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B731" s="3" t="n">
         <v>43988</v>
@@ -18668,7 +19551,7 @@
     </row>
     <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B732" s="3" t="n">
         <v>43995</v>
@@ -18694,7 +19577,7 @@
     </row>
     <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B733" s="3" t="n">
         <v>44079</v>
@@ -18720,7 +19603,7 @@
     </row>
     <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B734" s="3" t="n">
         <v>44086</v>
@@ -18738,7 +19621,7 @@
     </row>
     <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B735" s="3" t="n">
         <v>44170</v>
@@ -18756,7 +19639,7 @@
     </row>
     <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B736" s="3" t="n">
         <v>44176</v>
@@ -18774,7 +19657,7 @@
     </row>
     <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B737" s="3" t="n">
         <v>44351</v>
@@ -18800,7 +19683,7 @@
     </row>
     <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B738" s="3" t="n">
         <v>44358</v>
@@ -18818,7 +19701,7 @@
     </row>
     <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B739" s="3" t="n">
         <v>44442</v>
@@ -18836,7 +19719,7 @@
     </row>
     <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B740" s="3" t="n">
         <v>44449</v>
@@ -18862,7 +19745,7 @@
     </row>
     <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B741" s="3" t="n">
         <v>44624</v>
@@ -18874,7 +19757,7 @@
         <v>0</v>
       </c>
       <c r="E741" s="4" t="s">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="F741" s="0" t="n">
         <v>-90.0791</v>
@@ -18888,7 +19771,7 @@
     </row>
     <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B742" s="3" t="n">
         <v>44715</v>
@@ -18906,7 +19789,7 @@
     </row>
     <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B743" s="3" t="n">
         <v>44721</v>
@@ -18924,7 +19807,7 @@
     </row>
     <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B744" s="3" t="n">
         <v>44806</v>
@@ -18950,7 +19833,7 @@
     </row>
     <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B745" s="3" t="n">
         <v>44812</v>
@@ -18976,7 +19859,7 @@
     </row>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B746" s="3" t="n">
         <v>44896</v>
@@ -18988,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E746" s="4" t="s">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="F746" s="0" t="n">
         <v>-90.0791</v>
@@ -19002,7 +19885,7 @@
     </row>
     <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B747" s="3" t="n">
         <v>44903</v>
@@ -19020,7 +19903,7 @@
     </row>
     <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B748" s="3" t="n">
         <v>44987</v>
@@ -19032,7 +19915,7 @@
         <v>0</v>
       </c>
       <c r="E748" s="4" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="F748" s="0" t="n">
         <v>-90.0791</v>
@@ -19046,7 +19929,7 @@
     </row>
     <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B749" s="3" t="n">
         <v>44994</v>
@@ -19064,7 +19947,7 @@
     </row>
     <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B750" s="3" t="n">
         <v>45078</v>
@@ -19090,7 +19973,7 @@
     </row>
     <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B751" s="3" t="n">
         <v>45085</v>
@@ -19116,7 +19999,7 @@
     </row>
     <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B752" s="3" t="n">
         <v>45175</v>
@@ -19134,7 +20017,7 @@
     </row>
     <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B753" s="3" t="n">
         <v>45260</v>
@@ -19152,7 +20035,7 @@
     </row>
     <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B754" s="3" t="n">
         <v>45266</v>
@@ -19170,7 +20053,7 @@
     </row>
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B755" s="3" t="n">
         <v>45350</v>
@@ -19182,7 +20065,7 @@
         <v>0</v>
       </c>
       <c r="E755" s="4" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="F755" s="0" t="n">
         <v>-90.0791</v>
@@ -19196,7 +20079,7 @@
     </row>
     <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B756" s="3" t="n">
         <v>45357</v>
@@ -19208,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="E756" s="4" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="F756" s="0" t="n">
         <v>-90.0791</v>
@@ -19222,7 +20105,7 @@
     </row>
     <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B757" s="3" t="n">
         <v>45532</v>
@@ -19248,7 +20131,7 @@
     </row>
     <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B758" s="3" t="n">
         <v>45539</v>
@@ -19274,7 +20157,7 @@
     </row>
     <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B759" s="3" t="n">
         <v>45623</v>
@@ -19292,7 +20175,7 @@
     </row>
     <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B760" s="3" t="n">
         <v>45629</v>
@@ -19310,7 +20193,7 @@
     </row>
     <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B761" s="3" t="n">
         <v>45714</v>
@@ -19328,7 +20211,7 @@
     </row>
     <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B762" s="3" t="n">
         <v>43406</v>
@@ -19346,7 +20229,7 @@
     </row>
     <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B763" s="3" t="n">
         <v>43407</v>
@@ -19364,7 +20247,7 @@
     </row>
     <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B764" s="3" t="n">
         <v>43497</v>
@@ -19376,7 +20259,7 @@
         <v>1</v>
       </c>
       <c r="E764" s="4" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="F764" s="0" t="n">
         <v>-105.9154</v>
@@ -19390,7 +20273,7 @@
     </row>
     <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B765" s="3" t="n">
         <v>43498</v>
@@ -19402,7 +20285,7 @@
         <v>1</v>
       </c>
       <c r="E765" s="4" t="s">
-        <v>356</v>
+        <v>436</v>
       </c>
       <c r="F765" s="0" t="n">
         <v>-105.9154</v>
@@ -19416,7 +20299,7 @@
     </row>
     <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B766" s="3" t="n">
         <v>43588</v>
@@ -19428,7 +20311,7 @@
         <v>1</v>
       </c>
       <c r="E766" s="4" t="s">
-        <v>357</v>
+        <v>437</v>
       </c>
       <c r="F766" s="0" t="n">
         <v>-105.9154</v>
@@ -19442,7 +20325,7 @@
     </row>
     <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B767" s="3" t="n">
         <v>43589</v>
@@ -19454,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="E767" s="4" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="F767" s="0" t="n">
         <v>-105.9154</v>
@@ -19468,7 +20351,7 @@
     </row>
     <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B768" s="3" t="n">
         <v>43678</v>
@@ -19486,7 +20369,7 @@
     </row>
     <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B769" s="3" t="n">
         <v>43680</v>
@@ -19504,7 +20387,7 @@
     </row>
     <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B770" s="3" t="n">
         <v>43769</v>
@@ -19516,7 +20399,7 @@
         <v>1</v>
       </c>
       <c r="E770" s="4" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="F770" s="0" t="n">
         <v>-105.9154</v>
@@ -19530,7 +20413,7 @@
     </row>
     <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B771" s="3" t="n">
         <v>43860</v>
@@ -19548,7 +20431,7 @@
     </row>
     <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B772" s="3" t="n">
         <v>43951</v>
@@ -19566,7 +20449,7 @@
     </row>
     <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B773" s="3" t="n">
         <v>43952</v>
@@ -19584,7 +20467,7 @@
     </row>
     <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B774" s="3" t="n">
         <v>44042</v>
@@ -19596,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="E774" s="4" t="s">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="F774" s="0" t="n">
         <v>-105.9154</v>
@@ -19610,7 +20493,7 @@
     </row>
     <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B775" s="3" t="n">
         <v>44132</v>
@@ -19628,7 +20511,7 @@
     </row>
     <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B776" s="3" t="n">
         <v>44134</v>
@@ -19646,7 +20529,7 @@
     </row>
     <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B777" s="3" t="n">
         <v>44223</v>
@@ -19658,7 +20541,7 @@
         <v>1</v>
       </c>
       <c r="E777" s="4" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="F777" s="0" t="n">
         <v>-105.9154</v>
@@ -19672,7 +20555,7 @@
     </row>
     <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B778" s="3" t="n">
         <v>44314</v>
@@ -19690,7 +20573,7 @@
     </row>
     <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B779" s="3" t="n">
         <v>44316</v>
@@ -19708,7 +20591,7 @@
     </row>
     <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B780" s="3" t="n">
         <v>44405</v>
@@ -19720,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="E780" s="4" t="s">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="F780" s="0" t="n">
         <v>-105.9154</v>
@@ -19734,7 +20617,7 @@
     </row>
     <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B781" s="3" t="n">
         <v>44406</v>
@@ -19752,7 +20635,7 @@
     </row>
     <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B782" s="3" t="n">
         <v>44438</v>
@@ -19764,7 +20647,7 @@
         <v>0</v>
       </c>
       <c r="E782" s="4" t="s">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="F782" s="0" t="n">
         <v>-105.9154</v>
@@ -19778,7 +20661,7 @@
     </row>
     <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B783" s="3" t="n">
         <v>44496</v>
@@ -19796,7 +20679,7 @@
     </row>
     <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B784" s="3" t="n">
         <v>44587</v>
@@ -19808,7 +20691,7 @@
         <v>1</v>
       </c>
       <c r="E784" s="4" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="F784" s="0" t="n">
         <v>-105.9154</v>
@@ -19822,7 +20705,7 @@
     </row>
     <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B785" s="3" t="n">
         <v>44679</v>
@@ -19834,7 +20717,7 @@
         <v>0</v>
       </c>
       <c r="E785" s="4" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="F785" s="0" t="n">
         <v>-105.9154</v>
@@ -19848,7 +20731,7 @@
     </row>
     <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B786" s="3" t="n">
         <v>44768</v>
@@ -19866,7 +20749,7 @@
     </row>
     <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B787" s="3" t="n">
         <v>44770</v>
@@ -19884,7 +20767,7 @@
     </row>
     <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B788" s="3" t="n">
         <v>44861</v>
@@ -19902,7 +20785,7 @@
     </row>
     <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B789" s="3" t="n">
         <v>45041</v>
@@ -19920,7 +20803,7 @@
     </row>
     <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B790" s="3" t="n">
         <v>45042</v>
@@ -19932,7 +20815,7 @@
         <v>1</v>
       </c>
       <c r="E790" s="4" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="F790" s="0" t="n">
         <v>-105.9154</v>
@@ -19946,7 +20829,7 @@
     </row>
     <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B791" s="3" t="n">
         <v>45131</v>
@@ -19972,7 +20855,7 @@
     </row>
     <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B792" s="3" t="n">
         <v>45133</v>
@@ -19998,7 +20881,7 @@
     </row>
     <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B793" s="3" t="n">
         <v>45222</v>
@@ -20010,7 +20893,7 @@
         <v>0</v>
       </c>
       <c r="E793" s="4" t="s">
-        <v>367</v>
+        <v>447</v>
       </c>
       <c r="F793" s="0" t="n">
         <v>-105.9154</v>
@@ -20024,7 +20907,7 @@
     </row>
     <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B794" s="3" t="n">
         <v>45224</v>
@@ -20036,7 +20919,7 @@
         <v>0</v>
       </c>
       <c r="E794" s="4" t="s">
-        <v>367</v>
+        <v>447</v>
       </c>
       <c r="F794" s="0" t="n">
         <v>-105.9154</v>
@@ -20050,7 +20933,7 @@
     </row>
     <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B795" s="3" t="n">
         <v>45315</v>
@@ -20068,7 +20951,7 @@
     </row>
     <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B796" s="3" t="n">
         <v>45404</v>
@@ -20080,7 +20963,7 @@
         <v>0</v>
       </c>
       <c r="E796" s="4" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="F796" s="0" t="n">
         <v>-105.9154</v>
@@ -20094,7 +20977,7 @@
     </row>
     <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B797" s="3" t="n">
         <v>45405</v>
@@ -20106,7 +20989,7 @@
         <v>0</v>
       </c>
       <c r="E797" s="4" t="s">
-        <v>369</v>
+        <v>449</v>
       </c>
       <c r="F797" s="0" t="n">
         <v>-105.9154</v>
@@ -20120,7 +21003,7 @@
     </row>
     <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B798" s="3" t="n">
         <v>45495</v>
@@ -20146,7 +21029,7 @@
     </row>
     <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B799" s="3" t="n">
         <v>45496</v>
@@ -20172,7 +21055,7 @@
     </row>
     <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B800" s="3" t="n">
         <v>45586</v>
@@ -20184,7 +21067,7 @@
         <v>0</v>
       </c>
       <c r="E800" s="4" t="s">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="F800" s="0" t="n">
         <v>-105.9154</v>
@@ -20198,7 +21081,7 @@
     </row>
     <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B801" s="3" t="n">
         <v>45676</v>
@@ -20216,7 +21099,7 @@
     </row>
     <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B802" s="3" t="n">
         <v>45678</v>
@@ -20307,8 +21190,8 @@
     <hyperlink ref="E137" r:id="rId72" display="glees_2024_02_24_062405.jpg (1296×960)"/>
     <hyperlink ref="E140" r:id="rId73" display="glees_2024_09_23_105506.jpg (1296×960)"/>
     <hyperlink ref="E141" r:id="rId74" display="glees_2024_11_22_142506.jpg (1296×960)"/>
-    <hyperlink ref="E142" r:id="rId75" display="https://phenocam.nau.edu/webcam/browse/glees/2024/12/24/"/>
-    <hyperlink ref="E143" r:id="rId76" display="https://phenocam.nau.edu/data/archive/glees/2025/02/glees_2025_02_22_122505.jpg"/>
+    <hyperlink ref="E142" r:id="rId75" display="day after https://phenocam.nau.edu/webcam/browse/glees/2024/12/24/"/>
+    <hyperlink ref="E143" r:id="rId76" display="day after https://phenocam.nau.edu/data/archive/glees/2025/02/glees_2025_02_22_122505.jpg"/>
     <hyperlink ref="E213" r:id="rId77" display="lacclair_2019_05_06_103005.jpg (1296×960) (nau.edu)"/>
     <hyperlink ref="E214" r:id="rId78" display="lacclair_2019_07_13_193005.jpg (1296×960) (nau.edu)"/>
     <hyperlink ref="E215" r:id="rId79" display="lacclair_2019_08_11_180005.jpg (1296×960) (nau.edu)"/>
